--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HD/Users/tm/Documents/Code/swgoh-shard-payout/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CAC38817-8CDE-8E46-9544-61E4A6B255F1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C013C5-23DB-A740-96E4-266679754C96}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15640" yWindow="1140" windowWidth="28800" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="7420" windowWidth="28800" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
   <definedNames>
     <definedName name="Z_6B6C704A_4C22_4616_B5BC_59850AE98E27_.wvu.Cols" localSheetId="0" hidden="1">Sheet1!$C:$D,Sheet1!$F:$G</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="124">
   <si>
     <t>Name</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>https://swgoh.gg/u/rikk91/</t>
+  </si>
+  <si>
+    <t>:flat_at:</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1457,7 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2274,7 +2277,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="G11" s="31" t="s">
         <v>92</v>
@@ -2353,7 +2356,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G12" s="31" t="s">
         <v>100</v>
@@ -5145,11 +5148,11 @@
     <sortCondition ref="D2:D38"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
+      <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
-      <selection sqref="A1:XFD1048576"/>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C013C5-23DB-A740-96E4-266679754C96}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D7FE16-2260-9949-9340-9AA0A7F50CDB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="7420" windowWidth="28800" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5480" yWindow="6540" windowWidth="28800" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179021"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -1457,7 +1457,7 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2197,8 +2197,8 @@
       <c r="E10" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>95</v>
+      <c r="F10" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="G10" s="31" t="s">
         <v>122</v>
@@ -5148,11 +5148,11 @@
     <sortCondition ref="D2:D38"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D7FE16-2260-9949-9340-9AA0A7F50CDB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6F0E56-E9C3-6C46-8715-637CF64EA0EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="6540" windowWidth="28800" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12560" yWindow="5220" windowWidth="28800" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179021"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -405,7 +405,7 @@
     <t>https://swgoh.gg/u/rikk91/</t>
   </si>
   <si>
-    <t>:flat_at:</t>
+    <t>:flag_at:</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1457,7 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5148,11 +5148,11 @@
     <sortCondition ref="D2:D38"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
+      <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
-      <selection sqref="A1:XFD1048576"/>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6F0E56-E9C3-6C46-8715-637CF64EA0EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD5BEA6-0AFB-3842-8A9B-0230D8BA527B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12560" yWindow="5220" windowWidth="28800" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17700" yWindow="6260" windowWidth="28800" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1457,7 +1457,7 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1467,7 +1467,7 @@
     <col min="3" max="3" width="6.83203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.6640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" style="4" bestFit="1" customWidth="1"/>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD5BEA6-0AFB-3842-8A9B-0230D8BA527B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFA2674-5B0E-D143-830A-FC8F3A494B61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17700" yWindow="6260" windowWidth="28800" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179021"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="138">
   <si>
     <t>Name</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Raucous</t>
   </si>
   <si>
-    <t>Eddie</t>
-  </si>
-  <si>
     <t>PDT</t>
   </si>
   <si>
@@ -406,6 +403,51 @@
   </si>
   <si>
     <t>:flag_at:</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/darkness39/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/landogerton/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/spook1322/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/fajhajaba/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/zombiegnome/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/jvu420/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/droopy/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/chiefnorbitthegreat/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/raucous1/</t>
+  </si>
+  <si>
+    <t>Eddie (IGN Aaron)</t>
+  </si>
+  <si>
+    <t>:flag_tw:</t>
+  </si>
+  <si>
+    <t>:flag_gb:</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/varlie/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/broly/</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
   </si>
 </sst>
 </file>
@@ -415,7 +457,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,8 +516,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,8 +562,20 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF305496"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -710,12 +772,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="dashDot">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -769,6 +864,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -781,40 +878,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="46">
     <dxf>
       <fill>
         <patternFill>
@@ -1457,7 +1528,7 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1570,7 +1641,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="6" t="s">
@@ -1634,7 +1705,7 @@
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="38" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
@@ -1643,10 +1714,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="6" t="s">
@@ -1708,7 +1779,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="41" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -1721,13 +1792,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="G4" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -1789,7 +1860,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="19" t="s">
         <v>42</v>
       </c>
@@ -1806,7 +1877,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -1868,7 +1939,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="13" t="s">
         <v>43</v>
       </c>
@@ -1879,13 +1950,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -1947,7 +2018,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="19" t="s">
         <v>44</v>
       </c>
@@ -1961,10 +2032,10 @@
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2026,7 +2097,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="13" t="s">
         <v>45</v>
       </c>
@@ -2040,10 +2111,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2105,7 +2176,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="19" t="s">
         <v>46</v>
       </c>
@@ -2116,13 +2187,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="G9" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H9" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2184,9 +2255,9 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="7">
         <v>13</v>
@@ -2195,13 +2266,13 @@
         <v>13</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2263,7 +2334,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="19" t="s">
         <v>49</v>
       </c>
@@ -2277,10 +2348,10 @@
         <v>16</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2342,7 +2413,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="19" t="s">
         <v>50</v>
       </c>
@@ -2359,7 +2430,7 @@
         <v>19</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H12" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2421,7 +2492,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="19" t="s">
         <v>51</v>
       </c>
@@ -2438,7 +2509,7 @@
         <v>48</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H13" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2500,7 +2571,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="19" t="s">
         <v>52</v>
       </c>
@@ -2517,7 +2588,7 @@
         <v>48</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H14" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2579,7 +2650,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="19" t="s">
         <v>53</v>
       </c>
@@ -2596,7 +2667,7 @@
         <v>48</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2658,7 +2729,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="13" t="s">
         <v>54</v>
       </c>
@@ -2675,7 +2746,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H16" s="29" t="s">
         <v>12</v>
@@ -2736,7 +2807,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="19" t="s">
         <v>55</v>
       </c>
@@ -2750,10 +2821,10 @@
         <v>31</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>12</v>
@@ -2814,7 +2885,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="19" t="s">
         <v>56</v>
       </c>
@@ -2828,10 +2899,10 @@
         <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H18" s="31" t="s">
         <v>12</v>
@@ -2892,9 +2963,9 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="7">
         <v>18</v>
@@ -2903,13 +2974,13 @@
         <v>18</v>
       </c>
       <c r="E19" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="G19" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>12</v>
@@ -2970,11 +3041,11 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="43" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="7">
         <v>19</v>
@@ -2983,13 +3054,13 @@
         <v>19</v>
       </c>
       <c r="E20" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="36" t="s">
         <v>98</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>99</v>
       </c>
       <c r="H20" s="31" t="s">
         <v>12</v>
@@ -3050,7 +3121,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="19" t="s">
         <v>57</v>
       </c>
@@ -3061,13 +3132,13 @@
         <v>20</v>
       </c>
       <c r="E21" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="G21" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>12</v>
@@ -3128,7 +3199,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="19" t="s">
         <v>32</v>
       </c>
@@ -3145,7 +3216,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H22" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3207,7 +3278,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="19" t="s">
         <v>33</v>
       </c>
@@ -3224,7 +3295,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H23" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3286,7 +3357,7 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="19" t="s">
         <v>34</v>
       </c>
@@ -3303,7 +3374,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3365,7 +3436,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="19" t="s">
         <v>35</v>
       </c>
@@ -3382,7 +3453,7 @@
         <v>22</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H25" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3444,7 +3515,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="13" t="s">
         <v>36</v>
       </c>
@@ -3461,7 +3532,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H26" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3523,7 +3594,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="19" t="s">
         <v>37</v>
       </c>
@@ -3540,7 +3611,7 @@
         <v>22</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H27" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3602,7 +3673,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="13" t="s">
         <v>38</v>
       </c>
@@ -3619,7 +3690,7 @@
         <v>22</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H28" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3681,7 +3752,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="13" t="s">
         <v>39</v>
       </c>
@@ -3694,10 +3765,12 @@
       <c r="E29" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="23"/>
+      <c r="F29" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>135</v>
+      </c>
       <c r="H29" s="31" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
@@ -3758,7 +3831,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="19" t="s">
         <v>47</v>
       </c>
@@ -3775,7 +3848,7 @@
         <v>48</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H30" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3837,9 +3910,9 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" s="7">
         <v>30</v>
@@ -3854,7 +3927,7 @@
         <v>48</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H31" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3916,7 +3989,7 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="19" t="s">
         <v>58</v>
       </c>
@@ -3933,10 +4006,10 @@
         <v>22</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I32" s="24">
         <v>0</v>
@@ -3994,7 +4067,7 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="19" t="s">
         <v>59</v>
       </c>
@@ -4011,10 +4084,10 @@
         <v>22</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I33" s="24">
         <v>0</v>
@@ -4072,7 +4145,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="19" t="s">
         <v>60</v>
       </c>
@@ -4082,15 +4155,15 @@
       <c r="D34" s="7">
         <v>33</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>77</v>
+      <c r="F34" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I34" s="24">
         <v>0</v>
@@ -4148,7 +4221,7 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="37" t="s">
         <v>61</v>
       </c>
@@ -4162,11 +4235,13 @@
         <v>30</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="31"/>
+        <v>76</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>136</v>
+      </c>
       <c r="H35" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I35" s="24">
         <v>0</v>
@@ -4224,7 +4299,7 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="19" t="s">
         <v>62</v>
       </c>
@@ -4238,11 +4313,11 @@
         <v>30</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I36" s="24">
         <v>0</v>
@@ -4300,7 +4375,7 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="42"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="37" t="s">
         <v>63</v>
       </c>
@@ -4317,10 +4392,10 @@
         <v>22</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I37" s="24">
         <v>0</v>
@@ -4378,7 +4453,7 @@
       </c>
     </row>
     <row r="38" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="42"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="19" t="s">
         <v>64</v>
       </c>
@@ -4391,12 +4466,14 @@
       <c r="E38" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" s="31"/>
+      <c r="F38" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>123</v>
+      </c>
       <c r="H38" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I38" s="24">
         <v>0</v>
@@ -4454,7 +4531,7 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="42"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="37" t="s">
         <v>65</v>
       </c>
@@ -4467,12 +4544,14 @@
       <c r="E39" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G39" s="29"/>
+      <c r="F39" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>124</v>
+      </c>
       <c r="H39" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I39" s="24">
         <v>0</v>
@@ -4530,7 +4609,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="42"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="19" t="s">
         <v>66</v>
       </c>
@@ -4544,11 +4623,13 @@
         <v>30</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="31"/>
+        <v>76</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>125</v>
+      </c>
       <c r="H40" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I40" s="24">
         <v>0</v>
@@ -4606,7 +4687,7 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="42"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="37" t="s">
         <v>67</v>
       </c>
@@ -4622,9 +4703,11 @@
       <c r="F41" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G41" s="31"/>
+      <c r="G41" s="31" t="s">
+        <v>126</v>
+      </c>
       <c r="H41" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I41" s="24">
         <v>0</v>
@@ -4682,7 +4765,7 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="42"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="19" t="s">
         <v>68</v>
       </c>
@@ -4696,9 +4779,11 @@
         <v>30</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42" s="36"/>
+        <v>76</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>127</v>
+      </c>
       <c r="H42" s="31" t="s">
         <v>13</v>
       </c>
@@ -4758,7 +4843,7 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="42"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="37" t="s">
         <v>69</v>
       </c>
@@ -4834,7 +4919,7 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="42"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="19" t="s">
         <v>70</v>
       </c>
@@ -4850,9 +4935,11 @@
       <c r="F44" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="9"/>
+      <c r="G44" s="39" t="s">
+        <v>128</v>
+      </c>
       <c r="H44" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I44" s="24">
         <v>8.3333333333333329E-2</v>
@@ -4910,7 +4997,7 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="42"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="37" t="s">
         <v>71</v>
       </c>
@@ -4924,11 +5011,13 @@
         <v>30</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H45" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I45" s="24">
         <v>8.3333333333333329E-2</v>
@@ -4986,7 +5075,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="42"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="19" t="s">
         <v>72</v>
       </c>
@@ -4999,12 +5088,14 @@
       <c r="E46" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G46" s="22"/>
+      <c r="F46" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="H46" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I46" s="24">
         <v>8.3333333333333329E-2</v>
@@ -5062,7 +5153,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="42"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="37" t="s">
         <v>73</v>
       </c>
@@ -5075,12 +5166,14 @@
       <c r="E47" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G47" s="23"/>
+      <c r="F47" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="H47" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I47" s="24">
         <v>8.3333333333333329E-2</v>
@@ -5138,21 +5231,21 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="42"/>
+      <c r="A48" s="44"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="42"/>
+      <c r="A49" s="44"/>
     </row>
   </sheetData>
   <sortState ref="B2:V38">
     <sortCondition ref="D2:D38"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -5161,251 +5254,231 @@
     <mergeCell ref="A20:A49"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:L3 K4:V47">
-    <cfRule type="expression" dxfId="49" priority="99">
+    <cfRule type="expression" dxfId="45" priority="102">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:V3">
-    <cfRule type="expression" dxfId="48" priority="101">
+    <cfRule type="expression" dxfId="44" priority="104">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24:V36 G24:G47 E30:V31 B19:B36 E19:V23 C19:D47 K32:V47 E24:F36 B2:V18">
-    <cfRule type="expression" dxfId="47" priority="105">
+  <conditionalFormatting sqref="H24:V36 G24:G43 E30:V31 B19:B36 E19:V23 C19:D47 K32:V47 B2:V18 G45:G47 E24:F33 E35:F36">
+    <cfRule type="expression" dxfId="43" priority="108">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37 J37:V37">
-    <cfRule type="expression" dxfId="46" priority="82">
+    <cfRule type="expression" dxfId="42" priority="85">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38 J38:V38">
-    <cfRule type="expression" dxfId="45" priority="80">
+    <cfRule type="expression" dxfId="41" priority="83">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39 J39:V39">
-    <cfRule type="expression" dxfId="44" priority="78">
+    <cfRule type="expression" dxfId="40" priority="81">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40 J40:V40">
-    <cfRule type="expression" dxfId="43" priority="76">
+    <cfRule type="expression" dxfId="39" priority="79">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41 J41:V41">
-    <cfRule type="expression" dxfId="42" priority="74">
+    <cfRule type="expression" dxfId="38" priority="77">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42 J42:V42">
-    <cfRule type="expression" dxfId="41" priority="72">
+    <cfRule type="expression" dxfId="37" priority="75">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43 J43:V43 E43:F43 H43">
-    <cfRule type="expression" dxfId="40" priority="70">
+    <cfRule type="expression" dxfId="36" priority="73">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="39" priority="68">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="38" priority="67">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="37" priority="66">
+    <cfRule type="expression" dxfId="35" priority="71">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="expression" dxfId="36" priority="65">
+    <cfRule type="expression" dxfId="34" priority="68">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="35" priority="64">
+    <cfRule type="expression" dxfId="33" priority="67">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42 H42">
-    <cfRule type="expression" dxfId="34" priority="63">
+    <cfRule type="expression" dxfId="32" priority="66">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44 J44:V44">
-    <cfRule type="expression" dxfId="33" priority="61">
+    <cfRule type="expression" dxfId="31" priority="64">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45 J45:V45 E45">
-    <cfRule type="expression" dxfId="32" priority="59">
+    <cfRule type="expression" dxfId="30" priority="62">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:F44 H44">
-    <cfRule type="expression" dxfId="31" priority="57">
+    <cfRule type="expression" dxfId="29" priority="60">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46 J46:V46">
-    <cfRule type="expression" dxfId="30" priority="55">
+    <cfRule type="expression" dxfId="28" priority="58">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47 J47:V47 E47">
-    <cfRule type="expression" dxfId="29" priority="53">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="expression" dxfId="28" priority="51">
+    <cfRule type="expression" dxfId="27" priority="56">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="expression" dxfId="27" priority="45">
+    <cfRule type="expression" dxfId="26" priority="48">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="26" priority="35">
+    <cfRule type="expression" dxfId="25" priority="38">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="25" priority="34">
+    <cfRule type="expression" dxfId="24" priority="37">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="24" priority="33">
+    <cfRule type="expression" dxfId="23" priority="36">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="23" priority="32">
+    <cfRule type="expression" dxfId="22" priority="35">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="expression" dxfId="22" priority="31">
+    <cfRule type="expression" dxfId="21" priority="34">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="21" priority="30">
+    <cfRule type="expression" dxfId="20" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="20" priority="29">
+    <cfRule type="expression" dxfId="19" priority="32">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="expression" dxfId="19" priority="28">
+    <cfRule type="expression" dxfId="18" priority="31">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="17" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="16" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="15" priority="22">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="14" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="expression" dxfId="14" priority="17">
+    <cfRule type="expression" dxfId="13" priority="20">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="12" priority="19">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="11" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="10" priority="17">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="9" priority="16">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="8" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="expression" dxfId="8" priority="11">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="7" priority="14">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:F39">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:F38">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:F46">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tm/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFA2674-5B0E-D143-830A-FC8F3A494B61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A52C65-636F-3948-BA59-F70965D545AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17700" yWindow="6260" windowWidth="28800" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="1240" windowWidth="25760" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179021"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="149">
   <si>
     <t>Name</t>
   </si>
@@ -216,9 +216,6 @@
     <t>Sideous</t>
   </si>
   <si>
-    <t>Darth Dentist</t>
-  </si>
-  <si>
     <t>Broly</t>
   </si>
   <si>
@@ -448,6 +445,42 @@
   </si>
   <si>
     <t>Taiwan</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/darkdentist/</t>
+  </si>
+  <si>
+    <t>Dark Dentist</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/loohoo/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/trueno0917/</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>:flag_ca:</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/miguelangel1506/</t>
+  </si>
+  <si>
+    <t>DarthSlappyJedi</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/darthslappyjedi/</t>
+  </si>
+  <si>
+    <t>EDT</t>
+  </si>
+  <si>
+    <t>Punisher09brm</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/punisher09brm/</t>
   </si>
 </sst>
 </file>
@@ -575,7 +608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -805,12 +838,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -866,6 +910,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -878,14 +928,27 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="48">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1525,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1612,15 +1675,15 @@
         <v>EDT</v>
       </c>
       <c r="T1" s="3" t="str">
-        <f>H32</f>
+        <f>H34</f>
         <v>CDT</v>
       </c>
       <c r="U1" s="3" t="str">
-        <f>H35</f>
+        <f>H37</f>
         <v>CDT</v>
       </c>
       <c r="V1" s="3" t="str">
-        <f>H36</f>
+        <f>H38</f>
         <v>CDT</v>
       </c>
     </row>
@@ -1641,9 +1704,11 @@
         <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
       </c>
@@ -1705,7 +1770,7 @@
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
@@ -1714,10 +1779,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="6" t="s">
@@ -1778,8 +1843,8 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="45" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -1792,13 +1857,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="G4" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -1859,8 +1924,8 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
+    <row r="5" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
       <c r="B5" s="19" t="s">
         <v>42</v>
       </c>
@@ -1877,7 +1942,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -1938,8 +2003,8 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
+    <row r="6" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="45"/>
       <c r="B6" s="13" t="s">
         <v>43</v>
       </c>
@@ -1950,13 +2015,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2017,8 +2082,8 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
+    <row r="7" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
       <c r="B7" s="19" t="s">
         <v>44</v>
       </c>
@@ -2032,10 +2097,10 @@
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2096,8 +2161,8 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
+    <row r="8" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
       <c r="B8" s="13" t="s">
         <v>45</v>
       </c>
@@ -2111,10 +2176,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H8" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2175,8 +2240,8 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
+    <row r="9" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="45"/>
       <c r="B9" s="19" t="s">
         <v>46</v>
       </c>
@@ -2187,13 +2252,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="G9" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2255,9 +2320,9 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="7">
         <v>13</v>
@@ -2266,13 +2331,13 @@
         <v>13</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H10" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2333,8 +2398,8 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
+    <row r="11" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="45"/>
       <c r="B11" s="19" t="s">
         <v>49</v>
       </c>
@@ -2348,10 +2413,10 @@
         <v>16</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2413,7 +2478,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="19" t="s">
         <v>50</v>
       </c>
@@ -2430,7 +2495,7 @@
         <v>19</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H12" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2492,7 +2557,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="19" t="s">
         <v>51</v>
       </c>
@@ -2509,7 +2574,7 @@
         <v>48</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H13" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2571,7 +2636,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="19" t="s">
         <v>52</v>
       </c>
@@ -2588,7 +2653,7 @@
         <v>48</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H14" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2650,7 +2715,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="19" t="s">
         <v>53</v>
       </c>
@@ -2667,7 +2732,7 @@
         <v>48</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H15" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2729,7 +2794,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="13" t="s">
         <v>54</v>
       </c>
@@ -2746,7 +2811,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H16" s="29" t="s">
         <v>12</v>
@@ -2807,7 +2872,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="19" t="s">
         <v>55</v>
       </c>
@@ -2821,10 +2886,10 @@
         <v>31</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>12</v>
@@ -2885,7 +2950,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="19" t="s">
         <v>56</v>
       </c>
@@ -2899,10 +2964,10 @@
         <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H18" s="31" t="s">
         <v>12</v>
@@ -2963,9 +3028,9 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="7">
         <v>18</v>
@@ -2974,13 +3039,13 @@
         <v>18</v>
       </c>
       <c r="E19" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="G19" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>12</v>
@@ -3041,11 +3106,11 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="47" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="7">
         <v>19</v>
@@ -3054,13 +3119,13 @@
         <v>19</v>
       </c>
       <c r="E20" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="36" t="s">
         <v>97</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>98</v>
       </c>
       <c r="H20" s="31" t="s">
         <v>12</v>
@@ -3121,7 +3186,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="19" t="s">
         <v>57</v>
       </c>
@@ -3132,13 +3197,13 @@
         <v>20</v>
       </c>
       <c r="E21" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="G21" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>12</v>
@@ -3199,7 +3264,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="19" t="s">
         <v>32</v>
       </c>
@@ -3216,7 +3281,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3277,8 +3342,8 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
+    <row r="23" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="48"/>
       <c r="B23" s="19" t="s">
         <v>33</v>
       </c>
@@ -3295,7 +3360,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H23" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3356,8 +3421,8 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="44"/>
+    <row r="24" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="48"/>
       <c r="B24" s="19" t="s">
         <v>34</v>
       </c>
@@ -3374,7 +3439,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H24" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3435,8 +3500,8 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="44"/>
+    <row r="25" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="48"/>
       <c r="B25" s="19" t="s">
         <v>35</v>
       </c>
@@ -3453,7 +3518,7 @@
         <v>22</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3514,8 +3579,8 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="44"/>
+    <row r="26" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="48"/>
       <c r="B26" s="13" t="s">
         <v>36</v>
       </c>
@@ -3532,7 +3597,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H26" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3593,8 +3658,8 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
+    <row r="27" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="48"/>
       <c r="B27" s="19" t="s">
         <v>37</v>
       </c>
@@ -3611,7 +3676,7 @@
         <v>22</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H27" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3672,8 +3737,8 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="44"/>
+    <row r="28" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="48"/>
       <c r="B28" s="13" t="s">
         <v>38</v>
       </c>
@@ -3690,7 +3755,7 @@
         <v>22</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H28" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3751,8 +3816,8 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="44"/>
+    <row r="29" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="48"/>
       <c r="B29" s="13" t="s">
         <v>39</v>
       </c>
@@ -3769,7 +3834,7 @@
         <v>22</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H29" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3830,25 +3895,25 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
-      <c r="B30" s="19" t="s">
-        <v>47</v>
+    <row r="30" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="48"/>
+      <c r="B30" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="C30" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>86</v>
+        <v>22</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="H30" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3857,68 +3922,68 @@
       <c r="I30" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J30" s="28" t="s">
+      <c r="J30" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="26">
+      <c r="K30" s="33">
         <f>$I30+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L30" s="24">
+      <c r="L30" s="17">
         <f>$I30+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M30" s="24">
+      <c r="M30" s="17">
         <f>$I30+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N30" s="24">
+      <c r="N30" s="17">
         <f>$I30+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O30" s="24">
+      <c r="O30" s="17">
         <f>$I30+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P30" s="24">
+      <c r="P30" s="17">
         <f>$I30+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q30" s="24">
+      <c r="Q30" s="17">
         <f>$I30+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R30" s="24">
+      <c r="R30" s="17">
         <f>$I30+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S30" s="24">
+      <c r="S30" s="17">
         <f>$I30+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T30" s="24">
+      <c r="T30" s="17">
         <f>$I30+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U30" s="24">
+      <c r="U30" s="17">
         <f>$I30+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V30" s="24">
+      <c r="V30" s="17">
         <f>$I30+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
+    <row r="31" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="48"/>
       <c r="B31" s="19" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="C31" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>30</v>
@@ -3926,8 +3991,8 @@
       <c r="F31" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="23" t="s">
-        <v>116</v>
+      <c r="G31" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="H31" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3988,182 +4053,185 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
+    <row r="32" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="48"/>
       <c r="B32" s="19" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C32" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="H32" s="31" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
       </c>
       <c r="I32" s="24">
-        <v>0</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="J32" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K32" s="26">
         <f>$I32+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.375</v>
       </c>
       <c r="L32" s="24">
         <f>$I32+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="M32" s="24">
         <f>$I32+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="N32" s="24">
         <f>$I32+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="O32" s="24">
         <f>$I32+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="P32" s="24">
         <f>$I32+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="Q32" s="24">
         <f>$I32+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="R32" s="24">
         <f>$I32+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>1</v>
       </c>
       <c r="S32" s="24">
         <f>$I32+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="T32" s="24">
         <f>$I32+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="U32" s="24">
         <f>$I32+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="V32" s="24">
         <f>$I32+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="48"/>
       <c r="B33" s="19" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="C33" s="7">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D33" s="7">
-        <v>32</v>
-      </c>
-      <c r="E33" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="42" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I33" s="24">
-        <v>0</v>
-      </c>
-      <c r="J33" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33" s="43">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J33" s="44" t="s">
         <v>15</v>
       </c>
       <c r="K33" s="26">
         <f>$I33+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.375</v>
       </c>
       <c r="L33" s="24">
         <f>$I33+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="M33" s="24">
         <f>$I33+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="N33" s="24">
         <f>$I33+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="O33" s="24">
         <f>$I33+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="P33" s="24">
         <f>$I33+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="Q33" s="24">
         <f>$I33+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="R33" s="24">
         <f>$I33+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>1</v>
       </c>
       <c r="S33" s="24">
         <f>$I33+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="T33" s="24">
         <f>$I33+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="U33" s="24">
         <f>$I33+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="V33" s="24">
         <f>$I33+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="44"/>
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="48"/>
       <c r="B34" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" s="7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D34" s="7">
-        <v>33</v>
-      </c>
-      <c r="E34" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="31"/>
+      <c r="G34" s="29" t="s">
+        <v>118</v>
+      </c>
       <c r="H34" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I34" s="24">
         <v>0</v>
@@ -4220,33 +4288,33 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="44"/>
-      <c r="B35" s="37" t="s">
-        <v>61</v>
+    <row r="35" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="48"/>
+      <c r="B35" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="C35" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>76</v>
+      <c r="F35" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I35" s="24">
         <v>0</v>
       </c>
-      <c r="J35" s="30" t="s">
+      <c r="J35" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K35" s="26">
@@ -4298,31 +4366,33 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
+    <row r="36" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="48"/>
       <c r="B36" s="19" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="C36" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D36" s="7">
-        <v>35</v>
-      </c>
-      <c r="E36" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="31"/>
+      <c r="F36" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>137</v>
+      </c>
       <c r="H36" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I36" s="24">
         <v>0</v>
       </c>
-      <c r="J36" s="30" t="s">
+      <c r="J36" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K36" s="26">
@@ -4374,28 +4444,28 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="44"/>
+    <row r="37" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="48"/>
       <c r="B37" s="37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D37" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="20" t="s">
-        <v>22</v>
+      <c r="F37" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I37" s="24">
         <v>0</v>
@@ -4452,28 +4522,28 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="44"/>
+    <row r="38" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="48"/>
       <c r="B38" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C38" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D38" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="20" t="s">
-        <v>22</v>
+      <c r="F38" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I38" s="24">
         <v>0</v>
@@ -4530,16 +4600,16 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="44"/>
+    <row r="39" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="48"/>
       <c r="B39" s="37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C39" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D39" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>30</v>
@@ -4547,11 +4617,11 @@
       <c r="F39" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="29" t="s">
-        <v>124</v>
+      <c r="G39" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I39" s="24">
         <v>0</v>
@@ -4608,28 +4678,28 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="44"/>
+    <row r="40" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="48"/>
       <c r="B40" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C40" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D40" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>76</v>
+      <c r="F40" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H40" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I40" s="24">
         <v>0</v>
@@ -4686,28 +4756,28 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="44"/>
+    <row r="41" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="48"/>
       <c r="B41" s="37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C41" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D41" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="31" t="s">
-        <v>126</v>
+        <v>22</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>123</v>
       </c>
       <c r="H41" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I41" s="24">
         <v>0</v>
@@ -4764,338 +4834,340 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="44"/>
+    <row r="42" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="48"/>
       <c r="B42" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C42" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D42" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G42" s="36" t="s">
-        <v>127</v>
+        <v>75</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>124</v>
       </c>
       <c r="H42" s="31" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="I42" s="24">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J42" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K42" s="26">
         <f>$I42+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L42" s="24">
         <f>$I42+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M42" s="24">
         <f>$I42+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N42" s="24">
         <f>$I42+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O42" s="24">
         <f>$I42+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P42" s="24">
         <f>$I42+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q42" s="24">
         <f>$I42+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R42" s="24">
         <f>$I42+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S42" s="24">
         <f>$I42+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T42" s="24">
         <f>$I42+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U42" s="24">
         <f>$I42+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V42" s="24">
         <f>$I42+Sheet2!B$12/24</f>
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="44"/>
+        <v>-0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="48"/>
       <c r="B43" s="37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C43" s="7">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D43" s="7">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="36"/>
-      <c r="H43" s="37" t="s">
-        <v>13</v>
+      <c r="F43" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="I43" s="24">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J43" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K43" s="26">
         <f>$I43+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L43" s="24">
         <f>$I43+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M43" s="24">
         <f>$I43+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N43" s="24">
         <f>$I43+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O43" s="24">
         <f>$I43+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P43" s="24">
         <f>$I43+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q43" s="24">
         <f>$I43+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R43" s="24">
         <f>$I43+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S43" s="24">
         <f>$I43+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T43" s="24">
         <f>$I43+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U43" s="24">
         <f>$I43+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V43" s="24">
         <f>$I43+Sheet2!B$12/24</f>
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="44"/>
+        <v>-0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="48"/>
       <c r="B44" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C44" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D44" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="39" t="s">
-        <v>128</v>
+        <v>141</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>126</v>
       </c>
       <c r="H44" s="31" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="I44" s="24">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J44" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K44" s="26">
         <f>$I44+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L44" s="24">
         <f>$I44+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M44" s="24">
         <f>$I44+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N44" s="24">
         <f>$I44+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O44" s="24">
         <f>$I44+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P44" s="24">
         <f>$I44+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q44" s="24">
         <f>$I44+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="R44" s="24">
         <f>$I44+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S44" s="24">
         <f>$I44+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T44" s="24">
         <f>$I44+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U44" s="24">
         <f>$I44+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V44" s="24">
         <f>$I44+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="44"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="48"/>
       <c r="B45" s="37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C45" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D45" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H45" s="31" t="s">
-        <v>74</v>
+      <c r="F45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="I45" s="24">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J45" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K45" s="26">
         <f>$I45+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L45" s="24">
         <f>$I45+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M45" s="24">
         <f>$I45+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N45" s="24">
         <f>$I45+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O45" s="24">
         <f>$I45+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P45" s="24">
         <f>$I45+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q45" s="24">
         <f>$I45+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="R45" s="24">
         <f>$I45+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S45" s="24">
         <f>$I45+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T45" s="24">
         <f>$I45+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U45" s="24">
         <f>$I45+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V45" s="24">
         <f>$I45+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="44"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="48"/>
       <c r="B46" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D46" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="F46" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G46" s="22" t="s">
-        <v>130</v>
+      <c r="G46" s="39" t="s">
+        <v>127</v>
       </c>
       <c r="H46" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I46" s="24">
         <v>8.3333333333333329E-2</v>
@@ -5152,28 +5224,28 @@
         <v>-0.20833333333333337</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="44"/>
+    <row r="47" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="48"/>
       <c r="B47" s="37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C47" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D47" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>131</v>
+      <c r="F47" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="H47" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I47" s="24">
         <v>8.3333333333333329E-2</v>
@@ -5230,256 +5302,422 @@
         <v>-0.20833333333333337</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="44"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="44"/>
+    <row r="48" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="48"/>
+      <c r="B48" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="7">
+        <v>45</v>
+      </c>
+      <c r="D48" s="7">
+        <v>45</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J48" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" s="26">
+        <f>$I48+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L48" s="24">
+        <f>$I48+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M48" s="24">
+        <f>$I48+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N48" s="24">
+        <f>$I48+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O48" s="24">
+        <f>$I48+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P48" s="24">
+        <f>$I48+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q48" s="24">
+        <f>$I48+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R48" s="24">
+        <f>$I48+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S48" s="24">
+        <f>$I48+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T48" s="24">
+        <f>$I48+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U48" s="24">
+        <f>$I48+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V48" s="24">
+        <f>$I48+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="48"/>
+      <c r="B49" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="7">
+        <v>46</v>
+      </c>
+      <c r="D49" s="7">
+        <v>46</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I49" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J49" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" s="26">
+        <f>$I49+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L49" s="24">
+        <f>$I49+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M49" s="24">
+        <f>$I49+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N49" s="24">
+        <f>$I49+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O49" s="24">
+        <f>$I49+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P49" s="24">
+        <f>$I49+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q49" s="24">
+        <f>$I49+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R49" s="24">
+        <f>$I49+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S49" s="24">
+        <f>$I49+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T49" s="24">
+        <f>$I49+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U49" s="24">
+        <f>$I49+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V49" s="24">
+        <f>$I49+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A50" s="48"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A51" s="48"/>
     </row>
   </sheetData>
-  <sortState ref="B2:V38">
-    <sortCondition ref="D2:D38"/>
+  <sortState ref="B2:V40">
+    <sortCondition ref="D2:D40"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
+      <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
-      <selection sqref="A1:XFD1048576"/>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
     <mergeCell ref="A4:A19"/>
-    <mergeCell ref="A20:A49"/>
+    <mergeCell ref="A20:A51"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L3 K4:V47">
-    <cfRule type="expression" dxfId="45" priority="102">
+  <conditionalFormatting sqref="K2:L3 K4:V29 K31:V49">
+    <cfRule type="expression" dxfId="47" priority="104">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:V3">
-    <cfRule type="expression" dxfId="44" priority="104">
+    <cfRule type="expression" dxfId="46" priority="106">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24:V36 G24:G43 E30:V31 B19:B36 E19:V23 C19:D47 K32:V47 B2:V18 G45:G47 E24:F33 E35:F36">
-    <cfRule type="expression" dxfId="43" priority="108">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37 J37:V37">
-    <cfRule type="expression" dxfId="42" priority="85">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38 J38:V38">
-    <cfRule type="expression" dxfId="41" priority="83">
+  <conditionalFormatting sqref="G47:G49 E37:F38 E34:F35 B2:V29 H34:V38 K33:V49 G31:G45 C31:D49 B31:B38 E31:V32">
+    <cfRule type="expression" dxfId="45" priority="110">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39 J39:V39">
-    <cfRule type="expression" dxfId="40" priority="81">
+    <cfRule type="expression" dxfId="44" priority="87">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40 J40:V40">
-    <cfRule type="expression" dxfId="39" priority="79">
+    <cfRule type="expression" dxfId="43" priority="85">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41 J41:V41">
-    <cfRule type="expression" dxfId="38" priority="77">
+    <cfRule type="expression" dxfId="42" priority="83">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42 J42:V42">
-    <cfRule type="expression" dxfId="37" priority="75">
+    <cfRule type="expression" dxfId="41" priority="81">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43 J43:V43 E43:F43 H43">
-    <cfRule type="expression" dxfId="36" priority="73">
+  <conditionalFormatting sqref="B43 J43:V43">
+    <cfRule type="expression" dxfId="40" priority="79">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="35" priority="71">
+  <conditionalFormatting sqref="B44 J44:V44">
+    <cfRule type="expression" dxfId="39" priority="77">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="B45 J45:V45 E45:F45 H45">
+    <cfRule type="expression" dxfId="38" priority="75">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" dxfId="37" priority="73">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="36" priority="70">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" dxfId="35" priority="69">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44 H44">
     <cfRule type="expression" dxfId="34" priority="68">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="33" priority="67">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42 H42">
-    <cfRule type="expression" dxfId="32" priority="66">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44 J44:V44">
-    <cfRule type="expression" dxfId="31" priority="64">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45 J45:V45 E45">
-    <cfRule type="expression" dxfId="30" priority="62">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44:F44 H44">
-    <cfRule type="expression" dxfId="29" priority="60">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B46 J46:V46">
-    <cfRule type="expression" dxfId="28" priority="58">
+    <cfRule type="expression" dxfId="33" priority="66">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47 J47:V47 E47">
-    <cfRule type="expression" dxfId="27" priority="56">
+    <cfRule type="expression" dxfId="32" priority="64">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="expression" dxfId="26" priority="48">
+  <conditionalFormatting sqref="E46:F46 H46">
+    <cfRule type="expression" dxfId="31" priority="62">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
+  <conditionalFormatting sqref="B48 J48:V48">
+    <cfRule type="expression" dxfId="30" priority="60">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49 J49:V49 E49">
+    <cfRule type="expression" dxfId="29" priority="58">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="expression" dxfId="28" priority="50">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="expression" dxfId="27" priority="40">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="expression" dxfId="26" priority="39">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
     <cfRule type="expression" dxfId="25" priority="38">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
+  <conditionalFormatting sqref="I42">
     <cfRule type="expression" dxfId="24" priority="37">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
+  <conditionalFormatting sqref="I43">
     <cfRule type="expression" dxfId="23" priority="36">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
+  <conditionalFormatting sqref="I44">
     <cfRule type="expression" dxfId="22" priority="35">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
+  <conditionalFormatting sqref="I45">
     <cfRule type="expression" dxfId="21" priority="34">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
+  <conditionalFormatting sqref="I46">
     <cfRule type="expression" dxfId="20" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="19" priority="32">
+  <conditionalFormatting sqref="H39">
+    <cfRule type="expression" dxfId="19" priority="26">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="expression" dxfId="18" priority="31">
+  <conditionalFormatting sqref="H40">
+    <cfRule type="expression" dxfId="18" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
+  <conditionalFormatting sqref="H41">
     <cfRule type="expression" dxfId="17" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
+  <conditionalFormatting sqref="H42">
     <cfRule type="expression" dxfId="16" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H43">
     <cfRule type="expression" dxfId="15" priority="22">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
+  <conditionalFormatting sqref="H47">
     <cfRule type="expression" dxfId="14" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="I47">
     <cfRule type="expression" dxfId="13" priority="20">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H48">
     <cfRule type="expression" dxfId="12" priority="19">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
+  <conditionalFormatting sqref="I48">
     <cfRule type="expression" dxfId="11" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
+  <conditionalFormatting sqref="H49">
     <cfRule type="expression" dxfId="10" priority="17">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
+  <conditionalFormatting sqref="I49">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="8" priority="15">
+  <conditionalFormatting sqref="F42">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
-    <cfRule type="expression" dxfId="7" priority="14">
+  <conditionalFormatting sqref="F44">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
+  <conditionalFormatting sqref="F47">
     <cfRule type="expression" dxfId="6" priority="10">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="expression" dxfId="5" priority="9">
+  <conditionalFormatting sqref="F39">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="expression" dxfId="4" priority="8">
+  <conditionalFormatting sqref="E41:F41">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+  <conditionalFormatting sqref="E40:F40">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39:F39">
+  <conditionalFormatting sqref="E48:F48">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38:F38">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>MOD(ROW(),2)=1</formula>
+  <conditionalFormatting sqref="K30:V30">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>K$1=$H30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46:F46">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="B30:V30">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tm/Documents/Code/swgoh-squad-arena-payout-bot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A52C65-636F-3948-BA59-F70965D545AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA38C6F-4A05-9544-A107-9AE36EDAEBE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="1240" windowWidth="25760" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,12 +29,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="152">
   <si>
     <t>Name</t>
   </si>
@@ -481,6 +486,15 @@
   </si>
   <si>
     <t>https://swgoh.gg/u/punisher09brm/</t>
+  </si>
+  <si>
+    <t>:flag_ru:</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>PETT</t>
   </si>
 </sst>
 </file>
@@ -854,7 +868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -919,6 +933,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -933,19 +950,11 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="47">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1590,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1651,19 +1660,19 @@
         <v>9</v>
       </c>
       <c r="N1" s="3" t="str">
-        <f>H4</f>
+        <f>H5</f>
         <v>CEST</v>
       </c>
       <c r="O1" s="3" t="str">
-        <f>H6</f>
-        <v>CEST</v>
-      </c>
-      <c r="P1" s="3" t="str">
         <f>H7</f>
         <v>CEST</v>
       </c>
+      <c r="P1" s="3" t="str">
+        <f>H8</f>
+        <v>CEST</v>
+      </c>
       <c r="Q1" s="3" t="str">
-        <f>H8</f>
+        <f>H9</f>
         <v>CEST</v>
       </c>
       <c r="R1" s="3" t="str">
@@ -1843,106 +1852,105 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
-        <v>29</v>
-      </c>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
       <c r="B4" s="19" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="29" t="str">
-        <f>Sheet2!$A$7</f>
-        <v>CEST</v>
+        <v>149</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>151</v>
       </c>
       <c r="I4" s="24">
-        <v>0.70833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="26">
         <f>$I4+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="L4" s="24">
         <f>$I4+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.875</v>
       </c>
       <c r="M4" s="24">
         <f>$I4+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="N4" s="24">
         <f>$I4+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="O4" s="24">
         <f>$I4+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="P4" s="24">
         <f>$I4+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="Q4" s="24">
         <f>$I4+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="R4" s="24">
         <f>$I4+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="S4" s="24">
         <f>$I4+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="T4" s="24">
         <f>$I4+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="U4" s="24">
         <f>$I4+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.25</v>
       </c>
       <c r="V4" s="24">
         <f>$I4+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.20833333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46" t="s">
+        <v>29</v>
+      </c>
       <c r="B5" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>77</v>
+        <v>105</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="H5" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -1954,7 +1962,7 @@
       <c r="J5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="26">
         <f>$I5+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2004,24 +2012,24 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="13" t="s">
-        <v>43</v>
+      <c r="A6" s="46"/>
+      <c r="B6" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>5</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>88</v>
+        <v>4</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="H6" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2033,74 +2041,74 @@
       <c r="J6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="12">
         <f>$I6+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="24">
         <f>$I6+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="24">
         <f>$I6+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="24">
         <f>$I6+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="24">
         <f>$I6+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="24">
         <f>$I6+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="24">
         <f>$I6+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="24">
         <f>$I6+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S6" s="24">
         <f>$I6+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="24">
         <f>$I6+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U6" s="17">
+      <c r="U6" s="24">
         <f>$I6+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V6" s="17">
+      <c r="V6" s="24">
         <f>$I6+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="19" t="s">
-        <v>44</v>
+      <c r="A7" s="46"/>
+      <c r="B7" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>6</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>86</v>
+        <v>114</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="H7" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2112,74 +2120,74 @@
       <c r="J7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="27">
         <f>$I7+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="17">
         <f>$I7+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="17">
         <f>$I7+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="17">
         <f>$I7+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="17">
         <f>$I7+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="17">
         <f>$I7+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="17">
         <f>$I7+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R7" s="17">
         <f>$I7+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S7" s="24">
+      <c r="S7" s="17">
         <f>$I7+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T7" s="24">
+      <c r="T7" s="17">
         <f>$I7+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U7" s="24">
+      <c r="U7" s="17">
         <f>$I7+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V7" s="24">
+      <c r="V7" s="17">
         <f>$I7+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="13" t="s">
-        <v>45</v>
+      <c r="A8" s="46"/>
+      <c r="B8" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>7</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>89</v>
+        <v>110</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="H8" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2188,156 +2196,156 @@
       <c r="I8" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="26">
         <f>$I8+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="24">
         <f>$I8+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="24">
         <f>$I8+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="24">
         <f>$I8+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="24">
         <f>$I8+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="24">
         <f>$I8+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="24">
         <f>$I8+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="24">
         <f>$I8+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="24">
         <f>$I8+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="24">
         <f>$I8+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U8" s="17">
+      <c r="U8" s="24">
         <f>$I8+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V8" s="17">
+      <c r="V8" s="24">
         <f>$I8+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="19" t="s">
-        <v>46</v>
+      <c r="A9" s="46"/>
+      <c r="B9" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C9" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>8</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>92</v>
+        <v>7</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="31" t="str">
+        <v>75</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="29" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
       <c r="I9" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="27">
         <f>$I9+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="17">
         <f>$I9+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="17">
         <f>$I9+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="17">
         <f>$I9+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="17">
         <f>$I9+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="17">
         <f>$I9+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="17">
         <f>$I9+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="17">
         <f>$I9+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S9" s="24">
+      <c r="S9" s="17">
         <f>$I9+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T9" s="24">
+      <c r="T9" s="17">
         <f>$I9+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U9" s="24">
+      <c r="U9" s="17">
         <f>$I9+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V9" s="24">
+      <c r="V9" s="17">
         <f>$I9+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
+    <row r="10" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
       <c r="B10" s="19" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>48</v>
+      <c r="F10" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="H10" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2346,7 +2354,7 @@
       <c r="I10" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K10" s="26">
@@ -2399,7 +2407,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="19" t="s">
         <v>49</v>
       </c>
@@ -2478,7 +2486,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="19" t="s">
         <v>50</v>
       </c>
@@ -2557,7 +2565,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="19" t="s">
         <v>51</v>
       </c>
@@ -2636,7 +2644,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="19" t="s">
         <v>52</v>
       </c>
@@ -2715,7 +2723,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="19" t="s">
         <v>53</v>
       </c>
@@ -2794,7 +2802,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="13" t="s">
         <v>54</v>
       </c>
@@ -2872,7 +2880,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="19" t="s">
         <v>55</v>
       </c>
@@ -2950,7 +2958,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="19" t="s">
         <v>56</v>
       </c>
@@ -3028,7 +3036,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="34" t="s">
         <v>112</v>
       </c>
@@ -3106,7 +3114,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -3186,7 +3194,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="19" t="s">
         <v>57</v>
       </c>
@@ -3264,7 +3272,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="19" t="s">
         <v>32</v>
       </c>
@@ -3343,7 +3351,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="19" t="s">
         <v>33</v>
       </c>
@@ -3422,7 +3430,7 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="19" t="s">
         <v>34</v>
       </c>
@@ -3501,7 +3509,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="19" t="s">
         <v>35</v>
       </c>
@@ -3580,7 +3588,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="13" t="s">
         <v>36</v>
       </c>
@@ -3659,7 +3667,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="19" t="s">
         <v>37</v>
       </c>
@@ -3738,7 +3746,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="13" t="s">
         <v>38</v>
       </c>
@@ -3817,7 +3825,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="13" t="s">
         <v>39</v>
       </c>
@@ -3896,7 +3904,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="13" t="s">
         <v>147</v>
       </c>
@@ -3975,7 +3983,7 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="48"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="19" t="s">
         <v>47</v>
       </c>
@@ -4054,7 +4062,7 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="19" t="s">
         <v>116</v>
       </c>
@@ -4133,7 +4141,7 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="19" t="s">
         <v>144</v>
       </c>
@@ -4211,7 +4219,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="48"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="19" t="s">
         <v>58</v>
       </c>
@@ -4289,7 +4297,7 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="48"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="19" t="s">
         <v>59</v>
       </c>
@@ -4367,7 +4375,7 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="19" t="s">
         <v>138</v>
       </c>
@@ -4445,7 +4453,7 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="48"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="37" t="s">
         <v>60</v>
       </c>
@@ -4523,7 +4531,7 @@
       </c>
     </row>
     <row r="38" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="48"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="19" t="s">
         <v>61</v>
       </c>
@@ -4601,7 +4609,7 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="48"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="37" t="s">
         <v>62</v>
       </c>
@@ -4679,7 +4687,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="19" t="s">
         <v>63</v>
       </c>
@@ -4757,7 +4765,7 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="48"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="37" t="s">
         <v>64</v>
       </c>
@@ -4835,7 +4843,7 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="48"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="19" t="s">
         <v>65</v>
       </c>
@@ -4913,7 +4921,7 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="48"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="37" t="s">
         <v>66</v>
       </c>
@@ -4991,7 +4999,7 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="48"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="19" t="s">
         <v>67</v>
       </c>
@@ -5069,7 +5077,7 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="48"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="37" t="s">
         <v>68</v>
       </c>
@@ -5147,7 +5155,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="48"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="19" t="s">
         <v>69</v>
       </c>
@@ -5225,7 +5233,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="48"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="37" t="s">
         <v>70</v>
       </c>
@@ -5303,7 +5311,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="48"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="19" t="s">
         <v>71</v>
       </c>
@@ -5381,7 +5389,7 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="48"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="37" t="s">
         <v>72</v>
       </c>
@@ -5459,10 +5467,10 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A50" s="48"/>
+      <c r="A50" s="49"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
+      <c r="A51" s="49"/>
     </row>
   </sheetData>
   <sortState ref="B2:V40">
@@ -5478,242 +5486,237 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
-    <mergeCell ref="A4:A19"/>
+    <mergeCell ref="A5:A19"/>
     <mergeCell ref="A20:A51"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L3 K4:V29 K31:V49">
-    <cfRule type="expression" dxfId="47" priority="104">
+  <conditionalFormatting sqref="K2:L4 K4:V49">
+    <cfRule type="expression" dxfId="46" priority="104">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:V3">
-    <cfRule type="expression" dxfId="46" priority="106">
+  <conditionalFormatting sqref="K2:V4">
+    <cfRule type="expression" dxfId="45" priority="106">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47:G49 E37:F38 E34:F35 B2:V29 H34:V38 K33:V49 G31:G45 C31:D49 B31:B38 E31:V32">
-    <cfRule type="expression" dxfId="45" priority="110">
+  <conditionalFormatting sqref="G47:G49 E37:F38 E34:F35 H34:V38 K33:V49 G31:G45 C31:D49 B31:B38 E31:V32 B2:V29">
+    <cfRule type="expression" dxfId="44" priority="110">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39 J39:V39">
-    <cfRule type="expression" dxfId="44" priority="87">
+    <cfRule type="expression" dxfId="43" priority="87">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40 J40:V40">
-    <cfRule type="expression" dxfId="43" priority="85">
+    <cfRule type="expression" dxfId="42" priority="85">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41 J41:V41">
-    <cfRule type="expression" dxfId="42" priority="83">
+    <cfRule type="expression" dxfId="41" priority="83">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42 J42:V42">
-    <cfRule type="expression" dxfId="41" priority="81">
+    <cfRule type="expression" dxfId="40" priority="81">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43 J43:V43">
-    <cfRule type="expression" dxfId="40" priority="79">
+    <cfRule type="expression" dxfId="39" priority="79">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44 J44:V44">
-    <cfRule type="expression" dxfId="39" priority="77">
+    <cfRule type="expression" dxfId="38" priority="77">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45 J45:V45 E45:F45 H45">
-    <cfRule type="expression" dxfId="38" priority="75">
+    <cfRule type="expression" dxfId="37" priority="75">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="37" priority="73">
+    <cfRule type="expression" dxfId="36" priority="73">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="36" priority="70">
+    <cfRule type="expression" dxfId="35" priority="70">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="35" priority="69">
+    <cfRule type="expression" dxfId="34" priority="69">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44 H44">
-    <cfRule type="expression" dxfId="34" priority="68">
+    <cfRule type="expression" dxfId="33" priority="68">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46 J46:V46">
-    <cfRule type="expression" dxfId="33" priority="66">
+    <cfRule type="expression" dxfId="32" priority="66">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47 J47:V47 E47">
-    <cfRule type="expression" dxfId="32" priority="64">
+    <cfRule type="expression" dxfId="31" priority="64">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:F46 H46">
-    <cfRule type="expression" dxfId="31" priority="62">
+    <cfRule type="expression" dxfId="30" priority="62">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48 J48:V48">
-    <cfRule type="expression" dxfId="30" priority="60">
+    <cfRule type="expression" dxfId="29" priority="60">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49 J49:V49 E49">
-    <cfRule type="expression" dxfId="29" priority="58">
+    <cfRule type="expression" dxfId="28" priority="58">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="expression" dxfId="28" priority="50">
+    <cfRule type="expression" dxfId="27" priority="50">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="27" priority="40">
+    <cfRule type="expression" dxfId="26" priority="40">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="26" priority="39">
+    <cfRule type="expression" dxfId="25" priority="39">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="expression" dxfId="25" priority="38">
+    <cfRule type="expression" dxfId="24" priority="38">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="24" priority="37">
+    <cfRule type="expression" dxfId="23" priority="37">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="23" priority="36">
+    <cfRule type="expression" dxfId="22" priority="36">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="expression" dxfId="22" priority="35">
+    <cfRule type="expression" dxfId="21" priority="35">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="21" priority="34">
+    <cfRule type="expression" dxfId="20" priority="34">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="expression" dxfId="20" priority="33">
+    <cfRule type="expression" dxfId="19" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="19" priority="26">
+    <cfRule type="expression" dxfId="18" priority="26">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="expression" dxfId="18" priority="25">
+    <cfRule type="expression" dxfId="17" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="expression" dxfId="17" priority="24">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="16" priority="23">
+    <cfRule type="expression" dxfId="15" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="expression" dxfId="15" priority="22">
+    <cfRule type="expression" dxfId="14" priority="22">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="14" priority="21">
+    <cfRule type="expression" dxfId="13" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="expression" dxfId="13" priority="20">
+    <cfRule type="expression" dxfId="12" priority="20">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="expression" dxfId="12" priority="19">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="expression" dxfId="11" priority="18">
+    <cfRule type="expression" dxfId="10" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="expression" dxfId="10" priority="17">
+    <cfRule type="expression" dxfId="9" priority="17">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="9" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:F41">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:F40">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:F48">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30:V30">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>K$1=$H30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:V30">
@@ -5731,7 +5734,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA38C6F-4A05-9544-A107-9AE36EDAEBE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF9460C-A099-054B-99C9-0709FCF35E51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="1240" windowWidth="25760" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179021"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -494,7 +494,7 @@
     <t>Russia</t>
   </si>
   <si>
-    <t>PETT</t>
+    <t>VLAS</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1876,58 +1876,58 @@
         <v>151</v>
       </c>
       <c r="I4" s="24">
-        <v>0.5</v>
+        <v>11.458333333333334</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="26">
         <f>$I4+Sheet2!B$1/24</f>
-        <v>0.91666666666666674</v>
+        <v>11.875</v>
       </c>
       <c r="L4" s="24">
         <f>$I4+Sheet2!B$2/24</f>
-        <v>0.875</v>
+        <v>11.833333333333334</v>
       </c>
       <c r="M4" s="24">
         <f>$I4+Sheet2!B$3/24</f>
-        <v>0.83333333333333326</v>
+        <v>11.791666666666668</v>
       </c>
       <c r="N4" s="24">
         <f>$I4+Sheet2!B$4/24</f>
-        <v>0.625</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="O4" s="24">
         <f>$I4+Sheet2!B$5/24</f>
-        <v>0.625</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="P4" s="24">
         <f>$I4+Sheet2!B$6/24</f>
-        <v>0.625</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="Q4" s="24">
         <f>$I4+Sheet2!B$7/24</f>
-        <v>0.58333333333333337</v>
+        <v>11.541666666666668</v>
       </c>
       <c r="R4" s="24">
         <f>$I4+Sheet2!B$8/24</f>
-        <v>0.54166666666666663</v>
+        <v>11.5</v>
       </c>
       <c r="S4" s="24">
         <f>$I4+Sheet2!B$9/24</f>
-        <v>0.33333333333333337</v>
+        <v>11.291666666666668</v>
       </c>
       <c r="T4" s="24">
         <f>$I4+Sheet2!B$10/24</f>
-        <v>0.29166666666666663</v>
+        <v>11.25</v>
       </c>
       <c r="U4" s="24">
         <f>$I4+Sheet2!B$11/24</f>
-        <v>0.25</v>
+        <v>11.208333333333334</v>
       </c>
       <c r="V4" s="24">
         <f>$I4+Sheet2!B$12/24</f>
-        <v>0.20833333333333331</v>
+        <v>11.166666666666668</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="17" x14ac:dyDescent="0.2">
@@ -5477,11 +5477,11 @@
     <sortCondition ref="D2:D40"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF9460C-A099-054B-99C9-0709FCF35E51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECF0470-F7B0-BF4B-9A33-11695E2CB0F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="1240" windowWidth="25760" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="1240" windowWidth="33700" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="154">
   <si>
     <t>Name</t>
   </si>
@@ -495,6 +495,12 @@
   </si>
   <si>
     <t>VLAS</t>
+  </si>
+  <si>
+    <t>PSUlion</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/psulion/</t>
   </si>
 </sst>
 </file>
@@ -868,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -929,6 +935,9 @@
     <xf numFmtId="164" fontId="7" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1597,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1660,11 +1669,11 @@
         <v>9</v>
       </c>
       <c r="N1" s="3" t="str">
-        <f>H5</f>
+        <f>H11</f>
         <v>CEST</v>
       </c>
       <c r="O1" s="3" t="str">
-        <f>H7</f>
+        <f>H6</f>
         <v>CEST</v>
       </c>
       <c r="P1" s="3" t="str">
@@ -1672,27 +1681,27 @@
         <v>CEST</v>
       </c>
       <c r="Q1" s="3" t="str">
-        <f>H9</f>
+        <f>H12</f>
         <v>CEST</v>
       </c>
       <c r="R1" s="3" t="str">
-        <f>H19</f>
+        <f>H18</f>
         <v>BST</v>
       </c>
       <c r="S1" s="3" t="str">
-        <f>H22</f>
+        <f>H32</f>
         <v>EDT</v>
       </c>
       <c r="T1" s="3" t="str">
-        <f>H34</f>
+        <f>H42</f>
         <v>CDT</v>
       </c>
       <c r="U1" s="3" t="str">
-        <f>H37</f>
+        <f>H36</f>
         <v>CDT</v>
       </c>
       <c r="V1" s="3" t="str">
-        <f>H38</f>
+        <f>H39</f>
         <v>CDT</v>
       </c>
     </row>
@@ -1858,7 +1867,7 @@
         <v>119</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
         <v>13</v>
@@ -1930,39 +1939,37 @@
         <v>11.166666666666668</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>29</v>
-      </c>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="46"/>
       <c r="B5" s="19" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="29" t="str">
+        <v>20</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="31" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
       <c r="I5" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="12">
         <f>$I5+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2012,24 +2019,26 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="19" t="s">
-        <v>42</v>
+      <c r="A6" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>4</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>77</v>
+        <v>2</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="H6" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2041,74 +2050,74 @@
       <c r="J6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="27">
         <f>$I6+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="17">
         <f>$I6+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="17">
         <f>$I6+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="17">
         <f>$I6+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="17">
         <f>$I6+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="17">
         <f>$I6+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="17">
         <f>$I6+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="17">
         <f>$I6+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S6" s="24">
+      <c r="S6" s="17">
         <f>$I6+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T6" s="24">
+      <c r="T6" s="17">
         <f>$I6+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U6" s="24">
+      <c r="U6" s="17">
         <f>$I6+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V6" s="24">
+      <c r="V6" s="17">
         <f>$I6+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="13" t="s">
-        <v>43</v>
+      <c r="A7" s="47"/>
+      <c r="B7" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>88</v>
+        <v>3</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="H7" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2120,65 +2129,65 @@
       <c r="J7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="12">
         <f>$I7+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="24">
         <f>$I7+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="24">
         <f>$I7+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="24">
         <f>$I7+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="24">
         <f>$I7+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="24">
         <f>$I7+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="24">
         <f>$I7+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="24">
         <f>$I7+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="24">
         <f>$I7+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="24">
         <f>$I7+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U7" s="17">
+      <c r="U7" s="24">
         <f>$I7+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V7" s="17">
+      <c r="V7" s="24">
         <f>$I7+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>20</v>
@@ -2248,104 +2257,104 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="13" t="s">
-        <v>45</v>
+    <row r="9" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="47"/>
+      <c r="B9" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="C9" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>7</v>
-      </c>
-      <c r="E9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="29" t="str">
+      <c r="F9" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="31" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
       <c r="I9" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="26">
         <f>$I9+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="24">
         <f>$I9+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="24">
         <f>$I9+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="24">
         <f>$I9+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="24">
         <f>$I9+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="24">
         <f>$I9+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="24">
         <f>$I9+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="24">
         <f>$I9+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="24">
         <f>$I9+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="24">
         <f>$I9+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U9" s="17">
+      <c r="U9" s="24">
         <f>$I9+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V9" s="17">
+      <c r="V9" s="24">
         <f>$I9+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
+    <row r="10" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="47"/>
       <c r="B10" s="19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>18</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H10" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2354,10 +2363,10 @@
       <c r="I10" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="12">
         <f>$I10+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2407,26 +2416,26 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="19" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>9</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="31" t="str">
+        <v>3</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="29" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
@@ -2436,7 +2445,7 @@
       <c r="J11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="26">
         <f>$I11+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2485,104 +2494,104 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="19" t="s">
-        <v>50</v>
+    <row r="12" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C12" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>10</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="31" t="str">
+        <v>7</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="29" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
       <c r="I12" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="27">
         <f>$I12+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="17">
         <f>$I12+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="17">
         <f>$I12+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="17">
         <f>$I12+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="17">
         <f>$I12+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="17">
         <f>$I12+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="17">
         <f>$I12+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="17">
         <f>$I12+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S12" s="24">
+      <c r="S12" s="17">
         <f>$I12+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T12" s="24">
+      <c r="T12" s="17">
         <f>$I12+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U12" s="24">
+      <c r="U12" s="17">
         <f>$I12+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V12" s="24">
+      <c r="V12" s="17">
         <f>$I12+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="7">
         <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H13" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2594,7 +2603,7 @@
       <c r="J13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="26">
         <f>$I13+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2643,25 +2652,25 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
+    <row r="14" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
       <c r="B14" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>12</v>
-      </c>
-      <c r="E14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H14" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2670,10 +2679,10 @@
       <c r="I14" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="12">
         <f>$I14+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2722,25 +2731,25 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
+    <row r="15" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
       <c r="B15" s="19" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C15" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D15" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>48</v>
+        <v>92</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="H15" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2749,10 +2758,10 @@
       <c r="I15" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="26">
         <f>$I15+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2801,181 +2810,181 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="13" t="s">
-        <v>54</v>
+    <row r="16" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="47"/>
+      <c r="B16" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16" s="7">
-        <v>15</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="31" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="17">
         <v>0.75</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="26">
         <f>$I16+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="24">
         <f>$I16+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="24">
         <f>$I16+Sheet2!B$3/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="24">
         <f>$I16+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="24">
         <f>$I16+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="24">
         <f>$I16+Sheet2!B$6/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="24">
         <f>$I16+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R16" s="24">
         <f>$I16+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="24">
         <f>$I16+Sheet2!B$9/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="T16" s="17">
+      <c r="T16" s="24">
         <f>$I16+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U16" s="17">
+      <c r="U16" s="24">
         <f>$I16+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="V16" s="17">
+      <c r="V16" s="24">
         <f>$I16+Sheet2!B$12/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="19" t="s">
-        <v>55</v>
+      <c r="A17" s="47"/>
+      <c r="B17" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>16</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="29" t="s">
         <v>12</v>
       </c>
       <c r="I17" s="17">
         <v>0.75</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="33">
         <f>$I17+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="17">
         <f>$I17+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="17">
         <f>$I17+Sheet2!B$3/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="17">
         <f>$I17+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="17">
         <f>$I17+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="17">
         <f>$I17+Sheet2!B$6/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="17">
         <f>$I17+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R17" s="24">
+      <c r="R17" s="17">
         <f>$I17+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="S17" s="24">
+      <c r="S17" s="17">
         <f>$I17+Sheet2!B$9/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="T17" s="24">
+      <c r="T17" s="17">
         <f>$I17+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U17" s="24">
+      <c r="U17" s="17">
         <f>$I17+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="V17" s="24">
+      <c r="V17" s="17">
         <f>$I17+Sheet2!B$12/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="19" t="s">
-        <v>56</v>
+      <c r="A18" s="47"/>
+      <c r="B18" s="34" t="s">
+        <v>112</v>
       </c>
       <c r="C18" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="H18" s="31" t="s">
         <v>12</v>
@@ -3037,23 +3046,23 @@
     </row>
     <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
-      <c r="B19" s="34" t="s">
-        <v>112</v>
+      <c r="B19" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="C19" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>113</v>
+        <v>133</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>102</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>12</v>
@@ -3114,9 +3123,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48" t="s">
-        <v>21</v>
-      </c>
+      <c r="A20" s="48"/>
       <c r="B20" s="19" t="s">
         <v>94</v>
       </c>
@@ -3194,7 +3201,9 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
+      <c r="A21" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="B21" s="19" t="s">
         <v>57</v>
       </c>
@@ -3271,25 +3280,25 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
+    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="50"/>
       <c r="B22" s="19" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="C22" s="7">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>83</v>
+        <v>48</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="H22" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3350,34 +3359,33 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
+    <row r="23" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="50"/>
       <c r="B23" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="7">
         <v>33</v>
       </c>
-      <c r="C23" s="7">
+      <c r="D23" s="7">
+        <v>47</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="7">
-        <v>22</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="31" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I23" s="24">
+      <c r="G23" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" s="43">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="J23" s="44" t="s">
         <v>15</v>
       </c>
       <c r="K23" s="26">
@@ -3430,15 +3438,15 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
-      <c r="B24" s="19" t="s">
-        <v>34</v>
+      <c r="A24" s="50"/>
+      <c r="B24" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="C24" s="7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D24" s="7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>30</v>
@@ -3446,8 +3454,8 @@
       <c r="F24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>79</v>
+      <c r="G24" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="H24" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3459,7 +3467,7 @@
       <c r="J24" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="12">
         <f>$I24+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -3509,15 +3517,15 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
-      <c r="B25" s="19" t="s">
-        <v>35</v>
+      <c r="A25" s="50"/>
+      <c r="B25" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="C25" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>30</v>
@@ -3525,8 +3533,8 @@
       <c r="F25" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>80</v>
+      <c r="G25" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="H25" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3588,15 +3596,15 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
-      <c r="B26" s="13" t="s">
-        <v>36</v>
+      <c r="A26" s="50"/>
+      <c r="B26" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C26" s="7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D26" s="7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>30</v>
@@ -3604,8 +3612,8 @@
       <c r="F26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="22" t="s">
-        <v>117</v>
+      <c r="G26" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="H26" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3667,15 +3675,15 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="19" t="s">
-        <v>37</v>
+      <c r="A27" s="50"/>
+      <c r="B27" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="C27" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D27" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>30</v>
@@ -3684,7 +3692,7 @@
         <v>22</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="H27" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3693,68 +3701,68 @@
       <c r="I27" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J27" s="28" t="s">
+      <c r="J27" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="33">
         <f>$I27+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="17">
         <f>$I27+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M27" s="17">
         <f>$I27+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N27" s="17">
         <f>$I27+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O27" s="24">
+      <c r="O27" s="17">
         <f>$I27+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P27" s="24">
+      <c r="P27" s="17">
         <f>$I27+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q27" s="24">
+      <c r="Q27" s="17">
         <f>$I27+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R27" s="24">
+      <c r="R27" s="17">
         <f>$I27+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S27" s="24">
+      <c r="S27" s="17">
         <f>$I27+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T27" s="24">
+      <c r="T27" s="17">
         <f>$I27+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U27" s="24">
+      <c r="U27" s="17">
         <f>$I27+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V27" s="24">
+      <c r="V27" s="17">
         <f>$I27+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
-      <c r="B28" s="13" t="s">
-        <v>38</v>
+      <c r="A28" s="50"/>
+      <c r="B28" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="C28" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D28" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>30</v>
@@ -3762,8 +3770,8 @@
       <c r="F28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>78</v>
+      <c r="G28" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="H28" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3775,7 +3783,7 @@
       <c r="J28" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="26">
         <f>$I28+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -3825,15 +3833,15 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
-      <c r="B29" s="13" t="s">
-        <v>39</v>
+      <c r="A29" s="50"/>
+      <c r="B29" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C29" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>30</v>
@@ -3842,7 +3850,7 @@
         <v>22</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="H29" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3851,77 +3859,77 @@
       <c r="I29" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="J29" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="12">
         <f>$I29+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="24">
         <f>$I29+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="24">
         <f>$I29+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="24">
         <f>$I29+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O29" s="17">
+      <c r="O29" s="24">
         <f>$I29+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P29" s="17">
+      <c r="P29" s="24">
         <f>$I29+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q29" s="17">
+      <c r="Q29" s="24">
         <f>$I29+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R29" s="17">
+      <c r="R29" s="24">
         <f>$I29+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S29" s="17">
+      <c r="S29" s="24">
         <f>$I29+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T29" s="17">
+      <c r="T29" s="24">
         <f>$I29+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U29" s="17">
+      <c r="U29" s="24">
         <f>$I29+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V29" s="17">
+      <c r="V29" s="24">
         <f>$I29+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="13" t="s">
-        <v>147</v>
+      <c r="A30" s="50"/>
+      <c r="B30" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="C30" s="7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D30" s="7">
-        <v>28</v>
-      </c>
-      <c r="E30" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="23" t="s">
-        <v>148</v>
+      <c r="G30" s="31" t="s">
+        <v>153</v>
       </c>
       <c r="H30" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3930,77 +3938,77 @@
       <c r="I30" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J30" s="30" t="s">
+      <c r="J30" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="26">
         <f>$I30+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="24">
         <f>$I30+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M30" s="24">
         <f>$I30+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N30" s="24">
         <f>$I30+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O30" s="24">
         <f>$I30+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P30" s="17">
+      <c r="P30" s="24">
         <f>$I30+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q30" s="17">
+      <c r="Q30" s="24">
         <f>$I30+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R30" s="17">
+      <c r="R30" s="24">
         <f>$I30+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S30" s="17">
+      <c r="S30" s="24">
         <f>$I30+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T30" s="17">
+      <c r="T30" s="24">
         <f>$I30+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U30" s="17">
+      <c r="U30" s="24">
         <f>$I30+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V30" s="17">
+      <c r="V30" s="24">
         <f>$I30+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
-      <c r="B31" s="19" t="s">
-        <v>47</v>
+      <c r="A31" s="50"/>
+      <c r="B31" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="C31" s="7">
         <v>29</v>
       </c>
       <c r="D31" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>85</v>
+        <v>22</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="H31" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4009,77 +4017,77 @@
       <c r="I31" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J31" s="28" t="s">
+      <c r="J31" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="26">
+      <c r="K31" s="33">
         <f>$I31+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="17">
         <f>$I31+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M31" s="24">
+      <c r="M31" s="17">
         <f>$I31+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N31" s="24">
+      <c r="N31" s="17">
         <f>$I31+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O31" s="24">
+      <c r="O31" s="17">
         <f>$I31+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P31" s="24">
+      <c r="P31" s="17">
         <f>$I31+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q31" s="24">
+      <c r="Q31" s="17">
         <f>$I31+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R31" s="24">
+      <c r="R31" s="17">
         <f>$I31+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S31" s="24">
+      <c r="S31" s="17">
         <f>$I31+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T31" s="24">
+      <c r="T31" s="17">
         <f>$I31+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U31" s="24">
+      <c r="U31" s="17">
         <f>$I31+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V31" s="24">
+      <c r="V31" s="17">
         <f>$I31+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="49"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="19" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D32" s="7">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>115</v>
+        <v>22</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="H32" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4141,32 +4149,33 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="49"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="19" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="C33" s="7">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D33" s="7">
-        <v>47</v>
-      </c>
-      <c r="E33" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H33" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="I33" s="43">
+      <c r="G33" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
+      </c>
+      <c r="I33" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J33" s="44" t="s">
+      <c r="J33" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K33" s="26">
@@ -4219,93 +4228,94 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="49"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="19" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C34" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="H34" s="31" t="s">
-        <v>74</v>
+        <v>48</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
       </c>
       <c r="I34" s="24">
-        <v>0</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="J34" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K34" s="26">
         <f>$I34+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.375</v>
       </c>
       <c r="L34" s="24">
         <f>$I34+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="M34" s="24">
         <f>$I34+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="N34" s="24">
         <f>$I34+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="O34" s="24">
         <f>$I34+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="P34" s="24">
         <f>$I34+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="Q34" s="24">
         <f>$I34+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="R34" s="24">
         <f>$I34+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>1</v>
       </c>
       <c r="S34" s="24">
         <f>$I34+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="T34" s="24">
         <f>$I34+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="U34" s="24">
         <f>$I34+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="V34" s="24">
         <f>$I34+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="49"/>
-      <c r="B35" s="19" t="s">
-        <v>59</v>
+      <c r="A35" s="50"/>
+      <c r="B35" s="37" t="s">
+        <v>62</v>
       </c>
       <c r="C35" s="7">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D35" s="7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>30</v>
@@ -4314,7 +4324,7 @@
         <v>22</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H35" s="31" t="s">
         <v>74</v>
@@ -4322,7 +4332,7 @@
       <c r="I35" s="24">
         <v>0</v>
       </c>
-      <c r="J35" s="28" t="s">
+      <c r="J35" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K35" s="26">
@@ -4375,24 +4385,24 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="49"/>
-      <c r="B36" s="19" t="s">
-        <v>138</v>
+      <c r="A36" s="50"/>
+      <c r="B36" s="37" t="s">
+        <v>60</v>
       </c>
       <c r="C36" s="7">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D36" s="7">
-        <v>33</v>
-      </c>
-      <c r="E36" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="42" t="s">
-        <v>22</v>
+      <c r="F36" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H36" s="31" t="s">
         <v>74</v>
@@ -4400,7 +4410,7 @@
       <c r="I36" s="24">
         <v>0</v>
       </c>
-      <c r="J36" s="28" t="s">
+      <c r="J36" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K36" s="26">
@@ -4453,24 +4463,24 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="49"/>
-      <c r="B37" s="37" t="s">
-        <v>60</v>
+      <c r="A37" s="50"/>
+      <c r="B37" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="C37" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D37" s="7">
-        <v>34</v>
-      </c>
-      <c r="E37" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>75</v>
+      <c r="F37" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>74</v>
@@ -4478,7 +4488,7 @@
       <c r="I37" s="24">
         <v>0</v>
       </c>
-      <c r="J37" s="30" t="s">
+      <c r="J37" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K37" s="26">
@@ -4531,24 +4541,24 @@
       </c>
     </row>
     <row r="38" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="49"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C38" s="7">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D38" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>75</v>
+      <c r="F38" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="H38" s="31" t="s">
         <v>74</v>
@@ -4609,24 +4619,24 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="49"/>
-      <c r="B39" s="37" t="s">
-        <v>62</v>
+      <c r="A39" s="50"/>
+      <c r="B39" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="C39" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D39" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="20" t="s">
-        <v>22</v>
+      <c r="F39" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="H39" s="31" t="s">
         <v>74</v>
@@ -4687,15 +4697,15 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="49"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C40" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D40" s="7">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>30</v>
@@ -4704,7 +4714,7 @@
         <v>22</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="H40" s="31" t="s">
         <v>74</v>
@@ -4712,7 +4722,7 @@
       <c r="I40" s="24">
         <v>0</v>
       </c>
-      <c r="J40" s="30" t="s">
+      <c r="J40" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K40" s="26">
@@ -4764,103 +4774,28 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="49"/>
-      <c r="B41" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="7">
-        <v>38</v>
-      </c>
-      <c r="D41" s="7">
-        <v>38</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H41" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I41" s="24">
-        <v>0</v>
-      </c>
-      <c r="J41" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K41" s="26">
-        <f>$I41+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="L41" s="24">
-        <f>$I41+Sheet2!B$2/24</f>
-        <v>0.375</v>
-      </c>
-      <c r="M41" s="24">
-        <f>$I41+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N41" s="24">
-        <f>$I41+Sheet2!B$4/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="O41" s="24">
-        <f>$I41+Sheet2!B$5/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="P41" s="24">
-        <f>$I41+Sheet2!B$6/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="Q41" s="24">
-        <f>$I41+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="R41" s="24">
-        <f>$I41+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="S41" s="24">
-        <f>$I41+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
-      </c>
-      <c r="T41" s="24">
-        <f>$I41+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
-      </c>
-      <c r="U41" s="24">
-        <f>$I41+Sheet2!B$11/24</f>
-        <v>-0.25</v>
-      </c>
-      <c r="V41" s="24">
-        <f>$I41+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
-      </c>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" s="50"/>
     </row>
     <row r="42" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="49"/>
+      <c r="A42" s="50"/>
       <c r="B42" s="19" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C42" s="7">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D42" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>124</v>
+      <c r="F42" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>118</v>
       </c>
       <c r="H42" s="31" t="s">
         <v>74</v>
@@ -4868,7 +4803,7 @@
       <c r="I42" s="24">
         <v>0</v>
       </c>
-      <c r="J42" s="30" t="s">
+      <c r="J42" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K42" s="26">
@@ -4920,25 +4855,25 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="49"/>
+    <row r="43" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="50"/>
       <c r="B43" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C43" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D43" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>125</v>
+        <v>22</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>123</v>
       </c>
       <c r="H43" s="31" t="s">
         <v>74</v>
@@ -4999,336 +4934,336 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="49"/>
+      <c r="A44" s="50"/>
       <c r="B44" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C44" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D44" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G44" s="36" t="s">
-        <v>126</v>
+        <v>75</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>124</v>
       </c>
       <c r="H44" s="31" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="I44" s="24">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J44" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K44" s="26">
         <f>$I44+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L44" s="24">
         <f>$I44+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M44" s="24">
         <f>$I44+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N44" s="24">
         <f>$I44+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O44" s="24">
         <f>$I44+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P44" s="24">
         <f>$I44+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q44" s="24">
         <f>$I44+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R44" s="24">
         <f>$I44+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S44" s="24">
         <f>$I44+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T44" s="24">
         <f>$I44+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U44" s="24">
         <f>$I44+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V44" s="24">
         <f>$I44+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="49"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C45" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D45" s="7">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="H45" s="37" t="s">
-        <v>13</v>
+      <c r="F45" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="I45" s="24">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J45" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K45" s="26">
         <f>$I45+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L45" s="24">
         <f>$I45+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M45" s="24">
         <f>$I45+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N45" s="24">
         <f>$I45+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O45" s="24">
         <f>$I45+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P45" s="24">
         <f>$I45+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q45" s="24">
         <f>$I45+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R45" s="24">
         <f>$I45+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S45" s="24">
         <f>$I45+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T45" s="24">
         <f>$I45+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U45" s="24">
         <f>$I45+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V45" s="24">
         <f>$I45+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="49"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D46" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="39" t="s">
-        <v>127</v>
+        <v>141</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" s="36" t="s">
+        <v>126</v>
       </c>
       <c r="H46" s="31" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="I46" s="24">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J46" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K46" s="26">
         <f>$I46+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L46" s="24">
         <f>$I46+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M46" s="24">
         <f>$I46+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N46" s="24">
         <f>$I46+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O46" s="24">
         <f>$I46+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P46" s="24">
         <f>$I46+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q46" s="24">
         <f>$I46+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="R46" s="24">
         <f>$I46+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S46" s="24">
         <f>$I46+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T46" s="24">
         <f>$I46+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U46" s="24">
         <f>$I46+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V46" s="24">
         <f>$I46+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="49"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C47" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D47" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H47" s="31" t="s">
-        <v>73</v>
+      <c r="F47" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="I47" s="24">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J47" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K47" s="26">
         <f>$I47+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L47" s="24">
         <f>$I47+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M47" s="24">
         <f>$I47+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N47" s="24">
         <f>$I47+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O47" s="24">
         <f>$I47+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P47" s="24">
         <f>$I47+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q47" s="24">
         <f>$I47+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="R47" s="24">
         <f>$I47+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S47" s="24">
         <f>$I47+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T47" s="24">
         <f>$I47+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U47" s="24">
         <f>$I47+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V47" s="24">
         <f>$I47+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="49"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C48" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D48" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="F48" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G48" s="22" t="s">
-        <v>129</v>
+      <c r="G48" s="39" t="s">
+        <v>127</v>
       </c>
       <c r="H48" s="31" t="s">
         <v>73</v>
@@ -5389,24 +5324,24 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="49"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D49" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="23" t="s">
-        <v>130</v>
+      <c r="F49" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="H49" s="31" t="s">
         <v>73</v>
@@ -5466,15 +5401,171 @@
         <v>-0.20833333333333337</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A50" s="49"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A51" s="49"/>
+    <row r="50" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="50"/>
+      <c r="B50" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="7">
+        <v>48</v>
+      </c>
+      <c r="D50" s="7">
+        <v>45</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J50" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="26">
+        <f>$I50+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L50" s="24">
+        <f>$I50+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M50" s="24">
+        <f>$I50+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N50" s="24">
+        <f>$I50+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O50" s="24">
+        <f>$I50+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P50" s="24">
+        <f>$I50+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q50" s="24">
+        <f>$I50+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R50" s="24">
+        <f>$I50+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S50" s="24">
+        <f>$I50+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T50" s="24">
+        <f>$I50+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U50" s="24">
+        <f>$I50+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V50" s="24">
+        <f>$I50+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="50"/>
+      <c r="B51" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="7">
+        <v>49</v>
+      </c>
+      <c r="D51" s="7">
+        <v>46</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J51" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="26">
+        <f>$I51+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L51" s="24">
+        <f>$I51+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M51" s="24">
+        <f>$I51+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N51" s="24">
+        <f>$I51+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O51" s="24">
+        <f>$I51+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P51" s="24">
+        <f>$I51+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q51" s="24">
+        <f>$I51+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R51" s="24">
+        <f>$I51+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S51" s="24">
+        <f>$I51+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T51" s="24">
+        <f>$I51+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U51" s="24">
+        <f>$I51+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V51" s="24">
+        <f>$I51+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A52" s="50"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A53" s="50"/>
     </row>
   </sheetData>
-  <sortState ref="B2:V40">
-    <sortCondition ref="D2:D40"/>
+  <sortState ref="B2:V42">
+    <sortCondition ref="D2:D42"/>
   </sortState>
   <customSheetViews>
     <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
@@ -5486,10 +5577,10 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
-    <mergeCell ref="A5:A19"/>
-    <mergeCell ref="A20:A51"/>
+    <mergeCell ref="A6:A20"/>
+    <mergeCell ref="A21:A53"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L4 K4:V49">
+  <conditionalFormatting sqref="K2:L4 K42:V51 K4:V40">
     <cfRule type="expression" dxfId="46" priority="104">
       <formula>K$1=$H2</formula>
     </cfRule>
@@ -5499,227 +5590,227 @@
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47:G49 E37:F38 E34:F35 H34:V38 K33:V49 G31:G45 C31:D49 B31:B38 E31:V32 B2:V29">
+  <conditionalFormatting sqref="G49:G51 B2:V22 K23:V23 G30:V30 G23 B23:D23 B24:V29 B30:D30 C31 B32:V34 K35:V35 G35 C35:D35 B36:V36 G37:V37 B37:D37 K43:V51 K38:V38 G43:G47 G38 C43:D51 C38:D38 B42:V42 B39:V40">
     <cfRule type="expression" dxfId="44" priority="110">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39 J39:V39">
+  <conditionalFormatting sqref="B35 J35:V35">
     <cfRule type="expression" dxfId="43" priority="87">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40 J40:V40">
+  <conditionalFormatting sqref="B38 J38:V38">
     <cfRule type="expression" dxfId="42" priority="85">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41 J41:V41">
+  <conditionalFormatting sqref="B43 J43:V43">
     <cfRule type="expression" dxfId="41" priority="83">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42 J42:V42">
+  <conditionalFormatting sqref="B44 J44:V44">
     <cfRule type="expression" dxfId="40" priority="81">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43 J43:V43">
+  <conditionalFormatting sqref="B45 J45:V45">
     <cfRule type="expression" dxfId="39" priority="79">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44 J44:V44">
+  <conditionalFormatting sqref="B46 J46:V46">
     <cfRule type="expression" dxfId="38" priority="77">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45 J45:V45 E45:F45 H45">
+  <conditionalFormatting sqref="B47 J47:V47 E47:F47 H47">
     <cfRule type="expression" dxfId="37" priority="75">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="E35">
     <cfRule type="expression" dxfId="36" priority="73">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="E44">
     <cfRule type="expression" dxfId="35" priority="70">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
+  <conditionalFormatting sqref="E45">
     <cfRule type="expression" dxfId="34" priority="69">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44 H44">
+  <conditionalFormatting sqref="E46 H46">
     <cfRule type="expression" dxfId="33" priority="68">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46 J46:V46">
+  <conditionalFormatting sqref="B48 J48:V48">
     <cfRule type="expression" dxfId="32" priority="66">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47 J47:V47 E47">
+  <conditionalFormatting sqref="B49 J49:V49 E49">
     <cfRule type="expression" dxfId="31" priority="64">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46:F46 H46">
+  <conditionalFormatting sqref="E48:F48 H48">
     <cfRule type="expression" dxfId="30" priority="62">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48 J48:V48">
+  <conditionalFormatting sqref="B50 J50:V50">
     <cfRule type="expression" dxfId="29" priority="60">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49 J49:V49 E49">
+  <conditionalFormatting sqref="B51 J51:V51 E51">
     <cfRule type="expression" dxfId="28" priority="58">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
+  <conditionalFormatting sqref="F45">
     <cfRule type="expression" dxfId="27" priority="50">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
+  <conditionalFormatting sqref="I35">
     <cfRule type="expression" dxfId="26" priority="40">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
+  <conditionalFormatting sqref="I38">
     <cfRule type="expression" dxfId="25" priority="39">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
+  <conditionalFormatting sqref="I43">
     <cfRule type="expression" dxfId="24" priority="38">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
+  <conditionalFormatting sqref="I44">
     <cfRule type="expression" dxfId="23" priority="37">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
+  <conditionalFormatting sqref="I45">
     <cfRule type="expression" dxfId="22" priority="36">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
+  <conditionalFormatting sqref="I46">
     <cfRule type="expression" dxfId="21" priority="35">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
+  <conditionalFormatting sqref="I47">
     <cfRule type="expression" dxfId="20" priority="34">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
+  <conditionalFormatting sqref="I48">
     <cfRule type="expression" dxfId="19" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H35">
     <cfRule type="expression" dxfId="18" priority="26">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
+  <conditionalFormatting sqref="H38">
     <cfRule type="expression" dxfId="17" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="H43">
     <cfRule type="expression" dxfId="16" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H44">
     <cfRule type="expression" dxfId="15" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H45">
     <cfRule type="expression" dxfId="14" priority="22">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H49">
     <cfRule type="expression" dxfId="13" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
+  <conditionalFormatting sqref="I49">
     <cfRule type="expression" dxfId="12" priority="20">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
+  <conditionalFormatting sqref="H50">
     <cfRule type="expression" dxfId="11" priority="19">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
+  <conditionalFormatting sqref="I50">
     <cfRule type="expression" dxfId="10" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
+  <conditionalFormatting sqref="H51">
     <cfRule type="expression" dxfId="9" priority="17">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
+  <conditionalFormatting sqref="I51">
     <cfRule type="expression" dxfId="8" priority="16">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
+  <conditionalFormatting sqref="F44">
     <cfRule type="expression" dxfId="7" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
+  <conditionalFormatting sqref="F46">
     <cfRule type="expression" dxfId="6" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="F49">
     <cfRule type="expression" dxfId="5" priority="10">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
+  <conditionalFormatting sqref="F35">
     <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41:F41">
+  <conditionalFormatting sqref="E43:F43">
     <cfRule type="expression" dxfId="3" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40:F40">
+  <conditionalFormatting sqref="E38:F38">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48:F48">
+  <conditionalFormatting sqref="E50:F50">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:V30">
+  <conditionalFormatting sqref="B31 D31:V31">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECF0470-F7B0-BF4B-9A33-11695E2CB0F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93777D04-7F28-8548-BE40-4A84DD680C52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="1240" windowWidth="33700" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1608,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:V39"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1693,7 +1693,7 @@
         <v>EDT</v>
       </c>
       <c r="T1" s="3" t="str">
-        <f>H42</f>
+        <f>H44</f>
         <v>CDT</v>
       </c>
       <c r="U1" s="3" t="str">
@@ -1701,7 +1701,7 @@
         <v>CDT</v>
       </c>
       <c r="V1" s="3" t="str">
-        <f>H39</f>
+        <f>H41</f>
         <v>CDT</v>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>150</v>
@@ -1945,10 +1945,10 @@
         <v>53</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>20</v>
@@ -2026,10 +2026,10 @@
         <v>43</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>109</v>
@@ -2105,10 +2105,10 @@
         <v>42</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>18</v>
@@ -2187,7 +2187,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>20</v>
@@ -2263,10 +2263,10 @@
         <v>52</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>16</v>
@@ -2342,10 +2342,10 @@
         <v>51</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>18</v>
@@ -2421,10 +2421,10 @@
         <v>41</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>105</v>
@@ -2500,10 +2500,10 @@
         <v>45</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>16</v>
@@ -2579,10 +2579,10 @@
         <v>50</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>17</v>
@@ -2658,10 +2658,10 @@
         <v>49</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>16</v>
@@ -2737,10 +2737,10 @@
         <v>46</v>
       </c>
       <c r="C15" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>92</v>
@@ -2816,10 +2816,10 @@
         <v>56</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>31</v>
@@ -2894,10 +2894,10 @@
         <v>54</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>30</v>
@@ -2972,10 +2972,10 @@
         <v>112</v>
       </c>
       <c r="C18" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>105</v>
@@ -3050,10 +3050,10 @@
         <v>55</v>
       </c>
       <c r="C19" s="7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>31</v>
@@ -3286,10 +3286,10 @@
         <v>116</v>
       </c>
       <c r="C22" s="7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D22" s="7">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>30</v>
@@ -3365,10 +3365,10 @@
         <v>144</v>
       </c>
       <c r="C23" s="7">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D23" s="7">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E23" s="41" t="s">
         <v>30</v>
@@ -3443,10 +3443,10 @@
         <v>38</v>
       </c>
       <c r="C24" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>30</v>
@@ -3522,10 +3522,10 @@
         <v>36</v>
       </c>
       <c r="C25" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>30</v>
@@ -3601,10 +3601,10 @@
         <v>34</v>
       </c>
       <c r="C26" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D26" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>30</v>
@@ -3680,10 +3680,10 @@
         <v>39</v>
       </c>
       <c r="C27" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>30</v>
@@ -3759,10 +3759,10 @@
         <v>35</v>
       </c>
       <c r="C28" s="7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D28" s="7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>30</v>
@@ -3838,10 +3838,10 @@
         <v>37</v>
       </c>
       <c r="C29" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D29" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>30</v>
@@ -3917,10 +3917,10 @@
         <v>152</v>
       </c>
       <c r="C30" s="7">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D30" s="7">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E30" s="41" t="s">
         <v>30</v>
@@ -3996,10 +3996,10 @@
         <v>147</v>
       </c>
       <c r="C31" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>30</v>
@@ -4075,10 +4075,10 @@
         <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D32" s="7">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>30</v>
@@ -4154,10 +4154,10 @@
         <v>33</v>
       </c>
       <c r="C33" s="7">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D33" s="7">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>30</v>
@@ -4233,10 +4233,10 @@
         <v>47</v>
       </c>
       <c r="C34" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D34" s="7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>30</v>
@@ -4312,10 +4312,10 @@
         <v>62</v>
       </c>
       <c r="C35" s="7">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D35" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>30</v>
@@ -4390,10 +4390,10 @@
         <v>60</v>
       </c>
       <c r="C36" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D36" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>30</v>
@@ -4471,7 +4471,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="7">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E37" s="41" t="s">
         <v>30</v>
@@ -4546,7 +4546,7 @@
         <v>63</v>
       </c>
       <c r="C38" s="7">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D38" s="7">
         <v>37</v>
@@ -4620,23 +4620,23 @@
     </row>
     <row r="39" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="50"/>
-      <c r="B39" s="19" t="s">
-        <v>61</v>
+      <c r="B39" s="37" t="s">
+        <v>66</v>
       </c>
       <c r="C39" s="7">
         <v>38</v>
       </c>
       <c r="D39" s="7">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>75</v>
+      <c r="F39" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="H39" s="31" t="s">
         <v>74</v>
@@ -4698,14 +4698,14 @@
     </row>
     <row r="40" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="50"/>
-      <c r="B40" s="19" t="s">
-        <v>59</v>
+      <c r="B40" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="C40" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D40" s="7">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>30</v>
@@ -4713,8 +4713,8 @@
       <c r="F40" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="31" t="s">
-        <v>81</v>
+      <c r="G40" s="29" t="s">
+        <v>123</v>
       </c>
       <c r="H40" s="31" t="s">
         <v>74</v>
@@ -4722,7 +4722,7 @@
       <c r="I40" s="24">
         <v>0</v>
       </c>
-      <c r="J40" s="28" t="s">
+      <c r="J40" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K40" s="26">
@@ -4774,19 +4774,94 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="50"/>
+      <c r="B41" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="7">
+        <v>40</v>
+      </c>
+      <c r="D41" s="7">
+        <v>40</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" s="24">
+        <v>0</v>
+      </c>
+      <c r="J41" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="26">
+        <f>$I41+Sheet2!B$1/24</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L41" s="24">
+        <f>$I41+Sheet2!B$2/24</f>
+        <v>0.375</v>
+      </c>
+      <c r="M41" s="24">
+        <f>$I41+Sheet2!B$3/24</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N41" s="24">
+        <f>$I41+Sheet2!B$4/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="O41" s="24">
+        <f>$I41+Sheet2!B$5/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="P41" s="24">
+        <f>$I41+Sheet2!B$6/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="Q41" s="24">
+        <f>$I41+Sheet2!B$7/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="R41" s="24">
+        <f>$I41+Sheet2!B$8/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="S41" s="24">
+        <f>$I41+Sheet2!B$9/24</f>
+        <v>-0.16666666666666666</v>
+      </c>
+      <c r="T41" s="24">
+        <f>$I41+Sheet2!B$10/24</f>
+        <v>-0.20833333333333334</v>
+      </c>
+      <c r="U41" s="24">
+        <f>$I41+Sheet2!B$11/24</f>
+        <v>-0.25</v>
+      </c>
+      <c r="V41" s="24">
+        <f>$I41+Sheet2!B$12/24</f>
+        <v>-0.29166666666666669</v>
+      </c>
     </row>
     <row r="42" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="50"/>
       <c r="B42" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C42" s="7">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D42" s="7">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>30</v>
@@ -4794,8 +4869,8 @@
       <c r="F42" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="29" t="s">
-        <v>118</v>
+      <c r="G42" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="H42" s="31" t="s">
         <v>74</v>
@@ -4857,23 +4932,23 @@
     </row>
     <row r="43" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="50"/>
-      <c r="B43" s="37" t="s">
-        <v>64</v>
+      <c r="B43" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="C43" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D43" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="29" t="s">
-        <v>123</v>
+      <c r="F43" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>124</v>
       </c>
       <c r="H43" s="31" t="s">
         <v>74</v>
@@ -4936,22 +5011,22 @@
     <row r="44" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="50"/>
       <c r="B44" s="19" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C44" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D44" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G44" s="31" t="s">
-        <v>124</v>
+      <c r="F44" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>118</v>
       </c>
       <c r="H44" s="31" t="s">
         <v>74</v>
@@ -4959,7 +5034,7 @@
       <c r="I44" s="24">
         <v>0</v>
       </c>
-      <c r="J44" s="30" t="s">
+      <c r="J44" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K44" s="26">
@@ -5013,103 +5088,103 @@
     </row>
     <row r="45" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="50"/>
-      <c r="B45" s="37" t="s">
-        <v>66</v>
+      <c r="B45" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="C45" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D45" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" s="31" t="s">
-        <v>125</v>
+        <v>141</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>126</v>
       </c>
       <c r="H45" s="31" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="I45" s="24">
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J45" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K45" s="26">
         <f>$I45+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L45" s="24">
         <f>$I45+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M45" s="24">
         <f>$I45+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="N45" s="24">
         <f>$I45+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O45" s="24">
         <f>$I45+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P45" s="24">
         <f>$I45+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q45" s="24">
         <f>$I45+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="R45" s="24">
         <f>$I45+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S45" s="24">
         <f>$I45+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>-0.125</v>
       </c>
       <c r="T45" s="24">
         <f>$I45+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U45" s="24">
         <f>$I45+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V45" s="24">
         <f>$I45+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="50"/>
-      <c r="B46" s="19" t="s">
-        <v>67</v>
+      <c r="B46" s="37" t="s">
+        <v>68</v>
       </c>
       <c r="C46" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D46" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>142</v>
+        <v>30</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="H46" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="H46" s="37" t="s">
         <v>13</v>
       </c>
       <c r="I46" s="24">
@@ -5169,101 +5244,101 @@
     </row>
     <row r="47" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="50"/>
-      <c r="B47" s="37" t="s">
-        <v>68</v>
+      <c r="B47" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="C47" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D47" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G47" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="H47" s="37" t="s">
-        <v>13</v>
+      <c r="G47" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="I47" s="24">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J47" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K47" s="26">
         <f>$I47+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="L47" s="24">
         <f>$I47+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="M47" s="24">
         <f>$I47+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="N47" s="24">
         <f>$I47+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="O47" s="24">
         <f>$I47+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="P47" s="24">
         <f>$I47+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="Q47" s="24">
         <f>$I47+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R47" s="24">
         <f>$I47+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="S47" s="24">
         <f>$I47+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-8.3333333333333329E-2</v>
       </c>
       <c r="T47" s="24">
         <f>$I47+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.125</v>
       </c>
       <c r="U47" s="24">
         <f>$I47+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="V47" s="24">
         <f>$I47+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.20833333333333337</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="50"/>
-      <c r="B48" s="19" t="s">
-        <v>69</v>
+      <c r="B48" s="37" t="s">
+        <v>70</v>
       </c>
       <c r="C48" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D48" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="39" t="s">
-        <v>127</v>
+      <c r="F48" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="H48" s="31" t="s">
         <v>73</v>
@@ -5325,23 +5400,23 @@
     </row>
     <row r="49" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="50"/>
-      <c r="B49" s="37" t="s">
-        <v>70</v>
+      <c r="B49" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="C49" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D49" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>128</v>
+      <c r="F49" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>127</v>
       </c>
       <c r="H49" s="31" t="s">
         <v>73</v>
@@ -5403,23 +5478,23 @@
     </row>
     <row r="50" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="50"/>
-      <c r="B50" s="19" t="s">
-        <v>71</v>
+      <c r="B50" s="37" t="s">
+        <v>72</v>
       </c>
       <c r="C50" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D50" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="22" t="s">
-        <v>129</v>
+      <c r="G50" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="H50" s="31" t="s">
         <v>73</v>
@@ -5479,83 +5554,8 @@
         <v>-0.20833333333333337</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="50"/>
-      <c r="B51" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="7">
-        <v>49</v>
-      </c>
-      <c r="D51" s="7">
-        <v>46</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="H51" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I51" s="24">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J51" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K51" s="26">
-        <f>$I51+Sheet2!B$1/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="L51" s="24">
-        <f>$I51+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="M51" s="24">
-        <f>$I51+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
-      </c>
-      <c r="N51" s="24">
-        <f>$I51+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
-      </c>
-      <c r="O51" s="24">
-        <f>$I51+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
-      </c>
-      <c r="P51" s="24">
-        <f>$I51+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
-      </c>
-      <c r="Q51" s="24">
-        <f>$I51+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="R51" s="24">
-        <f>$I51+Sheet2!B$8/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="S51" s="24">
-        <f>$I51+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
-      </c>
-      <c r="T51" s="24">
-        <f>$I51+Sheet2!B$10/24</f>
-        <v>-0.125</v>
-      </c>
-      <c r="U51" s="24">
-        <f>$I51+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
-      </c>
-      <c r="V51" s="24">
-        <f>$I51+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
-      </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="50"/>
@@ -5580,7 +5580,7 @@
     <mergeCell ref="A6:A20"/>
     <mergeCell ref="A21:A53"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L4 K42:V51 K4:V40">
+  <conditionalFormatting sqref="K2:L4 K4:V50">
     <cfRule type="expression" dxfId="46" priority="104">
       <formula>K$1=$H2</formula>
     </cfRule>
@@ -5590,7 +5590,7 @@
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49:G51 B2:V22 K23:V23 G30:V30 G23 B23:D23 B24:V29 B30:D30 C31 B32:V34 K35:V35 G35 C35:D35 B36:V36 G37:V37 B37:D37 K43:V51 K38:V38 G43:G47 G38 C43:D51 C38:D38 B42:V42 B39:V40">
+  <conditionalFormatting sqref="B2:V3 K23:V23 G30:V30 G23 B32:B34 K35:V35 G35 G37:V37 B36:B37 K38:V40 G38:G40 B41:B42 B44 K43:V43 G43 G50 G45:G48 K45:V50 E44:V44 E41:V42 E36:V36 E32:V34 E24:V29 B4:B30 E4:V22 C4:D50">
     <cfRule type="expression" dxfId="44" priority="110">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -5605,27 +5605,27 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43 J43:V43">
+  <conditionalFormatting sqref="B40 J40:V40">
     <cfRule type="expression" dxfId="41" priority="83">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44 J44:V44">
+  <conditionalFormatting sqref="B43 J43:V43">
     <cfRule type="expression" dxfId="40" priority="81">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45 J45:V45">
+  <conditionalFormatting sqref="B39 J39:V39">
     <cfRule type="expression" dxfId="39" priority="79">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46 J46:V46">
+  <conditionalFormatting sqref="B45 J45:V45">
     <cfRule type="expression" dxfId="38" priority="77">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47 J47:V47 E47:F47 H47">
+  <conditionalFormatting sqref="B46 J46:V46 E46:F46 H46">
     <cfRule type="expression" dxfId="37" priority="75">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -5635,47 +5635,47 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="E43">
     <cfRule type="expression" dxfId="35" priority="70">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+  <conditionalFormatting sqref="E39">
     <cfRule type="expression" dxfId="34" priority="69">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46 H46">
+  <conditionalFormatting sqref="E45 H45">
     <cfRule type="expression" dxfId="33" priority="68">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48 J48:V48">
+  <conditionalFormatting sqref="B49 J49:V49">
     <cfRule type="expression" dxfId="32" priority="66">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49 J49:V49 E49">
+  <conditionalFormatting sqref="B48 J48:V48 E48">
     <cfRule type="expression" dxfId="31" priority="64">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48:F48 H48">
+  <conditionalFormatting sqref="E49:F49 H49">
     <cfRule type="expression" dxfId="30" priority="62">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50 J50:V50">
+  <conditionalFormatting sqref="B47 J47:V47">
     <cfRule type="expression" dxfId="29" priority="60">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51 J51:V51 E51">
+  <conditionalFormatting sqref="B50 J50:V50 E50">
     <cfRule type="expression" dxfId="28" priority="58">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+  <conditionalFormatting sqref="F39">
     <cfRule type="expression" dxfId="27" priority="50">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -5690,32 +5690,32 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
+  <conditionalFormatting sqref="I40">
     <cfRule type="expression" dxfId="24" priority="38">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
+  <conditionalFormatting sqref="I43">
     <cfRule type="expression" dxfId="23" priority="37">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
+  <conditionalFormatting sqref="I39">
     <cfRule type="expression" dxfId="22" priority="36">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
+  <conditionalFormatting sqref="I45">
     <cfRule type="expression" dxfId="21" priority="35">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
+  <conditionalFormatting sqref="I46">
     <cfRule type="expression" dxfId="20" priority="34">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
+  <conditionalFormatting sqref="I49">
     <cfRule type="expression" dxfId="19" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -5730,62 +5730,62 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H40">
     <cfRule type="expression" dxfId="16" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
+  <conditionalFormatting sqref="H43">
     <cfRule type="expression" dxfId="15" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H39">
     <cfRule type="expression" dxfId="14" priority="22">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
+  <conditionalFormatting sqref="H48">
     <cfRule type="expression" dxfId="13" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
+  <conditionalFormatting sqref="I48">
     <cfRule type="expression" dxfId="12" priority="20">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
+  <conditionalFormatting sqref="H47">
     <cfRule type="expression" dxfId="11" priority="19">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
+  <conditionalFormatting sqref="I47">
     <cfRule type="expression" dxfId="10" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="H50">
     <cfRule type="expression" dxfId="9" priority="17">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
+  <conditionalFormatting sqref="I50">
     <cfRule type="expression" dxfId="8" priority="16">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
+  <conditionalFormatting sqref="F43">
     <cfRule type="expression" dxfId="7" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+  <conditionalFormatting sqref="F45">
     <cfRule type="expression" dxfId="6" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="F48">
     <cfRule type="expression" dxfId="5" priority="10">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -5795,7 +5795,7 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43:F43">
+  <conditionalFormatting sqref="E40:F40">
     <cfRule type="expression" dxfId="3" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -5805,12 +5805,12 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50:F50">
+  <conditionalFormatting sqref="E47:F47">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31 D31:V31">
+  <conditionalFormatting sqref="B31 E31:V31">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93777D04-7F28-8548-BE40-4A84DD680C52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CC74DA-6132-284F-92F9-D4E2ED63A47D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="1240" windowWidth="33700" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1609,7 +1609,7 @@
   <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CC74DA-6132-284F-92F9-D4E2ED63A47D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E357A0E-043A-D648-A9FC-A12F057B8C35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="1240" windowWidth="33700" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="740" windowWidth="33700" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179021"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="157">
   <si>
     <t>Name</t>
   </si>
@@ -119,9 +119,6 @@
     <t>5/11</t>
   </si>
   <si>
-    <t>Guam</t>
-  </si>
-  <si>
     <t>ChST</t>
   </si>
   <si>
@@ -501,6 +498,18 @@
   </si>
   <si>
     <t>https://swgoh.gg/u/psulion/</t>
+  </si>
+  <si>
+    <t>BigHoov (HS)</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/bighoov/</t>
+  </si>
+  <si>
+    <t>:flag_hk:</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
   </si>
 </sst>
 </file>
@@ -959,7 +968,57 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1606,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1660,10 +1719,10 @@
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>9</v>
@@ -1693,15 +1752,15 @@
         <v>EDT</v>
       </c>
       <c r="T1" s="3" t="str">
-        <f>H44</f>
+        <f>H45</f>
         <v>CDT</v>
       </c>
       <c r="U1" s="3" t="str">
-        <f>H36</f>
+        <f>H37</f>
         <v>CDT</v>
       </c>
       <c r="V1" s="3" t="str">
-        <f>H41</f>
+        <f>H42</f>
         <v>CDT</v>
       </c>
     </row>
@@ -1710,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -1719,13 +1778,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -1788,7 +1847,7 @@
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
@@ -1797,14 +1856,14 @@
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="10">
         <v>0.41666666666666669</v>
@@ -1864,7 +1923,7 @@
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -1873,16 +1932,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="29" t="s">
         <v>150</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>151</v>
       </c>
       <c r="I4" s="24">
         <v>11.458333333333334</v>
@@ -1942,7 +2001,7 @@
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="46"/>
       <c r="B5" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
@@ -1954,10 +2013,10 @@
         <v>20</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H5" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2020,10 +2079,10 @@
     </row>
     <row r="6" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -2032,13 +2091,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2102,7 +2161,7 @@
     <row r="7" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
@@ -2117,7 +2176,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2181,7 +2240,7 @@
     <row r="8" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="47"/>
       <c r="B8" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -2193,10 +2252,10 @@
         <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2260,7 +2319,7 @@
     <row r="9" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="47"/>
       <c r="B9" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="7">
         <v>8</v>
@@ -2272,10 +2331,10 @@
         <v>16</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H9" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2339,7 +2398,7 @@
     <row r="10" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="7">
         <v>9</v>
@@ -2351,10 +2410,10 @@
         <v>18</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2418,7 +2477,7 @@
     <row r="11" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="7">
         <v>10</v>
@@ -2427,13 +2486,13 @@
         <v>10</v>
       </c>
       <c r="E11" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="G11" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H11" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2497,7 +2556,7 @@
     <row r="12" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="7">
         <v>11</v>
@@ -2509,10 +2568,10 @@
         <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H12" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2576,7 +2635,7 @@
     <row r="13" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="7">
         <v>12</v>
@@ -2591,7 +2650,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H13" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2655,7 +2714,7 @@
     <row r="14" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>13</v>
@@ -2667,10 +2726,10 @@
         <v>16</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2734,7 +2793,7 @@
     <row r="15" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="47"/>
       <c r="B15" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="7">
         <v>14</v>
@@ -2743,13 +2802,13 @@
         <v>14</v>
       </c>
       <c r="E15" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="G15" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2813,7 +2872,7 @@
     <row r="16" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="47"/>
       <c r="B16" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="7">
         <v>15</v>
@@ -2822,13 +2881,13 @@
         <v>15</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H16" s="31" t="s">
         <v>12</v>
@@ -2891,7 +2950,7 @@
     <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="7">
         <v>16</v>
@@ -2900,13 +2959,13 @@
         <v>16</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H17" s="29" t="s">
         <v>12</v>
@@ -2969,7 +3028,7 @@
     <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="7">
         <v>17</v>
@@ -2978,13 +3037,13 @@
         <v>17</v>
       </c>
       <c r="E18" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="G18" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H18" s="31" t="s">
         <v>12</v>
@@ -3047,7 +3106,7 @@
     <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="7">
         <v>18</v>
@@ -3056,13 +3115,13 @@
         <v>18</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>12</v>
@@ -3125,7 +3184,7 @@
     <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="48"/>
       <c r="B20" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="7">
         <v>19</v>
@@ -3134,13 +3193,13 @@
         <v>19</v>
       </c>
       <c r="E20" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="36" t="s">
         <v>96</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>97</v>
       </c>
       <c r="H20" s="31" t="s">
         <v>12</v>
@@ -3205,7 +3264,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="7">
         <v>20</v>
@@ -3214,13 +3273,13 @@
         <v>20</v>
       </c>
       <c r="E21" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="G21" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>12</v>
@@ -3283,7 +3342,7 @@
     <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="50"/>
       <c r="B22" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="7">
         <v>21</v>
@@ -3292,13 +3351,13 @@
         <v>21</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H22" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3362,7 +3421,7 @@
     <row r="23" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="50"/>
       <c r="B23" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" s="7">
         <v>22</v>
@@ -3371,16 +3430,16 @@
         <v>22</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="42" t="s">
         <v>145</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>146</v>
       </c>
       <c r="I23" s="43">
         <v>0.95833333333333337</v>
@@ -3440,7 +3499,7 @@
     <row r="24" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="50"/>
       <c r="B24" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="7">
         <v>23</v>
@@ -3449,13 +3508,13 @@
         <v>23</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H24" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3519,7 +3578,7 @@
     <row r="25" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="50"/>
       <c r="B25" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
         <v>24</v>
@@ -3528,13 +3587,13 @@
         <v>24</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H25" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3598,7 +3657,7 @@
     <row r="26" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="50"/>
       <c r="B26" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="7">
         <v>25</v>
@@ -3607,13 +3666,13 @@
         <v>25</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H26" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3677,7 +3736,7 @@
     <row r="27" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="50"/>
       <c r="B27" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
         <v>26</v>
@@ -3686,13 +3745,13 @@
         <v>26</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H27" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3756,7 +3815,7 @@
     <row r="28" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
       <c r="B28" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="7">
         <v>27</v>
@@ -3765,13 +3824,13 @@
         <v>27</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" s="20" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H28" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3835,7 +3894,7 @@
     <row r="29" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="50"/>
       <c r="B29" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="7">
         <v>28</v>
@@ -3844,13 +3903,13 @@
         <v>28</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H29" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3914,7 +3973,7 @@
     <row r="30" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="50"/>
       <c r="B30" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C30" s="7">
         <v>29</v>
@@ -3923,13 +3982,13 @@
         <v>29</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H30" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3993,7 +4052,7 @@
     <row r="31" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="50"/>
       <c r="B31" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C31" s="7">
         <v>30</v>
@@ -4002,13 +4061,13 @@
         <v>30</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" s="20" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H31" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4072,7 +4131,7 @@
     <row r="32" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="50"/>
       <c r="B32" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="7">
         <v>31</v>
@@ -4081,13 +4140,13 @@
         <v>31</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" s="20" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H32" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4151,7 +4210,7 @@
     <row r="33" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="50"/>
       <c r="B33" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="7">
         <v>32</v>
@@ -4160,13 +4219,13 @@
         <v>32</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H33" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4230,7 +4289,7 @@
     <row r="34" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="50"/>
       <c r="B34" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="7">
         <v>33</v>
@@ -4239,13 +4298,13 @@
         <v>33</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H34" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4309,7 +4368,7 @@
     <row r="35" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="50"/>
       <c r="B35" s="37" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="C35" s="7">
         <v>34</v>
@@ -4318,16 +4377,16 @@
         <v>34</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I35" s="24">
         <v>0</v>
@@ -4387,25 +4446,25 @@
     <row r="36" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="50"/>
       <c r="B36" s="37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C36" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G36" s="31" t="s">
-        <v>135</v>
-      </c>
       <c r="H36" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I36" s="24">
         <v>0</v>
@@ -4464,31 +4523,31 @@
     </row>
     <row r="37" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="50"/>
-      <c r="B37" s="19" t="s">
-        <v>138</v>
+      <c r="B37" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="C37" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="7">
-        <v>36</v>
-      </c>
-      <c r="E37" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="42" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I37" s="24">
         <v>0</v>
       </c>
-      <c r="J37" s="28" t="s">
+      <c r="J37" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K37" s="26">
@@ -4543,30 +4602,30 @@
     <row r="38" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="50"/>
       <c r="B38" s="19" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="C38" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="7">
-        <v>37</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="42" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I38" s="24">
         <v>0</v>
       </c>
-      <c r="J38" s="30" t="s">
+      <c r="J38" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K38" s="26">
@@ -4620,26 +4679,26 @@
     </row>
     <row r="39" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="50"/>
-      <c r="B39" s="37" t="s">
-        <v>66</v>
+      <c r="B39" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="C39" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I39" s="24">
         <v>0</v>
@@ -4699,25 +4758,25 @@
     <row r="40" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="50"/>
       <c r="B40" s="37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C40" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="29" t="s">
-        <v>123</v>
+        <v>47</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>124</v>
       </c>
       <c r="H40" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I40" s="24">
         <v>0</v>
@@ -4776,26 +4835,26 @@
     </row>
     <row r="41" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="50"/>
-      <c r="B41" s="19" t="s">
-        <v>61</v>
+      <c r="B41" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="C41" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G41" s="31" t="s">
-        <v>143</v>
+        <v>29</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>122</v>
       </c>
       <c r="H41" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I41" s="24">
         <v>0</v>
@@ -4855,30 +4914,30 @@
     <row r="42" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="50"/>
       <c r="B42" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="H42" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I42" s="24">
         <v>0</v>
       </c>
-      <c r="J42" s="28" t="s">
+      <c r="J42" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K42" s="26">
@@ -4930,33 +4989,33 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="50"/>
       <c r="B43" s="19" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C43" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>75</v>
+        <v>29</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="H43" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I43" s="24">
         <v>0</v>
       </c>
-      <c r="J43" s="30" t="s">
+      <c r="J43" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K43" s="26">
@@ -5008,33 +5067,33 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="50"/>
       <c r="B44" s="19" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C44" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="29" t="s">
-        <v>118</v>
+        <v>29</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="H44" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I44" s="24">
         <v>0</v>
       </c>
-      <c r="J44" s="28" t="s">
+      <c r="J44" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K44" s="26">
@@ -5089,102 +5148,102 @@
     <row r="45" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="50"/>
       <c r="B45" s="19" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C45" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G45" s="36" t="s">
-        <v>126</v>
+        <v>29</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>117</v>
       </c>
       <c r="H45" s="31" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="I45" s="24">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J45" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K45" s="26">
         <f>$I45+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L45" s="24">
         <f>$I45+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M45" s="24">
         <f>$I45+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N45" s="24">
         <f>$I45+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O45" s="24">
         <f>$I45+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P45" s="24">
         <f>$I45+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q45" s="24">
         <f>$I45+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R45" s="24">
         <f>$I45+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S45" s="24">
         <f>$I45+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T45" s="24">
         <f>$I45+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U45" s="24">
         <f>$I45+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V45" s="24">
         <f>$I45+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="50"/>
-      <c r="B46" s="37" t="s">
-        <v>68</v>
+      <c r="B46" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="C46" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>22</v>
+        <v>140</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="H46" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" s="31" t="s">
         <v>13</v>
       </c>
       <c r="I46" s="24">
@@ -5244,104 +5303,104 @@
     </row>
     <row r="47" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="50"/>
-      <c r="B47" s="19" t="s">
-        <v>71</v>
+      <c r="B47" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="C47" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G47" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H47" s="31" t="s">
-        <v>73</v>
+      <c r="G47" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="I47" s="24">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J47" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K47" s="26">
         <f>$I47+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L47" s="24">
         <f>$I47+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M47" s="24">
         <f>$I47+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N47" s="24">
         <f>$I47+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O47" s="24">
         <f>$I47+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P47" s="24">
         <f>$I47+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q47" s="24">
         <f>$I47+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="R47" s="24">
         <f>$I47+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S47" s="24">
         <f>$I47+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T47" s="24">
         <f>$I47+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U47" s="24">
         <f>$I47+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V47" s="24">
         <f>$I47+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="50"/>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="19" t="s">
         <v>70</v>
       </c>
       <c r="C48" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G48" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="22" t="s">
         <v>128</v>
       </c>
       <c r="H48" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I48" s="24">
         <v>8.3333333333333329E-2</v>
@@ -5400,26 +5459,26 @@
     </row>
     <row r="49" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="50"/>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C49" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I49" s="24">
         <v>8.3333333333333329E-2</v>
@@ -5478,26 +5537,26 @@
     </row>
     <row r="50" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="50"/>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="7">
+        <v>48</v>
+      </c>
+      <c r="D50" s="7">
+        <v>48</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="H50" s="31" t="s">
         <v>72</v>
-      </c>
-      <c r="C50" s="7">
-        <v>49</v>
-      </c>
-      <c r="D50" s="7">
-        <v>49</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="H50" s="31" t="s">
-        <v>73</v>
       </c>
       <c r="I50" s="24">
         <v>8.3333333333333329E-2</v>
@@ -5554,8 +5613,83 @@
         <v>-0.20833333333333337</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="50"/>
+      <c r="B51" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="7">
+        <v>49</v>
+      </c>
+      <c r="D51" s="7">
+        <v>49</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J51" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="26">
+        <f>$I51+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L51" s="24">
+        <f>$I51+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M51" s="24">
+        <f>$I51+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N51" s="24">
+        <f>$I51+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O51" s="24">
+        <f>$I51+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P51" s="24">
+        <f>$I51+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q51" s="24">
+        <f>$I51+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R51" s="24">
+        <f>$I51+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S51" s="24">
+        <f>$I51+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T51" s="24">
+        <f>$I51+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U51" s="24">
+        <f>$I51+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V51" s="24">
+        <f>$I51+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="50"/>
@@ -5563,255 +5697,293 @@
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="50"/>
     </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A54" s="50"/>
+    </row>
   </sheetData>
-  <sortState ref="B2:V42">
-    <sortCondition ref="D2:D42"/>
+  <sortState ref="B2:V43">
+    <sortCondition ref="D2:D43"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
+      <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
-      <selection sqref="A1:XFD1048576"/>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
     <mergeCell ref="A6:A20"/>
-    <mergeCell ref="A21:A53"/>
+    <mergeCell ref="A21:A54"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L4 K4:V50">
-    <cfRule type="expression" dxfId="46" priority="104">
+  <conditionalFormatting sqref="K2:L4 K4:V34 K36:V51">
+    <cfRule type="expression" dxfId="53" priority="111">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:V4">
-    <cfRule type="expression" dxfId="45" priority="106">
+    <cfRule type="expression" dxfId="52" priority="113">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:V3 K23:V23 G30:V30 G23 B32:B34 K35:V35 G35 G37:V37 B36:B37 K38:V40 G38:G40 B41:B42 B44 K43:V43 G43 G50 G45:G48 K45:V50 E44:V44 E41:V42 E36:V36 E32:V34 E24:V29 B4:B30 E4:V22 C4:D50">
-    <cfRule type="expression" dxfId="44" priority="110">
+  <conditionalFormatting sqref="B2:V3 K23:V23 G30:V30 G23 B32:B34 K36:V36 G36 G38:V38 B37:B38 K39:V41 G39:G41 B42:B43 B45 K44:V44 G44 G51 G46:G49 K46:V51 E45:V45 E42:V43 E37:V37 E32:V34 E24:V29 B4:B30 E4:V22 C4:D34 C36:D51">
+    <cfRule type="expression" dxfId="51" priority="117">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36 J36:V36">
+    <cfRule type="expression" dxfId="50" priority="94">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39 J39:V39">
+    <cfRule type="expression" dxfId="49" priority="92">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41 J41:V41">
+    <cfRule type="expression" dxfId="48" priority="90">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44 J44:V44">
+    <cfRule type="expression" dxfId="47" priority="88">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40 J40:V40">
+    <cfRule type="expression" dxfId="46" priority="86">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46 J46:V46">
+    <cfRule type="expression" dxfId="45" priority="84">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47 J47:V47 E47:F47 H47">
+    <cfRule type="expression" dxfId="44" priority="82">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="expression" dxfId="43" priority="80">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" dxfId="42" priority="77">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="expression" dxfId="41" priority="76">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46 H46">
+    <cfRule type="expression" dxfId="40" priority="75">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50 J50:V50">
+    <cfRule type="expression" dxfId="39" priority="73">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49 J49:V49 E49">
+    <cfRule type="expression" dxfId="38" priority="71">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:F50 H50">
+    <cfRule type="expression" dxfId="37" priority="69">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48 J48:V48">
+    <cfRule type="expression" dxfId="36" priority="67">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51 J51:V51 E51">
+    <cfRule type="expression" dxfId="35" priority="65">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="expression" dxfId="34" priority="57">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="expression" dxfId="33" priority="47">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="expression" dxfId="32" priority="46">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
+    <cfRule type="expression" dxfId="31" priority="45">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="expression" dxfId="30" priority="44">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="expression" dxfId="29" priority="43">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="expression" dxfId="28" priority="42">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="expression" dxfId="27" priority="41">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="expression" dxfId="26" priority="40">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="expression" dxfId="25" priority="33">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="expression" dxfId="24" priority="32">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="expression" dxfId="23" priority="31">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="expression" dxfId="22" priority="30">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="expression" dxfId="21" priority="29">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="expression" dxfId="20" priority="28">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="expression" dxfId="19" priority="27">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="expression" dxfId="18" priority="26">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="expression" dxfId="17" priority="25">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51">
+    <cfRule type="expression" dxfId="15" priority="23">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="expression" dxfId="14" priority="19">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="expression" dxfId="13" priority="18">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="expression" dxfId="12" priority="17">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41:F41">
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:F39">
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:F48">
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31 E31:V31">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:V35">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>K$1=$H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:V35 G35 C35:D35">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35 J35:V35">
-    <cfRule type="expression" dxfId="43" priority="87">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38 J38:V38">
-    <cfRule type="expression" dxfId="42" priority="85">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40 J40:V40">
-    <cfRule type="expression" dxfId="41" priority="83">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43 J43:V43">
-    <cfRule type="expression" dxfId="40" priority="81">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39 J39:V39">
-    <cfRule type="expression" dxfId="39" priority="79">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45 J45:V45">
-    <cfRule type="expression" dxfId="38" priority="77">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46 J46:V46 E46:F46 H46">
-    <cfRule type="expression" dxfId="37" priority="75">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="36" priority="73">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="35" priority="70">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="34" priority="69">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45 H45">
-    <cfRule type="expression" dxfId="33" priority="68">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49 J49:V49">
-    <cfRule type="expression" dxfId="32" priority="66">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48 J48:V48 E48">
-    <cfRule type="expression" dxfId="31" priority="64">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:F49 H49">
-    <cfRule type="expression" dxfId="30" priority="62">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47 J47:V47">
-    <cfRule type="expression" dxfId="29" priority="60">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50 J50:V50 E50">
-    <cfRule type="expression" dxfId="28" priority="58">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="expression" dxfId="27" priority="50">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="26" priority="40">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="25" priority="39">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="24" priority="38">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="23" priority="37">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="22" priority="36">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="21" priority="35">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="expression" dxfId="20" priority="34">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="19" priority="33">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="18" priority="26">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="17" priority="25">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="expression" dxfId="16" priority="24">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="expression" dxfId="15" priority="23">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="14" priority="22">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="expression" dxfId="13" priority="21">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
-    <cfRule type="expression" dxfId="12" priority="20">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="11" priority="19">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
-    <cfRule type="expression" dxfId="10" priority="18">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="9" priority="17">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="8" priority="16">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="expression" dxfId="7" priority="12">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="expression" dxfId="6" priority="11">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40:F40">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:F38">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:F47">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31 E31:V31">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5838,7 +6010,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <v>10</v>
@@ -5849,7 +6021,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>9</v>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E357A0E-043A-D648-A9FC-A12F057B8C35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31518659-5B1E-CC46-9967-73DDAC2E3746}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="620" yWindow="740" windowWidth="33700" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179021"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="159">
   <si>
     <t>Name</t>
   </si>
@@ -510,6 +510,12 @@
   </si>
   <si>
     <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>spell</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/spell/</t>
   </si>
 </sst>
 </file>
@@ -1665,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1748,19 +1754,19 @@
         <v>BST</v>
       </c>
       <c r="S1" s="3" t="str">
-        <f>H32</f>
+        <f>H33</f>
         <v>EDT</v>
       </c>
       <c r="T1" s="3" t="str">
-        <f>H45</f>
+        <f>H46</f>
         <v>CDT</v>
       </c>
       <c r="U1" s="3" t="str">
-        <f>H37</f>
+        <f>H38</f>
         <v>CDT</v>
       </c>
       <c r="V1" s="3" t="str">
-        <f>H42</f>
+        <f>H43</f>
         <v>CDT</v>
       </c>
     </row>
@@ -3182,9 +3188,9 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="19" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="C20" s="7">
         <v>19</v>
@@ -3192,17 +3198,18 @@
       <c r="D20" s="7">
         <v>19</v>
       </c>
-      <c r="E20" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>12</v>
+      <c r="E20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="H20" s="31" t="str">
+        <f>Sheet2!$A$7</f>
+        <v>CEST</v>
       </c>
       <c r="I20" s="17">
         <v>0.79166666666666663</v>
@@ -3260,11 +3267,9 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
-        <v>21</v>
-      </c>
+      <c r="A21" s="48"/>
       <c r="B21" s="19" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C21" s="7">
         <v>20</v>
@@ -3273,76 +3278,78 @@
         <v>20</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>12</v>
       </c>
       <c r="I21" s="17">
-        <v>0.875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="J21" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K21" s="26">
         <f>$I21+Sheet2!B$1/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="L21" s="24">
         <f>$I21+Sheet2!B$2/24</f>
-        <v>1.25</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="M21" s="24">
         <f>$I21+Sheet2!B$3/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.125</v>
       </c>
       <c r="N21" s="24">
         <f>$I21+Sheet2!B$4/24</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O21" s="24">
         <f>$I21+Sheet2!B$5/24</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="P21" s="24">
         <f>$I21+Sheet2!B$6/24</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="Q21" s="24">
         <f>$I21+Sheet2!B$7/24</f>
-        <v>0.95833333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="R21" s="24">
         <f>$I21+Sheet2!B$8/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="S21" s="24">
         <f>$I21+Sheet2!B$9/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="T21" s="24">
         <f>$I21+Sheet2!B$10/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="U21" s="24">
         <f>$I21+Sheet2!B$11/24</f>
-        <v>0.625</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="V21" s="24">
         <f>$I21+Sheet2!B$12/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
+      <c r="A22" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="B22" s="19" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="C22" s="7">
         <v>21</v>
@@ -3350,101 +3357,101 @@
       <c r="D22" s="7">
         <v>21</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="26">
+        <f>$I22+Sheet2!B$1/24</f>
+        <v>1.2916666666666667</v>
+      </c>
+      <c r="L22" s="24">
+        <f>$I22+Sheet2!B$2/24</f>
+        <v>1.25</v>
+      </c>
+      <c r="M22" s="24">
+        <f>$I22+Sheet2!B$3/24</f>
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="N22" s="24">
+        <f>$I22+Sheet2!B$4/24</f>
+        <v>1</v>
+      </c>
+      <c r="O22" s="24">
+        <f>$I22+Sheet2!B$5/24</f>
+        <v>1</v>
+      </c>
+      <c r="P22" s="24">
+        <f>$I22+Sheet2!B$6/24</f>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="24">
+        <f>$I22+Sheet2!B$7/24</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="R22" s="24">
+        <f>$I22+Sheet2!B$8/24</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="S22" s="24">
+        <f>$I22+Sheet2!B$9/24</f>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="T22" s="24">
+        <f>$I22+Sheet2!B$10/24</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U22" s="24">
+        <f>$I22+Sheet2!B$11/24</f>
+        <v>0.625</v>
+      </c>
+      <c r="V22" s="24">
+        <f>$I22+Sheet2!B$12/24</f>
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="50"/>
+      <c r="B23" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="7">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7">
+        <v>22</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F23" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G23" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="31" t="str">
+      <c r="H23" s="31" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I23" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J22" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="26">
-        <f>$I22+Sheet2!B$1/24</f>
-        <v>1.375</v>
-      </c>
-      <c r="L22" s="24">
-        <f>$I22+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="M22" s="24">
-        <f>$I22+Sheet2!B$3/24</f>
-        <v>1.2916666666666667</v>
-      </c>
-      <c r="N22" s="24">
-        <f>$I22+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="O22" s="24">
-        <f>$I22+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="P22" s="24">
-        <f>$I22+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="Q22" s="24">
-        <f>$I22+Sheet2!B$7/24</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="R22" s="24">
-        <f>$I22+Sheet2!B$8/24</f>
-        <v>1</v>
-      </c>
-      <c r="S22" s="24">
-        <f>$I22+Sheet2!B$9/24</f>
-        <v>0.79166666666666674</v>
-      </c>
-      <c r="T22" s="24">
-        <f>$I22+Sheet2!B$10/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="U22" s="24">
-        <f>$I22+Sheet2!B$11/24</f>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="V22" s="24">
-        <f>$I22+Sheet2!B$12/24</f>
-        <v>0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
-      <c r="B23" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="7">
-        <v>22</v>
-      </c>
-      <c r="D23" s="7">
-        <v>22</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="I23" s="43">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="J23" s="44" t="s">
+      <c r="J23" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K23" s="26">
@@ -3496,10 +3503,10 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50"/>
-      <c r="B24" s="13" t="s">
-        <v>37</v>
+      <c r="B24" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="C24" s="7">
         <v>23</v>
@@ -3507,26 +3514,25 @@
       <c r="D24" s="7">
         <v>23</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="31" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I24" s="24">
+      <c r="G24" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="43">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J24" s="28" t="s">
+      <c r="J24" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="26">
         <f>$I24+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -3578,7 +3584,7 @@
     <row r="25" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="50"/>
       <c r="B25" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>24</v>
@@ -3592,8 +3598,8 @@
       <c r="F25" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>116</v>
+      <c r="G25" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="H25" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3605,7 +3611,7 @@
       <c r="J25" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="26">
+      <c r="K25" s="12">
         <f>$I25+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -3656,8 +3662,8 @@
     </row>
     <row r="26" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="50"/>
-      <c r="B26" s="19" t="s">
-        <v>33</v>
+      <c r="B26" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="C26" s="7">
         <v>25</v>
@@ -3671,8 +3677,8 @@
       <c r="F26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>78</v>
+      <c r="G26" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="H26" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3735,8 +3741,8 @@
     </row>
     <row r="27" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="50"/>
-      <c r="B27" s="13" t="s">
-        <v>38</v>
+      <c r="B27" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="C27" s="7">
         <v>26</v>
@@ -3750,8 +3756,8 @@
       <c r="F27" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="23" t="s">
-        <v>133</v>
+      <c r="G27" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="H27" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3760,62 +3766,62 @@
       <c r="I27" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J27" s="30" t="s">
+      <c r="J27" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="26">
         <f>$I27+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="24">
         <f>$I27+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="24">
         <f>$I27+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N27" s="24">
         <f>$I27+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O27" s="24">
         <f>$I27+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P27" s="17">
+      <c r="P27" s="24">
         <f>$I27+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q27" s="17">
+      <c r="Q27" s="24">
         <f>$I27+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R27" s="17">
+      <c r="R27" s="24">
         <f>$I27+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S27" s="17">
+      <c r="S27" s="24">
         <f>$I27+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T27" s="17">
+      <c r="T27" s="24">
         <f>$I27+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U27" s="17">
+      <c r="U27" s="24">
         <f>$I27+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V27" s="17">
+      <c r="V27" s="24">
         <f>$I27+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
-      <c r="B28" s="19" t="s">
-        <v>34</v>
+      <c r="B28" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="C28" s="7">
         <v>27</v>
@@ -3829,8 +3835,8 @@
       <c r="F28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>79</v>
+      <c r="G28" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="H28" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3839,54 +3845,54 @@
       <c r="I28" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="J28" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="26">
+      <c r="K28" s="33">
         <f>$I28+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="17">
         <f>$I28+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M28" s="24">
+      <c r="M28" s="17">
         <f>$I28+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="17">
         <f>$I28+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O28" s="24">
+      <c r="O28" s="17">
         <f>$I28+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P28" s="24">
+      <c r="P28" s="17">
         <f>$I28+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q28" s="24">
+      <c r="Q28" s="17">
         <f>$I28+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R28" s="24">
+      <c r="R28" s="17">
         <f>$I28+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S28" s="24">
+      <c r="S28" s="17">
         <f>$I28+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T28" s="24">
+      <c r="T28" s="17">
         <f>$I28+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U28" s="24">
+      <c r="U28" s="17">
         <f>$I28+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V28" s="24">
+      <c r="V28" s="17">
         <f>$I28+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
@@ -3894,7 +3900,7 @@
     <row r="29" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="50"/>
       <c r="B29" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="7">
         <v>28</v>
@@ -3908,8 +3914,8 @@
       <c r="F29" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="23" t="s">
-        <v>110</v>
+      <c r="G29" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="H29" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3921,7 +3927,7 @@
       <c r="J29" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="26">
         <f>$I29+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -3973,7 +3979,7 @@
     <row r="30" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="50"/>
       <c r="B30" s="19" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="C30" s="7">
         <v>29</v>
@@ -3981,14 +3987,14 @@
       <c r="D30" s="7">
         <v>29</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F30" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="31" t="s">
-        <v>152</v>
+      <c r="G30" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="H30" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4000,7 +4006,7 @@
       <c r="J30" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="26">
+      <c r="K30" s="12">
         <f>$I30+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -4051,8 +4057,8 @@
     </row>
     <row r="31" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="50"/>
-      <c r="B31" s="13" t="s">
-        <v>146</v>
+      <c r="B31" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="C31" s="7">
         <v>30</v>
@@ -4060,14 +4066,14 @@
       <c r="D31" s="7">
         <v>30</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="23" t="s">
-        <v>147</v>
+      <c r="G31" s="31" t="s">
+        <v>152</v>
       </c>
       <c r="H31" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4076,62 +4082,62 @@
       <c r="I31" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J31" s="30" t="s">
+      <c r="J31" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K31" s="26">
         <f>$I31+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="24">
         <f>$I31+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="24">
         <f>$I31+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="24">
         <f>$I31+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O31" s="17">
+      <c r="O31" s="24">
         <f>$I31+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P31" s="17">
+      <c r="P31" s="24">
         <f>$I31+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q31" s="17">
+      <c r="Q31" s="24">
         <f>$I31+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R31" s="17">
+      <c r="R31" s="24">
         <f>$I31+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S31" s="17">
+      <c r="S31" s="24">
         <f>$I31+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T31" s="17">
+      <c r="T31" s="24">
         <f>$I31+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U31" s="17">
+      <c r="U31" s="24">
         <f>$I31+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V31" s="17">
+      <c r="V31" s="24">
         <f>$I31+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="50"/>
-      <c r="B32" s="19" t="s">
-        <v>31</v>
+      <c r="B32" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="C32" s="7">
         <v>31</v>
@@ -4145,8 +4151,8 @@
       <c r="F32" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>82</v>
+      <c r="G32" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="H32" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4155,54 +4161,54 @@
       <c r="I32" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J32" s="28" t="s">
+      <c r="J32" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="26">
+      <c r="K32" s="33">
         <f>$I32+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L32" s="24">
+      <c r="L32" s="17">
         <f>$I32+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M32" s="24">
+      <c r="M32" s="17">
         <f>$I32+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N32" s="24">
+      <c r="N32" s="17">
         <f>$I32+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O32" s="24">
+      <c r="O32" s="17">
         <f>$I32+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P32" s="24">
+      <c r="P32" s="17">
         <f>$I32+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q32" s="24">
+      <c r="Q32" s="17">
         <f>$I32+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R32" s="24">
+      <c r="R32" s="17">
         <f>$I32+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S32" s="24">
+      <c r="S32" s="17">
         <f>$I32+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T32" s="24">
+      <c r="T32" s="17">
         <f>$I32+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U32" s="24">
+      <c r="U32" s="17">
         <f>$I32+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V32" s="24">
+      <c r="V32" s="17">
         <f>$I32+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
@@ -4210,7 +4216,7 @@
     <row r="33" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="50"/>
       <c r="B33" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="7">
         <v>32</v>
@@ -4225,7 +4231,7 @@
         <v>22</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H33" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4289,7 +4295,7 @@
     <row r="34" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="50"/>
       <c r="B34" s="19" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C34" s="7">
         <v>33</v>
@@ -4301,10 +4307,10 @@
         <v>29</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>84</v>
+        <v>22</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="H34" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4367,8 +4373,8 @@
     </row>
     <row r="35" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="50"/>
-      <c r="B35" s="37" t="s">
-        <v>153</v>
+      <c r="B35" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="C35" s="7">
         <v>34</v>
@@ -4380,79 +4386,80 @@
         <v>29</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>73</v>
+        <v>47</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
       </c>
       <c r="I35" s="24">
-        <v>0</v>
-      </c>
-      <c r="J35" s="30" t="s">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J35" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K35" s="26">
         <f>$I35+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.375</v>
       </c>
       <c r="L35" s="24">
         <f>$I35+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="M35" s="24">
         <f>$I35+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="N35" s="24">
         <f>$I35+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="O35" s="24">
         <f>$I35+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="P35" s="24">
         <f>$I35+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="Q35" s="24">
         <f>$I35+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="R35" s="24">
         <f>$I35+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>1</v>
       </c>
       <c r="S35" s="24">
         <f>$I35+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="T35" s="24">
         <f>$I35+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="U35" s="24">
         <f>$I35+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="V35" s="24">
         <f>$I35+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="50"/>
       <c r="B36" s="37" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="C36" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>29</v>
@@ -4461,7 +4468,7 @@
         <v>22</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="H36" s="31" t="s">
         <v>73</v>
@@ -4524,22 +4531,22 @@
     <row r="37" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="50"/>
       <c r="B37" s="37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C37" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>74</v>
+      <c r="F37" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>73</v>
@@ -4601,23 +4608,23 @@
     </row>
     <row r="38" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="50"/>
-      <c r="B38" s="19" t="s">
-        <v>137</v>
+      <c r="B38" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="C38" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D38" s="7">
-        <v>36</v>
-      </c>
-      <c r="E38" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="42" t="s">
-        <v>22</v>
+      <c r="F38" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H38" s="31" t="s">
         <v>73</v>
@@ -4625,7 +4632,7 @@
       <c r="I38" s="24">
         <v>0</v>
       </c>
-      <c r="J38" s="28" t="s">
+      <c r="J38" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K38" s="26">
@@ -4680,22 +4687,22 @@
     <row r="39" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="50"/>
       <c r="B39" s="19" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="C39" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D39" s="7">
-        <v>37</v>
-      </c>
-      <c r="E39" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="42" t="s">
         <v>22</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H39" s="31" t="s">
         <v>73</v>
@@ -4703,7 +4710,7 @@
       <c r="I39" s="24">
         <v>0</v>
       </c>
-      <c r="J39" s="30" t="s">
+      <c r="J39" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K39" s="26">
@@ -4757,23 +4764,23 @@
     </row>
     <row r="40" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="50"/>
-      <c r="B40" s="37" t="s">
-        <v>65</v>
+      <c r="B40" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="C40" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D40" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H40" s="31" t="s">
         <v>73</v>
@@ -4836,22 +4843,22 @@
     <row r="41" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="50"/>
       <c r="B41" s="37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C41" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D41" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="29" t="s">
-        <v>122</v>
+        <v>47</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>124</v>
       </c>
       <c r="H41" s="31" t="s">
         <v>73</v>
@@ -4913,23 +4920,23 @@
     </row>
     <row r="42" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="50"/>
-      <c r="B42" s="19" t="s">
-        <v>60</v>
+      <c r="B42" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="C42" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D42" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>142</v>
+      <c r="F42" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>122</v>
       </c>
       <c r="H42" s="31" t="s">
         <v>73</v>
@@ -4992,22 +4999,22 @@
     <row r="43" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="50"/>
       <c r="B43" s="19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C43" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D43" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="20" t="s">
-        <v>22</v>
+      <c r="F43" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="H43" s="31" t="s">
         <v>73</v>
@@ -5015,7 +5022,7 @@
       <c r="I43" s="24">
         <v>0</v>
       </c>
-      <c r="J43" s="28" t="s">
+      <c r="J43" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K43" s="26">
@@ -5067,25 +5074,25 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="50"/>
       <c r="B44" s="19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C44" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D44" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>74</v>
+      <c r="F44" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="H44" s="31" t="s">
         <v>73</v>
@@ -5093,7 +5100,7 @@
       <c r="I44" s="24">
         <v>0</v>
       </c>
-      <c r="J44" s="30" t="s">
+      <c r="J44" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K44" s="26">
@@ -5145,25 +5152,25 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="50"/>
       <c r="B45" s="19" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C45" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D45" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="29" t="s">
-        <v>117</v>
+      <c r="F45" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>73</v>
@@ -5171,7 +5178,7 @@
       <c r="I45" s="24">
         <v>0</v>
       </c>
-      <c r="J45" s="28" t="s">
+      <c r="J45" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K45" s="26">
@@ -5226,102 +5233,102 @@
     <row r="46" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="50"/>
       <c r="B46" s="19" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C46" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D46" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G46" s="36" t="s">
-        <v>125</v>
+        <v>29</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>117</v>
       </c>
       <c r="H46" s="31" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="I46" s="24">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J46" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K46" s="26">
         <f>$I46+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L46" s="24">
         <f>$I46+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M46" s="24">
         <f>$I46+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N46" s="24">
         <f>$I46+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O46" s="24">
         <f>$I46+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P46" s="24">
         <f>$I46+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q46" s="24">
         <f>$I46+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R46" s="24">
         <f>$I46+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S46" s="24">
         <f>$I46+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T46" s="24">
         <f>$I46+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U46" s="24">
         <f>$I46+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V46" s="24">
         <f>$I46+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="50"/>
-      <c r="B47" s="37" t="s">
-        <v>67</v>
+      <c r="B47" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="C47" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D47" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>22</v>
+        <v>140</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="H47" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="31" t="s">
         <v>13</v>
       </c>
       <c r="I47" s="24">
@@ -5381,101 +5388,101 @@
     </row>
     <row r="48" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="50"/>
-      <c r="B48" s="19" t="s">
-        <v>70</v>
+      <c r="B48" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="C48" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D48" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="F48" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G48" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H48" s="31" t="s">
-        <v>72</v>
+      <c r="G48" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="I48" s="24">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J48" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K48" s="26">
         <f>$I48+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L48" s="24">
         <f>$I48+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M48" s="24">
         <f>$I48+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N48" s="24">
         <f>$I48+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O48" s="24">
         <f>$I48+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P48" s="24">
         <f>$I48+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q48" s="24">
         <f>$I48+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="R48" s="24">
         <f>$I48+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S48" s="24">
         <f>$I48+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T48" s="24">
         <f>$I48+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U48" s="24">
         <f>$I48+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V48" s="24">
         <f>$I48+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="50"/>
-      <c r="B49" s="37" t="s">
-        <v>69</v>
+      <c r="B49" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="C49" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D49" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>127</v>
+      <c r="F49" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="H49" s="31" t="s">
         <v>72</v>
@@ -5537,23 +5544,23 @@
     </row>
     <row r="50" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="50"/>
-      <c r="B50" s="19" t="s">
-        <v>68</v>
+      <c r="B50" s="37" t="s">
+        <v>69</v>
       </c>
       <c r="C50" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D50" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="39" t="s">
-        <v>126</v>
+      <c r="F50" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="H50" s="31" t="s">
         <v>72</v>
@@ -5615,23 +5622,23 @@
     </row>
     <row r="51" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="50"/>
-      <c r="B51" s="37" t="s">
-        <v>71</v>
+      <c r="B51" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="C51" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D51" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="23" t="s">
-        <v>129</v>
+      <c r="G51" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="H51" s="31" t="s">
         <v>72</v>
@@ -5691,8 +5698,83 @@
         <v>-0.20833333333333337</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="50"/>
+      <c r="B52" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="7">
+        <v>51</v>
+      </c>
+      <c r="D52" s="7">
+        <v>51</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H52" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I52" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J52" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="26">
+        <f>$I52+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L52" s="24">
+        <f>$I52+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M52" s="24">
+        <f>$I52+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N52" s="24">
+        <f>$I52+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O52" s="24">
+        <f>$I52+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P52" s="24">
+        <f>$I52+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q52" s="24">
+        <f>$I52+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R52" s="24">
+        <f>$I52+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S52" s="24">
+        <f>$I52+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T52" s="24">
+        <f>$I52+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U52" s="24">
+        <f>$I52+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V52" s="24">
+        <f>$I52+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="50"/>
@@ -5700,24 +5782,27 @@
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="50"/>
     </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A55" s="50"/>
+    </row>
   </sheetData>
-  <sortState ref="B2:V43">
-    <sortCondition ref="D2:D43"/>
+  <sortState ref="B2:V44">
+    <sortCondition ref="D2:D44"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
-    <mergeCell ref="A6:A20"/>
-    <mergeCell ref="A21:A54"/>
+    <mergeCell ref="A6:A21"/>
+    <mergeCell ref="A22:A55"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L4 K4:V34 K36:V51">
+  <conditionalFormatting sqref="K2:L4 K37:V52 K4:V35">
     <cfRule type="expression" dxfId="53" priority="111">
       <formula>K$1=$H2</formula>
     </cfRule>
@@ -5727,262 +5812,262 @@
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:V3 K23:V23 G30:V30 G23 B32:B34 K36:V36 G36 G38:V38 B37:B38 K39:V41 G39:G41 B42:B43 B45 K44:V44 G44 G51 G46:G49 K46:V51 E45:V45 E42:V43 E37:V37 E32:V34 E24:V29 B4:B30 E4:V22 C4:D34 C36:D51">
+  <conditionalFormatting sqref="B2:V3 K24:V24 G31:V31 G24 B33:B35 K37:V37 G37 G39:V39 B38:B39 K40:V42 G40:G42 B43:B44 B46 K45:V45 G45 G52 G47:G50 K47:V52 E46:V46 E43:V44 E38:V38 E33:V35 E25:V30 B4:B31 E4:V23 C4:D52">
     <cfRule type="expression" dxfId="51" priority="117">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36 J36:V36">
+  <conditionalFormatting sqref="B37 J37:V37">
     <cfRule type="expression" dxfId="50" priority="94">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39 J39:V39">
+  <conditionalFormatting sqref="B40 J40:V40">
     <cfRule type="expression" dxfId="49" priority="92">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41 J41:V41">
+  <conditionalFormatting sqref="B42 J42:V42">
     <cfRule type="expression" dxfId="48" priority="90">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44 J44:V44">
+  <conditionalFormatting sqref="B45 J45:V45">
     <cfRule type="expression" dxfId="47" priority="88">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40 J40:V40">
+  <conditionalFormatting sqref="B41 J41:V41">
     <cfRule type="expression" dxfId="46" priority="86">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46 J46:V46">
+  <conditionalFormatting sqref="B47 J47:V47">
     <cfRule type="expression" dxfId="45" priority="84">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47 J47:V47 E47:F47 H47">
+  <conditionalFormatting sqref="B48 J48:V48 E48:F48 H48">
     <cfRule type="expression" dxfId="44" priority="82">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+  <conditionalFormatting sqref="E37">
     <cfRule type="expression" dxfId="43" priority="80">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="E45">
     <cfRule type="expression" dxfId="42" priority="77">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E41">
     <cfRule type="expression" dxfId="41" priority="76">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46 H46">
+  <conditionalFormatting sqref="E47 H47">
     <cfRule type="expression" dxfId="40" priority="75">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50 J50:V50">
+  <conditionalFormatting sqref="B51 J51:V51">
     <cfRule type="expression" dxfId="39" priority="73">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49 J49:V49 E49">
+  <conditionalFormatting sqref="B50 J50:V50 E50">
     <cfRule type="expression" dxfId="38" priority="71">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50:F50 H50">
+  <conditionalFormatting sqref="E51:F51 H51">
     <cfRule type="expression" dxfId="37" priority="69">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48 J48:V48">
+  <conditionalFormatting sqref="B49 J49:V49">
     <cfRule type="expression" dxfId="36" priority="67">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51 J51:V51 E51">
+  <conditionalFormatting sqref="B52 J52:V52 E52">
     <cfRule type="expression" dxfId="35" priority="65">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
+  <conditionalFormatting sqref="F41">
     <cfRule type="expression" dxfId="34" priority="57">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
+  <conditionalFormatting sqref="I37">
     <cfRule type="expression" dxfId="33" priority="47">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
+  <conditionalFormatting sqref="I40">
     <cfRule type="expression" dxfId="32" priority="46">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
+  <conditionalFormatting sqref="I42">
     <cfRule type="expression" dxfId="31" priority="45">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
+  <conditionalFormatting sqref="I45">
     <cfRule type="expression" dxfId="30" priority="44">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
+  <conditionalFormatting sqref="I41">
     <cfRule type="expression" dxfId="29" priority="43">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
+  <conditionalFormatting sqref="I47">
     <cfRule type="expression" dxfId="28" priority="42">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
+  <conditionalFormatting sqref="I48">
     <cfRule type="expression" dxfId="27" priority="41">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
+  <conditionalFormatting sqref="I51">
     <cfRule type="expression" dxfId="26" priority="40">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
+  <conditionalFormatting sqref="H37">
     <cfRule type="expression" dxfId="25" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H40">
     <cfRule type="expression" dxfId="24" priority="32">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="H42">
     <cfRule type="expression" dxfId="23" priority="31">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
+  <conditionalFormatting sqref="H45">
     <cfRule type="expression" dxfId="22" priority="30">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
+  <conditionalFormatting sqref="H41">
     <cfRule type="expression" dxfId="21" priority="29">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
+  <conditionalFormatting sqref="H50">
     <cfRule type="expression" dxfId="20" priority="28">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
+  <conditionalFormatting sqref="I50">
     <cfRule type="expression" dxfId="19" priority="27">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
+  <conditionalFormatting sqref="H49">
     <cfRule type="expression" dxfId="18" priority="26">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
+  <conditionalFormatting sqref="I49">
     <cfRule type="expression" dxfId="17" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="H52">
     <cfRule type="expression" dxfId="16" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
+  <conditionalFormatting sqref="I52">
     <cfRule type="expression" dxfId="15" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
+  <conditionalFormatting sqref="F45">
     <cfRule type="expression" dxfId="14" priority="19">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+  <conditionalFormatting sqref="F47">
     <cfRule type="expression" dxfId="13" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="F50">
     <cfRule type="expression" dxfId="12" priority="17">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+  <conditionalFormatting sqref="F37">
     <cfRule type="expression" dxfId="11" priority="13">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41:F41">
+  <conditionalFormatting sqref="E42:F42">
     <cfRule type="expression" dxfId="10" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39:F39">
+  <conditionalFormatting sqref="E40:F40">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48:F48">
+  <conditionalFormatting sqref="E49:F49">
     <cfRule type="expression" dxfId="8" priority="10">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31 E31:V31">
+  <conditionalFormatting sqref="B32 E32:V32">
     <cfRule type="expression" dxfId="7" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:V35">
+  <conditionalFormatting sqref="K36:V36">
     <cfRule type="expression" dxfId="6" priority="6">
-      <formula>K$1=$H35</formula>
+      <formula>K$1=$H36</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:V35 G35 C35:D35">
+  <conditionalFormatting sqref="K36:V36 G36">
     <cfRule type="expression" dxfId="5" priority="7">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35 J35:V35">
+  <conditionalFormatting sqref="B36 J36:V36">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
+  <conditionalFormatting sqref="E36">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
+  <conditionalFormatting sqref="I36">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="H36">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+  <conditionalFormatting sqref="F36">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31518659-5B1E-CC46-9967-73DDAC2E3746}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1B54A5-4E6A-F84C-B8CF-DF31A0703226}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="620" yWindow="740" windowWidth="33700" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="168">
   <si>
     <t>Name</t>
   </si>
@@ -516,6 +516,33 @@
   </si>
   <si>
     <t>https://swgoh.gg/u/spell/</t>
+  </si>
+  <si>
+    <t>TZ EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">:clock1: </t>
+  </si>
+  <si>
+    <t>:clock2:</t>
+  </si>
+  <si>
+    <t>TZ CEST</t>
+  </si>
+  <si>
+    <t>TZ BST</t>
+  </si>
+  <si>
+    <t>:clock7:</t>
+  </si>
+  <si>
+    <t>TZ CST</t>
+  </si>
+  <si>
+    <t>:clock8:</t>
   </si>
 </sst>
 </file>
@@ -889,7 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -960,6 +987,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -974,11 +1004,56 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="60">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1019,9 +1094,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1671,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1734,39 +1808,39 @@
         <v>9</v>
       </c>
       <c r="N1" s="3" t="str">
-        <f>H11</f>
-        <v>CEST</v>
-      </c>
-      <c r="O1" s="3" t="str">
-        <f>H6</f>
-        <v>CEST</v>
-      </c>
-      <c r="P1" s="3" t="str">
-        <f>H8</f>
-        <v>CEST</v>
-      </c>
-      <c r="Q1" s="3" t="str">
         <f>H12</f>
         <v>CEST</v>
       </c>
+      <c r="O1" s="3" t="str">
+        <f>H7</f>
+        <v>CEST</v>
+      </c>
+      <c r="P1" s="3" t="str">
+        <f>H9</f>
+        <v>CEST</v>
+      </c>
+      <c r="Q1" s="3" t="str">
+        <f>H13</f>
+        <v>CEST</v>
+      </c>
       <c r="R1" s="3" t="str">
-        <f>H18</f>
+        <f>H21</f>
         <v>BST</v>
       </c>
       <c r="S1" s="3" t="str">
-        <f>H33</f>
+        <f>H36</f>
         <v>EDT</v>
       </c>
       <c r="T1" s="3" t="str">
-        <f>H46</f>
+        <f>H50</f>
         <v>CDT</v>
       </c>
       <c r="U1" s="3" t="str">
-        <f>H38</f>
+        <f>H42</f>
         <v>CDT</v>
       </c>
       <c r="V1" s="3" t="str">
-        <f>H43</f>
+        <f>H47</f>
         <v>CDT</v>
       </c>
     </row>
@@ -2005,9 +2079,9 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="19" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
@@ -2015,14 +2089,12 @@
       <c r="D5" s="7">
         <v>4</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>47</v>
+      <c r="E5" s="21"/>
+      <c r="F5" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="H5" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2083,12 +2155,10 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>42</v>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -2096,78 +2166,80 @@
       <c r="D6" s="7">
         <v>5</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="29" t="str">
+      <c r="E6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="31" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
       <c r="I6" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="12">
         <f>$I6+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="24">
         <f>$I6+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="24">
         <f>$I6+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="24">
         <f>$I6+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="24">
         <f>$I6+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="24">
         <f>$I6+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="24">
         <f>$I6+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="24">
         <f>$I6+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S6" s="24">
         <f>$I6+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="24">
         <f>$I6+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U6" s="17">
+      <c r="U6" s="24">
         <f>$I6+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V6" s="17">
+      <c r="V6" s="24">
         <f>$I6+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="19" t="s">
-        <v>41</v>
+      <c r="A7" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
@@ -2175,14 +2247,14 @@
       <c r="D7" s="7">
         <v>6</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>76</v>
+      <c r="E7" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="H7" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2194,59 +2266,59 @@
       <c r="J7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="27">
         <f>$I7+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="17">
         <f>$I7+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="17">
         <f>$I7+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="17">
         <f>$I7+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="17">
         <f>$I7+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="17">
         <f>$I7+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="17">
         <f>$I7+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R7" s="17">
         <f>$I7+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S7" s="24">
+      <c r="S7" s="17">
         <f>$I7+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T7" s="24">
+      <c r="T7" s="17">
         <f>$I7+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U7" s="24">
+      <c r="U7" s="17">
         <f>$I7+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V7" s="24">
+      <c r="V7" s="17">
         <f>$I7+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -2255,13 +2327,13 @@
         <v>7</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>109</v>
+        <v>18</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H8" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2273,7 +2345,7 @@
       <c r="J8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="12">
         <f>$I8+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2322,10 +2394,10 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
+    <row r="9" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="48"/>
       <c r="B9" s="19" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C9" s="7">
         <v>8</v>
@@ -2334,22 +2406,22 @@
         <v>8</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="31" t="str">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="29" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
       <c r="I9" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="26">
@@ -2402,9 +2474,9 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="7">
         <v>9</v>
@@ -2413,13 +2485,13 @@
         <v>9</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H10" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2431,7 +2503,7 @@
       <c r="J10" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="26">
         <f>$I10+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2480,10 +2552,10 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="48"/>
       <c r="B11" s="19" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C11" s="7">
         <v>10</v>
@@ -2492,25 +2564,25 @@
         <v>10</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="29" t="str">
+        <v>18</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="31" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
       <c r="I11" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="12">
         <f>$I11+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2560,9 +2632,9 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="13" t="s">
-        <v>44</v>
+      <c r="A12" s="48"/>
+      <c r="B12" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>11</v>
@@ -2570,14 +2642,14 @@
       <c r="D12" s="7">
         <v>11</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>16</v>
+      <c r="E12" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>88</v>
+        <v>105</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="H12" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2586,62 +2658,62 @@
       <c r="I12" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="26">
         <f>$I12+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="24">
         <f>$I12+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="24">
         <f>$I12+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="24">
         <f>$I12+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="24">
         <f>$I12+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="24">
         <f>$I12+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="24">
         <f>$I12+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="24">
         <f>$I12+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="24">
         <f>$I12+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T12" s="17">
+      <c r="T12" s="24">
         <f>$I12+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U12" s="17">
+      <c r="U12" s="24">
         <f>$I12+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V12" s="17">
+      <c r="V12" s="24">
         <f>$I12+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="19" t="s">
-        <v>49</v>
+    <row r="13" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="48"/>
+      <c r="B13" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C13" s="7">
         <v>12</v>
@@ -2649,78 +2721,78 @@
       <c r="D13" s="7">
         <v>12</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="31" t="str">
+      <c r="E13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="29" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
       <c r="I13" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="27">
         <f>$I13+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="17">
         <f>$I13+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="17">
         <f>$I13+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13" s="17">
         <f>$I13+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="17">
         <f>$I13+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P13" s="24">
+      <c r="P13" s="17">
         <f>$I13+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="17">
         <f>$I13+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R13" s="24">
+      <c r="R13" s="17">
         <f>$I13+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S13" s="24">
+      <c r="S13" s="17">
         <f>$I13+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T13" s="24">
+      <c r="T13" s="17">
         <f>$I13+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U13" s="24">
+      <c r="U13" s="17">
         <f>$I13+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V13" s="24">
+      <c r="V13" s="17">
         <f>$I13+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="48"/>
       <c r="B14" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>13</v>
@@ -2728,14 +2800,14 @@
       <c r="D14" s="7">
         <v>13</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>16</v>
+      <c r="E14" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H14" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2744,10 +2816,10 @@
       <c r="I14" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="26">
         <f>$I14+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2797,9 +2869,9 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" s="7">
         <v>14</v>
@@ -2807,14 +2879,14 @@
       <c r="D15" s="7">
         <v>14</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>92</v>
+      <c r="E15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H15" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2826,7 +2898,7 @@
       <c r="J15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="12">
         <f>$I15+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2876,9 +2948,9 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="19" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="C16" s="7">
         <v>15</v>
@@ -2887,76 +2959,77 @@
         <v>15</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>74</v>
+        <v>18</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="17">
-        <v>0.75</v>
+        <v>158</v>
+      </c>
+      <c r="H16" s="31" t="str">
+        <f>Sheet2!$A$7</f>
+        <v>CEST</v>
+      </c>
+      <c r="I16" s="24">
+        <v>0.70833333333333337</v>
       </c>
       <c r="J16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="12">
         <f>$I16+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L16" s="24">
         <f>$I16+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M16" s="24">
         <f>$I16+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N16" s="24">
         <f>$I16+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O16" s="24">
         <f>$I16+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P16" s="24">
         <f>$I16+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q16" s="24">
         <f>$I16+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R16" s="24">
         <f>$I16+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S16" s="24">
         <f>$I16+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T16" s="24">
         <f>$I16+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U16" s="24">
         <f>$I16+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V16" s="24">
         <f>$I16+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="13" t="s">
-        <v>53</v>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="48"/>
+      <c r="B17" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C17" s="7">
         <v>16</v>
@@ -2964,93 +3037,86 @@
       <c r="D17" s="7">
         <v>16</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="17">
+      <c r="E17" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="31" t="str">
+        <f>Sheet2!$A$7</f>
+        <v>CEST</v>
+      </c>
+      <c r="I17" s="24">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="26">
+        <f>$I17+Sheet2!B$1/24</f>
+        <v>1.125</v>
+      </c>
+      <c r="L17" s="24">
+        <f>$I17+Sheet2!B$2/24</f>
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="M17" s="24">
+        <f>$I17+Sheet2!B$3/24</f>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="N17" s="24">
+        <f>$I17+Sheet2!B$4/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O17" s="24">
+        <f>$I17+Sheet2!B$5/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P17" s="24">
+        <f>$I17+Sheet2!B$6/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q17" s="24">
+        <f>$I17+Sheet2!B$7/24</f>
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="R17" s="24">
+        <f>$I17+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="J17" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="33">
-        <f>$I17+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="L17" s="17">
-        <f>$I17+Sheet2!B$2/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="M17" s="17">
-        <f>$I17+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="N17" s="17">
-        <f>$I17+Sheet2!B$4/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="O17" s="17">
-        <f>$I17+Sheet2!B$5/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="P17" s="17">
-        <f>$I17+Sheet2!B$6/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="Q17" s="17">
-        <f>$I17+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="R17" s="17">
-        <f>$I17+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="S17" s="17">
+      <c r="S17" s="24">
         <f>$I17+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="T17" s="17">
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="T17" s="24">
         <f>$I17+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="U17" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="U17" s="24">
         <f>$I17+Sheet2!B$11/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="V17" s="17">
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="V17" s="24">
         <f>$I17+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
-      <c r="B18" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="7">
-        <v>17</v>
-      </c>
-      <c r="D18" s="7">
-        <v>17</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>104</v>
-      </c>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="48"/>
+      <c r="B18" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>112</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G18" s="31"/>
       <c r="H18" s="31" t="s">
         <v>12</v>
       </c>
@@ -3109,25 +3175,25 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="48"/>
       <c r="B19" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>12</v>
@@ -3188,419 +3254,413 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="19" t="s">
-        <v>157</v>
+      <c r="A20" s="48"/>
+      <c r="B20" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C20" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="7">
-        <v>19</v>
-      </c>
-      <c r="E20" s="21" t="s">
         <v>18</v>
       </c>
+      <c r="E20" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="F20" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="H20" s="31" t="str">
-        <f>Sheet2!$A$7</f>
-        <v>CEST</v>
+        <v>22</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>12</v>
       </c>
       <c r="I20" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="33">
+        <f>$I20+Sheet2!B$1/24</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="L20" s="17">
+        <f>$I20+Sheet2!B$2/24</f>
+        <v>1.125</v>
+      </c>
+      <c r="M20" s="17">
+        <f>$I20+Sheet2!B$3/24</f>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="N20" s="17">
+        <f>$I20+Sheet2!B$4/24</f>
+        <v>0.875</v>
+      </c>
+      <c r="O20" s="17">
+        <f>$I20+Sheet2!B$5/24</f>
+        <v>0.875</v>
+      </c>
+      <c r="P20" s="17">
+        <f>$I20+Sheet2!B$6/24</f>
+        <v>0.875</v>
+      </c>
+      <c r="Q20" s="17">
+        <f>$I20+Sheet2!B$7/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="R20" s="17">
+        <f>$I20+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="J20" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="26">
-        <f>$I20+Sheet2!B$1/24</f>
-        <v>1.2083333333333333</v>
-      </c>
-      <c r="L20" s="24">
-        <f>$I20+Sheet2!B$2/24</f>
-        <v>1.1666666666666665</v>
-      </c>
-      <c r="M20" s="24">
-        <f>$I20+Sheet2!B$3/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="N20" s="24">
-        <f>$I20+Sheet2!B$4/24</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="O20" s="24">
-        <f>$I20+Sheet2!B$5/24</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="P20" s="24">
-        <f>$I20+Sheet2!B$6/24</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="Q20" s="24">
-        <f>$I20+Sheet2!B$7/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="R20" s="24">
-        <f>$I20+Sheet2!B$8/24</f>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="S20" s="24">
+      <c r="S20" s="17">
         <f>$I20+Sheet2!B$9/24</f>
-        <v>0.625</v>
-      </c>
-      <c r="T20" s="24">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T20" s="17">
         <f>$I20+Sheet2!B$10/24</f>
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="U20" s="24">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="U20" s="17">
         <f>$I20+Sheet2!B$11/24</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="V20" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="V20" s="17">
         <f>$I20+Sheet2!B$12/24</f>
-        <v>0.49999999999999994</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48"/>
-      <c r="B21" s="19" t="s">
-        <v>93</v>
+      <c r="B21" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="C21" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="7">
-        <v>20</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>94</v>
+        <v>19</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>12</v>
       </c>
       <c r="I21" s="17">
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="J21" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K21" s="26">
         <f>$I21+Sheet2!B$1/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L21" s="24">
         <f>$I21+Sheet2!B$2/24</f>
-        <v>1.1666666666666665</v>
+        <v>1.125</v>
       </c>
       <c r="M21" s="24">
         <f>$I21+Sheet2!B$3/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N21" s="24">
         <f>$I21+Sheet2!B$4/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="O21" s="24">
         <f>$I21+Sheet2!B$5/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="P21" s="24">
         <f>$I21+Sheet2!B$6/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="Q21" s="24">
         <f>$I21+Sheet2!B$7/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R21" s="24">
         <f>$I21+Sheet2!B$8/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S21" s="24">
         <f>$I21+Sheet2!B$9/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T21" s="24">
         <f>$I21+Sheet2!B$10/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U21" s="24">
         <f>$I21+Sheet2!B$11/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="V21" s="24">
         <f>$I21+Sheet2!B$12/24</f>
-        <v>0.49999999999999994</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
-        <v>21</v>
-      </c>
+      <c r="A22" s="48"/>
       <c r="B22" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="7">
-        <v>21</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>106</v>
+        <v>20</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>100</v>
+        <v>132</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>101</v>
       </c>
       <c r="H22" s="31" t="s">
         <v>12</v>
       </c>
       <c r="I22" s="17">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="J22" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K22" s="26">
         <f>$I22+Sheet2!B$1/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L22" s="24">
         <f>$I22+Sheet2!B$2/24</f>
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="M22" s="24">
         <f>$I22+Sheet2!B$3/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N22" s="24">
         <f>$I22+Sheet2!B$4/24</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="O22" s="24">
         <f>$I22+Sheet2!B$5/24</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="P22" s="24">
         <f>$I22+Sheet2!B$6/24</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Q22" s="24">
         <f>$I22+Sheet2!B$7/24</f>
-        <v>0.95833333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R22" s="24">
         <f>$I22+Sheet2!B$8/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S22" s="24">
         <f>$I22+Sheet2!B$9/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T22" s="24">
         <f>$I22+Sheet2!B$10/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U22" s="24">
         <f>$I22+Sheet2!B$11/24</f>
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="V22" s="24">
         <f>$I22+Sheet2!B$12/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="19" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C23" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="7">
-        <v>22</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="31" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I23" s="24">
-        <v>0.95833333333333337</v>
+        <v>21</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="17">
+        <v>0.79166666666666663</v>
       </c>
       <c r="J23" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K23" s="26">
         <f>$I23+Sheet2!B$1/24</f>
-        <v>1.375</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="L23" s="24">
         <f>$I23+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="M23" s="24">
         <f>$I23+Sheet2!B$3/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="N23" s="24">
         <f>$I23+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O23" s="24">
         <f>$I23+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="P23" s="24">
         <f>$I23+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="Q23" s="24">
         <f>$I23+Sheet2!B$7/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="R23" s="24">
         <f>$I23+Sheet2!B$8/24</f>
-        <v>1</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="S23" s="24">
         <f>$I23+Sheet2!B$9/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.625</v>
       </c>
       <c r="T23" s="24">
         <f>$I23+Sheet2!B$10/24</f>
-        <v>0.75</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="U23" s="24">
         <f>$I23+Sheet2!B$11/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="V23" s="24">
         <f>$I23+Sheet2!B$12/24</f>
-        <v>0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="50" t="s">
+        <v>21</v>
+      </c>
       <c r="B24" s="19" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="C24" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="7">
-        <v>23</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="I24" s="43">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="J24" s="44" t="s">
+      <c r="E24" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="J24" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K24" s="26">
         <f>$I24+Sheet2!B$1/24</f>
-        <v>1.375</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="L24" s="24">
         <f>$I24+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
+        <v>1.25</v>
       </c>
       <c r="M24" s="24">
         <f>$I24+Sheet2!B$3/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="N24" s="24">
         <f>$I24+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
+        <v>1</v>
       </c>
       <c r="O24" s="24">
         <f>$I24+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
+        <v>1</v>
       </c>
       <c r="P24" s="24">
         <f>$I24+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="24">
         <f>$I24+Sheet2!B$7/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="R24" s="24">
         <f>$I24+Sheet2!B$8/24</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="S24" s="24">
         <f>$I24+Sheet2!B$9/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="T24" s="24">
         <f>$I24+Sheet2!B$10/24</f>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U24" s="24">
         <f>$I24+Sheet2!B$11/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="V24" s="24">
         <f>$I24+Sheet2!B$12/24</f>
-        <v>0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
-      <c r="B25" s="13" t="s">
-        <v>37</v>
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="51"/>
+      <c r="B25" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="C25" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="7">
-        <v>24</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>77</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="31"/>
       <c r="H25" s="31" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
@@ -3611,7 +3671,7 @@
       <c r="J25" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="26">
         <f>$I25+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -3660,25 +3720,25 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-      <c r="B26" s="13" t="s">
-        <v>35</v>
+    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="51"/>
+      <c r="B26" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="C26" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>116</v>
+        <v>47</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="H26" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3739,34 +3799,33 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
+    <row r="27" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="51"/>
       <c r="B27" s="19" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="C27" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="7">
-        <v>26</v>
-      </c>
-      <c r="E27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="31" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I27" s="24">
+      <c r="G27" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" s="43">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J27" s="28" t="s">
+      <c r="J27" s="44" t="s">
         <v>15</v>
       </c>
       <c r="K27" s="26">
@@ -3819,15 +3878,15 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>29</v>
@@ -3835,8 +3894,8 @@
       <c r="F28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="23" t="s">
-        <v>133</v>
+      <c r="G28" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="H28" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3845,68 +3904,68 @@
       <c r="I28" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J28" s="30" t="s">
+      <c r="J28" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K28" s="12">
         <f>$I28+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="24">
         <f>$I28+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M28" s="24">
         <f>$I28+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="24">
         <f>$I28+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O28" s="24">
         <f>$I28+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P28" s="17">
+      <c r="P28" s="24">
         <f>$I28+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="Q28" s="24">
         <f>$I28+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R28" s="17">
+      <c r="R28" s="24">
         <f>$I28+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S28" s="17">
+      <c r="S28" s="24">
         <f>$I28+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T28" s="17">
+      <c r="T28" s="24">
         <f>$I28+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U28" s="17">
+      <c r="U28" s="24">
         <f>$I28+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V28" s="17">
+      <c r="V28" s="24">
         <f>$I28+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
-      <c r="B29" s="19" t="s">
-        <v>34</v>
+      <c r="A29" s="51"/>
+      <c r="B29" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="C29" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>29</v>
@@ -3914,8 +3973,8 @@
       <c r="F29" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>79</v>
+      <c r="G29" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="H29" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -3977,15 +4036,15 @@
       </c>
     </row>
     <row r="30" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C30" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>29</v>
@@ -3993,8 +4052,8 @@
       <c r="F30" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="23" t="s">
-        <v>110</v>
+      <c r="G30" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="H30" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4006,7 +4065,7 @@
       <c r="J30" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="26">
         <f>$I30+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -4056,24 +4115,24 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="50"/>
-      <c r="B31" s="19" t="s">
-        <v>151</v>
+      <c r="A31" s="51"/>
+      <c r="B31" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="7">
-        <v>30</v>
-      </c>
-      <c r="E31" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="E31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="31" t="s">
-        <v>152</v>
+      <c r="G31" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="H31" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4082,68 +4141,68 @@
       <c r="I31" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J31" s="28" t="s">
+      <c r="J31" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="26">
+      <c r="K31" s="33">
         <f>$I31+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="17">
         <f>$I31+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M31" s="24">
+      <c r="M31" s="17">
         <f>$I31+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N31" s="24">
+      <c r="N31" s="17">
         <f>$I31+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O31" s="24">
+      <c r="O31" s="17">
         <f>$I31+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P31" s="24">
+      <c r="P31" s="17">
         <f>$I31+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q31" s="24">
+      <c r="Q31" s="17">
         <f>$I31+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R31" s="24">
+      <c r="R31" s="17">
         <f>$I31+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S31" s="24">
+      <c r="S31" s="17">
         <f>$I31+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T31" s="24">
+      <c r="T31" s="17">
         <f>$I31+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U31" s="24">
+      <c r="U31" s="17">
         <f>$I31+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V31" s="24">
+      <c r="V31" s="17">
         <f>$I31+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
-      <c r="B32" s="13" t="s">
-        <v>146</v>
+      <c r="A32" s="51"/>
+      <c r="B32" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C32" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>29</v>
@@ -4151,8 +4210,8 @@
       <c r="F32" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="23" t="s">
-        <v>147</v>
+      <c r="G32" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="H32" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4161,68 +4220,68 @@
       <c r="I32" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J32" s="30" t="s">
+      <c r="J32" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="33">
+      <c r="K32" s="26">
         <f>$I32+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="24">
         <f>$I32+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32" s="24">
         <f>$I32+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="24">
         <f>$I32+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O32" s="17">
+      <c r="O32" s="24">
         <f>$I32+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P32" s="17">
+      <c r="P32" s="24">
         <f>$I32+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q32" s="17">
+      <c r="Q32" s="24">
         <f>$I32+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R32" s="17">
+      <c r="R32" s="24">
         <f>$I32+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S32" s="17">
+      <c r="S32" s="24">
         <f>$I32+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T32" s="17">
+      <c r="T32" s="24">
         <f>$I32+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U32" s="17">
+      <c r="U32" s="24">
         <f>$I32+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V32" s="17">
+      <c r="V32" s="24">
         <f>$I32+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="50"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="7">
         <v>31</v>
       </c>
-      <c r="C33" s="7">
-        <v>32</v>
-      </c>
       <c r="D33" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>29</v>
@@ -4230,8 +4289,8 @@
       <c r="F33" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>82</v>
+      <c r="G33" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="H33" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4243,7 +4302,7 @@
       <c r="J33" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="26">
+      <c r="K33" s="12">
         <f>$I33+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -4293,24 +4352,24 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="50"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="7">
         <v>32</v>
       </c>
-      <c r="C34" s="7">
-        <v>33</v>
-      </c>
       <c r="D34" s="7">
-        <v>33</v>
-      </c>
-      <c r="E34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>83</v>
+      <c r="G34" s="31" t="s">
+        <v>152</v>
       </c>
       <c r="H34" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4372,24 +4431,24 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
-      <c r="B35" s="19" t="s">
-        <v>46</v>
+      <c r="A35" s="51"/>
+      <c r="B35" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="C35" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>84</v>
+        <v>22</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="H35" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4398,68 +4457,68 @@
       <c r="I35" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J35" s="28" t="s">
+      <c r="J35" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="26">
+      <c r="K35" s="33">
         <f>$I35+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L35" s="24">
+      <c r="L35" s="17">
         <f>$I35+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M35" s="24">
+      <c r="M35" s="17">
         <f>$I35+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N35" s="24">
+      <c r="N35" s="17">
         <f>$I35+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O35" s="24">
+      <c r="O35" s="17">
         <f>$I35+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P35" s="24">
+      <c r="P35" s="17">
         <f>$I35+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q35" s="24">
+      <c r="Q35" s="17">
         <f>$I35+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R35" s="24">
+      <c r="R35" s="17">
         <f>$I35+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S35" s="24">
+      <c r="S35" s="17">
         <f>$I35+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T35" s="24">
+      <c r="T35" s="17">
         <f>$I35+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U35" s="24">
+      <c r="U35" s="17">
         <f>$I35+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V35" s="24">
+      <c r="V35" s="17">
         <f>$I35+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
-      <c r="B36" s="37" t="s">
-        <v>153</v>
+      <c r="A36" s="51"/>
+      <c r="B36" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="C36" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>29</v>
@@ -4467,77 +4526,78 @@
       <c r="F36" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>73</v>
+      <c r="G36" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
       </c>
       <c r="I36" s="24">
-        <v>0</v>
-      </c>
-      <c r="J36" s="30" t="s">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J36" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K36" s="26">
         <f>$I36+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.375</v>
       </c>
       <c r="L36" s="24">
         <f>$I36+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="M36" s="24">
         <f>$I36+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="N36" s="24">
         <f>$I36+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="O36" s="24">
         <f>$I36+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="P36" s="24">
         <f>$I36+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="Q36" s="24">
         <f>$I36+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="R36" s="24">
         <f>$I36+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>1</v>
       </c>
       <c r="S36" s="24">
         <f>$I36+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="T36" s="24">
         <f>$I36+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="U36" s="24">
         <f>$I36+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="V36" s="24">
         <f>$I36+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
-      <c r="B37" s="37" t="s">
-        <v>61</v>
+      <c r="A37" s="51"/>
+      <c r="B37" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C37" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>29</v>
@@ -4545,172 +4605,166 @@
       <c r="F37" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H37" s="31" t="s">
-        <v>73</v>
+      <c r="G37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
       </c>
       <c r="I37" s="24">
-        <v>0</v>
-      </c>
-      <c r="J37" s="30" t="s">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J37" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K37" s="26">
         <f>$I37+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.375</v>
       </c>
       <c r="L37" s="24">
         <f>$I37+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="M37" s="24">
         <f>$I37+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="N37" s="24">
         <f>$I37+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="O37" s="24">
         <f>$I37+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="P37" s="24">
         <f>$I37+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="Q37" s="24">
         <f>$I37+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="R37" s="24">
         <f>$I37+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>1</v>
       </c>
       <c r="S37" s="24">
         <f>$I37+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="T37" s="24">
         <f>$I37+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="U37" s="24">
         <f>$I37+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="V37" s="24">
         <f>$I37+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
-      <c r="B38" s="37" t="s">
-        <v>59</v>
+      <c r="A38" s="51"/>
+      <c r="B38" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="C38" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="H38" s="31" t="s">
-        <v>73</v>
+      <c r="F38" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
       </c>
       <c r="I38" s="24">
-        <v>0</v>
-      </c>
-      <c r="J38" s="30" t="s">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J38" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K38" s="26">
         <f>$I38+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.375</v>
       </c>
       <c r="L38" s="24">
         <f>$I38+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="M38" s="24">
         <f>$I38+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="N38" s="24">
         <f>$I38+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="O38" s="24">
         <f>$I38+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="P38" s="24">
         <f>$I38+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="Q38" s="24">
         <f>$I38+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="R38" s="24">
         <f>$I38+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>1</v>
       </c>
       <c r="S38" s="24">
         <f>$I38+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="T38" s="24">
         <f>$I38+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="U38" s="24">
         <f>$I38+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="V38" s="24">
         <f>$I38+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="7">
-        <v>38</v>
-      </c>
-      <c r="D39" s="7">
-        <v>38</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>136</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" s="9"/>
       <c r="H39" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I39" s="24">
         <v>0</v>
       </c>
-      <c r="J39" s="28" t="s">
+      <c r="J39" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K39" s="26">
@@ -4763,15 +4817,15 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
-      <c r="B40" s="19" t="s">
-        <v>62</v>
+      <c r="A40" s="51"/>
+      <c r="B40" s="37" t="s">
+        <v>153</v>
       </c>
       <c r="C40" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D40" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>29</v>
@@ -4780,7 +4834,7 @@
         <v>22</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="H40" s="31" t="s">
         <v>73</v>
@@ -4841,24 +4895,24 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="50"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D41" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="H41" s="31" t="s">
         <v>73</v>
@@ -4919,24 +4973,24 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="50"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C42" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D42" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="29" t="s">
-        <v>122</v>
+      <c r="F42" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>134</v>
       </c>
       <c r="H42" s="31" t="s">
         <v>73</v>
@@ -4997,24 +5051,24 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="50"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="19" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="C43" s="7">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D43" s="7">
-        <v>42</v>
-      </c>
-      <c r="E43" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>74</v>
+      <c r="F43" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H43" s="31" t="s">
         <v>73</v>
@@ -5022,7 +5076,7 @@
       <c r="I43" s="24">
         <v>0</v>
       </c>
-      <c r="J43" s="30" t="s">
+      <c r="J43" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K43" s="26">
@@ -5075,15 +5129,15 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="50"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C44" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D44" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>29</v>
@@ -5092,7 +5146,7 @@
         <v>22</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="H44" s="31" t="s">
         <v>73</v>
@@ -5100,7 +5154,7 @@
       <c r="I44" s="24">
         <v>0</v>
       </c>
-      <c r="J44" s="28" t="s">
+      <c r="J44" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K44" s="26">
@@ -5152,25 +5206,25 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="50"/>
-      <c r="B45" s="19" t="s">
-        <v>64</v>
+    <row r="45" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="51"/>
+      <c r="B45" s="37" t="s">
+        <v>65</v>
       </c>
       <c r="C45" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D45" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>74</v>
+      <c r="F45" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>73</v>
@@ -5231,15 +5285,15 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="50"/>
-      <c r="B46" s="19" t="s">
-        <v>57</v>
+      <c r="A46" s="51"/>
+      <c r="B46" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="C46" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D46" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>29</v>
@@ -5248,7 +5302,7 @@
         <v>22</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H46" s="31" t="s">
         <v>73</v>
@@ -5256,7 +5310,7 @@
       <c r="I46" s="24">
         <v>0</v>
       </c>
-      <c r="J46" s="28" t="s">
+      <c r="J46" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K46" s="26">
@@ -5309,485 +5363,797 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="50"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C47" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D47" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G47" s="36" t="s">
-        <v>125</v>
+        <v>74</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>142</v>
       </c>
       <c r="H47" s="31" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="I47" s="24">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J47" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K47" s="26">
         <f>$I47+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L47" s="24">
         <f>$I47+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M47" s="24">
         <f>$I47+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N47" s="24">
         <f>$I47+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O47" s="24">
         <f>$I47+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P47" s="24">
         <f>$I47+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q47" s="24">
         <f>$I47+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R47" s="24">
         <f>$I47+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S47" s="24">
         <f>$I47+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T47" s="24">
         <f>$I47+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U47" s="24">
         <f>$I47+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V47" s="24">
         <f>$I47+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="50"/>
-      <c r="B48" s="37" t="s">
-        <v>67</v>
+      <c r="A48" s="51"/>
+      <c r="B48" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="C48" s="7">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D48" s="7">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G48" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="H48" s="37" t="s">
-        <v>13</v>
+      <c r="G48" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="I48" s="24">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J48" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K48" s="26">
         <f>$I48+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L48" s="24">
         <f>$I48+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M48" s="24">
         <f>$I48+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N48" s="24">
         <f>$I48+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O48" s="24">
         <f>$I48+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P48" s="24">
         <f>$I48+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q48" s="24">
         <f>$I48+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R48" s="24">
         <f>$I48+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S48" s="24">
         <f>$I48+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T48" s="24">
         <f>$I48+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U48" s="24">
         <f>$I48+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V48" s="24">
         <f>$I48+Sheet2!B$12/24</f>
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="50"/>
+        <v>-0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="51"/>
       <c r="B49" s="19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C49" s="7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D49" s="7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>128</v>
+      <c r="F49" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I49" s="24">
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="J49" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K49" s="26">
         <f>$I49+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L49" s="24">
         <f>$I49+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="M49" s="24">
         <f>$I49+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N49" s="24">
         <f>$I49+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="O49" s="24">
         <f>$I49+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="P49" s="24">
         <f>$I49+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="Q49" s="24">
         <f>$I49+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R49" s="24">
         <f>$I49+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S49" s="24">
         <f>$I49+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T49" s="24">
         <f>$I49+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U49" s="24">
         <f>$I49+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.25</v>
       </c>
       <c r="V49" s="24">
         <f>$I49+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="50"/>
-      <c r="B50" s="37" t="s">
-        <v>69</v>
+      <c r="A50" s="51"/>
+      <c r="B50" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="C50" s="7">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D50" s="7">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>127</v>
+      <c r="F50" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>117</v>
       </c>
       <c r="H50" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I50" s="24">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J50" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K50" s="26">
         <f>$I50+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L50" s="24">
         <f>$I50+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="M50" s="24">
         <f>$I50+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N50" s="24">
         <f>$I50+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="O50" s="24">
         <f>$I50+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="P50" s="24">
         <f>$I50+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="Q50" s="24">
         <f>$I50+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R50" s="24">
         <f>$I50+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S50" s="24">
         <f>$I50+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T50" s="24">
         <f>$I50+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U50" s="24">
         <f>$I50+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.25</v>
       </c>
       <c r="V50" s="24">
         <f>$I50+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="50"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C51" s="7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D51" s="7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="39" t="s">
-        <v>126</v>
+        <v>140</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="36" t="s">
+        <v>125</v>
       </c>
       <c r="H51" s="31" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="I51" s="24">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J51" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K51" s="26">
         <f>$I51+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L51" s="24">
         <f>$I51+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M51" s="24">
         <f>$I51+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N51" s="24">
         <f>$I51+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O51" s="24">
         <f>$I51+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P51" s="24">
         <f>$I51+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q51" s="24">
         <f>$I51+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="R51" s="24">
         <f>$I51+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S51" s="24">
         <f>$I51+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T51" s="24">
         <f>$I51+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U51" s="24">
         <f>$I51+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V51" s="24">
         <f>$I51+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="50"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C52" s="7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D52" s="7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="40" t="s">
+      <c r="F52" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="H52" s="31" t="s">
-        <v>72</v>
+      <c r="G52" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="H52" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="I52" s="24">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J52" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K52" s="26">
         <f>$I52+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L52" s="24">
         <f>$I52+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M52" s="24">
         <f>$I52+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N52" s="24">
         <f>$I52+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O52" s="24">
         <f>$I52+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P52" s="24">
         <f>$I52+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q52" s="24">
         <f>$I52+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="R52" s="24">
         <f>$I52+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S52" s="24">
         <f>$I52+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T52" s="24">
         <f>$I52+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U52" s="24">
         <f>$I52+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V52" s="24">
         <f>$I52+Sheet2!B$12/24</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="51"/>
+      <c r="B53" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="7">
+        <v>50</v>
+      </c>
+      <c r="D53" s="7">
+        <v>50</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J53" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" s="26">
+        <f>$I53+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L53" s="24">
+        <f>$I53+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M53" s="24">
+        <f>$I53+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N53" s="24">
+        <f>$I53+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O53" s="24">
+        <f>$I53+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P53" s="24">
+        <f>$I53+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q53" s="24">
+        <f>$I53+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R53" s="24">
+        <f>$I53+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S53" s="24">
+        <f>$I53+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T53" s="24">
+        <f>$I53+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U53" s="24">
+        <f>$I53+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V53" s="24">
+        <f>$I53+Sheet2!B$12/24</f>
         <v>-0.20833333333333337</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A53" s="50"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A54" s="50"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A55" s="50"/>
+    <row r="54" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="51"/>
+      <c r="B54" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="7">
+        <v>51</v>
+      </c>
+      <c r="D54" s="7">
+        <v>51</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J54" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="26">
+        <f>$I54+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L54" s="24">
+        <f>$I54+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M54" s="24">
+        <f>$I54+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N54" s="24">
+        <f>$I54+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O54" s="24">
+        <f>$I54+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P54" s="24">
+        <f>$I54+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q54" s="24">
+        <f>$I54+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R54" s="24">
+        <f>$I54+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S54" s="24">
+        <f>$I54+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T54" s="24">
+        <f>$I54+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U54" s="24">
+        <f>$I54+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V54" s="24">
+        <f>$I54+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="51"/>
+      <c r="B55" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="7">
+        <v>52</v>
+      </c>
+      <c r="D55" s="7">
+        <v>52</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="H55" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I55" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J55" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" s="26">
+        <f>$I55+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L55" s="24">
+        <f>$I55+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M55" s="24">
+        <f>$I55+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N55" s="24">
+        <f>$I55+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O55" s="24">
+        <f>$I55+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P55" s="24">
+        <f>$I55+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q55" s="24">
+        <f>$I55+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R55" s="24">
+        <f>$I55+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S55" s="24">
+        <f>$I55+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T55" s="24">
+        <f>$I55+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U55" s="24">
+        <f>$I55+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V55" s="24">
+        <f>$I55+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="51"/>
+      <c r="B56" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="7">
+        <v>53</v>
+      </c>
+      <c r="D56" s="7">
+        <v>53</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I56" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J56" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" s="26">
+        <f>$I56+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L56" s="24">
+        <f>$I56+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M56" s="24">
+        <f>$I56+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N56" s="24">
+        <f>$I56+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O56" s="24">
+        <f>$I56+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P56" s="24">
+        <f>$I56+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q56" s="24">
+        <f>$I56+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R56" s="24">
+        <f>$I56+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S56" s="24">
+        <f>$I56+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T56" s="24">
+        <f>$I56+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U56" s="24">
+        <f>$I56+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V56" s="24">
+        <f>$I56+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A57" s="51"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A58" s="51"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A59" s="51"/>
     </row>
   </sheetData>
-  <sortState ref="B2:V44">
-    <sortCondition ref="D2:D44"/>
+  <sortState ref="B2:V48">
+    <sortCondition ref="D2:D48"/>
   </sortState>
   <customSheetViews>
     <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
@@ -5799,275 +6165,305 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
-    <mergeCell ref="A6:A21"/>
-    <mergeCell ref="A22:A55"/>
+    <mergeCell ref="A7:A23"/>
+    <mergeCell ref="A24:A59"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L4 K37:V52 K4:V35">
-    <cfRule type="expression" dxfId="53" priority="111">
+  <conditionalFormatting sqref="K2:L5 K4:V15 K17:V38 K40:V56">
+    <cfRule type="expression" dxfId="59" priority="117">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:V4">
-    <cfRule type="expression" dxfId="52" priority="113">
+  <conditionalFormatting sqref="K2:V5">
+    <cfRule type="expression" dxfId="58" priority="119">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:V3 K24:V24 G31:V31 G24 B33:B35 K37:V37 G37 G39:V39 B38:B39 K40:V42 G40:G42 B43:B44 B46 K45:V45 G45 G52 G47:G50 K47:V52 E46:V46 E43:V44 E38:V38 E33:V35 E25:V30 B4:B31 E4:V23 C4:D52">
-    <cfRule type="expression" dxfId="51" priority="117">
+  <conditionalFormatting sqref="K27:V27 G34:V34 G27 B36:B39 K41:V41 G41 G43:V43 B42:B43 K44:V46 G44:G46 B47:B48 B50 K49:V49 G49 G56 G51:G54 K51:V56 E50:V50 E47:V48 E42:V42 E36:V38 E28:V33 B2:V4 B5:B34 C5:D56 E5:V26 E39:G39">
+    <cfRule type="expression" dxfId="57" priority="123">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37 J37:V37">
-    <cfRule type="expression" dxfId="50" priority="94">
+  <conditionalFormatting sqref="B41 J41:V41">
+    <cfRule type="expression" dxfId="56" priority="100">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44 J44:V44">
+    <cfRule type="expression" dxfId="55" priority="98">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46 J46:V46">
+    <cfRule type="expression" dxfId="54" priority="96">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49 J49:V49">
+    <cfRule type="expression" dxfId="53" priority="94">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45 J45:V45">
+    <cfRule type="expression" dxfId="52" priority="92">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51 J51:V51">
+    <cfRule type="expression" dxfId="51" priority="90">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52 J52:V52 E52:F52 H52">
+    <cfRule type="expression" dxfId="50" priority="88">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" dxfId="49" priority="86">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="48" priority="83">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" dxfId="47" priority="82">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51 H51">
+    <cfRule type="expression" dxfId="46" priority="81">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55 J55:V55">
+    <cfRule type="expression" dxfId="45" priority="79">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54 J54:V54 E54">
+    <cfRule type="expression" dxfId="44" priority="77">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55:F55 H55">
+    <cfRule type="expression" dxfId="43" priority="75">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53 J53:V53">
+    <cfRule type="expression" dxfId="42" priority="73">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56 J56:V56 E56">
+    <cfRule type="expression" dxfId="41" priority="71">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="expression" dxfId="40" priority="63">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
+    <cfRule type="expression" dxfId="39" priority="53">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="expression" dxfId="38" priority="52">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="expression" dxfId="37" priority="51">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="expression" dxfId="36" priority="50">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="expression" dxfId="35" priority="49">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51">
+    <cfRule type="expression" dxfId="34" priority="48">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52">
+    <cfRule type="expression" dxfId="33" priority="47">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="expression" dxfId="32" priority="46">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="expression" dxfId="31" priority="39">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="expression" dxfId="30" priority="38">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="expression" dxfId="29" priority="37">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="expression" dxfId="28" priority="36">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="expression" dxfId="27" priority="35">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="expression" dxfId="26" priority="34">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="expression" dxfId="25" priority="33">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="expression" dxfId="24" priority="32">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
+    <cfRule type="expression" dxfId="23" priority="31">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="expression" dxfId="22" priority="30">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="expression" dxfId="21" priority="29">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="expression" dxfId="20" priority="25">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="expression" dxfId="19" priority="24">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="expression" dxfId="18" priority="23">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:F46">
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:F44">
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53:F53">
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35 E35:V35">
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:V40 G40">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40 J40:V40">
-    <cfRule type="expression" dxfId="49" priority="92">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42 J42:V42">
-    <cfRule type="expression" dxfId="48" priority="90">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45 J45:V45">
-    <cfRule type="expression" dxfId="47" priority="88">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41 J41:V41">
-    <cfRule type="expression" dxfId="46" priority="86">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47 J47:V47">
-    <cfRule type="expression" dxfId="45" priority="84">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48 J48:V48 E48:F48 H48">
-    <cfRule type="expression" dxfId="44" priority="82">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="43" priority="80">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="42" priority="77">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="41" priority="76">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47 H47">
-    <cfRule type="expression" dxfId="40" priority="75">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51 J51:V51">
-    <cfRule type="expression" dxfId="39" priority="73">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50 J50:V50 E50">
-    <cfRule type="expression" dxfId="38" priority="71">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:F51 H51">
-    <cfRule type="expression" dxfId="37" priority="69">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49 J49:V49">
-    <cfRule type="expression" dxfId="36" priority="67">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52 J52:V52 E52">
-    <cfRule type="expression" dxfId="35" priority="65">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="expression" dxfId="34" priority="57">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="33" priority="47">
+  <conditionalFormatting sqref="E40">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="32" priority="46">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="31" priority="45">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="30" priority="44">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
-    <cfRule type="expression" dxfId="29" priority="43">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
-    <cfRule type="expression" dxfId="28" priority="42">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
-    <cfRule type="expression" dxfId="27" priority="41">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="26" priority="40">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="25" priority="33">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="expression" dxfId="24" priority="32">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="23" priority="31">
+  <conditionalFormatting sqref="F40">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="expression" dxfId="22" priority="30">
-      <formula>MOD(ROW(),2)=1</formula>
+  <conditionalFormatting sqref="K16:V16">
+    <cfRule type="expression" dxfId="6" priority="127">
+      <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="expression" dxfId="21" priority="29">
-      <formula>MOD(ROW(),2)=1</formula>
+  <conditionalFormatting sqref="K16:V16">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>K$1=$H16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="20" priority="28">
-      <formula>MOD(ROW(),2)=1</formula>
+  <conditionalFormatting sqref="K39:V39">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>K$1=$H39</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="19" priority="27">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="expression" dxfId="18" priority="26">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="17" priority="25">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="expression" dxfId="16" priority="24">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
-    <cfRule type="expression" dxfId="15" priority="23">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="expression" dxfId="14" priority="19">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="13" priority="18">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="expression" dxfId="12" priority="17">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:F42">
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40:F40">
-    <cfRule type="expression" dxfId="9" priority="11">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:F49">
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32 E32:V32">
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36:V36">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>K$1=$H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36:V36 G36">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36 J36:V36">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+  <conditionalFormatting sqref="K39:V39">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
+  <conditionalFormatting sqref="J39:V39">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
+  <conditionalFormatting sqref="I39">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+  <conditionalFormatting sqref="H39">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1B54A5-4E6A-F84C-B8CF-DF31A0703226}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE28AD51-4BBF-4E48-9A98-A0A738A1281C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="740" windowWidth="33700" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14140" yWindow="9040" windowWidth="33700" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,17 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="186">
   <si>
     <t>Name</t>
   </si>
@@ -543,6 +538,60 @@
   </si>
   <si>
     <t>:clock8:</t>
+  </si>
+  <si>
+    <t>:flag_mx:</t>
+  </si>
+  <si>
+    <t>Tardigrada</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/911453743/</t>
+  </si>
+  <si>
+    <t>:flag_ch:</t>
+  </si>
+  <si>
+    <t>seth997</t>
+  </si>
+  <si>
+    <t>Dark Maw</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>:flag_fr:</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/577532619/</t>
+  </si>
+  <si>
+    <t>TZ JST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:clock7: </t>
+  </si>
+  <si>
+    <t>TZ VLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:clock6: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">:clock5: </t>
+  </si>
+  <si>
+    <t>:clock9:</t>
+  </si>
+  <si>
+    <t>TZ MST</t>
+  </si>
+  <si>
+    <t>TZ PST</t>
+  </si>
+  <si>
+    <t>:clock10:</t>
   </si>
 </sst>
 </file>
@@ -916,7 +965,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -990,6 +1039,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -999,12 +1051,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="78">
     <dxf>
       <fill>
         <patternFill>
@@ -1038,6 +1091,135 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1745,10 +1927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1808,39 +1990,39 @@
         <v>9</v>
       </c>
       <c r="N1" s="3" t="str">
-        <f>H12</f>
+        <f>H16</f>
         <v>CEST</v>
       </c>
       <c r="O1" s="3" t="str">
-        <f>H7</f>
+        <f>H10</f>
         <v>CEST</v>
       </c>
       <c r="P1" s="3" t="str">
-        <f>H9</f>
-        <v>CEST</v>
-      </c>
-      <c r="Q1" s="3" t="str">
         <f>H13</f>
         <v>CEST</v>
       </c>
+      <c r="Q1" s="3" t="str">
+        <f>H17</f>
+        <v>CEST</v>
+      </c>
       <c r="R1" s="3" t="str">
-        <f>H21</f>
+        <f>H27</f>
         <v>BST</v>
       </c>
       <c r="S1" s="3" t="str">
-        <f>H36</f>
+        <f>H42</f>
         <v>EDT</v>
       </c>
       <c r="T1" s="3" t="str">
-        <f>H50</f>
+        <f>H56</f>
         <v>CDT</v>
       </c>
       <c r="U1" s="3" t="str">
-        <f>H42</f>
+        <f>H48</f>
         <v>CDT</v>
       </c>
       <c r="V1" s="3" t="str">
-        <f>H47</f>
+        <f>H53</f>
         <v>CDT</v>
       </c>
     </row>
@@ -1848,23 +2030,21 @@
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>39</v>
+      <c r="B2" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="C2" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" s="7">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>156</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E2" s="21"/>
       <c r="F2" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>139</v>
+        <v>181</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>160</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -1924,425 +2104,404 @@
         <v>8.3333333333333315E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="38" t="s">
-        <v>130</v>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C3" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="H3" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="10">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J3" s="25" t="s">
+        <v>0.375</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="12">
         <f>$I3+Sheet2!B$1/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="L3" s="12">
         <f>$I3+Sheet2!B$2/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="M3" s="12">
         <f>$I3+Sheet2!B$3/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="N3" s="12">
         <f>$I3+Sheet2!B$4/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="O3" s="12">
         <f>$I3+Sheet2!B$5/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="P3" s="12">
         <f>$I3+Sheet2!B$6/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="Q3" s="12">
         <f>$I3+Sheet2!B$7/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="R3" s="12">
         <f>$I3+Sheet2!B$8/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="S3" s="12">
         <f>$I3+Sheet2!B$9/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="T3" s="12">
         <f>$I3+Sheet2!B$10/24</f>
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="U3" s="12">
         <f>$I3+Sheet2!B$11/24</f>
-        <v>0.16666666666666669</v>
+        <v>0.125</v>
       </c>
       <c r="V3" s="12">
         <f>$I3+Sheet2!B$12/24</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="12">
+        <f>$I4+Sheet2!B$1/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L4" s="12">
+        <f>$I4+Sheet2!B$2/24</f>
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="M4" s="12">
+        <f>$I4+Sheet2!B$3/24</f>
+        <v>0.75</v>
+      </c>
+      <c r="N4" s="12">
+        <f>$I4+Sheet2!B$4/24</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="O4" s="12">
+        <f>$I4+Sheet2!B$5/24</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="P4" s="12">
+        <f>$I4+Sheet2!B$6/24</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="Q4" s="12">
+        <f>$I4+Sheet2!B$7/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="R4" s="12">
+        <f>$I4+Sheet2!B$8/24</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="S4" s="12">
+        <f>$I4+Sheet2!B$9/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="T4" s="12">
+        <f>$I4+Sheet2!B$10/24</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="U4" s="12">
+        <f>$I4+Sheet2!B$11/24</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="V4" s="12">
+        <f>$I4+Sheet2!B$12/24</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="19" t="s">
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="12">
+        <f>$I5+Sheet2!B$1/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L5" s="12">
+        <f>$I5+Sheet2!B$2/24</f>
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="M5" s="12">
+        <f>$I5+Sheet2!B$3/24</f>
+        <v>0.75</v>
+      </c>
+      <c r="N5" s="12">
+        <f>$I5+Sheet2!B$4/24</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="O5" s="12">
+        <f>$I5+Sheet2!B$5/24</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="P5" s="12">
+        <f>$I5+Sheet2!B$6/24</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="Q5" s="12">
+        <f>$I5+Sheet2!B$7/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="12">
+        <f>$I5+Sheet2!B$8/24</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="S5" s="12">
+        <f>$I5+Sheet2!B$9/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="T5" s="12">
+        <f>$I5+Sheet2!B$10/24</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="U5" s="12">
+        <f>$I5+Sheet2!B$11/24</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="V5" s="12">
+        <f>$I5+Sheet2!B$12/24</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="48"/>
+      <c r="B6" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="24">
+        <v>11.458333333333334</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="26">
+        <f>$I6+Sheet2!B$1/24</f>
+        <v>11.875</v>
+      </c>
+      <c r="L6" s="24">
+        <f>$I6+Sheet2!B$2/24</f>
+        <v>11.833333333333334</v>
+      </c>
+      <c r="M6" s="24">
+        <f>$I6+Sheet2!B$3/24</f>
+        <v>11.791666666666668</v>
+      </c>
+      <c r="N6" s="24">
+        <f>$I6+Sheet2!B$4/24</f>
+        <v>11.583333333333334</v>
+      </c>
+      <c r="O6" s="24">
+        <f>$I6+Sheet2!B$5/24</f>
+        <v>11.583333333333334</v>
+      </c>
+      <c r="P6" s="24">
+        <f>$I6+Sheet2!B$6/24</f>
+        <v>11.583333333333334</v>
+      </c>
+      <c r="Q6" s="24">
+        <f>$I6+Sheet2!B$7/24</f>
+        <v>11.541666666666668</v>
+      </c>
+      <c r="R6" s="24">
+        <f>$I6+Sheet2!B$8/24</f>
+        <v>11.5</v>
+      </c>
+      <c r="S6" s="24">
+        <f>$I6+Sheet2!B$9/24</f>
+        <v>11.291666666666668</v>
+      </c>
+      <c r="T6" s="24">
+        <f>$I6+Sheet2!B$10/24</f>
+        <v>11.25</v>
+      </c>
+      <c r="U6" s="24">
+        <f>$I6+Sheet2!B$11/24</f>
+        <v>11.208333333333334</v>
+      </c>
+      <c r="V6" s="24">
+        <f>$I6+Sheet2!B$12/24</f>
+        <v>11.166666666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
+      <c r="B7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C7" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D7" s="7">
         <v>3</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G7" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H7" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I7" s="24">
         <v>11.458333333333334</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="26">
-        <f>$I4+Sheet2!B$1/24</f>
+      <c r="K7" s="26">
+        <f>$I7+Sheet2!B$1/24</f>
         <v>11.875</v>
       </c>
-      <c r="L4" s="24">
-        <f>$I4+Sheet2!B$2/24</f>
+      <c r="L7" s="24">
+        <f>$I7+Sheet2!B$2/24</f>
         <v>11.833333333333334</v>
       </c>
-      <c r="M4" s="24">
-        <f>$I4+Sheet2!B$3/24</f>
+      <c r="M7" s="24">
+        <f>$I7+Sheet2!B$3/24</f>
         <v>11.791666666666668</v>
       </c>
-      <c r="N4" s="24">
-        <f>$I4+Sheet2!B$4/24</f>
+      <c r="N7" s="24">
+        <f>$I7+Sheet2!B$4/24</f>
         <v>11.583333333333334</v>
       </c>
-      <c r="O4" s="24">
-        <f>$I4+Sheet2!B$5/24</f>
+      <c r="O7" s="24">
+        <f>$I7+Sheet2!B$5/24</f>
         <v>11.583333333333334</v>
       </c>
-      <c r="P4" s="24">
-        <f>$I4+Sheet2!B$6/24</f>
+      <c r="P7" s="24">
+        <f>$I7+Sheet2!B$6/24</f>
         <v>11.583333333333334</v>
       </c>
-      <c r="Q4" s="24">
-        <f>$I4+Sheet2!B$7/24</f>
+      <c r="Q7" s="24">
+        <f>$I7+Sheet2!B$7/24</f>
         <v>11.541666666666668</v>
       </c>
-      <c r="R4" s="24">
-        <f>$I4+Sheet2!B$8/24</f>
+      <c r="R7" s="24">
+        <f>$I7+Sheet2!B$8/24</f>
         <v>11.5</v>
       </c>
-      <c r="S4" s="24">
-        <f>$I4+Sheet2!B$9/24</f>
+      <c r="S7" s="24">
+        <f>$I7+Sheet2!B$9/24</f>
         <v>11.291666666666668</v>
       </c>
-      <c r="T4" s="24">
-        <f>$I4+Sheet2!B$10/24</f>
+      <c r="T7" s="24">
+        <f>$I7+Sheet2!B$10/24</f>
         <v>11.25</v>
       </c>
-      <c r="U4" s="24">
-        <f>$I4+Sheet2!B$11/24</f>
+      <c r="U7" s="24">
+        <f>$I7+Sheet2!B$11/24</f>
         <v>11.208333333333334</v>
       </c>
-      <c r="V4" s="24">
-        <f>$I4+Sheet2!B$12/24</f>
+      <c r="V7" s="24">
+        <f>$I7+Sheet2!B$12/24</f>
         <v>11.166666666666668</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="19" t="s">
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="47"/>
+      <c r="B8" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C8" s="7">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D8" s="7">
         <v>4</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="7" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G8" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="H5" s="31" t="str">
+      <c r="H8" s="31" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
-      <c r="I5" s="24">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="12">
-        <f>$I5+Sheet2!B$1/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="L5" s="24">
-        <f>$I5+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="M5" s="24">
-        <f>$I5+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="N5" s="24">
-        <f>$I5+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="O5" s="24">
-        <f>$I5+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="P5" s="24">
-        <f>$I5+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="Q5" s="24">
-        <f>$I5+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
-      </c>
-      <c r="R5" s="24">
-        <f>$I5+Sheet2!B$8/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="S5" s="24">
-        <f>$I5+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
-      </c>
-      <c r="T5" s="24">
-        <f>$I5+Sheet2!B$10/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="U5" s="24">
-        <f>$I5+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
-      </c>
-      <c r="V5" s="24">
-        <f>$I5+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="7">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7">
-        <v>5</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="31" t="str">
-        <f>Sheet2!$A$7</f>
-        <v>CEST</v>
-      </c>
-      <c r="I6" s="24">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="12">
-        <f>$I6+Sheet2!B$1/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="L6" s="24">
-        <f>$I6+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="M6" s="24">
-        <f>$I6+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="N6" s="24">
-        <f>$I6+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="O6" s="24">
-        <f>$I6+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="P6" s="24">
-        <f>$I6+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="Q6" s="24">
-        <f>$I6+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
-      </c>
-      <c r="R6" s="24">
-        <f>$I6+Sheet2!B$8/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="S6" s="24">
-        <f>$I6+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
-      </c>
-      <c r="T6" s="24">
-        <f>$I6+Sheet2!B$10/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="24">
-        <f>$I6+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
-      </c>
-      <c r="V6" s="24">
-        <f>$I6+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7">
-        <v>6</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="29" t="str">
-        <f>Sheet2!$A$7</f>
-        <v>CEST</v>
-      </c>
-      <c r="I7" s="24">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="27">
-        <f>$I7+Sheet2!B$1/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="L7" s="17">
-        <f>$I7+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="M7" s="17">
-        <f>$I7+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="N7" s="17">
-        <f>$I7+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="O7" s="17">
-        <f>$I7+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="P7" s="17">
-        <f>$I7+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="Q7" s="17">
-        <f>$I7+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
-      </c>
-      <c r="R7" s="17">
-        <f>$I7+Sheet2!B$8/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="S7" s="17">
-        <f>$I7+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
-      </c>
-      <c r="T7" s="17">
-        <f>$I7+Sheet2!B$10/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="U7" s="17">
-        <f>$I7+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
-      </c>
-      <c r="V7" s="17">
-        <f>$I7+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="7">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7">
-        <v>7</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="29" t="str">
-        <f>Sheet2!$A$7</f>
-        <v>CEST</v>
-      </c>
       <c r="I8" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="32" t="s">
         <v>15</v>
       </c>
       <c r="K8" s="12">
@@ -2394,37 +2553,37 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
       <c r="B9" s="19" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="29" t="str">
+      <c r="F9" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="31" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
       <c r="I9" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="12">
         <f>$I9+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2473,183 +2632,181 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
-      <c r="B10" s="19" t="s">
-        <v>51</v>
+    <row r="10" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>9</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="31" t="str">
+        <v>6</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="29" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
       <c r="I10" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="27">
         <f>$I10+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="17">
         <f>$I10+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="17">
         <f>$I10+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="17">
         <f>$I10+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="17">
         <f>$I10+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="17">
         <f>$I10+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="17">
         <f>$I10+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="17">
         <f>$I10+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S10" s="24">
+      <c r="S10" s="17">
         <f>$I10+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T10" s="24">
+      <c r="T10" s="17">
         <f>$I10+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U10" s="24">
+      <c r="U10" s="17">
         <f>$I10+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V10" s="24">
+      <c r="V10" s="17">
         <f>$I10+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
+    <row r="11" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="49"/>
       <c r="B11" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="7">
-        <v>10</v>
-      </c>
-      <c r="D11" s="7">
-        <v>10</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="31" t="str">
+        <v>174</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="29" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
       <c r="I11" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="27">
         <f>$I11+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="17">
         <f>$I11+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="17">
         <f>$I11+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="17">
         <f>$I11+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="17">
         <f>$I11+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="17">
         <f>$I11+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="17">
         <f>$I11+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="17">
         <f>$I11+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S11" s="24">
+      <c r="S11" s="17">
         <f>$I11+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T11" s="24">
+      <c r="T11" s="17">
         <f>$I11+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U11" s="24">
+      <c r="U11" s="17">
         <f>$I11+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V11" s="24">
+      <c r="V11" s="17">
         <f>$I11+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>86</v>
+        <v>18</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="H12" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2661,7 +2818,7 @@
       <c r="J12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="12">
         <f>$I12+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2711,24 +2868,24 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="13" t="s">
-        <v>44</v>
+      <c r="A13" s="49"/>
+      <c r="B13" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>12</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>88</v>
+        <v>109</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="H13" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2737,77 +2894,77 @@
       <c r="I13" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="26">
         <f>$I13+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="24">
         <f>$I13+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="24">
         <f>$I13+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="24">
         <f>$I13+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="24">
         <f>$I13+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="24">
         <f>$I13+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="24">
         <f>$I13+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="24">
         <f>$I13+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="24">
         <f>$I13+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T13" s="17">
+      <c r="T13" s="24">
         <f>$I13+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U13" s="17">
+      <c r="U13" s="24">
         <f>$I13+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V13" s="17">
+      <c r="V13" s="24">
         <f>$I13+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2868,25 +3025,25 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
+    <row r="15" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="49"/>
       <c r="B15" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D15" s="7">
-        <v>14</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H15" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2895,7 +3052,7 @@
       <c r="I15" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="32" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="12">
@@ -2948,26 +3105,26 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="19" t="s">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="H16" s="31" t="str">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="29" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
@@ -2977,7 +3134,7 @@
       <c r="J16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="26">
         <f>$I16+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -3027,1113 +3184,1116 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
-      <c r="B17" s="19" t="s">
-        <v>45</v>
+      <c r="A17" s="49"/>
+      <c r="B17" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C17" s="7">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7">
+        <v>12</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="7">
-        <v>16</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="31" t="str">
+        <v>74</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="29" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
       <c r="I17" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="27">
         <f>$I17+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="17">
         <f>$I17+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="17">
         <f>$I17+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="17">
         <f>$I17+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="17">
         <f>$I17+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="17">
         <f>$I17+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="17">
         <f>$I17+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R17" s="24">
+      <c r="R17" s="17">
         <f>$I17+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S17" s="24">
+      <c r="S17" s="17">
         <f>$I17+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T17" s="24">
+      <c r="T17" s="17">
         <f>$I17+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U17" s="24">
+      <c r="U17" s="17">
         <f>$I17+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V17" s="24">
+      <c r="V17" s="17">
         <f>$I17+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
+    <row r="18" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="49"/>
       <c r="B18" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="J18" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="7">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7">
+        <v>13</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="31" t="str">
+        <f>Sheet2!$A$7</f>
+        <v>CEST</v>
+      </c>
+      <c r="I18" s="24">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J18" s="32" t="s">
         <v>15</v>
       </c>
       <c r="K18" s="26">
         <f>$I18+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L18" s="24">
         <f>$I18+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M18" s="24">
         <f>$I18+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N18" s="24">
         <f>$I18+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O18" s="24">
         <f>$I18+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P18" s="24">
         <f>$I18+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q18" s="24">
         <f>$I18+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R18" s="24">
         <f>$I18+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S18" s="24">
         <f>$I18+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T18" s="24">
         <f>$I18+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U18" s="24">
         <f>$I18+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V18" s="24">
         <f>$I18+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C19" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>17</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>74</v>
+        <v>14</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="17">
-        <v>0.75</v>
+        <v>89</v>
+      </c>
+      <c r="H19" s="31" t="str">
+        <f>Sheet2!$A$7</f>
+        <v>CEST</v>
+      </c>
+      <c r="I19" s="24">
+        <v>0.70833333333333337</v>
       </c>
       <c r="J19" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="12">
         <f>$I19+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L19" s="24">
         <f>$I19+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M19" s="24">
         <f>$I19+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N19" s="24">
         <f>$I19+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O19" s="24">
         <f>$I19+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P19" s="24">
         <f>$I19+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q19" s="24">
         <f>$I19+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R19" s="24">
         <f>$I19+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S19" s="24">
         <f>$I19+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T19" s="24">
         <f>$I19+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U19" s="24">
         <f>$I19+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V19" s="24">
         <f>$I19+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
-      <c r="B20" s="13" t="s">
-        <v>53</v>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="49"/>
+      <c r="B20" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="C20" s="7">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7">
+        <v>15</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="7">
-        <v>18</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>29</v>
-      </c>
       <c r="F20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="17">
+        <v>19</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="H20" s="31" t="str">
+        <f>Sheet2!$A$7</f>
+        <v>CEST</v>
+      </c>
+      <c r="I20" s="24">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="12">
+        <f>$I20+Sheet2!B$1/24</f>
+        <v>1.125</v>
+      </c>
+      <c r="L20" s="24">
+        <f>$I20+Sheet2!B$2/24</f>
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="M20" s="24">
+        <f>$I20+Sheet2!B$3/24</f>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="N20" s="24">
+        <f>$I20+Sheet2!B$4/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O20" s="24">
+        <f>$I20+Sheet2!B$5/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P20" s="24">
+        <f>$I20+Sheet2!B$6/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q20" s="24">
+        <f>$I20+Sheet2!B$7/24</f>
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="R20" s="24">
+        <f>$I20+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="J20" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="33">
-        <f>$I20+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="L20" s="17">
-        <f>$I20+Sheet2!B$2/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="M20" s="17">
-        <f>$I20+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="N20" s="17">
-        <f>$I20+Sheet2!B$4/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="O20" s="17">
-        <f>$I20+Sheet2!B$5/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="P20" s="17">
-        <f>$I20+Sheet2!B$6/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="Q20" s="17">
-        <f>$I20+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="R20" s="17">
-        <f>$I20+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="S20" s="17">
+      <c r="S20" s="24">
         <f>$I20+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="T20" s="17">
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="T20" s="24">
         <f>$I20+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="U20" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="U20" s="24">
         <f>$I20+Sheet2!B$11/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="V20" s="17">
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="V20" s="24">
         <f>$I20+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="34" t="s">
-        <v>111</v>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="49"/>
+      <c r="B21" s="19" t="s">
+        <v>172</v>
       </c>
       <c r="C21" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D21" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0.75</v>
+        <v>92</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="31" t="str">
+        <f>Sheet2!$A$7</f>
+        <v>CEST</v>
+      </c>
+      <c r="I21" s="24">
+        <v>0.70833333333333337</v>
       </c>
       <c r="J21" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="12">
         <f>$I21+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L21" s="24">
         <f>$I21+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M21" s="24">
         <f>$I21+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N21" s="24">
         <f>$I21+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O21" s="24">
         <f>$I21+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P21" s="24">
         <f>$I21+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q21" s="24">
         <f>$I21+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R21" s="24">
         <f>$I21+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S21" s="24">
         <f>$I21+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T21" s="24">
         <f>$I21+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U21" s="24">
         <f>$I21+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V21" s="24">
         <f>$I21+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
       <c r="B22" s="19" t="s">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="C22" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D22" s="7">
-        <v>20</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="17">
-        <v>0.75</v>
+        <v>17</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" s="31" t="str">
+        <f>Sheet2!$A$7</f>
+        <v>CEST</v>
+      </c>
+      <c r="I22" s="24">
+        <v>0.70833333333333337</v>
       </c>
       <c r="J22" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="12">
         <f>$I22+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L22" s="24">
         <f>$I22+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M22" s="24">
         <f>$I22+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N22" s="24">
         <f>$I22+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O22" s="24">
         <f>$I22+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P22" s="24">
         <f>$I22+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q22" s="24">
         <f>$I22+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R22" s="24">
         <f>$I22+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S22" s="24">
         <f>$I22+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T22" s="24">
         <f>$I22+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U22" s="24">
         <f>$I22+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V22" s="24">
         <f>$I22+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="49"/>
       <c r="B23" s="19" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D23" s="7">
-        <v>21</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>94</v>
+        <v>18</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="17">
-        <v>0.79166666666666663</v>
+        <v>92</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="31" t="str">
+        <f>Sheet2!$A$7</f>
+        <v>CEST</v>
+      </c>
+      <c r="I23" s="24">
+        <v>0.70833333333333337</v>
       </c>
       <c r="J23" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K23" s="26">
         <f>$I23+Sheet2!B$1/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.125</v>
       </c>
       <c r="L23" s="24">
         <f>$I23+Sheet2!B$2/24</f>
-        <v>1.1666666666666665</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M23" s="24">
         <f>$I23+Sheet2!B$3/24</f>
-        <v>1.125</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N23" s="24">
         <f>$I23+Sheet2!B$4/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O23" s="24">
         <f>$I23+Sheet2!B$5/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P23" s="24">
         <f>$I23+Sheet2!B$6/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q23" s="24">
         <f>$I23+Sheet2!B$7/24</f>
-        <v>0.875</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R23" s="24">
         <f>$I23+Sheet2!B$8/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.75</v>
       </c>
       <c r="S23" s="24">
         <f>$I23+Sheet2!B$9/24</f>
-        <v>0.625</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T23" s="24">
         <f>$I23+Sheet2!B$10/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.5</v>
       </c>
       <c r="U23" s="24">
         <f>$I23+Sheet2!B$11/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V23" s="24">
         <f>$I23+Sheet2!B$12/24</f>
-        <v>0.49999999999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50" t="s">
-        <v>21</v>
-      </c>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="49"/>
       <c r="B24" s="19" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="C24" s="7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7">
-        <v>22</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>106</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E24" s="21"/>
       <c r="F24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>100</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G24" s="31"/>
       <c r="H24" s="31" t="s">
         <v>12</v>
       </c>
       <c r="I24" s="17">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="J24" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K24" s="26">
         <f>$I24+Sheet2!B$1/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L24" s="24">
         <f>$I24+Sheet2!B$2/24</f>
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="M24" s="24">
         <f>$I24+Sheet2!B$3/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N24" s="24">
         <f>$I24+Sheet2!B$4/24</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="O24" s="24">
         <f>$I24+Sheet2!B$5/24</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="P24" s="24">
         <f>$I24+Sheet2!B$6/24</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Q24" s="24">
         <f>$I24+Sheet2!B$7/24</f>
-        <v>0.95833333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R24" s="24">
         <f>$I24+Sheet2!B$8/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S24" s="24">
         <f>$I24+Sheet2!B$9/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T24" s="24">
         <f>$I24+Sheet2!B$10/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U24" s="24">
         <f>$I24+Sheet2!B$11/24</f>
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="V24" s="24">
         <f>$I24+Sheet2!B$12/24</f>
-        <v>0.58333333333333326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="49"/>
       <c r="B25" s="19" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="C25" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D25" s="7">
-        <v>23</v>
-      </c>
-      <c r="E25" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="F25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I25" s="24">
-        <v>0.95833333333333337</v>
+        <v>74</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="17">
+        <v>0.75</v>
       </c>
       <c r="J25" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K25" s="26">
         <f>$I25+Sheet2!B$1/24</f>
-        <v>1.375</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L25" s="24">
         <f>$I25+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
+        <v>1.125</v>
       </c>
       <c r="M25" s="24">
         <f>$I25+Sheet2!B$3/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N25" s="24">
         <f>$I25+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.875</v>
       </c>
       <c r="O25" s="24">
         <f>$I25+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.875</v>
       </c>
       <c r="P25" s="24">
         <f>$I25+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.875</v>
       </c>
       <c r="Q25" s="24">
         <f>$I25+Sheet2!B$7/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R25" s="24">
         <f>$I25+Sheet2!B$8/24</f>
-        <v>1</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S25" s="24">
         <f>$I25+Sheet2!B$9/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T25" s="24">
         <f>$I25+Sheet2!B$10/24</f>
-        <v>0.75</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U25" s="24">
         <f>$I25+Sheet2!B$11/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="V25" s="24">
         <f>$I25+Sheet2!B$12/24</f>
-        <v>0.66666666666666674</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="19" t="s">
-        <v>115</v>
+      <c r="A26" s="49"/>
+      <c r="B26" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C26" s="7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D26" s="7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="31" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I26" s="24">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="J26" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="J26" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="33">
         <f>$I26+Sheet2!B$1/24</f>
-        <v>1.375</v>
-      </c>
-      <c r="L26" s="24">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="L26" s="17">
         <f>$I26+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="M26" s="24">
+        <v>1.125</v>
+      </c>
+      <c r="M26" s="17">
         <f>$I26+Sheet2!B$3/24</f>
-        <v>1.2916666666666667</v>
-      </c>
-      <c r="N26" s="24">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="N26" s="17">
         <f>$I26+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="O26" s="24">
+        <v>0.875</v>
+      </c>
+      <c r="O26" s="17">
         <f>$I26+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="P26" s="24">
+        <v>0.875</v>
+      </c>
+      <c r="P26" s="17">
         <f>$I26+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="Q26" s="24">
+        <v>0.875</v>
+      </c>
+      <c r="Q26" s="17">
         <f>$I26+Sheet2!B$7/24</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="R26" s="24">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="R26" s="17">
         <f>$I26+Sheet2!B$8/24</f>
-        <v>1</v>
-      </c>
-      <c r="S26" s="24">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="S26" s="17">
         <f>$I26+Sheet2!B$9/24</f>
-        <v>0.79166666666666674</v>
-      </c>
-      <c r="T26" s="24">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T26" s="17">
         <f>$I26+Sheet2!B$10/24</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="U26" s="17">
+        <f>$I26+Sheet2!B$11/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="V26" s="17">
+        <f>$I26+Sheet2!B$12/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="49"/>
+      <c r="B27" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="7">
+        <v>22</v>
+      </c>
+      <c r="D27" s="7">
+        <v>22</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="17">
         <v>0.75</v>
       </c>
-      <c r="U26" s="24">
-        <f>$I26+Sheet2!B$11/24</f>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="V26" s="24">
-        <f>$I26+Sheet2!B$12/24</f>
-        <v>0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="7">
-        <v>25</v>
-      </c>
-      <c r="D27" s="7">
-        <v>25</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="I27" s="43">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="J27" s="44" t="s">
+      <c r="J27" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K27" s="26">
         <f>$I27+Sheet2!B$1/24</f>
-        <v>1.375</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L27" s="24">
         <f>$I27+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
+        <v>1.125</v>
       </c>
       <c r="M27" s="24">
         <f>$I27+Sheet2!B$3/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N27" s="24">
         <f>$I27+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.875</v>
       </c>
       <c r="O27" s="24">
         <f>$I27+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.875</v>
       </c>
       <c r="P27" s="24">
         <f>$I27+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.875</v>
       </c>
       <c r="Q27" s="24">
         <f>$I27+Sheet2!B$7/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R27" s="24">
         <f>$I27+Sheet2!B$8/24</f>
-        <v>1</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S27" s="24">
         <f>$I27+Sheet2!B$9/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T27" s="24">
         <f>$I27+Sheet2!B$10/24</f>
-        <v>0.75</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U27" s="24">
         <f>$I27+Sheet2!B$11/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="V27" s="24">
         <f>$I27+Sheet2!B$12/24</f>
-        <v>0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="13" t="s">
-        <v>37</v>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="49"/>
+      <c r="B28" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="C28" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D28" s="7">
-        <v>26</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="31" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I28" s="24">
-        <v>0.95833333333333337</v>
+        <v>23</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="17">
+        <v>0.75</v>
       </c>
       <c r="J28" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="26">
         <f>$I28+Sheet2!B$1/24</f>
-        <v>1.375</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L28" s="24">
         <f>$I28+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
+        <v>1.125</v>
       </c>
       <c r="M28" s="24">
         <f>$I28+Sheet2!B$3/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N28" s="24">
         <f>$I28+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.875</v>
       </c>
       <c r="O28" s="24">
         <f>$I28+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.875</v>
       </c>
       <c r="P28" s="24">
         <f>$I28+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.875</v>
       </c>
       <c r="Q28" s="24">
         <f>$I28+Sheet2!B$7/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R28" s="24">
         <f>$I28+Sheet2!B$8/24</f>
-        <v>1</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S28" s="24">
         <f>$I28+Sheet2!B$9/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T28" s="24">
         <f>$I28+Sheet2!B$10/24</f>
-        <v>0.75</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U28" s="24">
         <f>$I28+Sheet2!B$11/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="V28" s="24">
         <f>$I28+Sheet2!B$12/24</f>
-        <v>0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="13" t="s">
-        <v>35</v>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="50"/>
+      <c r="B29" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="C29" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D29" s="7">
-        <v>27</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H29" s="31" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I29" s="24">
-        <v>0.95833333333333337</v>
+        <v>24</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="17">
+        <v>0.79166666666666663</v>
       </c>
       <c r="J29" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K29" s="26">
         <f>$I29+Sheet2!B$1/24</f>
-        <v>1.375</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="L29" s="24">
         <f>$I29+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="M29" s="24">
         <f>$I29+Sheet2!B$3/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="N29" s="24">
         <f>$I29+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O29" s="24">
         <f>$I29+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="P29" s="24">
         <f>$I29+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="Q29" s="24">
         <f>$I29+Sheet2!B$7/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="R29" s="24">
         <f>$I29+Sheet2!B$8/24</f>
-        <v>1</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="S29" s="24">
         <f>$I29+Sheet2!B$9/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.625</v>
       </c>
       <c r="T29" s="24">
         <f>$I29+Sheet2!B$10/24</f>
-        <v>0.75</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="U29" s="24">
         <f>$I29+Sheet2!B$11/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="V29" s="24">
         <f>$I29+Sheet2!B$12/24</f>
-        <v>0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="51" t="s">
+        <v>21</v>
+      </c>
       <c r="B30" s="19" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C30" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D30" s="7">
-        <v>28</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="31" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I30" s="24">
-        <v>0.95833333333333337</v>
+        <v>25</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="17">
+        <v>0.875</v>
       </c>
       <c r="J30" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K30" s="26">
         <f>$I30+Sheet2!B$1/24</f>
-        <v>1.375</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="L30" s="24">
         <f>$I30+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
+        <v>1.25</v>
       </c>
       <c r="M30" s="24">
         <f>$I30+Sheet2!B$3/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="N30" s="24">
         <f>$I30+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
+        <v>1</v>
       </c>
       <c r="O30" s="24">
         <f>$I30+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
+        <v>1</v>
       </c>
       <c r="P30" s="24">
         <f>$I30+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="24">
         <f>$I30+Sheet2!B$7/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="R30" s="24">
         <f>$I30+Sheet2!B$8/24</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="S30" s="24">
         <f>$I30+Sheet2!B$9/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="T30" s="24">
         <f>$I30+Sheet2!B$10/24</f>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U30" s="24">
         <f>$I30+Sheet2!B$11/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="V30" s="24">
         <f>$I30+Sheet2!B$12/24</f>
-        <v>0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
-      <c r="B31" s="13" t="s">
-        <v>38</v>
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="52"/>
+      <c r="B31" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="C31" s="7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D31" s="7">
-        <v>29</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>133</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" s="31"/>
       <c r="H31" s="31" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
@@ -4141,77 +4301,77 @@
       <c r="I31" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J31" s="30" t="s">
+      <c r="J31" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K31" s="26">
         <f>$I31+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="24">
         <f>$I31+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="24">
         <f>$I31+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="24">
         <f>$I31+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O31" s="17">
+      <c r="O31" s="24">
         <f>$I31+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P31" s="17">
+      <c r="P31" s="24">
         <f>$I31+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q31" s="17">
+      <c r="Q31" s="24">
         <f>$I31+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R31" s="17">
+      <c r="R31" s="24">
         <f>$I31+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S31" s="17">
+      <c r="S31" s="24">
         <f>$I31+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T31" s="17">
+      <c r="T31" s="24">
         <f>$I31+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U31" s="17">
+      <c r="U31" s="24">
         <f>$I31+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V31" s="17">
+      <c r="V31" s="24">
         <f>$I31+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="51"/>
+    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="52"/>
       <c r="B32" s="19" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="C32" s="7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D32" s="7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>79</v>
+        <v>47</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="H32" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4272,37 +4432,36 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="51"/>
+    <row r="33" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="52"/>
       <c r="B33" s="19" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="C33" s="7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D33" s="7">
-        <v>31</v>
-      </c>
-      <c r="E33" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="H33" s="31" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I33" s="24">
+      <c r="G33" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" s="43">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J33" s="28" t="s">
+      <c r="J33" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="26">
         <f>$I33+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -4352,24 +4511,24 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="51"/>
-      <c r="B34" s="19" t="s">
-        <v>151</v>
+      <c r="A34" s="52"/>
+      <c r="B34" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="C34" s="7">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D34" s="7">
-        <v>32</v>
-      </c>
-      <c r="E34" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="E34" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="31" t="s">
-        <v>152</v>
+      <c r="G34" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="H34" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4381,7 +4540,7 @@
       <c r="J34" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K34" s="26">
+      <c r="K34" s="12">
         <f>$I34+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -4431,15 +4590,15 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="51"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="13" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="C35" s="7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D35" s="7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>29</v>
@@ -4447,8 +4606,8 @@
       <c r="F35" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G35" s="23" t="s">
-        <v>147</v>
+      <c r="G35" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="H35" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4457,68 +4616,68 @@
       <c r="I35" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J35" s="30" t="s">
+      <c r="J35" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="33">
+      <c r="K35" s="26">
         <f>$I35+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="24">
         <f>$I35+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M35" s="24">
         <f>$I35+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N35" s="24">
         <f>$I35+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O35" s="17">
+      <c r="O35" s="24">
         <f>$I35+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P35" s="17">
+      <c r="P35" s="24">
         <f>$I35+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q35" s="17">
+      <c r="Q35" s="24">
         <f>$I35+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R35" s="17">
+      <c r="R35" s="24">
         <f>$I35+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S35" s="17">
+      <c r="S35" s="24">
         <f>$I35+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T35" s="17">
+      <c r="T35" s="24">
         <f>$I35+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U35" s="17">
+      <c r="U35" s="24">
         <f>$I35+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V35" s="17">
+      <c r="V35" s="24">
         <f>$I35+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="51"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="7">
         <v>31</v>
       </c>
-      <c r="C36" s="7">
-        <v>34</v>
-      </c>
       <c r="D36" s="7">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>29</v>
@@ -4527,7 +4686,7 @@
         <v>22</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H36" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4589,15 +4748,15 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="51"/>
-      <c r="B37" s="19" t="s">
+      <c r="A37" s="52"/>
+      <c r="B37" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="7">
         <v>32</v>
       </c>
-      <c r="C37" s="7">
-        <v>35</v>
-      </c>
       <c r="D37" s="7">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>29</v>
@@ -4605,8 +4764,8 @@
       <c r="F37" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>83</v>
+      <c r="G37" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="H37" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4615,77 +4774,77 @@
       <c r="I37" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J37" s="28" t="s">
+      <c r="J37" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K37" s="26">
+      <c r="K37" s="33">
         <f>$I37+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L37" s="24">
+      <c r="L37" s="17">
         <f>$I37+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M37" s="24">
+      <c r="M37" s="17">
         <f>$I37+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N37" s="24">
+      <c r="N37" s="17">
         <f>$I37+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O37" s="24">
+      <c r="O37" s="17">
         <f>$I37+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P37" s="24">
+      <c r="P37" s="17">
         <f>$I37+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q37" s="24">
+      <c r="Q37" s="17">
         <f>$I37+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R37" s="24">
+      <c r="R37" s="17">
         <f>$I37+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S37" s="24">
+      <c r="S37" s="17">
         <f>$I37+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T37" s="24">
+      <c r="T37" s="17">
         <f>$I37+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U37" s="24">
+      <c r="U37" s="17">
         <f>$I37+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V37" s="24">
+      <c r="V37" s="17">
         <f>$I37+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="51"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="19" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C38" s="7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D38" s="7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>84</v>
+        <v>22</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="H38" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4747,163 +4906,173 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="51"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="15"/>
+        <v>36</v>
+      </c>
+      <c r="C39" s="7">
+        <v>34</v>
+      </c>
+      <c r="D39" s="7">
+        <v>34</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="F39" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="31" t="s">
-        <v>73</v>
+        <v>22</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H39" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
       </c>
       <c r="I39" s="24">
-        <v>0</v>
-      </c>
-      <c r="J39" s="30" t="s">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J39" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K39" s="26">
+      <c r="K39" s="12">
         <f>$I39+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.375</v>
       </c>
       <c r="L39" s="24">
         <f>$I39+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="M39" s="24">
         <f>$I39+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="N39" s="24">
         <f>$I39+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="O39" s="24">
         <f>$I39+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="P39" s="24">
         <f>$I39+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="Q39" s="24">
         <f>$I39+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="R39" s="24">
         <f>$I39+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>1</v>
       </c>
       <c r="S39" s="24">
         <f>$I39+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="T39" s="24">
         <f>$I39+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="U39" s="24">
         <f>$I39+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="V39" s="24">
         <f>$I39+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="51"/>
-      <c r="B40" s="37" t="s">
-        <v>153</v>
+      <c r="A40" s="52"/>
+      <c r="B40" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="C40" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D40" s="7">
-        <v>37</v>
-      </c>
-      <c r="E40" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="42" t="s">
         <v>22</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="H40" s="31" t="s">
-        <v>73</v>
+        <v>152</v>
+      </c>
+      <c r="H40" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
       </c>
       <c r="I40" s="24">
-        <v>0</v>
-      </c>
-      <c r="J40" s="30" t="s">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J40" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K40" s="26">
         <f>$I40+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.375</v>
       </c>
       <c r="L40" s="24">
         <f>$I40+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="M40" s="24">
         <f>$I40+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="N40" s="24">
         <f>$I40+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="O40" s="24">
         <f>$I40+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="P40" s="24">
         <f>$I40+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="Q40" s="24">
         <f>$I40+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="R40" s="24">
         <f>$I40+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>1</v>
       </c>
       <c r="S40" s="24">
         <f>$I40+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="T40" s="24">
         <f>$I40+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="U40" s="24">
         <f>$I40+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="V40" s="24">
         <f>$I40+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="51"/>
-      <c r="B41" s="37" t="s">
-        <v>61</v>
+      <c r="A41" s="52"/>
+      <c r="B41" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="C41" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D41" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>29</v>
@@ -4911,321 +5080,321 @@
       <c r="F41" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H41" s="31" t="s">
-        <v>73</v>
+      <c r="G41" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
       </c>
       <c r="I41" s="24">
-        <v>0</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="J41" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="26">
+      <c r="K41" s="33">
         <f>$I41+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="L41" s="24">
+        <v>1.375</v>
+      </c>
+      <c r="L41" s="17">
         <f>$I41+Sheet2!B$2/24</f>
-        <v>0.375</v>
-      </c>
-      <c r="M41" s="24">
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="M41" s="17">
         <f>$I41+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N41" s="24">
+        <v>1.2916666666666667</v>
+      </c>
+      <c r="N41" s="17">
         <f>$I41+Sheet2!B$4/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="O41" s="24">
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="O41" s="17">
         <f>$I41+Sheet2!B$5/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="P41" s="24">
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="P41" s="17">
         <f>$I41+Sheet2!B$6/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="Q41" s="24">
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="Q41" s="17">
         <f>$I41+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="R41" s="24">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="R41" s="17">
         <f>$I41+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="S41" s="24">
+        <v>1</v>
+      </c>
+      <c r="S41" s="17">
         <f>$I41+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
-      </c>
-      <c r="T41" s="24">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="T41" s="17">
         <f>$I41+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
-      </c>
-      <c r="U41" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="U41" s="17">
         <f>$I41+Sheet2!B$11/24</f>
-        <v>-0.25</v>
-      </c>
-      <c r="V41" s="24">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="V41" s="17">
         <f>$I41+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="51"/>
-      <c r="B42" s="37" t="s">
-        <v>59</v>
+      <c r="A42" s="52"/>
+      <c r="B42" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="C42" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D42" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="H42" s="31" t="s">
-        <v>73</v>
+      <c r="F42" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
       </c>
       <c r="I42" s="24">
-        <v>0</v>
-      </c>
-      <c r="J42" s="30" t="s">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J42" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K42" s="26">
         <f>$I42+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.375</v>
       </c>
       <c r="L42" s="24">
         <f>$I42+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="M42" s="24">
         <f>$I42+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="N42" s="24">
         <f>$I42+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="O42" s="24">
         <f>$I42+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="P42" s="24">
         <f>$I42+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="Q42" s="24">
         <f>$I42+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="R42" s="24">
         <f>$I42+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>1</v>
       </c>
       <c r="S42" s="24">
         <f>$I42+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="T42" s="24">
         <f>$I42+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="U42" s="24">
         <f>$I42+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="V42" s="24">
         <f>$I42+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="51"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="19" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="C43" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D43" s="7">
-        <v>40</v>
-      </c>
-      <c r="E43" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="F43" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="H43" s="31" t="s">
-        <v>73</v>
+      <c r="G43" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
       </c>
       <c r="I43" s="24">
-        <v>0</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="J43" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K43" s="26">
         <f>$I43+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.375</v>
       </c>
       <c r="L43" s="24">
         <f>$I43+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="M43" s="24">
         <f>$I43+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="N43" s="24">
         <f>$I43+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="O43" s="24">
         <f>$I43+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="P43" s="24">
         <f>$I43+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="Q43" s="24">
         <f>$I43+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="R43" s="24">
         <f>$I43+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>1</v>
       </c>
       <c r="S43" s="24">
         <f>$I43+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="T43" s="24">
         <f>$I43+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="U43" s="24">
         <f>$I43+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="V43" s="24">
         <f>$I43+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="51"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="19" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D44" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="H44" s="31" t="s">
-        <v>73</v>
+        <v>47</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
       </c>
       <c r="I44" s="24">
-        <v>0</v>
-      </c>
-      <c r="J44" s="30" t="s">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J44" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K44" s="26">
         <f>$I44+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.375</v>
       </c>
       <c r="L44" s="24">
         <f>$I44+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="M44" s="24">
         <f>$I44+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="N44" s="24">
         <f>$I44+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="O44" s="24">
         <f>$I44+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="P44" s="24">
         <f>$I44+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="Q44" s="24">
         <f>$I44+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="R44" s="24">
         <f>$I44+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>1</v>
       </c>
       <c r="S44" s="24">
         <f>$I44+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="T44" s="24">
         <f>$I44+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="U44" s="24">
         <f>$I44+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="V44" s="24">
         <f>$I44+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="51"/>
-      <c r="B45" s="37" t="s">
-        <v>65</v>
+      <c r="A45" s="52"/>
+      <c r="B45" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="C45" s="7">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D45" s="7">
-        <v>42</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>29</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E45" s="15"/>
       <c r="F45" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" s="31" t="s">
-        <v>124</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G45" s="9"/>
       <c r="H45" s="31" t="s">
         <v>73</v>
       </c>
@@ -5285,15 +5454,15 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="51"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="37" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="C46" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D46" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>29</v>
@@ -5301,8 +5470,8 @@
       <c r="F46" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G46" s="29" t="s">
-        <v>122</v>
+      <c r="G46" s="31" t="s">
+        <v>154</v>
       </c>
       <c r="H46" s="31" t="s">
         <v>73</v>
@@ -5363,24 +5532,24 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="51"/>
-      <c r="B47" s="19" t="s">
-        <v>60</v>
+      <c r="A47" s="52"/>
+      <c r="B47" s="37" t="s">
+        <v>61</v>
       </c>
       <c r="C47" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D47" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>74</v>
+      <c r="F47" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="H47" s="31" t="s">
         <v>73</v>
@@ -5441,24 +5610,24 @@
       </c>
     </row>
     <row r="48" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="51"/>
-      <c r="B48" s="19" t="s">
-        <v>58</v>
+      <c r="A48" s="52"/>
+      <c r="B48" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="C48" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D48" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="20" t="s">
-        <v>22</v>
+      <c r="F48" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="H48" s="31" t="s">
         <v>73</v>
@@ -5466,7 +5635,7 @@
       <c r="I48" s="24">
         <v>0</v>
       </c>
-      <c r="J48" s="28" t="s">
+      <c r="J48" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K48" s="26">
@@ -5518,25 +5687,25 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="51"/>
+    <row r="49" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="52"/>
       <c r="B49" s="19" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="C49" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D49" s="7">
-        <v>46</v>
-      </c>
-      <c r="E49" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>74</v>
+      <c r="F49" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H49" s="31" t="s">
         <v>73</v>
@@ -5544,7 +5713,7 @@
       <c r="I49" s="24">
         <v>0</v>
       </c>
-      <c r="J49" s="30" t="s">
+      <c r="J49" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K49" s="26">
@@ -5597,15 +5766,15 @@
       </c>
     </row>
     <row r="50" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="51"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C50" s="7">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D50" s="7">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>29</v>
@@ -5613,8 +5782,8 @@
       <c r="F50" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="29" t="s">
-        <v>117</v>
+      <c r="G50" s="31" t="s">
+        <v>121</v>
       </c>
       <c r="H50" s="31" t="s">
         <v>73</v>
@@ -5622,7 +5791,7 @@
       <c r="I50" s="24">
         <v>0</v>
       </c>
-      <c r="J50" s="28" t="s">
+      <c r="J50" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K50" s="26">
@@ -5675,485 +5844,1101 @@
       </c>
     </row>
     <row r="51" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
-      <c r="B51" s="19" t="s">
-        <v>66</v>
+      <c r="A51" s="52"/>
+      <c r="B51" s="37" t="s">
+        <v>65</v>
       </c>
       <c r="C51" s="7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D51" s="7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>125</v>
+        <v>29</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>124</v>
       </c>
       <c r="H51" s="31" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="I51" s="24">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J51" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K51" s="26">
         <f>$I51+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L51" s="24">
         <f>$I51+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M51" s="24">
         <f>$I51+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N51" s="24">
         <f>$I51+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O51" s="24">
         <f>$I51+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P51" s="24">
         <f>$I51+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q51" s="24">
         <f>$I51+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R51" s="24">
         <f>$I51+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S51" s="24">
         <f>$I51+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T51" s="24">
         <f>$I51+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U51" s="24">
         <f>$I51+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V51" s="24">
         <f>$I51+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="51"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C52" s="7">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D52" s="7">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="H52" s="37" t="s">
-        <v>13</v>
+      <c r="G52" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H52" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="I52" s="24">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J52" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K52" s="26">
         <f>$I52+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L52" s="24">
         <f>$I52+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M52" s="24">
         <f>$I52+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N52" s="24">
         <f>$I52+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O52" s="24">
         <f>$I52+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P52" s="24">
         <f>$I52+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q52" s="24">
         <f>$I52+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R52" s="24">
         <f>$I52+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S52" s="24">
         <f>$I52+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T52" s="24">
         <f>$I52+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U52" s="24">
         <f>$I52+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V52" s="24">
         <f>$I52+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="51"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="19" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C53" s="7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D53" s="7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>128</v>
+      <c r="F53" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>142</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I53" s="24">
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="J53" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K53" s="26">
         <f>$I53+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L53" s="24">
         <f>$I53+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="M53" s="24">
         <f>$I53+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N53" s="24">
         <f>$I53+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="O53" s="24">
         <f>$I53+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="P53" s="24">
         <f>$I53+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="Q53" s="24">
         <f>$I53+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R53" s="24">
         <f>$I53+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S53" s="24">
         <f>$I53+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T53" s="24">
         <f>$I53+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U53" s="24">
         <f>$I53+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.25</v>
       </c>
       <c r="V53" s="24">
         <f>$I53+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="51"/>
-      <c r="B54" s="37" t="s">
-        <v>69</v>
+      <c r="A54" s="52"/>
+      <c r="B54" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="C54" s="7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D54" s="7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>127</v>
+      <c r="F54" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>80</v>
       </c>
       <c r="H54" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I54" s="24">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J54" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K54" s="26">
         <f>$I54+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L54" s="24">
         <f>$I54+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="M54" s="24">
         <f>$I54+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N54" s="24">
         <f>$I54+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="O54" s="24">
         <f>$I54+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="P54" s="24">
         <f>$I54+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="Q54" s="24">
         <f>$I54+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R54" s="24">
         <f>$I54+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S54" s="24">
         <f>$I54+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T54" s="24">
         <f>$I54+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U54" s="24">
         <f>$I54+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.25</v>
       </c>
       <c r="V54" s="24">
         <f>$I54+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="51"/>
+        <v>-0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="52"/>
       <c r="B55" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C55" s="7">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D55" s="7">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="39" t="s">
-        <v>126</v>
+      <c r="F55" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I55" s="24">
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="J55" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K55" s="26">
         <f>$I55+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L55" s="24">
         <f>$I55+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="M55" s="24">
         <f>$I55+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N55" s="24">
         <f>$I55+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="O55" s="24">
         <f>$I55+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="P55" s="24">
         <f>$I55+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="Q55" s="24">
         <f>$I55+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R55" s="24">
         <f>$I55+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S55" s="24">
         <f>$I55+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T55" s="24">
         <f>$I55+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U55" s="24">
         <f>$I55+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.25</v>
       </c>
       <c r="V55" s="24">
         <f>$I55+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="51"/>
-      <c r="B56" s="37" t="s">
-        <v>71</v>
+      <c r="A56" s="52"/>
+      <c r="B56" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="C56" s="7">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D56" s="7">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F56" s="40" t="s">
+      <c r="F56" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="23" t="s">
-        <v>129</v>
+      <c r="G56" s="29" t="s">
+        <v>117</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I56" s="24">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J56" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K56" s="26">
         <f>$I56+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L56" s="24">
         <f>$I56+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="M56" s="24">
         <f>$I56+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N56" s="24">
         <f>$I56+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="O56" s="24">
         <f>$I56+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="P56" s="24">
         <f>$I56+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="Q56" s="24">
         <f>$I56+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R56" s="24">
         <f>$I56+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S56" s="24">
         <f>$I56+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T56" s="24">
         <f>$I56+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U56" s="24">
         <f>$I56+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.25</v>
       </c>
       <c r="V56" s="24">
         <f>$I56+Sheet2!B$12/24</f>
+        <v>-0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="52"/>
+      <c r="B57" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="7">
+        <v>40</v>
+      </c>
+      <c r="D57" s="7">
+        <v>40</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J57" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="26">
+        <f>$I57+Sheet2!B$1/24</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="L57" s="24">
+        <f>$I57+Sheet2!B$2/24</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M57" s="24">
+        <f>$I57+Sheet2!B$3/24</f>
+        <v>0.375</v>
+      </c>
+      <c r="N57" s="24">
+        <f>$I57+Sheet2!B$4/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O57" s="24">
+        <f>$I57+Sheet2!B$5/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P57" s="24">
+        <f>$I57+Sheet2!B$6/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q57" s="24">
+        <f>$I57+Sheet2!B$7/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="R57" s="24">
+        <f>$I57+Sheet2!B$8/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="S57" s="24">
+        <f>$I57+Sheet2!B$9/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="T57" s="24">
+        <f>$I57+Sheet2!B$10/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="U57" s="24">
+        <f>$I57+Sheet2!B$11/24</f>
+        <v>-0.20833333333333334</v>
+      </c>
+      <c r="V57" s="24">
+        <f>$I57+Sheet2!B$12/24</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="52"/>
+      <c r="B58" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="7">
+        <v>52</v>
+      </c>
+      <c r="D58" s="7">
+        <v>52</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G58" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="H58" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J58" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" s="26">
+        <f>$I58+Sheet2!B$1/24</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="L58" s="24">
+        <f>$I58+Sheet2!B$2/24</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M58" s="24">
+        <f>$I58+Sheet2!B$3/24</f>
+        <v>0.375</v>
+      </c>
+      <c r="N58" s="24">
+        <f>$I58+Sheet2!B$4/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O58" s="24">
+        <f>$I58+Sheet2!B$5/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P58" s="24">
+        <f>$I58+Sheet2!B$6/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q58" s="24">
+        <f>$I58+Sheet2!B$7/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="R58" s="24">
+        <f>$I58+Sheet2!B$8/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="S58" s="24">
+        <f>$I58+Sheet2!B$9/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="T58" s="24">
+        <f>$I58+Sheet2!B$10/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="U58" s="24">
+        <f>$I58+Sheet2!B$11/24</f>
+        <v>-0.20833333333333334</v>
+      </c>
+      <c r="V58" s="24">
+        <f>$I58+Sheet2!B$12/24</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="52"/>
+      <c r="B59" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="7">
+        <v>53</v>
+      </c>
+      <c r="D59" s="7">
+        <v>53</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="H59" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J59" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" s="26">
+        <f>$I59+Sheet2!B$1/24</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="L59" s="24">
+        <f>$I59+Sheet2!B$2/24</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M59" s="24">
+        <f>$I59+Sheet2!B$3/24</f>
+        <v>0.375</v>
+      </c>
+      <c r="N59" s="24">
+        <f>$I59+Sheet2!B$4/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O59" s="24">
+        <f>$I59+Sheet2!B$5/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P59" s="24">
+        <f>$I59+Sheet2!B$6/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q59" s="24">
+        <f>$I59+Sheet2!B$7/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="R59" s="24">
+        <f>$I59+Sheet2!B$8/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="S59" s="24">
+        <f>$I59+Sheet2!B$9/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="T59" s="24">
+        <f>$I59+Sheet2!B$10/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="U59" s="24">
+        <f>$I59+Sheet2!B$11/24</f>
+        <v>-0.20833333333333334</v>
+      </c>
+      <c r="V59" s="24">
+        <f>$I59+Sheet2!B$12/24</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="52"/>
+      <c r="B60" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="7">
+        <v>40</v>
+      </c>
+      <c r="D60" s="7">
+        <v>40</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I60" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J60" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" s="26">
+        <f>$I60+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L60" s="24">
+        <f>$I60+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M60" s="24">
+        <f>$I60+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N60" s="24">
+        <f>$I60+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O60" s="24">
+        <f>$I60+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P60" s="24">
+        <f>$I60+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q60" s="24">
+        <f>$I60+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R60" s="24">
+        <f>$I60+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S60" s="24">
+        <f>$I60+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T60" s="24">
+        <f>$I60+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U60" s="24">
+        <f>$I60+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V60" s="24">
+        <f>$I60+Sheet2!B$12/24</f>
         <v>-0.20833333333333337</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A57" s="51"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A58" s="51"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A59" s="51"/>
+    <row r="61" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="52"/>
+      <c r="B61" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="7">
+        <v>54</v>
+      </c>
+      <c r="D61" s="7">
+        <v>54</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I61" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J61" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K61" s="26">
+        <f>$I61+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L61" s="24">
+        <f>$I61+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M61" s="24">
+        <f>$I61+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N61" s="24">
+        <f>$I61+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O61" s="24">
+        <f>$I61+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P61" s="24">
+        <f>$I61+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q61" s="24">
+        <f>$I61+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R61" s="24">
+        <f>$I61+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S61" s="24">
+        <f>$I61+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T61" s="24">
+        <f>$I61+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U61" s="24">
+        <f>$I61+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V61" s="24">
+        <f>$I61+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="52"/>
+      <c r="B62" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="7">
+        <v>55</v>
+      </c>
+      <c r="D62" s="7">
+        <v>55</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H62" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I62" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J62" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" s="26">
+        <f>$I62+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L62" s="24">
+        <f>$I62+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M62" s="24">
+        <f>$I62+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N62" s="24">
+        <f>$I62+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O62" s="24">
+        <f>$I62+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P62" s="24">
+        <f>$I62+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q62" s="24">
+        <f>$I62+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R62" s="24">
+        <f>$I62+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S62" s="24">
+        <f>$I62+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T62" s="24">
+        <f>$I62+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U62" s="24">
+        <f>$I62+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V62" s="24">
+        <f>$I62+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="52"/>
+      <c r="B63" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="7">
+        <v>56</v>
+      </c>
+      <c r="D63" s="7">
+        <v>56</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="H63" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I63" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J63" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K63" s="26">
+        <f>$I63+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L63" s="24">
+        <f>$I63+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M63" s="24">
+        <f>$I63+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N63" s="24">
+        <f>$I63+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O63" s="24">
+        <f>$I63+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P63" s="24">
+        <f>$I63+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q63" s="24">
+        <f>$I63+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R63" s="24">
+        <f>$I63+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S63" s="24">
+        <f>$I63+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T63" s="24">
+        <f>$I63+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U63" s="24">
+        <f>$I63+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V63" s="24">
+        <f>$I63+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="52"/>
+      <c r="B64" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="7">
+        <v>57</v>
+      </c>
+      <c r="D64" s="7">
+        <v>57</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H64" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I64" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J64" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" s="26">
+        <f>$I64+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L64" s="24">
+        <f>$I64+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M64" s="24">
+        <f>$I64+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N64" s="24">
+        <f>$I64+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O64" s="24">
+        <f>$I64+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P64" s="24">
+        <f>$I64+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q64" s="24">
+        <f>$I64+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R64" s="24">
+        <f>$I64+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S64" s="24">
+        <f>$I64+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T64" s="24">
+        <f>$I64+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U64" s="24">
+        <f>$I64+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V64" s="24">
+        <f>$I64+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="52"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="52"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="52"/>
     </row>
   </sheetData>
-  <sortState ref="B2:V48">
-    <sortCondition ref="D2:D48"/>
+  <sortState ref="B2:V54">
+    <sortCondition ref="D2:D54"/>
   </sortState>
   <customSheetViews>
     <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
@@ -6165,305 +6950,395 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
-    <mergeCell ref="A7:A23"/>
-    <mergeCell ref="A24:A59"/>
+    <mergeCell ref="A10:A29"/>
+    <mergeCell ref="A30:A67"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L5 K4:V15 K17:V38 K40:V56">
-    <cfRule type="expression" dxfId="59" priority="117">
+  <conditionalFormatting sqref="K23:V56 K6:V19 K2:L8 K58:V59 K61:V64">
+    <cfRule type="expression" dxfId="77" priority="140">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:V5">
-    <cfRule type="expression" dxfId="58" priority="119">
+  <conditionalFormatting sqref="K2:V8">
+    <cfRule type="expression" dxfId="76" priority="142">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:V27 G34:V34 G27 B36:B39 K41:V41 G41 G43:V43 B42:B43 K44:V46 G44:G46 B47:B48 B50 K49:V49 G49 G56 G51:G54 K51:V56 E50:V50 E47:V48 E42:V42 E36:V38 E28:V33 B2:V4 B5:B34 C5:D56 E5:V26 E39:G39">
-    <cfRule type="expression" dxfId="57" priority="123">
+  <conditionalFormatting sqref="K33:V33 G40:V40 G33 B42:B45 K47:V47 G47 G49:V49 B48:B49 K50:V52 G50:G52 B53:B54 B56 K55:V55 G55 G64 K58:V59 E56:V56 E53:V54 E48:V48 E42:V44 E34:V39 E45:G45 E23:V32 B23:B40 H21:V21 B8:B20 C8:D56 E8:V20 H2:V2 B3:V7 C58:D59 G57:G62 C61:D64 K61:V64">
+    <cfRule type="expression" dxfId="75" priority="146">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41 J41:V41">
-    <cfRule type="expression" dxfId="56" priority="100">
+  <conditionalFormatting sqref="B47 J47:V47">
+    <cfRule type="expression" dxfId="74" priority="123">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44 J44:V44">
-    <cfRule type="expression" dxfId="55" priority="98">
+  <conditionalFormatting sqref="B50 J50:V50">
+    <cfRule type="expression" dxfId="73" priority="121">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B52 J52:V52">
+    <cfRule type="expression" dxfId="72" priority="119">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55 J55:V55">
+    <cfRule type="expression" dxfId="71" priority="117">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51 J51:V51">
+    <cfRule type="expression" dxfId="70" priority="115">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58 J58:V58">
+    <cfRule type="expression" dxfId="69" priority="113">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59 J59:V59 E59:F59 H59">
+    <cfRule type="expression" dxfId="68" priority="111">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" dxfId="67" priority="109">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="66" priority="106">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" dxfId="65" priority="105">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58 H58">
+    <cfRule type="expression" dxfId="64" priority="104">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63 J63:V63">
+    <cfRule type="expression" dxfId="63" priority="102">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62 J62:V62 E62">
+    <cfRule type="expression" dxfId="62" priority="100">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63:F63 H63">
+    <cfRule type="expression" dxfId="61" priority="98">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61 J61:V61">
+    <cfRule type="expression" dxfId="60" priority="96">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64 J64:V64 E64">
+    <cfRule type="expression" dxfId="59" priority="94">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="expression" dxfId="58" priority="86">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="expression" dxfId="57" priority="76">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="expression" dxfId="56" priority="75">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52">
+    <cfRule type="expression" dxfId="55" priority="74">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="expression" dxfId="54" priority="73">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51">
+    <cfRule type="expression" dxfId="53" priority="72">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58">
+    <cfRule type="expression" dxfId="52" priority="71">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59">
+    <cfRule type="expression" dxfId="51" priority="70">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="expression" dxfId="50" priority="69">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="expression" dxfId="49" priority="62">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="expression" dxfId="48" priority="61">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="expression" dxfId="47" priority="60">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="expression" dxfId="46" priority="59">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="expression" dxfId="45" priority="58">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="expression" dxfId="44" priority="57">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="expression" dxfId="43" priority="56">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="expression" dxfId="42" priority="55">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
+    <cfRule type="expression" dxfId="41" priority="54">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="expression" dxfId="40" priority="53">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
+    <cfRule type="expression" dxfId="39" priority="52">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="expression" dxfId="38" priority="48">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" dxfId="37" priority="47">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="expression" dxfId="36" priority="46">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="expression" dxfId="35" priority="42">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:F52">
+    <cfRule type="expression" dxfId="34" priority="41">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:F50">
+    <cfRule type="expression" dxfId="33" priority="40">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:F61">
+    <cfRule type="expression" dxfId="32" priority="39">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41 E41:V41">
+    <cfRule type="expression" dxfId="31" priority="38">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46:V46 G46">
+    <cfRule type="expression" dxfId="30" priority="36">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B46 J46:V46">
-    <cfRule type="expression" dxfId="54" priority="96">
+    <cfRule type="expression" dxfId="29" priority="34">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49 J49:V49">
-    <cfRule type="expression" dxfId="53" priority="94">
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" dxfId="28" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45 J45:V45">
-    <cfRule type="expression" dxfId="52" priority="92">
+  <conditionalFormatting sqref="I46">
+    <cfRule type="expression" dxfId="27" priority="32">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51 J51:V51">
-    <cfRule type="expression" dxfId="51" priority="90">
+  <conditionalFormatting sqref="H46">
+    <cfRule type="expression" dxfId="26" priority="31">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52 J52:V52 E52:F52 H52">
-    <cfRule type="expression" dxfId="50" priority="88">
+  <conditionalFormatting sqref="F46">
+    <cfRule type="expression" dxfId="25" priority="30">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="49" priority="86">
+  <conditionalFormatting sqref="K20:V21">
+    <cfRule type="expression" dxfId="24" priority="150">
+      <formula>K$1=#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:V21">
+    <cfRule type="expression" dxfId="23" priority="29">
+      <formula>K$1=$H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:V45">
+    <cfRule type="expression" dxfId="22" priority="27">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="48" priority="83">
+  <conditionalFormatting sqref="J45:V45">
+    <cfRule type="expression" dxfId="21" priority="26">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="47" priority="82">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51 H51">
-    <cfRule type="expression" dxfId="46" priority="81">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55 J55:V55">
-    <cfRule type="expression" dxfId="45" priority="79">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54 J54:V54 E54">
-    <cfRule type="expression" dxfId="44" priority="77">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55:F55 H55">
-    <cfRule type="expression" dxfId="43" priority="75">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53 J53:V53">
-    <cfRule type="expression" dxfId="42" priority="73">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56 J56:V56 E56">
-    <cfRule type="expression" dxfId="41" priority="71">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="expression" dxfId="40" priority="63">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
-    <cfRule type="expression" dxfId="39" priority="53">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="expression" dxfId="38" priority="52">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="expression" dxfId="37" priority="51">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="36" priority="50">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="35" priority="49">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="34" priority="48">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
-    <cfRule type="expression" dxfId="33" priority="47">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
-    <cfRule type="expression" dxfId="32" priority="46">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="expression" dxfId="31" priority="39">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="expression" dxfId="30" priority="38">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="expression" dxfId="29" priority="37">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="expression" dxfId="28" priority="36">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="expression" dxfId="27" priority="35">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="expression" dxfId="26" priority="34">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54">
-    <cfRule type="expression" dxfId="25" priority="33">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="expression" dxfId="24" priority="32">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
-    <cfRule type="expression" dxfId="23" priority="31">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="expression" dxfId="22" priority="30">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
-    <cfRule type="expression" dxfId="21" priority="29">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
     <cfRule type="expression" dxfId="20" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
+  <conditionalFormatting sqref="H45">
     <cfRule type="expression" dxfId="19" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="expression" dxfId="18" priority="23">
+  <conditionalFormatting sqref="B21 G21">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="expression" dxfId="17" priority="19">
+  <conditionalFormatting sqref="H22:V22">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46:F46">
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44:F44">
+  <conditionalFormatting sqref="K22:V22">
+    <cfRule type="expression" dxfId="16" priority="19">
+      <formula>K$1=#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22:V22">
     <cfRule type="expression" dxfId="15" priority="17">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53:F53">
+      <formula>K$1=$H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22 E22:G22">
     <cfRule type="expression" dxfId="14" priority="16">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35 E35:V35">
-    <cfRule type="expression" dxfId="13" priority="15">
+  <conditionalFormatting sqref="E21:F21">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:V40 G40">
+  <conditionalFormatting sqref="B2:G2">
     <cfRule type="expression" dxfId="12" priority="13">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40 J40:V40">
-    <cfRule type="expression" dxfId="11" priority="11">
+  <conditionalFormatting sqref="B57:F57">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="K57:V57">
     <cfRule type="expression" dxfId="10" priority="10">
+      <formula>K$1=$H57</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:V57">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="9" priority="9">
+  <conditionalFormatting sqref="J57:V57">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="expression" dxfId="8" priority="8">
+  <conditionalFormatting sqref="H57">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="expression" dxfId="7" priority="7">
+  <conditionalFormatting sqref="I57">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:V16">
-    <cfRule type="expression" dxfId="6" priority="127">
-      <formula>K$1=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16:V16">
+  <conditionalFormatting sqref="B60:F60">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>K$1=$H16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K39:V39">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>K$1=$H39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K39:V39">
-    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J39:V39">
+  <conditionalFormatting sqref="K60:V60">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>K$1=$H60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60:V60">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J60:V60">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
+  <conditionalFormatting sqref="H60">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="I60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE28AD51-4BBF-4E48-9A98-A0A738A1281C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7B3A1C-37D9-DB49-8363-5FD09EF12862}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14140" yWindow="9040" windowWidth="33700" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179021"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="187">
   <si>
     <t>Name</t>
   </si>
@@ -592,6 +592,9 @@
   </si>
   <si>
     <t>:clock10:</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/411913448/</t>
   </si>
 </sst>
 </file>
@@ -1039,6 +1042,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1051,7 +1055,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1929,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2633,7 +2636,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -2714,7 +2717,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="19" t="s">
         <v>173</v>
       </c>
@@ -2726,7 +2729,7 @@
       <c r="F11" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="49" t="s">
         <v>176</v>
       </c>
       <c r="H11" s="29" t="str">
@@ -2789,7 +2792,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="19" t="s">
         <v>41</v>
       </c>
@@ -2868,7 +2871,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="19" t="s">
         <v>43</v>
       </c>
@@ -2947,7 +2950,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="19" t="s">
         <v>51</v>
       </c>
@@ -3026,7 +3029,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="19" t="s">
         <v>50</v>
       </c>
@@ -3105,7 +3108,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="19" t="s">
         <v>40</v>
       </c>
@@ -3184,7 +3187,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="13" t="s">
         <v>44</v>
       </c>
@@ -3263,7 +3266,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="19" t="s">
         <v>49</v>
       </c>
@@ -3342,7 +3345,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="19" t="s">
         <v>48</v>
       </c>
@@ -3421,7 +3424,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="19" t="s">
         <v>157</v>
       </c>
@@ -3500,7 +3503,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="19" t="s">
         <v>172</v>
       </c>
@@ -3516,7 +3519,9 @@
       <c r="F21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="9"/>
+      <c r="G21" s="9" t="s">
+        <v>186</v>
+      </c>
       <c r="H21" s="31" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
@@ -3577,7 +3582,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="19" t="s">
         <v>169</v>
       </c>
@@ -3656,7 +3661,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
@@ -3735,7 +3740,7 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="19" t="s">
         <v>164</v>
       </c>
@@ -3809,7 +3814,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="19" t="s">
         <v>55</v>
       </c>
@@ -3887,7 +3892,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="13" t="s">
         <v>53</v>
       </c>
@@ -3965,7 +3970,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="34" t="s">
         <v>111</v>
       </c>
@@ -4043,7 +4048,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="19" t="s">
         <v>54</v>
       </c>
@@ -4121,7 +4126,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="19" t="s">
         <v>93</v>
       </c>
@@ -4199,7 +4204,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="52" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -4279,7 +4284,7 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="19" t="s">
         <v>159</v>
       </c>
@@ -4354,7 +4359,7 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="52"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="19" t="s">
         <v>115</v>
       </c>
@@ -4433,7 +4438,7 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="52"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="19" t="s">
         <v>143</v>
       </c>
@@ -4511,7 +4516,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="52"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="13" t="s">
         <v>37</v>
       </c>
@@ -4590,7 +4595,7 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="52"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="13" t="s">
         <v>35</v>
       </c>
@@ -4669,7 +4674,7 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="52"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="19" t="s">
         <v>33</v>
       </c>
@@ -4748,7 +4753,7 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="52"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="13" t="s">
         <v>38</v>
       </c>
@@ -4827,7 +4832,7 @@
       </c>
     </row>
     <row r="38" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="52"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="19" t="s">
         <v>34</v>
       </c>
@@ -4906,7 +4911,7 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="52"/>
+      <c r="A39" s="53"/>
       <c r="B39" s="19" t="s">
         <v>36</v>
       </c>
@@ -4985,7 +4990,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="52"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="19" t="s">
         <v>151</v>
       </c>
@@ -5064,7 +5069,7 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="52"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="13" t="s">
         <v>146</v>
       </c>
@@ -5143,7 +5148,7 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="52"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="19" t="s">
         <v>31</v>
       </c>
@@ -5222,7 +5227,7 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="52"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="19" t="s">
         <v>32</v>
       </c>
@@ -5301,7 +5306,7 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="52"/>
+      <c r="A44" s="53"/>
       <c r="B44" s="19" t="s">
         <v>46</v>
       </c>
@@ -5380,7 +5385,7 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="52"/>
+      <c r="A45" s="53"/>
       <c r="B45" s="19" t="s">
         <v>166</v>
       </c>
@@ -5454,7 +5459,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="52"/>
+      <c r="A46" s="53"/>
       <c r="B46" s="37" t="s">
         <v>153</v>
       </c>
@@ -5532,7 +5537,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="52"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="37" t="s">
         <v>61</v>
       </c>
@@ -5610,7 +5615,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="52"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="37" t="s">
         <v>59</v>
       </c>
@@ -5688,7 +5693,7 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="52"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="19" t="s">
         <v>137</v>
       </c>
@@ -5766,7 +5771,7 @@
       </c>
     </row>
     <row r="50" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="52"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="19" t="s">
         <v>62</v>
       </c>
@@ -5844,7 +5849,7 @@
       </c>
     </row>
     <row r="51" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="52"/>
+      <c r="A51" s="53"/>
       <c r="B51" s="37" t="s">
         <v>65</v>
       </c>
@@ -5922,7 +5927,7 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="52"/>
+      <c r="A52" s="53"/>
       <c r="B52" s="37" t="s">
         <v>63</v>
       </c>
@@ -6000,7 +6005,7 @@
       </c>
     </row>
     <row r="53" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="52"/>
+      <c r="A53" s="53"/>
       <c r="B53" s="19" t="s">
         <v>60</v>
       </c>
@@ -6078,7 +6083,7 @@
       </c>
     </row>
     <row r="54" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
+      <c r="A54" s="53"/>
       <c r="B54" s="19" t="s">
         <v>58</v>
       </c>
@@ -6156,7 +6161,7 @@
       </c>
     </row>
     <row r="55" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="52"/>
+      <c r="A55" s="53"/>
       <c r="B55" s="19" t="s">
         <v>64</v>
       </c>
@@ -6234,7 +6239,7 @@
       </c>
     </row>
     <row r="56" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="52"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="19" t="s">
         <v>57</v>
       </c>
@@ -6312,7 +6317,7 @@
       </c>
     </row>
     <row r="57" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="52"/>
+      <c r="A57" s="53"/>
       <c r="B57" s="19" t="s">
         <v>183</v>
       </c>
@@ -6386,7 +6391,7 @@
       </c>
     </row>
     <row r="58" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="52"/>
+      <c r="A58" s="53"/>
       <c r="B58" s="19" t="s">
         <v>66</v>
       </c>
@@ -6464,7 +6469,7 @@
       </c>
     </row>
     <row r="59" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="52"/>
+      <c r="A59" s="53"/>
       <c r="B59" s="37" t="s">
         <v>67</v>
       </c>
@@ -6542,7 +6547,7 @@
       </c>
     </row>
     <row r="60" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="52"/>
+      <c r="A60" s="53"/>
       <c r="B60" s="19" t="s">
         <v>184</v>
       </c>
@@ -6616,7 +6621,7 @@
       </c>
     </row>
     <row r="61" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="52"/>
+      <c r="A61" s="53"/>
       <c r="B61" s="19" t="s">
         <v>70</v>
       </c>
@@ -6694,7 +6699,7 @@
       </c>
     </row>
     <row r="62" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="52"/>
+      <c r="A62" s="53"/>
       <c r="B62" s="37" t="s">
         <v>69</v>
       </c>
@@ -6772,7 +6777,7 @@
       </c>
     </row>
     <row r="63" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="52"/>
+      <c r="A63" s="53"/>
       <c r="B63" s="19" t="s">
         <v>68</v>
       </c>
@@ -6850,7 +6855,7 @@
       </c>
     </row>
     <row r="64" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="52"/>
+      <c r="A64" s="53"/>
       <c r="B64" s="37" t="s">
         <v>71</v>
       </c>
@@ -6928,24 +6933,24 @@
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="52"/>
+      <c r="A65" s="53"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="52"/>
+      <c r="A66" s="53"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="52"/>
+      <c r="A67" s="53"/>
     </row>
   </sheetData>
   <sortState ref="B2:V54">
     <sortCondition ref="D2:D54"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
+      <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
-      <selection sqref="A1:XFD1048576"/>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7B3A1C-37D9-DB49-8363-5FD09EF12862}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CDB155-76DC-4E46-83F6-6D77BD3D22A1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14140" yWindow="9040" windowWidth="33700" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179021"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="189">
   <si>
     <t>Name</t>
   </si>
@@ -595,6 +595,12 @@
   </si>
   <si>
     <t>https://swgoh.gg/p/411913448/</t>
+  </si>
+  <si>
+    <t>MaggioreStronzo</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/865686499/</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1066,21 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="80">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1930,10 +1950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2005,27 +2025,27 @@
         <v>CEST</v>
       </c>
       <c r="Q1" s="3" t="str">
-        <f>H17</f>
+        <f>H18</f>
         <v>CEST</v>
       </c>
       <c r="R1" s="3" t="str">
-        <f>H27</f>
+        <f>H28</f>
         <v>BST</v>
       </c>
       <c r="S1" s="3" t="str">
-        <f>H42</f>
+        <f>H43</f>
         <v>EDT</v>
       </c>
       <c r="T1" s="3" t="str">
-        <f>H56</f>
+        <f>H57</f>
         <v>CDT</v>
       </c>
       <c r="U1" s="3" t="str">
-        <f>H48</f>
+        <f>H49</f>
         <v>CDT</v>
       </c>
       <c r="V1" s="3" t="str">
-        <f>H53</f>
+        <f>H54</f>
         <v>CDT</v>
       </c>
     </row>
@@ -2037,10 +2057,10 @@
         <v>177</v>
       </c>
       <c r="C2" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="7" t="s">
@@ -2113,10 +2133,10 @@
         <v>39</v>
       </c>
       <c r="C3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>156</v>
@@ -2190,8 +2210,12 @@
       <c r="B4" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="7" t="s">
         <v>180</v>
@@ -2261,10 +2285,10 @@
         <v>130</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>135</v>
@@ -2336,8 +2360,12 @@
       <c r="B6" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
         <v>178</v>
@@ -2407,10 +2435,10 @@
         <v>118</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>149</v>
@@ -2485,10 +2513,10 @@
         <v>163</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="7" t="s">
@@ -2562,10 +2590,10 @@
         <v>52</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>20</v>
@@ -2643,10 +2671,10 @@
         <v>42</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>108</v>
@@ -2721,8 +2749,12 @@
       <c r="B11" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
+        <v>10</v>
+      </c>
       <c r="E11" s="21" t="s">
         <v>174</v>
       </c>
@@ -2797,10 +2829,10 @@
         <v>41</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>18</v>
@@ -2876,10 +2908,10 @@
         <v>43</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>20</v>
@@ -2955,10 +2987,10 @@
         <v>51</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>16</v>
@@ -3034,10 +3066,10 @@
         <v>50</v>
       </c>
       <c r="C15" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>18</v>
@@ -3113,10 +3145,10 @@
         <v>40</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>104</v>
@@ -3188,23 +3220,23 @@
     </row>
     <row r="17" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
-      <c r="B17" s="13" t="s">
-        <v>44</v>
+      <c r="B17" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>12</v>
-      </c>
-      <c r="E17" s="15" t="s">
         <v>16</v>
       </c>
+      <c r="E17" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="H17" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -3213,156 +3245,156 @@
       <c r="I17" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="26">
         <f>$I17+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="24">
         <f>$I17+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="24">
         <f>$I17+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="24">
         <f>$I17+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="24">
         <f>$I17+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="24">
         <f>$I17+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="24">
         <f>$I17+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R17" s="17">
+      <c r="R17" s="24">
         <f>$I17+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S17" s="17">
+      <c r="S17" s="24">
         <f>$I17+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T17" s="17">
+      <c r="T17" s="24">
         <f>$I17+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U17" s="17">
+      <c r="U17" s="24">
         <f>$I17+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V17" s="17">
+      <c r="V17" s="24">
         <f>$I17+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="50"/>
-      <c r="B18" s="19" t="s">
-        <v>49</v>
+      <c r="B18" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C18" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>13</v>
-      </c>
-      <c r="E18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="31" t="str">
+      <c r="E18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="29" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
       <c r="I18" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="27">
         <f>$I18+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="17">
         <f>$I18+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="17">
         <f>$I18+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N18" s="24">
+      <c r="N18" s="17">
         <f>$I18+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="17">
         <f>$I18+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P18" s="24">
+      <c r="P18" s="17">
         <f>$I18+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="17">
         <f>$I18+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R18" s="24">
+      <c r="R18" s="17">
         <f>$I18+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S18" s="24">
+      <c r="S18" s="17">
         <f>$I18+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T18" s="24">
+      <c r="T18" s="17">
         <f>$I18+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U18" s="24">
+      <c r="U18" s="17">
         <f>$I18+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V18" s="24">
+      <c r="V18" s="17">
         <f>$I18+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="B19" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>14</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H19" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -3371,10 +3403,10 @@
       <c r="I19" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J19" s="28" t="s">
+      <c r="J19" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="26">
         <f>$I19+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -3426,22 +3458,22 @@
     <row r="20" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="50"/>
       <c r="B20" s="19" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20" s="7">
-        <v>15</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="H20" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -3505,22 +3537,22 @@
     <row r="21" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="50"/>
       <c r="B21" s="19" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C21" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D21" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>186</v>
+        <v>18</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>158</v>
       </c>
       <c r="H21" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -3584,22 +3616,22 @@
     <row r="22" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="50"/>
       <c r="B22" s="19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C22" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D22" s="7">
-        <v>17</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>171</v>
+        <v>21</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="H22" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -3663,22 +3695,22 @@
     <row r="23" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="50"/>
       <c r="B23" s="19" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="C23" s="7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D23" s="7">
-        <v>18</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>81</v>
+        <v>22</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="H23" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -3690,7 +3722,7 @@
       <c r="J23" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="12">
         <f>$I23+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -3742,97 +3774,98 @@
     <row r="24" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="50"/>
       <c r="B24" s="19" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="C24" s="7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>19</v>
-      </c>
-      <c r="E24" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="17">
-        <v>0.75</v>
+        <v>92</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="31" t="str">
+        <f>Sheet2!$A$7</f>
+        <v>CEST</v>
+      </c>
+      <c r="I24" s="24">
+        <v>0.70833333333333337</v>
       </c>
       <c r="J24" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K24" s="26">
         <f>$I24+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L24" s="24">
         <f>$I24+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M24" s="24">
         <f>$I24+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N24" s="24">
         <f>$I24+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O24" s="24">
         <f>$I24+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P24" s="24">
         <f>$I24+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q24" s="24">
         <f>$I24+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R24" s="24">
         <f>$I24+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S24" s="24">
         <f>$I24+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T24" s="24">
         <f>$I24+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U24" s="24">
         <f>$I24+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V24" s="24">
         <f>$I24+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="50"/>
       <c r="B25" s="19" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="C25" s="7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D25" s="7">
-        <v>20</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E25" s="21"/>
       <c r="F25" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>102</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G25" s="31"/>
       <c r="H25" s="31" t="s">
         <v>12</v>
       </c>
@@ -3891,181 +3924,181 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="50"/>
-      <c r="B26" s="13" t="s">
-        <v>53</v>
+      <c r="B26" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="C26" s="7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D26" s="7">
-        <v>21</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="H26" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="31" t="s">
         <v>12</v>
       </c>
       <c r="I26" s="17">
         <v>0.75</v>
       </c>
-      <c r="J26" s="30" t="s">
+      <c r="J26" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="26">
         <f>$I26+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="24">
         <f>$I26+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="24">
         <f>$I26+Sheet2!B$3/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N26" s="24">
         <f>$I26+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O26" s="24">
         <f>$I26+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P26" s="24">
         <f>$I26+Sheet2!B$6/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q26" s="17">
+      <c r="Q26" s="24">
         <f>$I26+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R26" s="17">
+      <c r="R26" s="24">
         <f>$I26+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="S26" s="17">
+      <c r="S26" s="24">
         <f>$I26+Sheet2!B$9/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="T26" s="17">
+      <c r="T26" s="24">
         <f>$I26+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U26" s="17">
+      <c r="U26" s="24">
         <f>$I26+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="V26" s="17">
+      <c r="V26" s="24">
         <f>$I26+Sheet2!B$12/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="50"/>
-      <c r="B27" s="34" t="s">
-        <v>111</v>
+      <c r="B27" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C27" s="7">
+        <v>26</v>
+      </c>
+      <c r="D27" s="7">
+        <v>26</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="7">
-        <v>22</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" s="31" t="s">
+      <c r="G27" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="29" t="s">
         <v>12</v>
       </c>
       <c r="I27" s="17">
         <v>0.75</v>
       </c>
-      <c r="J27" s="28" t="s">
+      <c r="J27" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="26">
+      <c r="K27" s="33">
         <f>$I27+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="17">
         <f>$I27+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M27" s="17">
         <f>$I27+Sheet2!B$3/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N27" s="17">
         <f>$I27+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="O27" s="24">
+      <c r="O27" s="17">
         <f>$I27+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="P27" s="24">
+      <c r="P27" s="17">
         <f>$I27+Sheet2!B$6/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q27" s="24">
+      <c r="Q27" s="17">
         <f>$I27+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R27" s="24">
+      <c r="R27" s="17">
         <f>$I27+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="S27" s="24">
+      <c r="S27" s="17">
         <f>$I27+Sheet2!B$9/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="T27" s="24">
+      <c r="T27" s="17">
         <f>$I27+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U27" s="24">
+      <c r="U27" s="17">
         <f>$I27+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="V27" s="24">
+      <c r="V27" s="17">
         <f>$I27+Sheet2!B$12/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
-      <c r="B28" s="19" t="s">
-        <v>54</v>
+      <c r="B28" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D28" s="7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>112</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>12</v>
@@ -4126,258 +4159,257 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="19" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C29" s="7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D29" s="7">
-        <v>24</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>94</v>
+        <v>28</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>96</v>
+        <v>132</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>101</v>
       </c>
       <c r="H29" s="31" t="s">
         <v>12</v>
       </c>
       <c r="I29" s="17">
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="J29" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K29" s="26">
         <f>$I29+Sheet2!B$1/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L29" s="24">
         <f>$I29+Sheet2!B$2/24</f>
-        <v>1.1666666666666665</v>
+        <v>1.125</v>
       </c>
       <c r="M29" s="24">
         <f>$I29+Sheet2!B$3/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N29" s="24">
         <f>$I29+Sheet2!B$4/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="O29" s="24">
         <f>$I29+Sheet2!B$5/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="P29" s="24">
         <f>$I29+Sheet2!B$6/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="Q29" s="24">
         <f>$I29+Sheet2!B$7/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R29" s="24">
         <f>$I29+Sheet2!B$8/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S29" s="24">
         <f>$I29+Sheet2!B$9/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T29" s="24">
         <f>$I29+Sheet2!B$10/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U29" s="24">
         <f>$I29+Sheet2!B$11/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="V29" s="24">
         <f>$I29+Sheet2!B$12/24</f>
-        <v>0.49999999999999994</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52" t="s">
-        <v>21</v>
-      </c>
+      <c r="A30" s="51"/>
       <c r="B30" s="19" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C30" s="7">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D30" s="7">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H30" s="31" t="s">
         <v>12</v>
       </c>
       <c r="I30" s="17">
-        <v>0.875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="J30" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K30" s="26">
         <f>$I30+Sheet2!B$1/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="L30" s="24">
         <f>$I30+Sheet2!B$2/24</f>
-        <v>1.25</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="M30" s="24">
         <f>$I30+Sheet2!B$3/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.125</v>
       </c>
       <c r="N30" s="24">
         <f>$I30+Sheet2!B$4/24</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O30" s="24">
         <f>$I30+Sheet2!B$5/24</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="P30" s="24">
         <f>$I30+Sheet2!B$6/24</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="Q30" s="24">
         <f>$I30+Sheet2!B$7/24</f>
-        <v>0.95833333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="R30" s="24">
         <f>$I30+Sheet2!B$8/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="S30" s="24">
         <f>$I30+Sheet2!B$9/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="T30" s="24">
         <f>$I30+Sheet2!B$10/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="U30" s="24">
         <f>$I30+Sheet2!B$11/24</f>
-        <v>0.625</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="V30" s="24">
         <f>$I30+Sheet2!B$12/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
+      <c r="A31" s="52" t="s">
+        <v>21</v>
+      </c>
       <c r="B31" s="19" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="C31" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D31" s="7">
-        <v>26</v>
-      </c>
-      <c r="E31" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>106</v>
+      </c>
       <c r="F31" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I31" s="24">
-        <v>0.95833333333333337</v>
+        <v>107</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="17">
+        <v>0.875</v>
       </c>
       <c r="J31" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K31" s="26">
         <f>$I31+Sheet2!B$1/24</f>
-        <v>1.375</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="L31" s="24">
         <f>$I31+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
+        <v>1.25</v>
       </c>
       <c r="M31" s="24">
         <f>$I31+Sheet2!B$3/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="N31" s="24">
         <f>$I31+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
+        <v>1</v>
       </c>
       <c r="O31" s="24">
         <f>$I31+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
+        <v>1</v>
       </c>
       <c r="P31" s="24">
         <f>$I31+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="24">
         <f>$I31+Sheet2!B$7/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="R31" s="24">
         <f>$I31+Sheet2!B$8/24</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="S31" s="24">
         <f>$I31+Sheet2!B$9/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="T31" s="24">
         <f>$I31+Sheet2!B$10/24</f>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U31" s="24">
         <f>$I31+Sheet2!B$11/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="V31" s="24">
         <f>$I31+Sheet2!B$12/24</f>
-        <v>0.66666666666666674</v>
+        <v>0.58333333333333326</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="53"/>
       <c r="B32" s="19" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C32" s="7">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D32" s="7">
-        <v>27</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>114</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" s="31"/>
       <c r="H32" s="31" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
@@ -4437,33 +4469,34 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="53"/>
       <c r="B33" s="19" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C33" s="7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D33" s="7">
-        <v>28</v>
-      </c>
-      <c r="E33" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H33" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="I33" s="43">
+      <c r="F33" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
+      </c>
+      <c r="I33" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J33" s="44" t="s">
+      <c r="J33" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K33" s="26">
@@ -4515,37 +4548,36 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="53"/>
-      <c r="B34" s="13" t="s">
-        <v>37</v>
+      <c r="B34" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="C34" s="7">
+        <v>33</v>
+      </c>
+      <c r="D34" s="7">
+        <v>33</v>
+      </c>
+      <c r="E34" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="7">
-        <v>29</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" s="31" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I34" s="24">
+      <c r="G34" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="I34" s="43">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J34" s="28" t="s">
+      <c r="J34" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="26">
         <f>$I34+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -4597,13 +4629,13 @@
     <row r="35" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="53"/>
       <c r="B35" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C35" s="7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D35" s="7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>29</v>
@@ -4611,8 +4643,8 @@
       <c r="F35" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G35" s="22" t="s">
-        <v>116</v>
+      <c r="G35" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="H35" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4624,7 +4656,7 @@
       <c r="J35" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="26">
+      <c r="K35" s="12">
         <f>$I35+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -4675,14 +4707,14 @@
     </row>
     <row r="36" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="53"/>
-      <c r="B36" s="19" t="s">
-        <v>33</v>
+      <c r="B36" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="C36" s="7">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D36" s="7">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>29</v>
@@ -4690,8 +4722,8 @@
       <c r="F36" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>78</v>
+      <c r="G36" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="H36" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4754,14 +4786,14 @@
     </row>
     <row r="37" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="53"/>
-      <c r="B37" s="13" t="s">
-        <v>38</v>
+      <c r="B37" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="C37" s="7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D37" s="7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>29</v>
@@ -4769,8 +4801,8 @@
       <c r="F37" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="23" t="s">
-        <v>133</v>
+      <c r="G37" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="H37" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4779,68 +4811,68 @@
       <c r="I37" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J37" s="30" t="s">
+      <c r="J37" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="26">
         <f>$I37+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L37" s="24">
         <f>$I37+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M37" s="17">
+      <c r="M37" s="24">
         <f>$I37+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N37" s="24">
         <f>$I37+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O37" s="17">
+      <c r="O37" s="24">
         <f>$I37+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P37" s="17">
+      <c r="P37" s="24">
         <f>$I37+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q37" s="17">
+      <c r="Q37" s="24">
         <f>$I37+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R37" s="17">
+      <c r="R37" s="24">
         <f>$I37+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S37" s="17">
+      <c r="S37" s="24">
         <f>$I37+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T37" s="17">
+      <c r="T37" s="24">
         <f>$I37+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U37" s="17">
+      <c r="U37" s="24">
         <f>$I37+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V37" s="17">
+      <c r="V37" s="24">
         <f>$I37+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="53"/>
-      <c r="B38" s="19" t="s">
-        <v>34</v>
+      <c r="B38" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="C38" s="7">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D38" s="7">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>29</v>
@@ -4848,8 +4880,8 @@
       <c r="F38" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>79</v>
+      <c r="G38" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="H38" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4858,54 +4890,54 @@
       <c r="I38" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J38" s="28" t="s">
+      <c r="J38" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="26">
+      <c r="K38" s="33">
         <f>$I38+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L38" s="24">
+      <c r="L38" s="17">
         <f>$I38+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M38" s="24">
+      <c r="M38" s="17">
         <f>$I38+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N38" s="24">
+      <c r="N38" s="17">
         <f>$I38+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O38" s="24">
+      <c r="O38" s="17">
         <f>$I38+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P38" s="24">
+      <c r="P38" s="17">
         <f>$I38+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q38" s="24">
+      <c r="Q38" s="17">
         <f>$I38+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R38" s="24">
+      <c r="R38" s="17">
         <f>$I38+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S38" s="24">
+      <c r="S38" s="17">
         <f>$I38+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T38" s="24">
+      <c r="T38" s="17">
         <f>$I38+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U38" s="24">
+      <c r="U38" s="17">
         <f>$I38+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V38" s="24">
+      <c r="V38" s="17">
         <f>$I38+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
@@ -4913,13 +4945,13 @@
     <row r="39" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="53"/>
       <c r="B39" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="7">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D39" s="7">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>29</v>
@@ -4927,8 +4959,8 @@
       <c r="F39" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="23" t="s">
-        <v>110</v>
+      <c r="G39" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="H39" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4940,7 +4972,7 @@
       <c r="J39" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K39" s="26">
         <f>$I39+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -4992,22 +5024,22 @@
     <row r="40" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="53"/>
       <c r="B40" s="19" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="C40" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D40" s="7">
-        <v>35</v>
-      </c>
-      <c r="E40" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="42" t="s">
+      <c r="F40" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="31" t="s">
-        <v>152</v>
+      <c r="G40" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="H40" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -5019,7 +5051,7 @@
       <c r="J40" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K40" s="26">
+      <c r="K40" s="12">
         <f>$I40+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -5070,23 +5102,23 @@
     </row>
     <row r="41" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="53"/>
-      <c r="B41" s="13" t="s">
-        <v>146</v>
+      <c r="B41" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="C41" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D41" s="7">
-        <v>36</v>
-      </c>
-      <c r="E41" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="23" t="s">
-        <v>147</v>
+      <c r="G41" s="31" t="s">
+        <v>152</v>
       </c>
       <c r="H41" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -5095,68 +5127,68 @@
       <c r="I41" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J41" s="30" t="s">
+      <c r="J41" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="26">
         <f>$I41+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L41" s="24">
         <f>$I41+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M41" s="24">
         <f>$I41+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N41" s="17">
+      <c r="N41" s="24">
         <f>$I41+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O41" s="17">
+      <c r="O41" s="24">
         <f>$I41+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P41" s="17">
+      <c r="P41" s="24">
         <f>$I41+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q41" s="17">
+      <c r="Q41" s="24">
         <f>$I41+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R41" s="17">
+      <c r="R41" s="24">
         <f>$I41+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S41" s="17">
+      <c r="S41" s="24">
         <f>$I41+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T41" s="17">
+      <c r="T41" s="24">
         <f>$I41+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U41" s="17">
+      <c r="U41" s="24">
         <f>$I41+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V41" s="17">
+      <c r="V41" s="24">
         <f>$I41+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="53"/>
-      <c r="B42" s="19" t="s">
-        <v>31</v>
+      <c r="B42" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="C42" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D42" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>29</v>
@@ -5164,8 +5196,8 @@
       <c r="F42" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="9" t="s">
-        <v>82</v>
+      <c r="G42" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="H42" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -5174,54 +5206,54 @@
       <c r="I42" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J42" s="28" t="s">
+      <c r="J42" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="26">
+      <c r="K42" s="33">
         <f>$I42+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L42" s="24">
+      <c r="L42" s="17">
         <f>$I42+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M42" s="24">
+      <c r="M42" s="17">
         <f>$I42+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N42" s="24">
+      <c r="N42" s="17">
         <f>$I42+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O42" s="24">
+      <c r="O42" s="17">
         <f>$I42+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P42" s="24">
+      <c r="P42" s="17">
         <f>$I42+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q42" s="24">
+      <c r="Q42" s="17">
         <f>$I42+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R42" s="24">
+      <c r="R42" s="17">
         <f>$I42+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S42" s="24">
+      <c r="S42" s="17">
         <f>$I42+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T42" s="24">
+      <c r="T42" s="17">
         <f>$I42+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U42" s="24">
+      <c r="U42" s="17">
         <f>$I42+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V42" s="24">
+      <c r="V42" s="17">
         <f>$I42+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
@@ -5229,13 +5261,13 @@
     <row r="43" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="53"/>
       <c r="B43" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D43" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>29</v>
@@ -5244,7 +5276,7 @@
         <v>22</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H43" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -5308,22 +5340,22 @@
     <row r="44" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="53"/>
       <c r="B44" s="19" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C44" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D44" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>84</v>
+        <v>22</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="H44" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -5387,97 +5419,98 @@
     <row r="45" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="53"/>
       <c r="B45" s="19" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="C45" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D45" s="7">
-        <v>40</v>
-      </c>
-      <c r="E45" s="15"/>
+        <v>44</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="F45" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="31" t="s">
-        <v>73</v>
+        <v>47</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
       </c>
       <c r="I45" s="24">
-        <v>0</v>
-      </c>
-      <c r="J45" s="30" t="s">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J45" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K45" s="26">
         <f>$I45+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.375</v>
       </c>
       <c r="L45" s="24">
         <f>$I45+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="M45" s="24">
         <f>$I45+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="N45" s="24">
         <f>$I45+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="O45" s="24">
         <f>$I45+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="P45" s="24">
         <f>$I45+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="Q45" s="24">
         <f>$I45+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="R45" s="24">
         <f>$I45+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>1</v>
       </c>
       <c r="S45" s="24">
         <f>$I45+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="T45" s="24">
         <f>$I45+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="U45" s="24">
         <f>$I45+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="V45" s="24">
         <f>$I45+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="53"/>
-      <c r="B46" s="37" t="s">
-        <v>153</v>
+      <c r="B46" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="C46" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D46" s="7">
-        <v>41</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>29</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E46" s="15"/>
       <c r="F46" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="31" t="s">
-        <v>154</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G46" s="9"/>
       <c r="H46" s="31" t="s">
         <v>73</v>
       </c>
@@ -5539,13 +5572,13 @@
     <row r="47" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="53"/>
       <c r="B47" s="37" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="C47" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D47" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>29</v>
@@ -5554,7 +5587,7 @@
         <v>22</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="H47" s="31" t="s">
         <v>73</v>
@@ -5617,22 +5650,22 @@
     <row r="48" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="53"/>
       <c r="B48" s="37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C48" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D48" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>74</v>
+      <c r="F48" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="H48" s="31" t="s">
         <v>73</v>
@@ -5694,23 +5727,23 @@
     </row>
     <row r="49" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="53"/>
-      <c r="B49" s="19" t="s">
-        <v>137</v>
+      <c r="B49" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="C49" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D49" s="7">
-        <v>44</v>
-      </c>
-      <c r="E49" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="42" t="s">
-        <v>22</v>
+      <c r="F49" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H49" s="31" t="s">
         <v>73</v>
@@ -5718,7 +5751,7 @@
       <c r="I49" s="24">
         <v>0</v>
       </c>
-      <c r="J49" s="28" t="s">
+      <c r="J49" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K49" s="26">
@@ -5773,22 +5806,22 @@
     <row r="50" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="53"/>
       <c r="B50" s="19" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="C50" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D50" s="7">
-        <v>45</v>
-      </c>
-      <c r="E50" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="42" t="s">
         <v>22</v>
       </c>
       <c r="G50" s="31" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H50" s="31" t="s">
         <v>73</v>
@@ -5796,7 +5829,7 @@
       <c r="I50" s="24">
         <v>0</v>
       </c>
-      <c r="J50" s="30" t="s">
+      <c r="J50" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K50" s="26">
@@ -5850,23 +5883,23 @@
     </row>
     <row r="51" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="53"/>
-      <c r="B51" s="37" t="s">
-        <v>65</v>
+      <c r="B51" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="C51" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D51" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H51" s="31" t="s">
         <v>73</v>
@@ -5929,22 +5962,22 @@
     <row r="52" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="53"/>
       <c r="B52" s="37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C52" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D52" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="29" t="s">
-        <v>122</v>
+        <v>47</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>124</v>
       </c>
       <c r="H52" s="31" t="s">
         <v>73</v>
@@ -6006,23 +6039,23 @@
     </row>
     <row r="53" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="53"/>
-      <c r="B53" s="19" t="s">
-        <v>60</v>
+      <c r="B53" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="C53" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D53" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G53" s="31" t="s">
-        <v>142</v>
+      <c r="F53" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>122</v>
       </c>
       <c r="H53" s="31" t="s">
         <v>73</v>
@@ -6085,22 +6118,22 @@
     <row r="54" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="53"/>
       <c r="B54" s="19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C54" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D54" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="20" t="s">
-        <v>22</v>
+      <c r="F54" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="H54" s="31" t="s">
         <v>73</v>
@@ -6108,7 +6141,7 @@
       <c r="I54" s="24">
         <v>0</v>
       </c>
-      <c r="J54" s="28" t="s">
+      <c r="J54" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K54" s="26">
@@ -6160,25 +6193,25 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="53"/>
       <c r="B55" s="19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C55" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D55" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="7" t="s">
-        <v>74</v>
+      <c r="F55" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="H55" s="31" t="s">
         <v>73</v>
@@ -6186,7 +6219,7 @@
       <c r="I55" s="24">
         <v>0</v>
       </c>
-      <c r="J55" s="30" t="s">
+      <c r="J55" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K55" s="26">
@@ -6238,25 +6271,25 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="53"/>
       <c r="B56" s="19" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C56" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D56" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F56" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="29" t="s">
-        <v>117</v>
+      <c r="F56" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="H56" s="31" t="s">
         <v>73</v>
@@ -6264,7 +6297,7 @@
       <c r="I56" s="24">
         <v>0</v>
       </c>
-      <c r="J56" s="28" t="s">
+      <c r="J56" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K56" s="26">
@@ -6319,97 +6352,97 @@
     <row r="57" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="53"/>
       <c r="B57" s="19" t="s">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="C57" s="7">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D57" s="7">
-        <v>40</v>
-      </c>
-      <c r="E57" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="F57" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="G57" s="31"/>
+        <v>22</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>117</v>
+      </c>
       <c r="H57" s="31" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="I57" s="24">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J57" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K57" s="26">
         <f>$I57+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L57" s="24">
         <f>$I57+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M57" s="24">
         <f>$I57+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N57" s="24">
         <f>$I57+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O57" s="24">
         <f>$I57+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P57" s="24">
         <f>$I57+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q57" s="24">
         <f>$I57+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R57" s="24">
         <f>$I57+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S57" s="24">
         <f>$I57+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T57" s="24">
         <f>$I57+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U57" s="24">
         <f>$I57+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V57" s="24">
         <f>$I57+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="53"/>
       <c r="B58" s="19" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="C58" s="7">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D58" s="7">
-        <v>52</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G58" s="36" t="s">
-        <v>125</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G58" s="31"/>
       <c r="H58" s="31" t="s">
         <v>13</v>
       </c>
@@ -6470,25 +6503,25 @@
     </row>
     <row r="59" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="53"/>
-      <c r="B59" s="37" t="s">
-        <v>67</v>
+      <c r="B59" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="C59" s="7">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D59" s="7">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>22</v>
+        <v>140</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="G59" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="H59" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="H59" s="31" t="s">
         <v>13</v>
       </c>
       <c r="I59" s="24">
@@ -6548,98 +6581,98 @@
     </row>
     <row r="60" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="53"/>
-      <c r="B60" s="19" t="s">
-        <v>184</v>
+      <c r="B60" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="C60" s="7">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D60" s="7">
-        <v>40</v>
-      </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31" t="s">
-        <v>72</v>
+        <v>59</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="H60" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="I60" s="24">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J60" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K60" s="26">
         <f>$I60+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L60" s="24">
         <f>$I60+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M60" s="24">
         <f>$I60+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N60" s="24">
         <f>$I60+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O60" s="24">
         <f>$I60+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P60" s="24">
         <f>$I60+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q60" s="24">
         <f>$I60+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="R60" s="24">
         <f>$I60+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S60" s="24">
         <f>$I60+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T60" s="24">
         <f>$I60+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U60" s="24">
         <f>$I60+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V60" s="24">
         <f>$I60+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="53"/>
       <c r="B61" s="19" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="C61" s="7">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D61" s="7">
-        <v>54</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>29</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E61" s="15"/>
       <c r="F61" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>128</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G61" s="31"/>
       <c r="H61" s="31" t="s">
         <v>72</v>
       </c>
@@ -6700,23 +6733,23 @@
     </row>
     <row r="62" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="53"/>
-      <c r="B62" s="37" t="s">
-        <v>69</v>
+      <c r="B62" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="C62" s="7">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D62" s="7">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E62" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F62" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>127</v>
+      <c r="F62" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="H62" s="31" t="s">
         <v>72</v>
@@ -6778,23 +6811,23 @@
     </row>
     <row r="63" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="53"/>
-      <c r="B63" s="19" t="s">
-        <v>68</v>
+      <c r="B63" s="37" t="s">
+        <v>69</v>
       </c>
       <c r="C63" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D63" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E63" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F63" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="39" t="s">
-        <v>126</v>
+      <c r="F63" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="H63" s="31" t="s">
         <v>72</v>
@@ -6856,23 +6889,23 @@
     </row>
     <row r="64" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="53"/>
-      <c r="B64" s="37" t="s">
-        <v>71</v>
+      <c r="B64" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="C64" s="7">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D64" s="7">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F64" s="40" t="s">
+      <c r="F64" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G64" s="23" t="s">
-        <v>129</v>
+      <c r="G64" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="H64" s="31" t="s">
         <v>72</v>
@@ -6932,418 +6965,501 @@
         <v>-0.20833333333333337</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="53"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="7">
+        <v>64</v>
+      </c>
+      <c r="D65" s="7">
+        <v>64</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H65" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I65" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J65" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K65" s="26">
+        <f>$I65+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L65" s="24">
+        <f>$I65+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M65" s="24">
+        <f>$I65+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N65" s="24">
+        <f>$I65+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O65" s="24">
+        <f>$I65+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P65" s="24">
+        <f>$I65+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q65" s="24">
+        <f>$I65+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R65" s="24">
+        <f>$I65+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S65" s="24">
+        <f>$I65+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T65" s="24">
+        <f>$I65+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U65" s="24">
+        <f>$I65+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V65" s="24">
+        <f>$I65+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="53"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="53"/>
     </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A68" s="53"/>
+    </row>
   </sheetData>
-  <sortState ref="B2:V54">
-    <sortCondition ref="D2:D54"/>
+  <sortState ref="B2:V55">
+    <sortCondition ref="D2:D55"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
-    <mergeCell ref="A10:A29"/>
-    <mergeCell ref="A30:A67"/>
+    <mergeCell ref="A10:A30"/>
+    <mergeCell ref="A31:A68"/>
   </mergeCells>
-  <conditionalFormatting sqref="K23:V56 K6:V19 K2:L8 K58:V59 K61:V64">
-    <cfRule type="expression" dxfId="77" priority="140">
+  <conditionalFormatting sqref="K24:V57 K2:L8 K59:V60 K62:V65 K6:V20">
+    <cfRule type="expression" dxfId="79" priority="141">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:V8">
-    <cfRule type="expression" dxfId="76" priority="142">
+    <cfRule type="expression" dxfId="78" priority="143">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:V33 G40:V40 G33 B42:B45 K47:V47 G47 G49:V49 B48:B49 K50:V52 G50:G52 B53:B54 B56 K55:V55 G55 G64 K58:V59 E56:V56 E53:V54 E48:V48 E42:V44 E34:V39 E45:G45 E23:V32 B23:B40 H21:V21 B8:B20 C8:D56 E8:V20 H2:V2 B3:V7 C58:D59 G57:G62 C61:D64 K61:V64">
-    <cfRule type="expression" dxfId="75" priority="146">
+  <conditionalFormatting sqref="K34:V34 G41:V41 G34 B43:B46 K48:V48 G48 G50:V50 B49:B50 K51:V53 G51:G53 B54:B55 K56:V56 G56 G65 K59:V60 E54:V55 E43:V45 E35:V40 E46:G46 E24:V33 B24:B41 H22:V22 H2:V2 B3:V3 G58:G63 K62:V65 E18:V21 G17:V17 B4:B21 E4:V16 C5:D5 C7:D7 C9:D9 C11:D11 C13:D13 C15:D15 C17:D17 C19:D19 C21:D21 C23:D23 C25:D25 C27:D27 C29:D29 C31:D31 C33:D33 C35:D35 C37:D37 C39:D39 C41:D41 C43:D43 C45:D45 C47:D47 C49:V49 C51:D51 C53:D53 C55:D55 B57:V57 C59:D59 C61:D61 C63:D63 C65:D65">
+    <cfRule type="expression" dxfId="77" priority="147">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B48 J48:V48">
+    <cfRule type="expression" dxfId="76" priority="124">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51 J51:V51">
+    <cfRule type="expression" dxfId="75" priority="122">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53 J53:V53">
+    <cfRule type="expression" dxfId="74" priority="120">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56 J56:V56">
+    <cfRule type="expression" dxfId="73" priority="118">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52 J52:V52">
+    <cfRule type="expression" dxfId="72" priority="116">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59 J59:V59">
+    <cfRule type="expression" dxfId="71" priority="114">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60 J60:V60 E60:F60 H60">
+    <cfRule type="expression" dxfId="70" priority="112">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="69" priority="110">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="68" priority="107">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="67" priority="106">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59 H59">
+    <cfRule type="expression" dxfId="66" priority="105">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64 J64:V64">
+    <cfRule type="expression" dxfId="65" priority="103">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63 J63:V63 E63">
+    <cfRule type="expression" dxfId="64" priority="101">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:F64 H64">
+    <cfRule type="expression" dxfId="63" priority="99">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62 J62:V62">
+    <cfRule type="expression" dxfId="62" priority="97">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65 J65:V65 E65">
+    <cfRule type="expression" dxfId="61" priority="95">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="expression" dxfId="60" priority="87">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="expression" dxfId="59" priority="77">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51">
+    <cfRule type="expression" dxfId="58" priority="76">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
+    <cfRule type="expression" dxfId="57" priority="75">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="expression" dxfId="56" priority="74">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52">
+    <cfRule type="expression" dxfId="55" priority="73">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59">
+    <cfRule type="expression" dxfId="54" priority="72">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="expression" dxfId="53" priority="71">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
+    <cfRule type="expression" dxfId="52" priority="70">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="expression" dxfId="51" priority="63">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="expression" dxfId="50" priority="62">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="expression" dxfId="49" priority="61">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="expression" dxfId="48" priority="60">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="expression" dxfId="47" priority="59">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="expression" dxfId="46" priority="58">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="expression" dxfId="45" priority="57">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="expression" dxfId="44" priority="56">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="expression" dxfId="43" priority="55">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="expression" dxfId="42" priority="54">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65">
+    <cfRule type="expression" dxfId="41" priority="53">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="expression" dxfId="40" priority="49">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="expression" dxfId="39" priority="48">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63">
+    <cfRule type="expression" dxfId="38" priority="47">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="expression" dxfId="37" priority="43">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53:F53">
+    <cfRule type="expression" dxfId="36" priority="42">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:F51">
+    <cfRule type="expression" dxfId="35" priority="41">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:F62">
+    <cfRule type="expression" dxfId="34" priority="40">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42 E42:V42">
+    <cfRule type="expression" dxfId="33" priority="39">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:V47 G47">
+    <cfRule type="expression" dxfId="32" priority="37">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B47 J47:V47">
-    <cfRule type="expression" dxfId="74" priority="123">
+    <cfRule type="expression" dxfId="31" priority="35">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50 J50:V50">
-    <cfRule type="expression" dxfId="73" priority="121">
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" dxfId="30" priority="34">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52 J52:V52">
-    <cfRule type="expression" dxfId="72" priority="119">
+  <conditionalFormatting sqref="I47">
+    <cfRule type="expression" dxfId="29" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55 J55:V55">
-    <cfRule type="expression" dxfId="71" priority="117">
+  <conditionalFormatting sqref="H47">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51 J51:V51">
-    <cfRule type="expression" dxfId="70" priority="115">
+  <conditionalFormatting sqref="F47">
+    <cfRule type="expression" dxfId="27" priority="31">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58 J58:V58">
-    <cfRule type="expression" dxfId="69" priority="113">
+  <conditionalFormatting sqref="K21:V22">
+    <cfRule type="expression" dxfId="26" priority="151">
+      <formula>K$1=#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:V22">
+    <cfRule type="expression" dxfId="25" priority="30">
+      <formula>K$1=$H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46:V46">
+    <cfRule type="expression" dxfId="24" priority="28">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59 J59:V59 E59:F59 H59">
-    <cfRule type="expression" dxfId="68" priority="111">
+  <conditionalFormatting sqref="J46:V46">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="67" priority="109">
+  <conditionalFormatting sqref="I46">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="66" priority="106">
+  <conditionalFormatting sqref="H46">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="65" priority="105">
+  <conditionalFormatting sqref="B22 G22">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58 H58">
-    <cfRule type="expression" dxfId="64" priority="104">
+  <conditionalFormatting sqref="H23:V23">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63 J63:V63">
-    <cfRule type="expression" dxfId="63" priority="102">
+  <conditionalFormatting sqref="K23:V23">
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>K$1=#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:V23">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>K$1=$H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23 E23:G23">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62 J62:V62 E62">
-    <cfRule type="expression" dxfId="62" priority="100">
+  <conditionalFormatting sqref="E22:F22">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63:F63 H63">
-    <cfRule type="expression" dxfId="61" priority="98">
+  <conditionalFormatting sqref="B2:G2 C4:D4 C6:D6 C8:D8 C10:D10 C12:D12 C14:D14 C16:D16 C18:D18 C20:D20 C22:D22 C24:D24 C26:D26 C28:D28 C30:D30 C32:D32 C34:D34 C36:D36 C38:D38 C40:D40 C42:D42 C44:D44 C46:D46 C48:D48 C50:D50 C52:D52 C54:D54 C56:D56 C58:D58 C60:D60 C62:D62 C64:D64">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61 J61:V61">
-    <cfRule type="expression" dxfId="60" priority="96">
+  <conditionalFormatting sqref="B58 E58:F58">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64 J64:V64 E64">
-    <cfRule type="expression" dxfId="59" priority="94">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="expression" dxfId="58" priority="86">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
-    <cfRule type="expression" dxfId="57" priority="76">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="56" priority="75">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
-    <cfRule type="expression" dxfId="55" priority="74">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
-    <cfRule type="expression" dxfId="54" priority="73">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="53" priority="72">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
-    <cfRule type="expression" dxfId="52" priority="71">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
-    <cfRule type="expression" dxfId="51" priority="70">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="50" priority="69">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="49" priority="62">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="48" priority="61">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="expression" dxfId="47" priority="60">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="expression" dxfId="46" priority="59">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="expression" dxfId="45" priority="58">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="expression" dxfId="44" priority="57">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
-    <cfRule type="expression" dxfId="43" priority="56">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="expression" dxfId="42" priority="55">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
-    <cfRule type="expression" dxfId="41" priority="54">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="expression" dxfId="40" priority="53">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="expression" dxfId="39" priority="52">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="expression" dxfId="38" priority="48">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" dxfId="37" priority="47">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="expression" dxfId="36" priority="46">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="35" priority="42">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:F52">
-    <cfRule type="expression" dxfId="34" priority="41">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50:F50">
-    <cfRule type="expression" dxfId="33" priority="40">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:F61">
-    <cfRule type="expression" dxfId="32" priority="39">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41 E41:V41">
-    <cfRule type="expression" dxfId="31" priority="38">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46:V46 G46">
-    <cfRule type="expression" dxfId="30" priority="36">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46 J46:V46">
-    <cfRule type="expression" dxfId="29" priority="34">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="expression" dxfId="28" priority="33">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="expression" dxfId="27" priority="32">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="expression" dxfId="26" priority="31">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="expression" dxfId="25" priority="30">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20:V21">
-    <cfRule type="expression" dxfId="24" priority="150">
-      <formula>K$1=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20:V21">
-    <cfRule type="expression" dxfId="23" priority="29">
-      <formula>K$1=$H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45:V45">
-    <cfRule type="expression" dxfId="22" priority="27">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45:V45">
-    <cfRule type="expression" dxfId="21" priority="26">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="20" priority="25">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="expression" dxfId="19" priority="24">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21 G21">
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22:V22">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22:V22">
-    <cfRule type="expression" dxfId="16" priority="19">
-      <formula>K$1=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22:V22">
-    <cfRule type="expression" dxfId="15" priority="17">
-      <formula>K$1=$H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22 E22:G22">
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:F21">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G2">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57:F57">
+  <conditionalFormatting sqref="K58:V58">
+    <cfRule type="expression" dxfId="12" priority="11">
+      <formula>K$1=$H58</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:V58">
     <cfRule type="expression" dxfId="11" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:V57">
+  <conditionalFormatting sqref="J58:V58">
     <cfRule type="expression" dxfId="10" priority="10">
-      <formula>K$1=$H57</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:V57">
-    <cfRule type="expression" dxfId="9" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57:V57">
-    <cfRule type="expression" dxfId="8" priority="9">
+  <conditionalFormatting sqref="H58">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="expression" dxfId="7" priority="8">
+  <conditionalFormatting sqref="I58">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
-    <cfRule type="expression" dxfId="6" priority="7">
+  <conditionalFormatting sqref="B61 E61:F61">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:F60">
+  <conditionalFormatting sqref="K61:V61">
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>K$1=$H61</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61:V61">
     <cfRule type="expression" dxfId="5" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K60:V60">
+  <conditionalFormatting sqref="J61:V61">
     <cfRule type="expression" dxfId="4" priority="4">
-      <formula>K$1=$H60</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60:V60">
-    <cfRule type="expression" dxfId="3" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J60:V60">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="H61">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="I61">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
+  <conditionalFormatting sqref="E17:F17">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CDB155-76DC-4E46-83F6-6D77BD3D22A1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CFE03A-3069-FB41-9C50-A735AA9E4BD8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14140" yWindow="9040" windowWidth="33700" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="179021"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="193">
   <si>
     <t>Name</t>
   </si>
@@ -261,54 +261,6 @@
     <t>:smiley:</t>
   </si>
   <si>
-    <t>https://swgoh.gg/u/bonesaw/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/disgrace/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/dogman/</t>
-  </si>
-  <si>
-    <t>&lt;https://swgoh.gg/u/mistborn/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://swgoh.gg/u/cmansfield30/&gt;</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/sideous/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/thanatos85/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/t-m/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/tuggspeedman/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/whippo/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/doc1974/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/lokonew/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/boro/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/mrblonde/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/sersa/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/kuesko/</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
@@ -324,30 +276,6 @@
     <t>:flag_bz:</t>
   </si>
   <si>
-    <t>https://swgoh.gg/u/tchacabr/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/berne123/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/wild/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/phamous/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/sylar4/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/wookiefecker/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/mariopeartree/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/axlr/</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
@@ -366,66 +294,21 @@
     <t>:flag_pl:</t>
   </si>
   <si>
-    <t>https://swgoh.gg/u/mortisbs/</t>
-  </si>
-  <si>
     <t>Tantema VVV</t>
   </si>
   <si>
-    <t>https://swgoh.gg/u/ferlondon76/</t>
-  </si>
-  <si>
     <t>:flag_sk:</t>
   </si>
   <si>
-    <t>https://swgoh.gg/u/darthhemrhoid/</t>
-  </si>
-  <si>
     <t>DarthHemRhoid</t>
   </si>
   <si>
-    <t>https://swgoh.gg/u/jedichew/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/yodanhodaka/</t>
-  </si>
-  <si>
     <t>Movan Lipost</t>
   </si>
   <si>
-    <t>https://swgoh.gg/u/rikk91/</t>
-  </si>
-  <si>
     <t>:flag_at:</t>
   </si>
   <si>
-    <t>https://swgoh.gg/u/darkness39/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/landogerton/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/spook1322/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/fajhajaba/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/zombiegnome/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/jvu420/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/droopy/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/chiefnorbitthegreat/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/raucous1/</t>
-  </si>
-  <si>
     <t>Eddie (IGN Aaron)</t>
   </si>
   <si>
@@ -435,51 +318,27 @@
     <t>:flag_gb:</t>
   </si>
   <si>
-    <t>https://swgoh.gg/u/varlie/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/broly/</t>
-  </si>
-  <si>
     <t>Taiwan</t>
   </si>
   <si>
-    <t>https://swgoh.gg/u/darkdentist/</t>
-  </si>
-  <si>
     <t>Dark Dentist</t>
   </si>
   <si>
-    <t>https://swgoh.gg/u/loohoo/</t>
-  </si>
-  <si>
-    <t>https://swgoh.gg/u/trueno0917/</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
     <t>:flag_ca:</t>
   </si>
   <si>
-    <t>https://swgoh.gg/u/miguelangel1506/</t>
-  </si>
-  <si>
     <t>DarthSlappyJedi</t>
   </si>
   <si>
-    <t>https://swgoh.gg/u/darthslappyjedi/</t>
-  </si>
-  <si>
     <t>EDT</t>
   </si>
   <si>
     <t>Punisher09brm</t>
   </si>
   <si>
-    <t>https://swgoh.gg/u/punisher09brm/</t>
-  </si>
-  <si>
     <t>:flag_ru:</t>
   </si>
   <si>
@@ -492,15 +351,9 @@
     <t>PSUlion</t>
   </si>
   <si>
-    <t>https://swgoh.gg/u/psulion/</t>
-  </si>
-  <si>
     <t>BigHoov (HS)</t>
   </si>
   <si>
-    <t>https://swgoh.gg/u/bighoov/</t>
-  </si>
-  <si>
     <t>:flag_hk:</t>
   </si>
   <si>
@@ -510,9 +363,6 @@
     <t>spell</t>
   </si>
   <si>
-    <t>https://swgoh.gg/u/spell/</t>
-  </si>
-  <si>
     <t>TZ EST</t>
   </si>
   <si>
@@ -601,6 +451,168 @@
   </si>
   <si>
     <t>https://swgoh.gg/p/865686499/</t>
+  </si>
+  <si>
+    <t>ski</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/123599797/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/979333176/</t>
+  </si>
+  <si>
+    <t>mang</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/267375252/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/121297475/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/119951554/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/829286233/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/535791581/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/274888747/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/117242282/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/353582613/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/768432229/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/382359167/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/513244519/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/454756465/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/514139651/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/261159659/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/584959796/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/652562743/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/531586268/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/854688879/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/162883938/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/741784458/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/968876577/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/976267739/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/915462152/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/117214579/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/493542499/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/121914893/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/753175275/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/128229281/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/838653979/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/865644997/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/191155833/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/259284386/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/662216351/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/215672729/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/545256144/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/972272138/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/157812467/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/285698128/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/596968217/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/284612418/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/997429163/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/179595464/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/132182242/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/416881399/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/262521353/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/382162328/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/545415194/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/346575984/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/597177222/</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/959656473/</t>
   </si>
 </sst>
 </file>
@@ -974,7 +986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1061,19 +1073,19 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="79">
     <dxf>
       <fill>
         <patternFill>
@@ -1950,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D65"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2029,23 +2041,23 @@
         <v>CEST</v>
       </c>
       <c r="R1" s="3" t="str">
-        <f>H28</f>
+        <f>H29</f>
         <v>BST</v>
       </c>
       <c r="S1" s="3" t="str">
-        <f>H43</f>
+        <f>H45</f>
         <v>EDT</v>
       </c>
       <c r="T1" s="3" t="str">
-        <f>H57</f>
+        <f>H59</f>
         <v>CDT</v>
       </c>
       <c r="U1" s="3" t="str">
-        <f>H49</f>
+        <f>H51</f>
         <v>CDT</v>
       </c>
       <c r="V1" s="3" t="str">
-        <f>H54</f>
+        <f>H56</f>
         <v>CDT</v>
       </c>
     </row>
@@ -2054,7 +2066,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -2064,10 +2076,10 @@
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="7" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -2139,13 +2151,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>27</v>
@@ -2208,7 +2220,7 @@
     <row r="4" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
       <c r="B4" s="38" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -2218,7 +2230,7 @@
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="6" t="s">
@@ -2282,7 +2294,7 @@
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="38" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
@@ -2291,10 +2303,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="6" t="s">
@@ -2358,7 +2370,7 @@
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
       <c r="B6" s="38" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -2368,11 +2380,11 @@
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="29" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="I6" s="24">
         <v>11.458333333333334</v>
@@ -2432,7 +2444,7 @@
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="19" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
@@ -2441,16 +2453,16 @@
         <v>6</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="I7" s="24">
         <v>11.458333333333334</v>
@@ -2510,7 +2522,7 @@
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="47"/>
       <c r="B8" s="19" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -2520,10 +2532,10 @@
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="7" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="H8" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2602,7 +2614,7 @@
         <v>47</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="H9" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2677,13 +2689,13 @@
         <v>9</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="H10" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2747,7 +2759,7 @@
     <row r="11" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
       <c r="B11" s="19" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="C11" s="7">
         <v>10</v>
@@ -2756,13 +2768,13 @@
         <v>10</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="H11" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2841,7 +2853,7 @@
         <v>19</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="H12" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2917,10 +2929,10 @@
         <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="H13" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2998,8 +3010,8 @@
       <c r="F14" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>98</v>
+      <c r="G14" s="54" t="s">
+        <v>150</v>
       </c>
       <c r="H14" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -3078,7 +3090,7 @@
         <v>47</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="H15" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -3151,13 +3163,13 @@
         <v>15</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="H16" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -3221,7 +3233,7 @@
     <row r="17" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
       <c r="B17" s="19" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="C17" s="7">
         <v>16</v>
@@ -3230,13 +3242,13 @@
         <v>16</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="H17" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -3315,7 +3327,7 @@
         <v>74</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="H18" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -3394,7 +3406,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="H19" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -3470,10 +3482,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="H20" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -3537,7 +3549,7 @@
     <row r="21" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="50"/>
       <c r="B21" s="19" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="C21" s="7">
         <v>20</v>
@@ -3552,7 +3564,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H21" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -3616,7 +3628,7 @@
     <row r="22" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="50"/>
       <c r="B22" s="19" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="C22" s="7">
         <v>21</v>
@@ -3625,13 +3637,13 @@
         <v>21</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="H22" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -3695,7 +3707,7 @@
     <row r="23" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="50"/>
       <c r="B23" s="19" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="C23" s="7">
         <v>22</v>
@@ -3707,10 +3719,10 @@
         <v>29</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="H23" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -3783,13 +3795,13 @@
         <v>23</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="H24" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -3853,7 +3865,7 @@
     <row r="25" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="50"/>
       <c r="B25" s="19" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="C25" s="7">
         <v>24</v>
@@ -3863,7 +3875,7 @@
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="31" t="s">
@@ -3927,7 +3939,7 @@
     <row r="26" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="50"/>
       <c r="B26" s="19" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="C26" s="7">
         <v>25</v>
@@ -3936,13 +3948,13 @@
         <v>25</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="H26" s="31" t="s">
         <v>12</v>
@@ -4002,10 +4014,10 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="50"/>
-      <c r="B27" s="13" t="s">
-        <v>53</v>
+      <c r="B27" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="C27" s="7">
         <v>26</v>
@@ -4013,77 +4025,77 @@
       <c r="D27" s="7">
         <v>26</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="H27" s="29" t="s">
+      <c r="E27" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="31" t="s">
         <v>12</v>
       </c>
       <c r="I27" s="17">
         <v>0.75</v>
       </c>
-      <c r="J27" s="30" t="s">
+      <c r="J27" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="26">
         <f>$I27+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="24">
         <f>$I27+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="24">
         <f>$I27+Sheet2!B$3/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N27" s="24">
         <f>$I27+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O27" s="24">
         <f>$I27+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="P27" s="17">
+      <c r="P27" s="24">
         <f>$I27+Sheet2!B$6/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q27" s="17">
+      <c r="Q27" s="24">
         <f>$I27+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R27" s="17">
+      <c r="R27" s="24">
         <f>$I27+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="S27" s="17">
+      <c r="S27" s="24">
         <f>$I27+Sheet2!B$9/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="T27" s="17">
+      <c r="T27" s="24">
         <f>$I27+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U27" s="17">
+      <c r="U27" s="24">
         <f>$I27+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="V27" s="17">
+      <c r="V27" s="24">
         <f>$I27+Sheet2!B$12/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
-      <c r="B28" s="34" t="s">
-        <v>111</v>
+      <c r="B28" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C28" s="7">
         <v>27</v>
@@ -4091,77 +4103,77 @@
       <c r="D28" s="7">
         <v>27</v>
       </c>
-      <c r="E28" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="H28" s="31" t="s">
+      <c r="E28" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="29" t="s">
         <v>12</v>
       </c>
       <c r="I28" s="17">
         <v>0.75</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="J28" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="26">
+      <c r="K28" s="33">
         <f>$I28+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="17">
         <f>$I28+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="M28" s="24">
+      <c r="M28" s="17">
         <f>$I28+Sheet2!B$3/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="17">
         <f>$I28+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="O28" s="24">
+      <c r="O28" s="17">
         <f>$I28+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="P28" s="24">
+      <c r="P28" s="17">
         <f>$I28+Sheet2!B$6/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q28" s="24">
+      <c r="Q28" s="17">
         <f>$I28+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R28" s="24">
+      <c r="R28" s="17">
         <f>$I28+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="S28" s="24">
+      <c r="S28" s="17">
         <f>$I28+Sheet2!B$9/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="T28" s="24">
+      <c r="T28" s="17">
         <f>$I28+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U28" s="24">
+      <c r="U28" s="17">
         <f>$I28+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="V28" s="24">
+      <c r="V28" s="17">
         <f>$I28+Sheet2!B$12/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="50"/>
-      <c r="B29" s="19" t="s">
-        <v>54</v>
+      <c r="B29" s="34" t="s">
+        <v>86</v>
       </c>
       <c r="C29" s="7">
         <v>28</v>
@@ -4170,13 +4182,13 @@
         <v>28</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>101</v>
+        <v>81</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>160</v>
       </c>
       <c r="H29" s="31" t="s">
         <v>12</v>
@@ -4237,9 +4249,9 @@
       </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="19" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C30" s="7">
         <v>29</v>
@@ -4247,79 +4259,77 @@
       <c r="D30" s="7">
         <v>29</v>
       </c>
-      <c r="E30" s="35" t="s">
-        <v>94</v>
+      <c r="E30" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="36" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>161</v>
       </c>
       <c r="H30" s="31" t="s">
         <v>12</v>
       </c>
       <c r="I30" s="17">
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="J30" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K30" s="26">
         <f>$I30+Sheet2!B$1/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L30" s="24">
         <f>$I30+Sheet2!B$2/24</f>
-        <v>1.1666666666666665</v>
+        <v>1.125</v>
       </c>
       <c r="M30" s="24">
         <f>$I30+Sheet2!B$3/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N30" s="24">
         <f>$I30+Sheet2!B$4/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="O30" s="24">
         <f>$I30+Sheet2!B$5/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="P30" s="24">
         <f>$I30+Sheet2!B$6/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="Q30" s="24">
         <f>$I30+Sheet2!B$7/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R30" s="24">
         <f>$I30+Sheet2!B$8/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S30" s="24">
         <f>$I30+Sheet2!B$9/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T30" s="24">
         <f>$I30+Sheet2!B$10/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U30" s="24">
         <f>$I30+Sheet2!B$11/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="V30" s="24">
         <f>$I30+Sheet2!B$12/24</f>
-        <v>0.49999999999999994</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
-        <v>21</v>
-      </c>
+      <c r="A31" s="51"/>
       <c r="B31" s="19" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C31" s="7">
         <v>30</v>
@@ -4328,76 +4338,78 @@
         <v>30</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="H31" s="31" t="s">
         <v>12</v>
       </c>
       <c r="I31" s="17">
-        <v>0.875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="J31" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K31" s="26">
         <f>$I31+Sheet2!B$1/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="L31" s="24">
         <f>$I31+Sheet2!B$2/24</f>
-        <v>1.25</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="M31" s="24">
         <f>$I31+Sheet2!B$3/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.125</v>
       </c>
       <c r="N31" s="24">
         <f>$I31+Sheet2!B$4/24</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O31" s="24">
         <f>$I31+Sheet2!B$5/24</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="P31" s="24">
         <f>$I31+Sheet2!B$6/24</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="Q31" s="24">
         <f>$I31+Sheet2!B$7/24</f>
-        <v>0.95833333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="R31" s="24">
         <f>$I31+Sheet2!B$8/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="S31" s="24">
         <f>$I31+Sheet2!B$9/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="T31" s="24">
         <f>$I31+Sheet2!B$10/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="U31" s="24">
         <f>$I31+Sheet2!B$11/24</f>
-        <v>0.625</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="V31" s="24">
         <f>$I31+Sheet2!B$12/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
+      <c r="A32" s="52" t="s">
+        <v>21</v>
+      </c>
       <c r="B32" s="19" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="C32" s="7">
         <v>31</v>
@@ -4405,74 +4417,77 @@
       <c r="D32" s="7">
         <v>31</v>
       </c>
-      <c r="E32" s="21"/>
+      <c r="E32" s="35" t="s">
+        <v>82</v>
+      </c>
       <c r="F32" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I32" s="24">
-        <v>0.95833333333333337</v>
+        <v>83</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="17">
+        <v>0.875</v>
       </c>
       <c r="J32" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K32" s="26">
         <f>$I32+Sheet2!B$1/24</f>
-        <v>1.375</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="L32" s="24">
         <f>$I32+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
+        <v>1.25</v>
       </c>
       <c r="M32" s="24">
         <f>$I32+Sheet2!B$3/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="N32" s="24">
         <f>$I32+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
+        <v>1</v>
       </c>
       <c r="O32" s="24">
         <f>$I32+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
+        <v>1</v>
       </c>
       <c r="P32" s="24">
         <f>$I32+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="24">
         <f>$I32+Sheet2!B$7/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="R32" s="24">
         <f>$I32+Sheet2!B$8/24</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="S32" s="24">
         <f>$I32+Sheet2!B$9/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="T32" s="24">
         <f>$I32+Sheet2!B$10/24</f>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U32" s="24">
         <f>$I32+Sheet2!B$11/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="V32" s="24">
         <f>$I32+Sheet2!B$12/24</f>
-        <v>0.66666666666666674</v>
+        <v>0.58333333333333326</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="53"/>
       <c r="B33" s="19" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C33" s="7">
         <v>32</v>
@@ -4480,15 +4495,11 @@
       <c r="D33" s="7">
         <v>32</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>114</v>
-      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="31"/>
       <c r="H33" s="31" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
@@ -4548,10 +4559,10 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="53"/>
       <c r="B34" s="19" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="C34" s="7">
         <v>33</v>
@@ -4559,22 +4570,23 @@
       <c r="D34" s="7">
         <v>33</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H34" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="I34" s="43">
+      <c r="F34" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H34" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
+      </c>
+      <c r="I34" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J34" s="44" t="s">
+      <c r="J34" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K34" s="26">
@@ -4626,10 +4638,10 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="53"/>
-      <c r="B35" s="13" t="s">
-        <v>37</v>
+      <c r="B35" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="C35" s="7">
         <v>34</v>
@@ -4637,26 +4649,25 @@
       <c r="D35" s="7">
         <v>34</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G35" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H35" s="31" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I35" s="24">
+      <c r="G35" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="43">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J35" s="28" t="s">
+      <c r="J35" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="26">
         <f>$I35+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -4708,7 +4719,7 @@
     <row r="36" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="53"/>
       <c r="B36" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C36" s="7">
         <v>35</v>
@@ -4722,8 +4733,8 @@
       <c r="F36" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="22" t="s">
-        <v>116</v>
+      <c r="G36" s="55" t="s">
+        <v>166</v>
       </c>
       <c r="H36" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4735,7 +4746,7 @@
       <c r="J36" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="26">
+      <c r="K36" s="12">
         <f>$I36+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -4786,8 +4797,8 @@
     </row>
     <row r="37" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="53"/>
-      <c r="B37" s="19" t="s">
-        <v>33</v>
+      <c r="B37" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="C37" s="7">
         <v>36</v>
@@ -4801,8 +4812,8 @@
       <c r="F37" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>78</v>
+      <c r="G37" s="22" t="s">
+        <v>167</v>
       </c>
       <c r="H37" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4865,8 +4876,8 @@
     </row>
     <row r="38" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="53"/>
-      <c r="B38" s="13" t="s">
-        <v>38</v>
+      <c r="B38" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="C38" s="7">
         <v>37</v>
@@ -4880,8 +4891,8 @@
       <c r="F38" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="23" t="s">
-        <v>133</v>
+      <c r="G38" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="H38" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4890,62 +4901,62 @@
       <c r="I38" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J38" s="30" t="s">
+      <c r="J38" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="33">
+      <c r="K38" s="26">
         <f>$I38+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="24">
         <f>$I38+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M38" s="24">
         <f>$I38+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N38" s="17">
+      <c r="N38" s="24">
         <f>$I38+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O38" s="17">
+      <c r="O38" s="24">
         <f>$I38+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P38" s="17">
+      <c r="P38" s="24">
         <f>$I38+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q38" s="17">
+      <c r="Q38" s="24">
         <f>$I38+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R38" s="17">
+      <c r="R38" s="24">
         <f>$I38+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S38" s="17">
+      <c r="S38" s="24">
         <f>$I38+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T38" s="17">
+      <c r="T38" s="24">
         <f>$I38+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U38" s="17">
+      <c r="U38" s="24">
         <f>$I38+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V38" s="17">
+      <c r="V38" s="24">
         <f>$I38+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="53"/>
-      <c r="B39" s="19" t="s">
-        <v>34</v>
+      <c r="B39" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="C39" s="7">
         <v>38</v>
@@ -4959,8 +4970,8 @@
       <c r="F39" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="9" t="s">
-        <v>79</v>
+      <c r="G39" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="H39" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4969,54 +4980,54 @@
       <c r="I39" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J39" s="28" t="s">
+      <c r="J39" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K39" s="26">
+      <c r="K39" s="33">
         <f>$I39+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L39" s="24">
+      <c r="L39" s="17">
         <f>$I39+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M39" s="24">
+      <c r="M39" s="17">
         <f>$I39+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N39" s="24">
+      <c r="N39" s="17">
         <f>$I39+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O39" s="24">
+      <c r="O39" s="17">
         <f>$I39+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P39" s="24">
+      <c r="P39" s="17">
         <f>$I39+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q39" s="24">
+      <c r="Q39" s="17">
         <f>$I39+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R39" s="24">
+      <c r="R39" s="17">
         <f>$I39+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S39" s="24">
+      <c r="S39" s="17">
         <f>$I39+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T39" s="24">
+      <c r="T39" s="17">
         <f>$I39+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U39" s="24">
+      <c r="U39" s="17">
         <f>$I39+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V39" s="24">
+      <c r="V39" s="17">
         <f>$I39+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
@@ -5024,7 +5035,7 @@
     <row r="40" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="53"/>
       <c r="B40" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="7">
         <v>39</v>
@@ -5038,8 +5049,8 @@
       <c r="F40" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="23" t="s">
-        <v>110</v>
+      <c r="G40" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="H40" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -5051,7 +5062,7 @@
       <c r="J40" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K40" s="26">
         <f>$I40+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -5103,7 +5114,7 @@
     <row r="41" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="53"/>
       <c r="B41" s="19" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="C41" s="7">
         <v>40</v>
@@ -5111,14 +5122,14 @@
       <c r="D41" s="7">
         <v>40</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="42" t="s">
+      <c r="F41" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="31" t="s">
-        <v>152</v>
+      <c r="G41" s="23" t="s">
+        <v>171</v>
       </c>
       <c r="H41" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -5130,7 +5141,7 @@
       <c r="J41" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="26">
+      <c r="K41" s="12">
         <f>$I41+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -5181,8 +5192,8 @@
     </row>
     <row r="42" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="53"/>
-      <c r="B42" s="13" t="s">
-        <v>146</v>
+      <c r="B42" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="C42" s="7">
         <v>41</v>
@@ -5190,14 +5201,14 @@
       <c r="D42" s="7">
         <v>41</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="23" t="s">
-        <v>147</v>
+      <c r="G42" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="H42" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -5206,62 +5217,62 @@
       <c r="I42" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J42" s="30" t="s">
+      <c r="J42" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="26">
         <f>$I42+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="24">
         <f>$I42+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M42" s="24">
         <f>$I42+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N42" s="24">
         <f>$I42+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O42" s="24">
         <f>$I42+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P42" s="17">
+      <c r="P42" s="24">
         <f>$I42+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q42" s="17">
+      <c r="Q42" s="24">
         <f>$I42+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R42" s="17">
+      <c r="R42" s="24">
         <f>$I42+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S42" s="17">
+      <c r="S42" s="24">
         <f>$I42+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T42" s="17">
+      <c r="T42" s="24">
         <f>$I42+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U42" s="17">
+      <c r="U42" s="24">
         <f>$I42+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V42" s="17">
+      <c r="V42" s="24">
         <f>$I42+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="53"/>
-      <c r="B43" s="19" t="s">
-        <v>31</v>
+      <c r="B43" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="C43" s="7">
         <v>42</v>
@@ -5275,8 +5286,8 @@
       <c r="F43" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="9" t="s">
-        <v>82</v>
+      <c r="G43" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="H43" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -5285,54 +5296,54 @@
       <c r="I43" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J43" s="28" t="s">
+      <c r="J43" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K43" s="26">
+      <c r="K43" s="33">
         <f>$I43+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L43" s="24">
+      <c r="L43" s="17">
         <f>$I43+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M43" s="24">
+      <c r="M43" s="17">
         <f>$I43+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N43" s="24">
+      <c r="N43" s="17">
         <f>$I43+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O43" s="24">
+      <c r="O43" s="17">
         <f>$I43+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P43" s="24">
+      <c r="P43" s="17">
         <f>$I43+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q43" s="24">
+      <c r="Q43" s="17">
         <f>$I43+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R43" s="24">
+      <c r="R43" s="17">
         <f>$I43+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S43" s="24">
+      <c r="S43" s="17">
         <f>$I43+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T43" s="24">
+      <c r="T43" s="17">
         <f>$I43+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U43" s="24">
+      <c r="U43" s="17">
         <f>$I43+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V43" s="24">
+      <c r="V43" s="17">
         <f>$I43+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
@@ -5340,7 +5351,7 @@
     <row r="44" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="53"/>
       <c r="B44" s="19" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="C44" s="7">
         <v>43</v>
@@ -5354,8 +5365,8 @@
       <c r="F44" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>83</v>
+      <c r="G44" s="56" t="s">
+        <v>140</v>
       </c>
       <c r="H44" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -5364,54 +5375,54 @@
       <c r="I44" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J44" s="28" t="s">
+      <c r="J44" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K44" s="26">
+      <c r="K44" s="33">
         <f>$I44+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L44" s="24">
+      <c r="L44" s="17">
         <f>$I44+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M44" s="24">
+      <c r="M44" s="17">
         <f>$I44+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N44" s="24">
+      <c r="N44" s="17">
         <f>$I44+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O44" s="24">
+      <c r="O44" s="17">
         <f>$I44+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P44" s="24">
+      <c r="P44" s="17">
         <f>$I44+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q44" s="24">
+      <c r="Q44" s="17">
         <f>$I44+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R44" s="24">
+      <c r="R44" s="17">
         <f>$I44+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S44" s="24">
+      <c r="S44" s="17">
         <f>$I44+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T44" s="24">
+      <c r="T44" s="17">
         <f>$I44+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U44" s="24">
+      <c r="U44" s="17">
         <f>$I44+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V44" s="24">
+      <c r="V44" s="17">
         <f>$I44+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
@@ -5419,7 +5430,7 @@
     <row r="45" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="53"/>
       <c r="B45" s="19" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C45" s="7">
         <v>44</v>
@@ -5431,10 +5442,10 @@
         <v>29</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>84</v>
+        <v>22</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="H45" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -5498,7 +5509,7 @@
     <row r="46" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="53"/>
       <c r="B46" s="19" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="C46" s="7">
         <v>45</v>
@@ -5506,73 +5517,78 @@
       <c r="D46" s="7">
         <v>45</v>
       </c>
-      <c r="E46" s="15"/>
+      <c r="E46" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="F46" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="31" t="s">
-        <v>73</v>
+        <v>22</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H46" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
       </c>
       <c r="I46" s="24">
-        <v>0</v>
-      </c>
-      <c r="J46" s="30" t="s">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J46" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K46" s="26">
         <f>$I46+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.375</v>
       </c>
       <c r="L46" s="24">
         <f>$I46+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="M46" s="24">
         <f>$I46+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="N46" s="24">
         <f>$I46+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="O46" s="24">
         <f>$I46+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="P46" s="24">
         <f>$I46+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="Q46" s="24">
         <f>$I46+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="R46" s="24">
         <f>$I46+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>1</v>
       </c>
       <c r="S46" s="24">
         <f>$I46+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="T46" s="24">
         <f>$I46+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="U46" s="24">
         <f>$I46+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="V46" s="24">
         <f>$I46+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="53"/>
-      <c r="B47" s="37" t="s">
-        <v>153</v>
+      <c r="B47" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="C47" s="7">
         <v>46</v>
@@ -5584,73 +5600,74 @@
         <v>29</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="H47" s="31" t="s">
-        <v>73</v>
+        <v>47</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="H47" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
       </c>
       <c r="I47" s="24">
-        <v>0</v>
-      </c>
-      <c r="J47" s="30" t="s">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J47" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K47" s="26">
         <f>$I47+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.375</v>
       </c>
       <c r="L47" s="24">
         <f>$I47+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="M47" s="24">
         <f>$I47+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="N47" s="24">
         <f>$I47+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="O47" s="24">
         <f>$I47+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="P47" s="24">
         <f>$I47+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="Q47" s="24">
         <f>$I47+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="R47" s="24">
         <f>$I47+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>1</v>
       </c>
       <c r="S47" s="24">
         <f>$I47+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="T47" s="24">
         <f>$I47+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="U47" s="24">
         <f>$I47+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="V47" s="24">
         <f>$I47+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="53"/>
-      <c r="B48" s="37" t="s">
-        <v>61</v>
+      <c r="B48" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="C48" s="7">
         <v>47</v>
@@ -5658,15 +5675,11 @@
       <c r="D48" s="7">
         <v>47</v>
       </c>
-      <c r="E48" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="E48" s="15"/>
       <c r="F48" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="31" t="s">
-        <v>75</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G48" s="9"/>
       <c r="H48" s="31" t="s">
         <v>73</v>
       </c>
@@ -5728,7 +5741,7 @@
     <row r="49" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="53"/>
       <c r="B49" s="37" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C49" s="7">
         <v>48</v>
@@ -5739,11 +5752,11 @@
       <c r="E49" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>74</v>
+      <c r="F49" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="H49" s="31" t="s">
         <v>73</v>
@@ -5805,8 +5818,8 @@
     </row>
     <row r="50" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="53"/>
-      <c r="B50" s="19" t="s">
-        <v>137</v>
+      <c r="B50" s="37" t="s">
+        <v>61</v>
       </c>
       <c r="C50" s="7">
         <v>49</v>
@@ -5814,14 +5827,14 @@
       <c r="D50" s="7">
         <v>49</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="42" t="s">
+      <c r="F50" s="20" t="s">
         <v>22</v>
       </c>
       <c r="G50" s="31" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="H50" s="31" t="s">
         <v>73</v>
@@ -5829,7 +5842,7 @@
       <c r="I50" s="24">
         <v>0</v>
       </c>
-      <c r="J50" s="28" t="s">
+      <c r="J50" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K50" s="26">
@@ -5883,8 +5896,8 @@
     </row>
     <row r="51" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="53"/>
-      <c r="B51" s="19" t="s">
-        <v>62</v>
+      <c r="B51" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="C51" s="7">
         <v>50</v>
@@ -5895,11 +5908,11 @@
       <c r="E51" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="20" t="s">
-        <v>22</v>
+      <c r="F51" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="H51" s="31" t="s">
         <v>73</v>
@@ -5961,8 +5974,8 @@
     </row>
     <row r="52" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="53"/>
-      <c r="B52" s="37" t="s">
-        <v>65</v>
+      <c r="B52" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="C52" s="7">
         <v>51</v>
@@ -5970,14 +5983,14 @@
       <c r="D52" s="7">
         <v>51</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="20" t="s">
-        <v>47</v>
+      <c r="F52" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="H52" s="31" t="s">
         <v>73</v>
@@ -5985,7 +5998,7 @@
       <c r="I52" s="24">
         <v>0</v>
       </c>
-      <c r="J52" s="30" t="s">
+      <c r="J52" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K52" s="26">
@@ -6039,8 +6052,8 @@
     </row>
     <row r="53" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="53"/>
-      <c r="B53" s="37" t="s">
-        <v>63</v>
+      <c r="B53" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="C53" s="7">
         <v>52</v>
@@ -6054,8 +6067,8 @@
       <c r="F53" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="29" t="s">
-        <v>122</v>
+      <c r="G53" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="H53" s="31" t="s">
         <v>73</v>
@@ -6117,8 +6130,8 @@
     </row>
     <row r="54" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="53"/>
-      <c r="B54" s="19" t="s">
-        <v>60</v>
+      <c r="B54" s="37" t="s">
+        <v>65</v>
       </c>
       <c r="C54" s="7">
         <v>53</v>
@@ -6129,11 +6142,11 @@
       <c r="E54" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>168</v>
+      <c r="F54" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="H54" s="31" t="s">
         <v>73</v>
@@ -6195,8 +6208,8 @@
     </row>
     <row r="55" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="53"/>
-      <c r="B55" s="19" t="s">
-        <v>58</v>
+      <c r="B55" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="C55" s="7">
         <v>54</v>
@@ -6210,8 +6223,8 @@
       <c r="F55" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G55" s="31" t="s">
-        <v>80</v>
+      <c r="G55" s="29" t="s">
+        <v>182</v>
       </c>
       <c r="H55" s="31" t="s">
         <v>73</v>
@@ -6219,7 +6232,7 @@
       <c r="I55" s="24">
         <v>0</v>
       </c>
-      <c r="J55" s="28" t="s">
+      <c r="J55" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K55" s="26">
@@ -6271,10 +6284,10 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="53"/>
       <c r="B56" s="19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C56" s="7">
         <v>55</v>
@@ -6286,10 +6299,10 @@
         <v>29</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="H56" s="31" t="s">
         <v>73</v>
@@ -6352,7 +6365,7 @@
     <row r="57" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="53"/>
       <c r="B57" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C57" s="7">
         <v>56</v>
@@ -6366,8 +6379,8 @@
       <c r="F57" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="29" t="s">
-        <v>117</v>
+      <c r="G57" s="31" t="s">
+        <v>184</v>
       </c>
       <c r="H57" s="31" t="s">
         <v>73</v>
@@ -6427,10 +6440,10 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="53"/>
       <c r="B58" s="19" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="C58" s="7">
         <v>57</v>
@@ -6438,73 +6451,77 @@
       <c r="D58" s="7">
         <v>57</v>
       </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="G58" s="31"/>
+      <c r="E58" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>185</v>
+      </c>
       <c r="H58" s="31" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="I58" s="24">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J58" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K58" s="26">
         <f>$I58+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L58" s="24">
         <f>$I58+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M58" s="24">
         <f>$I58+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N58" s="24">
         <f>$I58+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O58" s="24">
         <f>$I58+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P58" s="24">
         <f>$I58+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q58" s="24">
         <f>$I58+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R58" s="24">
         <f>$I58+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S58" s="24">
         <f>$I58+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T58" s="24">
         <f>$I58+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U58" s="24">
         <f>$I58+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V58" s="24">
         <f>$I58+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="53"/>
       <c r="B59" s="19" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C59" s="7">
         <v>58</v>
@@ -6513,76 +6530,76 @@
         <v>58</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G59" s="36" t="s">
-        <v>125</v>
+        <v>29</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>186</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="I59" s="24">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J59" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J59" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K59" s="26">
         <f>$I59+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L59" s="24">
         <f>$I59+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M59" s="24">
         <f>$I59+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N59" s="24">
         <f>$I59+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O59" s="24">
         <f>$I59+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P59" s="24">
         <f>$I59+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q59" s="24">
         <f>$I59+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R59" s="24">
         <f>$I59+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S59" s="24">
         <f>$I59+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T59" s="24">
         <f>$I59+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U59" s="24">
         <f>$I59+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V59" s="24">
         <f>$I59+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="53"/>
-      <c r="B60" s="37" t="s">
-        <v>67</v>
+      <c r="B60" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="C60" s="7">
         <v>59</v>
@@ -6590,16 +6607,12 @@
       <c r="D60" s="7">
         <v>59</v>
       </c>
-      <c r="E60" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="H60" s="37" t="s">
+      <c r="E60" s="15"/>
+      <c r="F60" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31" t="s">
         <v>13</v>
       </c>
       <c r="I60" s="24">
@@ -6660,7 +6673,7 @@
     <row r="61" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="53"/>
       <c r="B61" s="19" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="C61" s="7">
         <v>60</v>
@@ -6668,73 +6681,77 @@
       <c r="D61" s="7">
         <v>60</v>
       </c>
-      <c r="E61" s="15"/>
-      <c r="F61" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="G61" s="31"/>
+      <c r="E61" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G61" s="36" t="s">
+        <v>187</v>
+      </c>
       <c r="H61" s="31" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="I61" s="24">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J61" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K61" s="26">
         <f>$I61+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L61" s="24">
         <f>$I61+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M61" s="24">
         <f>$I61+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N61" s="24">
         <f>$I61+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O61" s="24">
         <f>$I61+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P61" s="24">
         <f>$I61+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q61" s="24">
         <f>$I61+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="R61" s="24">
         <f>$I61+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S61" s="24">
         <f>$I61+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T61" s="24">
         <f>$I61+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U61" s="24">
         <f>$I61+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V61" s="24">
         <f>$I61+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="53"/>
-      <c r="B62" s="19" t="s">
-        <v>70</v>
+      <c r="B62" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="C62" s="7">
         <v>61</v>
@@ -6745,74 +6762,74 @@
       <c r="E62" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F62" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G62" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H62" s="31" t="s">
-        <v>72</v>
+      <c r="G62" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="H62" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="I62" s="24">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J62" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K62" s="26">
         <f>$I62+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L62" s="24">
         <f>$I62+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M62" s="24">
         <f>$I62+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N62" s="24">
         <f>$I62+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O62" s="24">
         <f>$I62+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P62" s="24">
         <f>$I62+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q62" s="24">
         <f>$I62+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="R62" s="24">
         <f>$I62+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S62" s="24">
         <f>$I62+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T62" s="24">
         <f>$I62+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U62" s="24">
         <f>$I62+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V62" s="24">
         <f>$I62+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="53"/>
-      <c r="B63" s="37" t="s">
-        <v>69</v>
+      <c r="B63" s="19" t="s">
+        <v>134</v>
       </c>
       <c r="C63" s="7">
         <v>62</v>
@@ -6820,15 +6837,11 @@
       <c r="D63" s="7">
         <v>62</v>
       </c>
-      <c r="E63" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>127</v>
-      </c>
+      <c r="E63" s="15"/>
+      <c r="F63" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G63" s="31"/>
       <c r="H63" s="31" t="s">
         <v>72</v>
       </c>
@@ -6890,7 +6903,7 @@
     <row r="64" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="53"/>
       <c r="B64" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C64" s="7">
         <v>63</v>
@@ -6901,11 +6914,11 @@
       <c r="E64" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G64" s="39" t="s">
-        <v>126</v>
+      <c r="G64" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="H64" s="31" t="s">
         <v>72</v>
@@ -6968,7 +6981,7 @@
     <row r="65" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="53"/>
       <c r="B65" s="37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C65" s="7">
         <v>64</v>
@@ -6979,11 +6992,11 @@
       <c r="E65" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F65" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="23" t="s">
-        <v>129</v>
+      <c r="F65" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="H65" s="31" t="s">
         <v>72</v>
@@ -7043,419 +7056,575 @@
         <v>-0.20833333333333337</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="53"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B66" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="7">
+        <v>65</v>
+      </c>
+      <c r="D66" s="7">
+        <v>65</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="H66" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I66" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J66" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="26">
+        <f>$I66+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L66" s="24">
+        <f>$I66+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M66" s="24">
+        <f>$I66+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N66" s="24">
+        <f>$I66+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O66" s="24">
+        <f>$I66+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P66" s="24">
+        <f>$I66+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q66" s="24">
+        <f>$I66+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R66" s="24">
+        <f>$I66+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S66" s="24">
+        <f>$I66+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T66" s="24">
+        <f>$I66+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U66" s="24">
+        <f>$I66+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V66" s="24">
+        <f>$I66+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="53"/>
+      <c r="B67" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="7">
+        <v>66</v>
+      </c>
+      <c r="D67" s="7">
+        <v>66</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H67" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I67" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J67" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="26">
+        <f>$I67+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L67" s="24">
+        <f>$I67+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M67" s="24">
+        <f>$I67+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N67" s="24">
+        <f>$I67+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O67" s="24">
+        <f>$I67+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P67" s="24">
+        <f>$I67+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q67" s="24">
+        <f>$I67+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R67" s="24">
+        <f>$I67+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S67" s="24">
+        <f>$I67+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T67" s="24">
+        <f>$I67+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U67" s="24">
+        <f>$I67+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V67" s="24">
+        <f>$I67+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="53"/>
     </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A69" s="53"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A70" s="53"/>
+    </row>
   </sheetData>
-  <sortState ref="B2:V55">
-    <sortCondition ref="D2:D55"/>
+  <sortState ref="B2:V57">
+    <sortCondition ref="D2:D57"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
-    <mergeCell ref="A10:A30"/>
-    <mergeCell ref="A31:A68"/>
+    <mergeCell ref="A10:A31"/>
+    <mergeCell ref="A32:A70"/>
   </mergeCells>
-  <conditionalFormatting sqref="K24:V57 K2:L8 K59:V60 K62:V65 K6:V20">
-    <cfRule type="expression" dxfId="79" priority="141">
+  <conditionalFormatting sqref="K2:L8 K61:V62 K64:V67 K6:V20 K24:V59">
+    <cfRule type="expression" dxfId="78" priority="141">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:V8">
-    <cfRule type="expression" dxfId="78" priority="143">
+    <cfRule type="expression" dxfId="77" priority="143">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34:V34 G41:V41 G34 B43:B46 K48:V48 G48 G50:V50 B49:B50 K51:V53 G51:G53 B54:B55 K56:V56 G56 G65 K59:V60 E54:V55 E43:V45 E35:V40 E46:G46 E24:V33 B24:B41 H22:V22 H2:V2 B3:V3 G58:G63 K62:V65 E18:V21 G17:V17 B4:B21 E4:V16 C5:D5 C7:D7 C9:D9 C11:D11 C13:D13 C15:D15 C17:D17 C19:D19 C21:D21 C23:D23 C25:D25 C27:D27 C29:D29 C31:D31 C33:D33 C35:D35 C37:D37 C39:D39 C41:D41 C43:D43 C45:D45 C47:D47 C49:V49 C51:D51 C53:D53 C55:D55 B57:V57 C59:D59 C61:D61 C63:D63 C65:D65">
-    <cfRule type="expression" dxfId="77" priority="147">
+  <conditionalFormatting sqref="K35:V35 G42:V42 G35 B45:B48 K50:V50 G50 G52:V52 B51:B52 K53:V55 G53:G55 B56:B57 K58:V58 G58 G67 K61:V62 E56:V57 E45:V47 E36:V41 E48:G48 B24:B42 H22:V22 H2:V2 B3:V3 G60:G65 K64:V67 E18:V21 G17:V17 B4:B21 E4:V16 C5:D5 E24:V34 C7:D7 C11:D11 C15:D15 C19:D19 C23:D23 C27:D27 C31:D31 C35:D35 C39:D39 C43:D43 C47:D47 C51:V51 C55:D55 B59:V59 C63:D63 C67:D67 C9:D9 C13:D13 C17:D17 C21:D21 C25:D25 C29:D29 C33:D33 C37:D37 C41:D41 C45:D45 C49:D49 C53:D53 C57:D57 C61:D61 C65:D65">
+    <cfRule type="expression" dxfId="76" priority="147">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48 J48:V48">
-    <cfRule type="expression" dxfId="76" priority="124">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51 J51:V51">
-    <cfRule type="expression" dxfId="75" priority="122">
+  <conditionalFormatting sqref="B50 J50:V50">
+    <cfRule type="expression" dxfId="75" priority="124">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53 J53:V53">
-    <cfRule type="expression" dxfId="74" priority="120">
+    <cfRule type="expression" dxfId="74" priority="122">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56 J56:V56">
-    <cfRule type="expression" dxfId="73" priority="118">
+  <conditionalFormatting sqref="B55 J55:V55">
+    <cfRule type="expression" dxfId="73" priority="120">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52 J52:V52">
-    <cfRule type="expression" dxfId="72" priority="116">
+  <conditionalFormatting sqref="B58 J58:V58">
+    <cfRule type="expression" dxfId="72" priority="118">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59 J59:V59">
-    <cfRule type="expression" dxfId="71" priority="114">
+  <conditionalFormatting sqref="B54 J54:V54">
+    <cfRule type="expression" dxfId="71" priority="116">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60 J60:V60 E60:F60 H60">
-    <cfRule type="expression" dxfId="70" priority="112">
+  <conditionalFormatting sqref="B61 J61:V61">
+    <cfRule type="expression" dxfId="70" priority="114">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="69" priority="110">
+  <conditionalFormatting sqref="B62 J62:V62 E62:F62 H62">
+    <cfRule type="expression" dxfId="69" priority="112">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="68" priority="107">
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" dxfId="68" priority="110">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="67" priority="106">
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="67" priority="107">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59 H59">
-    <cfRule type="expression" dxfId="66" priority="105">
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="66" priority="106">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61 H61">
+    <cfRule type="expression" dxfId="65" priority="105">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66 J66:V66">
+    <cfRule type="expression" dxfId="64" priority="103">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65 J65:V65 E65">
+    <cfRule type="expression" dxfId="63" priority="101">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66:F66 H66">
+    <cfRule type="expression" dxfId="62" priority="99">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64 J64:V64">
-    <cfRule type="expression" dxfId="65" priority="103">
+    <cfRule type="expression" dxfId="61" priority="97">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63 J63:V63 E63">
-    <cfRule type="expression" dxfId="64" priority="101">
+  <conditionalFormatting sqref="B67 J67:V67 E67">
+    <cfRule type="expression" dxfId="60" priority="95">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64:F64 H64">
-    <cfRule type="expression" dxfId="63" priority="99">
+  <conditionalFormatting sqref="F54">
+    <cfRule type="expression" dxfId="59" priority="87">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62 J62:V62">
-    <cfRule type="expression" dxfId="62" priority="97">
+  <conditionalFormatting sqref="I50">
+    <cfRule type="expression" dxfId="58" priority="77">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65 J65:V65 E65">
-    <cfRule type="expression" dxfId="61" priority="95">
+  <conditionalFormatting sqref="I53">
+    <cfRule type="expression" dxfId="57" priority="76">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="expression" dxfId="60" priority="87">
+  <conditionalFormatting sqref="I55">
+    <cfRule type="expression" dxfId="56" priority="75">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58">
+    <cfRule type="expression" dxfId="55" priority="74">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="expression" dxfId="54" priority="73">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
+    <cfRule type="expression" dxfId="53" priority="72">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="expression" dxfId="52" priority="71">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="expression" dxfId="51" priority="70">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="expression" dxfId="50" priority="63">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="expression" dxfId="49" priority="62">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="expression" dxfId="48" priority="61">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="expression" dxfId="47" priority="60">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="expression" dxfId="46" priority="59">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="expression" dxfId="45" priority="58">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65">
+    <cfRule type="expression" dxfId="44" priority="57">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="expression" dxfId="43" priority="56">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
+    <cfRule type="expression" dxfId="42" priority="55">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="expression" dxfId="41" priority="54">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67">
+    <cfRule type="expression" dxfId="40" priority="53">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" dxfId="39" priority="49">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="expression" dxfId="38" priority="48">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65">
+    <cfRule type="expression" dxfId="37" priority="47">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="expression" dxfId="36" priority="43">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55:F55">
+    <cfRule type="expression" dxfId="35" priority="42">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53:F53">
+    <cfRule type="expression" dxfId="34" priority="41">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:F64">
+    <cfRule type="expression" dxfId="33" priority="40">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:B44 E43:V44">
+    <cfRule type="expression" dxfId="32" priority="39">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:V49 G49">
+    <cfRule type="expression" dxfId="31" priority="37">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49 J49:V49">
+    <cfRule type="expression" dxfId="30" priority="35">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="29" priority="34">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="expression" dxfId="28" priority="33">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="expression" dxfId="27" priority="32">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="expression" dxfId="26" priority="31">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:V22">
+    <cfRule type="expression" dxfId="25" priority="151">
+      <formula>K$1=#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:V22">
+    <cfRule type="expression" dxfId="24" priority="30">
+      <formula>K$1=$H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:V48">
+    <cfRule type="expression" dxfId="23" priority="28">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48:V48">
+    <cfRule type="expression" dxfId="22" priority="27">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="expression" dxfId="59" priority="77">
+    <cfRule type="expression" dxfId="21" priority="26">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="58" priority="76">
+  <conditionalFormatting sqref="H48">
+    <cfRule type="expression" dxfId="20" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
-    <cfRule type="expression" dxfId="57" priority="75">
+  <conditionalFormatting sqref="B22 G22">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
-    <cfRule type="expression" dxfId="56" priority="74">
+  <conditionalFormatting sqref="H23:V23">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
-    <cfRule type="expression" dxfId="55" priority="73">
+  <conditionalFormatting sqref="K23:V23">
+    <cfRule type="expression" dxfId="17" priority="20">
+      <formula>K$1=#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:V23">
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>K$1=$H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23 E23:G23">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
-    <cfRule type="expression" dxfId="54" priority="72">
+  <conditionalFormatting sqref="E22:F22">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:G2 C4:D4 C6:D6 C10:D10 C14:D14 C18:D18 C22:D22 C26:D26 C30:D30 C34:D34 C38:D38 C42:D42 C46:D46 C50:D50 C54:D54 C58:D58 C62:D62 C66:D66 C8:D8 C12:D12 C16:D16 C20:D20 C24:D24 C28:D28 C32:D32 C36:D36 C40:D40 C44:D44 C48:D48 C52:D52 C56:D56 C60:D60 C64:D64">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60 E60:F60">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60:V60">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>K$1=$H60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60:V60">
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J60:V60">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60">
-    <cfRule type="expression" dxfId="53" priority="71">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="expression" dxfId="52" priority="70">
+  <conditionalFormatting sqref="B63 E63:F63">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="expression" dxfId="51" priority="63">
+  <conditionalFormatting sqref="K63:V63">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>K$1=$H63</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63:V63">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="expression" dxfId="50" priority="62">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="expression" dxfId="49" priority="61">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="expression" dxfId="48" priority="60">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="expression" dxfId="47" priority="59">
+  <conditionalFormatting sqref="J63:V63">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="expression" dxfId="46" priority="58">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="45" priority="57">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="expression" dxfId="44" priority="56">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
-    <cfRule type="expression" dxfId="43" priority="55">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="expression" dxfId="42" priority="54">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
-    <cfRule type="expression" dxfId="41" priority="53">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="expression" dxfId="40" priority="49">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
-    <cfRule type="expression" dxfId="39" priority="48">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
-    <cfRule type="expression" dxfId="38" priority="47">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="expression" dxfId="37" priority="43">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53:F53">
-    <cfRule type="expression" dxfId="36" priority="42">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:F51">
-    <cfRule type="expression" dxfId="35" priority="41">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62:F62">
-    <cfRule type="expression" dxfId="34" priority="40">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42 E42:V42">
-    <cfRule type="expression" dxfId="33" priority="39">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K47:V47 G47">
-    <cfRule type="expression" dxfId="32" priority="37">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47 J47:V47">
-    <cfRule type="expression" dxfId="31" priority="35">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="30" priority="34">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
-    <cfRule type="expression" dxfId="29" priority="33">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="28" priority="32">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="27" priority="31">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:V22">
-    <cfRule type="expression" dxfId="26" priority="151">
-      <formula>K$1=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:V22">
-    <cfRule type="expression" dxfId="25" priority="30">
-      <formula>K$1=$H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46:V46">
-    <cfRule type="expression" dxfId="24" priority="28">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46:V46">
-    <cfRule type="expression" dxfId="23" priority="27">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="expression" dxfId="22" priority="26">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="expression" dxfId="21" priority="25">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22 G22">
-    <cfRule type="expression" dxfId="20" priority="21">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23:V23">
-    <cfRule type="expression" dxfId="19" priority="19">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23:V23">
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>K$1=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23:V23">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>K$1=$H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23 E23:G23">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:F22">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G2 C4:D4 C6:D6 C8:D8 C10:D10 C12:D12 C14:D14 C16:D16 C18:D18 C20:D20 C22:D22 C24:D24 C26:D26 C28:D28 C30:D30 C32:D32 C34:D34 C36:D36 C38:D38 C40:D40 C42:D42 C44:D44 C46:D46 C48:D48 C50:D50 C52:D52 C54:D54 C56:D56 C58:D58 C60:D60 C62:D62 C64:D64">
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58 E58:F58">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:V58">
-    <cfRule type="expression" dxfId="12" priority="11">
-      <formula>K$1=$H58</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:V58">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J58:V58">
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61 E61:F61">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61:V61">
-    <cfRule type="expression" dxfId="6" priority="5">
-      <formula>K$1=$H61</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61:V61">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J61:V61">
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CFE03A-3069-FB41-9C50-A735AA9E4BD8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A610C41-8320-6048-B83D-80FE8AA8568C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14140" yWindow="9040" windowWidth="33700" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16900" yWindow="7800" windowWidth="23920" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
   <definedNames>
     <definedName name="Z_6B6C704A_4C22_4616_B5BC_59850AE98E27_.wvu.Cols" localSheetId="0" hidden="1">Sheet1!$C:$D,Sheet1!$F:$G</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="203">
   <si>
     <t>Name</t>
   </si>
@@ -375,15 +375,9 @@
     <t>:clock2:</t>
   </si>
   <si>
-    <t>TZ CEST</t>
-  </si>
-  <si>
     <t>TZ BST</t>
   </si>
   <si>
-    <t>:clock7:</t>
-  </si>
-  <si>
     <t>TZ CST</t>
   </si>
   <si>
@@ -613,6 +607,42 @@
   </si>
   <si>
     <t>https://swgoh.gg/p/959656473/</t>
+  </si>
+  <si>
+    <t>:clock5:</t>
+  </si>
+  <si>
+    <t>:clock6:</t>
+  </si>
+  <si>
+    <t>TZ ART</t>
+  </si>
+  <si>
+    <t>TZ BRT</t>
+  </si>
+  <si>
+    <t>:clock4:</t>
+  </si>
+  <si>
+    <t>TZ CET</t>
+  </si>
+  <si>
+    <t>DarthKorbitron</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/952585236/</t>
+  </si>
+  <si>
+    <t>Roxxy Ravenheart</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/484559354/</t>
+  </si>
+  <si>
+    <t>Cleave</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/p/871823575/</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1060,7 +1090,16 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1073,19 +1112,28 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="81">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1962,10 +2010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2025,7 +2073,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="3" t="str">
-        <f>H16</f>
+        <f>H17</f>
         <v>CEST</v>
       </c>
       <c r="O1" s="3" t="str">
@@ -2033,31 +2081,31 @@
         <v>CEST</v>
       </c>
       <c r="P1" s="3" t="str">
-        <f>H13</f>
+        <f>H14</f>
         <v>CEST</v>
       </c>
       <c r="Q1" s="3" t="str">
-        <f>H18</f>
+        <f>H19</f>
         <v>CEST</v>
       </c>
       <c r="R1" s="3" t="str">
-        <f>H29</f>
+        <f>H30</f>
         <v>BST</v>
       </c>
       <c r="S1" s="3" t="str">
-        <f>H45</f>
+        <f>H49</f>
         <v>EDT</v>
       </c>
       <c r="T1" s="3" t="str">
-        <f>H59</f>
+        <f>H64</f>
         <v>CDT</v>
       </c>
       <c r="U1" s="3" t="str">
-        <f>H51</f>
+        <f>H55</f>
         <v>CDT</v>
       </c>
       <c r="V1" s="3" t="str">
-        <f>H56</f>
+        <f>H61</f>
         <v>CDT</v>
       </c>
     </row>
@@ -2066,7 +2114,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -2076,7 +2124,7 @@
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>110</v>
@@ -2157,7 +2205,7 @@
         <v>106</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>27</v>
@@ -2220,7 +2268,7 @@
     <row r="4" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
       <c r="B4" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -2230,7 +2278,7 @@
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="6" t="s">
@@ -2370,7 +2418,7 @@
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
       <c r="B6" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -2380,7 +2428,7 @@
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="29" t="s">
@@ -2459,7 +2507,7 @@
         <v>101</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H7" s="29" t="s">
         <v>103</v>
@@ -2522,7 +2570,7 @@
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="47"/>
       <c r="B8" s="19" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -2614,7 +2662,7 @@
         <v>47</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H9" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -2676,7 +2724,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="53" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -2695,7 +2743,7 @@
         <v>87</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H10" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2757,9 +2805,9 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="19" t="s">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="C11" s="7">
         <v>10</v>
@@ -2767,14 +2815,12 @@
       <c r="D11" s="7">
         <v>10</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>126</v>
+      <c r="E11" s="21"/>
+      <c r="F11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>202</v>
       </c>
       <c r="H11" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2836,9 +2882,9 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="19" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="C12" s="7">
         <v>11</v>
@@ -2847,13 +2893,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>19</v>
+        <v>122</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="H12" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2865,59 +2911,59 @@
       <c r="J12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="27">
         <f>$I12+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="17">
         <f>$I12+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="17">
         <f>$I12+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="17">
         <f>$I12+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="17">
         <f>$I12+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="17">
         <f>$I12+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="17">
         <f>$I12+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="17">
         <f>$I12+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S12" s="24">
+      <c r="S12" s="17">
         <f>$I12+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T12" s="24">
+      <c r="T12" s="17">
         <f>$I12+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U12" s="24">
+      <c r="U12" s="17">
         <f>$I12+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V12" s="24">
+      <c r="V12" s="17">
         <f>$I12+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="7">
         <v>12</v>
@@ -2926,13 +2972,13 @@
         <v>12</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H13" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -2944,7 +2990,7 @@
       <c r="J13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="12">
         <f>$I13+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -2993,10 +3039,10 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
+    <row r="14" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="53"/>
       <c r="B14" s="19" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7">
         <v>13</v>
@@ -3005,22 +3051,22 @@
         <v>13</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" s="31" t="str">
+        <v>20</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="29" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
       <c r="I14" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="26">
@@ -3073,9 +3119,9 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="7">
         <v>14</v>
@@ -3084,13 +3130,13 @@
         <v>14</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="31" t="s">
-        <v>151</v>
+      <c r="G15" s="49" t="s">
+        <v>148</v>
       </c>
       <c r="H15" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -3102,7 +3148,7 @@
       <c r="J15" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="26">
         <f>$I15+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -3151,10 +3197,10 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
+    <row r="16" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="53"/>
       <c r="B16" s="19" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C16" s="7">
         <v>15</v>
@@ -3163,25 +3209,25 @@
         <v>15</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="29" t="str">
+        <v>18</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="31" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
       <c r="I16" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="12">
         <f>$I16+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -3231,9 +3277,9 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="19" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>16</v>
@@ -3242,13 +3288,13 @@
         <v>16</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>138</v>
+        <v>81</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="H17" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -3310,9 +3356,9 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
-      <c r="B18" s="13" t="s">
-        <v>44</v>
+      <c r="A18" s="53"/>
+      <c r="B18" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="C18" s="7">
         <v>17</v>
@@ -3320,14 +3366,14 @@
       <c r="D18" s="7">
         <v>17</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>16</v>
+      <c r="E18" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>153</v>
+        <v>76</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="H18" s="29" t="str">
         <f>Sheet2!$A$7</f>
@@ -3336,62 +3382,62 @@
       <c r="I18" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="26">
         <f>$I18+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="24">
         <f>$I18+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="24">
         <f>$I18+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="24">
         <f>$I18+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="24">
         <f>$I18+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P18" s="17">
+      <c r="P18" s="24">
         <f>$I18+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="24">
         <f>$I18+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R18" s="17">
+      <c r="R18" s="24">
         <f>$I18+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S18" s="17">
+      <c r="S18" s="24">
         <f>$I18+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T18" s="17">
+      <c r="T18" s="24">
         <f>$I18+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U18" s="17">
+      <c r="U18" s="24">
         <f>$I18+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V18" s="17">
+      <c r="V18" s="24">
         <f>$I18+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
-      <c r="B19" s="19" t="s">
-        <v>49</v>
+    <row r="19" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="53"/>
+      <c r="B19" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C19" s="7">
         <v>18</v>
@@ -3399,78 +3445,78 @@
       <c r="D19" s="7">
         <v>18</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" s="31" t="str">
+      <c r="E19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="29" t="str">
         <f>Sheet2!$A$7</f>
         <v>CEST</v>
       </c>
       <c r="I19" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="27">
         <f>$I19+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="17">
         <f>$I19+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="17">
         <f>$I19+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N19" s="24">
+      <c r="N19" s="17">
         <f>$I19+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="17">
         <f>$I19+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P19" s="24">
+      <c r="P19" s="17">
         <f>$I19+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19" s="17">
         <f>$I19+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R19" s="24">
+      <c r="R19" s="17">
         <f>$I19+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S19" s="24">
+      <c r="S19" s="17">
         <f>$I19+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T19" s="24">
+      <c r="T19" s="17">
         <f>$I19+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U19" s="24">
+      <c r="U19" s="17">
         <f>$I19+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V19" s="24">
+      <c r="V19" s="17">
         <f>$I19+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
+    <row r="20" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="53"/>
       <c r="B20" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>19</v>
@@ -3478,14 +3524,14 @@
       <c r="D20" s="7">
         <v>19</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>16</v>
+      <c r="E20" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H20" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -3494,10 +3540,10 @@
       <c r="I20" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J20" s="28" t="s">
+      <c r="J20" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="26">
         <f>$I20+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -3547,9 +3593,9 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="19" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="C21" s="7">
         <v>20</v>
@@ -3557,14 +3603,14 @@
       <c r="D21" s="7">
         <v>20</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>18</v>
+      <c r="E21" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H21" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -3626,9 +3672,9 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="19" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C22" s="7">
         <v>21</v>
@@ -3637,13 +3683,13 @@
         <v>21</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>136</v>
+        <v>18</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>154</v>
       </c>
       <c r="H22" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -3705,9 +3751,9 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C23" s="7">
         <v>22</v>
@@ -3715,14 +3761,14 @@
       <c r="D23" s="7">
         <v>22</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>121</v>
+      <c r="E23" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="H23" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -3784,9 +3830,9 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="19" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="C24" s="7">
         <v>23</v>
@@ -3794,14 +3840,14 @@
       <c r="D24" s="7">
         <v>23</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>157</v>
+      <c r="E24" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="H24" s="31" t="str">
         <f>Sheet2!$A$7</f>
@@ -3813,7 +3859,7 @@
       <c r="J24" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="12">
         <f>$I24+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
@@ -3863,9 +3909,9 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="19" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="C25" s="7">
         <v>24</v>
@@ -3873,73 +3919,78 @@
       <c r="D25" s="7">
         <v>24</v>
       </c>
-      <c r="E25" s="21"/>
+      <c r="E25" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="17">
-        <v>0.75</v>
+        <v>76</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="31" t="str">
+        <f>Sheet2!$A$7</f>
+        <v>CEST</v>
+      </c>
+      <c r="I25" s="24">
+        <v>0.70833333333333337</v>
       </c>
       <c r="J25" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K25" s="26">
         <f>$I25+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L25" s="24">
         <f>$I25+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M25" s="24">
         <f>$I25+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N25" s="24">
         <f>$I25+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O25" s="24">
         <f>$I25+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P25" s="24">
         <f>$I25+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q25" s="24">
         <f>$I25+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R25" s="24">
         <f>$I25+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S25" s="24">
         <f>$I25+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T25" s="24">
         <f>$I25+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U25" s="24">
         <f>$I25+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V25" s="24">
         <f>$I25+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="19" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="C26" s="7">
         <v>25</v>
@@ -3947,15 +3998,11 @@
       <c r="D26" s="7">
         <v>25</v>
       </c>
-      <c r="E26" s="21" t="s">
-        <v>124</v>
-      </c>
+      <c r="E26" s="21"/>
       <c r="F26" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>143</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G26" s="31"/>
       <c r="H26" s="31" t="s">
         <v>12</v>
       </c>
@@ -4015,9 +4062,9 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="19" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="C27" s="7">
         <v>26</v>
@@ -4026,13 +4073,13 @@
         <v>26</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>12</v>
@@ -4092,10 +4139,10 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
-      <c r="B28" s="13" t="s">
-        <v>53</v>
+    <row r="28" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="53"/>
+      <c r="B28" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="C28" s="7">
         <v>27</v>
@@ -4103,77 +4150,77 @@
       <c r="D28" s="7">
         <v>27</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="H28" s="29" t="s">
+      <c r="E28" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" s="31" t="s">
         <v>12</v>
       </c>
       <c r="I28" s="17">
         <v>0.75</v>
       </c>
-      <c r="J28" s="30" t="s">
+      <c r="J28" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K28" s="26">
         <f>$I28+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="24">
         <f>$I28+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M28" s="24">
         <f>$I28+Sheet2!B$3/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="24">
         <f>$I28+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O28" s="24">
         <f>$I28+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="P28" s="17">
+      <c r="P28" s="24">
         <f>$I28+Sheet2!B$6/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="Q28" s="24">
         <f>$I28+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R28" s="17">
+      <c r="R28" s="24">
         <f>$I28+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="S28" s="17">
+      <c r="S28" s="24">
         <f>$I28+Sheet2!B$9/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="T28" s="17">
+      <c r="T28" s="24">
         <f>$I28+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U28" s="17">
+      <c r="U28" s="24">
         <f>$I28+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="V28" s="17">
+      <c r="V28" s="24">
         <f>$I28+Sheet2!B$12/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
-      <c r="B29" s="34" t="s">
-        <v>86</v>
+      <c r="A29" s="53"/>
+      <c r="B29" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C29" s="7">
         <v>28</v>
@@ -4181,77 +4228,77 @@
       <c r="D29" s="7">
         <v>28</v>
       </c>
-      <c r="E29" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="H29" s="31" t="s">
+      <c r="E29" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="H29" s="29" t="s">
         <v>12</v>
       </c>
       <c r="I29" s="17">
         <v>0.75</v>
       </c>
-      <c r="J29" s="28" t="s">
+      <c r="J29" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="33">
         <f>$I29+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="17">
         <f>$I29+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="M29" s="24">
+      <c r="M29" s="17">
         <f>$I29+Sheet2!B$3/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="N29" s="24">
+      <c r="N29" s="17">
         <f>$I29+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="O29" s="24">
+      <c r="O29" s="17">
         <f>$I29+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="P29" s="24">
+      <c r="P29" s="17">
         <f>$I29+Sheet2!B$6/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q29" s="24">
+      <c r="Q29" s="17">
         <f>$I29+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R29" s="24">
+      <c r="R29" s="17">
         <f>$I29+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="S29" s="24">
+      <c r="S29" s="17">
         <f>$I29+Sheet2!B$9/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="T29" s="24">
+      <c r="T29" s="17">
         <f>$I29+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U29" s="24">
+      <c r="U29" s="17">
         <f>$I29+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="V29" s="24">
+      <c r="V29" s="17">
         <f>$I29+Sheet2!B$12/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="19" t="s">
-        <v>54</v>
+      <c r="A30" s="53"/>
+      <c r="B30" s="34" t="s">
+        <v>86</v>
       </c>
       <c r="C30" s="7">
         <v>29</v>
@@ -4260,13 +4307,13 @@
         <v>29</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="31" t="s">
-        <v>161</v>
+        <v>81</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="H30" s="31" t="s">
         <v>12</v>
@@ -4327,9 +4374,9 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="19" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C31" s="7">
         <v>30</v>
@@ -4337,79 +4384,77 @@
       <c r="D31" s="7">
         <v>30</v>
       </c>
-      <c r="E31" s="35" t="s">
-        <v>78</v>
+      <c r="E31" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="36" t="s">
-        <v>162</v>
+        <v>93</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>159</v>
       </c>
       <c r="H31" s="31" t="s">
         <v>12</v>
       </c>
       <c r="I31" s="17">
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="J31" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K31" s="26">
         <f>$I31+Sheet2!B$1/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L31" s="24">
         <f>$I31+Sheet2!B$2/24</f>
-        <v>1.1666666666666665</v>
+        <v>1.125</v>
       </c>
       <c r="M31" s="24">
         <f>$I31+Sheet2!B$3/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N31" s="24">
         <f>$I31+Sheet2!B$4/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="O31" s="24">
         <f>$I31+Sheet2!B$5/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="P31" s="24">
         <f>$I31+Sheet2!B$6/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="Q31" s="24">
         <f>$I31+Sheet2!B$7/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R31" s="24">
         <f>$I31+Sheet2!B$8/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S31" s="24">
         <f>$I31+Sheet2!B$9/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T31" s="24">
         <f>$I31+Sheet2!B$10/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U31" s="24">
         <f>$I31+Sheet2!B$11/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="V31" s="24">
         <f>$I31+Sheet2!B$12/24</f>
-        <v>0.49999999999999994</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="52" t="s">
-        <v>21</v>
-      </c>
+      <c r="A32" s="53"/>
       <c r="B32" s="19" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="C32" s="7">
         <v>31</v>
@@ -4417,77 +4462,31 @@
       <c r="D32" s="7">
         <v>31</v>
       </c>
-      <c r="E32" s="35" t="s">
-        <v>82</v>
-      </c>
+      <c r="E32" s="21"/>
       <c r="F32" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="H32" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="17">
-        <v>0.875</v>
-      </c>
-      <c r="J32" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="26">
-        <f>$I32+Sheet2!B$1/24</f>
-        <v>1.2916666666666667</v>
-      </c>
-      <c r="L32" s="24">
-        <f>$I32+Sheet2!B$2/24</f>
-        <v>1.25</v>
-      </c>
-      <c r="M32" s="24">
-        <f>$I32+Sheet2!B$3/24</f>
-        <v>1.2083333333333333</v>
-      </c>
-      <c r="N32" s="24">
-        <f>$I32+Sheet2!B$4/24</f>
-        <v>1</v>
-      </c>
-      <c r="O32" s="24">
-        <f>$I32+Sheet2!B$5/24</f>
-        <v>1</v>
-      </c>
-      <c r="P32" s="24">
-        <f>$I32+Sheet2!B$6/24</f>
-        <v>1</v>
-      </c>
-      <c r="Q32" s="24">
-        <f>$I32+Sheet2!B$7/24</f>
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="R32" s="24">
-        <f>$I32+Sheet2!B$8/24</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="S32" s="24">
-        <f>$I32+Sheet2!B$9/24</f>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="T32" s="24">
-        <f>$I32+Sheet2!B$10/24</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="U32" s="24">
-        <f>$I32+Sheet2!B$11/24</f>
-        <v>0.625</v>
-      </c>
-      <c r="V32" s="24">
-        <f>$I32+Sheet2!B$12/24</f>
-        <v>0.58333333333333326</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="53"/>
       <c r="B33" s="19" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="C33" s="7">
         <v>32</v>
@@ -4495,74 +4494,77 @@
       <c r="D33" s="7">
         <v>32</v>
       </c>
-      <c r="E33" s="21"/>
+      <c r="E33" s="35" t="s">
+        <v>78</v>
+      </c>
       <c r="F33" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I33" s="24">
-        <v>0.95833333333333337</v>
+        <v>79</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="17">
+        <v>0.83333333333333337</v>
       </c>
       <c r="J33" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K33" s="26">
         <f>$I33+Sheet2!B$1/24</f>
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="L33" s="24">
         <f>$I33+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
+        <v>1.2083333333333335</v>
       </c>
       <c r="M33" s="24">
         <f>$I33+Sheet2!B$3/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="N33" s="24">
         <f>$I33+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="O33" s="24">
         <f>$I33+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="P33" s="24">
         <f>$I33+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="Q33" s="24">
         <f>$I33+Sheet2!B$7/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="R33" s="24">
         <f>$I33+Sheet2!B$8/24</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="S33" s="24">
         <f>$I33+Sheet2!B$9/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="T33" s="24">
         <f>$I33+Sheet2!B$10/24</f>
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="U33" s="24">
         <f>$I33+Sheet2!B$11/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="V33" s="24">
         <f>$I33+Sheet2!B$12/24</f>
-        <v>0.66666666666666674</v>
+        <v>0.54166666666666674</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="19" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C34" s="7">
         <v>33</v>
@@ -4570,78 +4572,77 @@
       <c r="D34" s="7">
         <v>33</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="H34" s="31" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I34" s="24">
-        <v>0.95833333333333337</v>
+      <c r="E34" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="17">
+        <v>0.83333333333333337</v>
       </c>
       <c r="J34" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K34" s="26">
         <f>$I34+Sheet2!B$1/24</f>
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="L34" s="24">
         <f>$I34+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
+        <v>1.2083333333333335</v>
       </c>
       <c r="M34" s="24">
         <f>$I34+Sheet2!B$3/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="N34" s="24">
         <f>$I34+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="O34" s="24">
         <f>$I34+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="P34" s="24">
         <f>$I34+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="Q34" s="24">
         <f>$I34+Sheet2!B$7/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="R34" s="24">
         <f>$I34+Sheet2!B$8/24</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="S34" s="24">
         <f>$I34+Sheet2!B$9/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="T34" s="24">
         <f>$I34+Sheet2!B$10/24</f>
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="U34" s="24">
         <f>$I34+Sheet2!B$11/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="V34" s="24">
         <f>$I34+Sheet2!B$12/24</f>
-        <v>0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
+        <v>0.54166666666666674</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="52"/>
       <c r="B35" s="19" t="s">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="C35" s="7">
         <v>34</v>
@@ -4649,77 +4650,33 @@
       <c r="D35" s="7">
         <v>34</v>
       </c>
-      <c r="E35" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="I35" s="43">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="J35" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="26">
-        <f>$I35+Sheet2!B$1/24</f>
-        <v>1.375</v>
-      </c>
-      <c r="L35" s="24">
-        <f>$I35+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="M35" s="24">
-        <f>$I35+Sheet2!B$3/24</f>
-        <v>1.2916666666666667</v>
-      </c>
-      <c r="N35" s="24">
-        <f>$I35+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="O35" s="24">
-        <f>$I35+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="P35" s="24">
-        <f>$I35+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="Q35" s="24">
-        <f>$I35+Sheet2!B$7/24</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="R35" s="24">
-        <f>$I35+Sheet2!B$8/24</f>
-        <v>1</v>
-      </c>
-      <c r="S35" s="24">
-        <f>$I35+Sheet2!B$9/24</f>
-        <v>0.79166666666666674</v>
-      </c>
-      <c r="T35" s="24">
-        <f>$I35+Sheet2!B$10/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="U35" s="24">
-        <f>$I35+Sheet2!B$11/24</f>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="V35" s="24">
-        <f>$I35+Sheet2!B$12/24</f>
-        <v>0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
-      <c r="B36" s="13" t="s">
-        <v>37</v>
+      <c r="E35" s="35"/>
+      <c r="F35" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G35" s="36"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+    </row>
+    <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="C36" s="7">
         <v>35</v>
@@ -4727,78 +4684,77 @@
       <c r="D36" s="7">
         <v>35</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="H36" s="31" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I36" s="24">
-        <v>0.95833333333333337</v>
+      <c r="E36" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="17">
+        <v>0.875</v>
       </c>
       <c r="J36" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36" s="26">
         <f>$I36+Sheet2!B$1/24</f>
-        <v>1.375</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="L36" s="24">
         <f>$I36+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
+        <v>1.25</v>
       </c>
       <c r="M36" s="24">
         <f>$I36+Sheet2!B$3/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="N36" s="24">
         <f>$I36+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
+        <v>1</v>
       </c>
       <c r="O36" s="24">
         <f>$I36+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
+        <v>1</v>
       </c>
       <c r="P36" s="24">
         <f>$I36+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="24">
         <f>$I36+Sheet2!B$7/24</f>
-        <v>1.0416666666666667</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="R36" s="24">
         <f>$I36+Sheet2!B$8/24</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="S36" s="24">
         <f>$I36+Sheet2!B$9/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="T36" s="24">
         <f>$I36+Sheet2!B$10/24</f>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U36" s="24">
         <f>$I36+Sheet2!B$11/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="V36" s="24">
         <f>$I36+Sheet2!B$12/24</f>
-        <v>0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="53"/>
-      <c r="B37" s="13" t="s">
-        <v>35</v>
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="56"/>
+      <c r="B37" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="C37" s="7">
         <v>36</v>
@@ -4806,15 +4762,11 @@
       <c r="D37" s="7">
         <v>36</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>167</v>
-      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G37" s="31"/>
       <c r="H37" s="31" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
@@ -4874,10 +4826,10 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="53"/>
+    <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="56"/>
       <c r="B38" s="19" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C38" s="7">
         <v>37</v>
@@ -4889,10 +4841,10 @@
         <v>29</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>168</v>
+        <v>47</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="H38" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -4953,10 +4905,10 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="53"/>
-      <c r="B39" s="13" t="s">
-        <v>38</v>
+    <row r="39" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="56"/>
+      <c r="B39" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="C39" s="7">
         <v>38</v>
@@ -4964,78 +4916,77 @@
       <c r="D39" s="7">
         <v>38</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="H39" s="31" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I39" s="24">
+      <c r="G39" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="H39" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="43">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J39" s="30" t="s">
+      <c r="J39" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="26">
         <f>$I39+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="24">
         <f>$I39+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M39" s="24">
         <f>$I39+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N39" s="17">
+      <c r="N39" s="24">
         <f>$I39+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O39" s="17">
+      <c r="O39" s="24">
         <f>$I39+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P39" s="17">
+      <c r="P39" s="24">
         <f>$I39+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q39" s="17">
+      <c r="Q39" s="24">
         <f>$I39+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R39" s="17">
+      <c r="R39" s="24">
         <f>$I39+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S39" s="17">
+      <c r="S39" s="24">
         <f>$I39+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T39" s="17">
+      <c r="T39" s="24">
         <f>$I39+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U39" s="17">
+      <c r="U39" s="24">
         <f>$I39+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V39" s="17">
+      <c r="V39" s="24">
         <f>$I39+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
-      <c r="B40" s="19" t="s">
-        <v>34</v>
+      <c r="A40" s="56"/>
+      <c r="B40" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="C40" s="7">
         <v>39</v>
@@ -5049,8 +5000,8 @@
       <c r="F40" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>170</v>
+      <c r="G40" s="50" t="s">
+        <v>164</v>
       </c>
       <c r="H40" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -5062,7 +5013,7 @@
       <c r="J40" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K40" s="26">
+      <c r="K40" s="12">
         <f>$I40+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -5112,9 +5063,9 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="53"/>
-      <c r="B41" s="19" t="s">
-        <v>36</v>
+      <c r="A41" s="56"/>
+      <c r="B41" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="C41" s="7">
         <v>40</v>
@@ -5128,8 +5079,8 @@
       <c r="F41" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="23" t="s">
-        <v>171</v>
+      <c r="G41" s="22" t="s">
+        <v>165</v>
       </c>
       <c r="H41" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -5141,7 +5092,7 @@
       <c r="J41" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41" s="26">
         <f>$I41+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -5191,9 +5142,9 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="53"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="19" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="C42" s="7">
         <v>41</v>
@@ -5201,14 +5152,14 @@
       <c r="D42" s="7">
         <v>41</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="42" t="s">
+      <c r="F42" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="31" t="s">
-        <v>172</v>
+      <c r="G42" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="H42" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -5270,9 +5221,9 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="53"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="13" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="C43" s="7">
         <v>42</v>
@@ -5287,7 +5238,7 @@
         <v>22</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="H43" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -5349,9 +5300,9 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="53"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="19" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="C44" s="7">
         <v>43</v>
@@ -5365,8 +5316,8 @@
       <c r="F44" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="56" t="s">
-        <v>140</v>
+      <c r="G44" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="H44" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -5375,62 +5326,62 @@
       <c r="I44" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J44" s="30" t="s">
+      <c r="J44" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K44" s="33">
+      <c r="K44" s="26">
         <f>$I44+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="24">
         <f>$I44+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="24">
         <f>$I44+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N44" s="24">
         <f>$I44+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O44" s="17">
+      <c r="O44" s="24">
         <f>$I44+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P44" s="17">
+      <c r="P44" s="24">
         <f>$I44+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q44" s="17">
+      <c r="Q44" s="24">
         <f>$I44+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R44" s="17">
+      <c r="R44" s="24">
         <f>$I44+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S44" s="17">
+      <c r="S44" s="24">
         <f>$I44+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T44" s="17">
+      <c r="T44" s="24">
         <f>$I44+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U44" s="17">
+      <c r="U44" s="24">
         <f>$I44+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V44" s="17">
+      <c r="V44" s="24">
         <f>$I44+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="53"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C45" s="7">
         <v>44</v>
@@ -5444,8 +5395,8 @@
       <c r="F45" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>173</v>
+      <c r="G45" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="H45" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -5457,7 +5408,7 @@
       <c r="J45" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K45" s="26">
+      <c r="K45" s="12">
         <f>$I45+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -5507,9 +5458,9 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="53"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="19" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="C46" s="7">
         <v>45</v>
@@ -5517,14 +5468,14 @@
       <c r="D46" s="7">
         <v>45</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="F46" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>174</v>
+      <c r="G46" s="31" t="s">
+        <v>170</v>
       </c>
       <c r="H46" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -5586,9 +5537,9 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="53"/>
-      <c r="B47" s="19" t="s">
-        <v>46</v>
+      <c r="A47" s="56"/>
+      <c r="B47" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="C47" s="7">
         <v>46</v>
@@ -5600,10 +5551,10 @@
         <v>29</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>175</v>
+        <v>22</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="H47" s="31" t="str">
         <f>Sheet2!$A$9</f>
@@ -5612,62 +5563,62 @@
       <c r="I47" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J47" s="28" t="s">
+      <c r="J47" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K47" s="26">
+      <c r="K47" s="33">
         <f>$I47+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L47" s="24">
+      <c r="L47" s="17">
         <f>$I47+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M47" s="24">
+      <c r="M47" s="17">
         <f>$I47+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N47" s="24">
+      <c r="N47" s="17">
         <f>$I47+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O47" s="24">
+      <c r="O47" s="17">
         <f>$I47+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P47" s="24">
+      <c r="P47" s="17">
         <f>$I47+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q47" s="24">
+      <c r="Q47" s="17">
         <f>$I47+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R47" s="24">
+      <c r="R47" s="17">
         <f>$I47+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S47" s="24">
+      <c r="S47" s="17">
         <f>$I47+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T47" s="24">
+      <c r="T47" s="17">
         <f>$I47+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U47" s="24">
+      <c r="U47" s="17">
         <f>$I47+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V47" s="24">
+      <c r="V47" s="17">
         <f>$I47+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="53"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="19" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C48" s="7">
         <v>47</v>
@@ -5675,73 +5626,78 @@
       <c r="D48" s="7">
         <v>47</v>
       </c>
-      <c r="E48" s="15"/>
+      <c r="E48" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="F48" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="31" t="s">
-        <v>73</v>
+        <v>22</v>
+      </c>
+      <c r="G48" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="H48" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
       </c>
       <c r="I48" s="24">
-        <v>0</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="J48" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K48" s="26">
+      <c r="K48" s="33">
         <f>$I48+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="L48" s="24">
+        <v>1.375</v>
+      </c>
+      <c r="L48" s="17">
         <f>$I48+Sheet2!B$2/24</f>
-        <v>0.375</v>
-      </c>
-      <c r="M48" s="24">
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="M48" s="17">
         <f>$I48+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N48" s="24">
+        <v>1.2916666666666667</v>
+      </c>
+      <c r="N48" s="17">
         <f>$I48+Sheet2!B$4/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="O48" s="24">
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="O48" s="17">
         <f>$I48+Sheet2!B$5/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="P48" s="24">
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="P48" s="17">
         <f>$I48+Sheet2!B$6/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="Q48" s="24">
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="Q48" s="17">
         <f>$I48+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="R48" s="24">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="R48" s="17">
         <f>$I48+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="S48" s="24">
+        <v>1</v>
+      </c>
+      <c r="S48" s="17">
         <f>$I48+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
-      </c>
-      <c r="T48" s="24">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="T48" s="17">
         <f>$I48+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
-      </c>
-      <c r="U48" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="U48" s="17">
         <f>$I48+Sheet2!B$11/24</f>
-        <v>-0.25</v>
-      </c>
-      <c r="V48" s="24">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="V48" s="17">
         <f>$I48+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="53"/>
-      <c r="B49" s="37" t="s">
-        <v>105</v>
+      <c r="A49" s="56"/>
+      <c r="B49" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="C49" s="7">
         <v>48</v>
@@ -5755,71 +5711,72 @@
       <c r="F49" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="H49" s="31" t="s">
-        <v>73</v>
+      <c r="G49" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H49" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
       </c>
       <c r="I49" s="24">
-        <v>0</v>
-      </c>
-      <c r="J49" s="30" t="s">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J49" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K49" s="26">
         <f>$I49+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.375</v>
       </c>
       <c r="L49" s="24">
         <f>$I49+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="M49" s="24">
         <f>$I49+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="N49" s="24">
         <f>$I49+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="O49" s="24">
         <f>$I49+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="P49" s="24">
         <f>$I49+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="Q49" s="24">
         <f>$I49+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="R49" s="24">
         <f>$I49+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>1</v>
       </c>
       <c r="S49" s="24">
         <f>$I49+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="T49" s="24">
         <f>$I49+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="U49" s="24">
         <f>$I49+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="V49" s="24">
         <f>$I49+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="53"/>
-      <c r="B50" s="37" t="s">
-        <v>61</v>
+      <c r="A50" s="56"/>
+      <c r="B50" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C50" s="7">
         <v>49</v>
@@ -5833,71 +5790,72 @@
       <c r="F50" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="H50" s="31" t="s">
-        <v>73</v>
+      <c r="G50" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H50" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
       </c>
       <c r="I50" s="24">
-        <v>0</v>
-      </c>
-      <c r="J50" s="30" t="s">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J50" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K50" s="26">
         <f>$I50+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.375</v>
       </c>
       <c r="L50" s="24">
         <f>$I50+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="M50" s="24">
         <f>$I50+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="N50" s="24">
         <f>$I50+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="O50" s="24">
         <f>$I50+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="P50" s="24">
         <f>$I50+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="Q50" s="24">
         <f>$I50+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="R50" s="24">
         <f>$I50+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>1</v>
       </c>
       <c r="S50" s="24">
         <f>$I50+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="T50" s="24">
         <f>$I50+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="U50" s="24">
         <f>$I50+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="V50" s="24">
         <f>$I50+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="53"/>
-      <c r="B51" s="37" t="s">
-        <v>59</v>
+      <c r="A51" s="56"/>
+      <c r="B51" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="C51" s="7">
         <v>50</v>
@@ -5908,74 +5866,75 @@
       <c r="E51" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="H51" s="31" t="s">
-        <v>73</v>
+      <c r="F51" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="H51" s="31" t="str">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
       </c>
       <c r="I51" s="24">
-        <v>0</v>
-      </c>
-      <c r="J51" s="30" t="s">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J51" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K51" s="26">
         <f>$I51+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>1.375</v>
       </c>
       <c r="L51" s="24">
         <f>$I51+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="M51" s="24">
         <f>$I51+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="N51" s="24">
         <f>$I51+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="O51" s="24">
         <f>$I51+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="P51" s="24">
         <f>$I51+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="Q51" s="24">
         <f>$I51+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="R51" s="24">
         <f>$I51+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>1</v>
       </c>
       <c r="S51" s="24">
         <f>$I51+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="T51" s="24">
         <f>$I51+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="U51" s="24">
         <f>$I51+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="V51" s="24">
         <f>$I51+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="53"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="19" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C52" s="7">
         <v>51</v>
@@ -5983,22 +5942,18 @@
       <c r="D52" s="7">
         <v>51</v>
       </c>
-      <c r="E52" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="31" t="s">
-        <v>179</v>
-      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" s="9"/>
       <c r="H52" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I52" s="24">
         <v>0</v>
       </c>
-      <c r="J52" s="28" t="s">
+      <c r="J52" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K52" s="26">
@@ -6051,9 +6006,9 @@
       </c>
     </row>
     <row r="53" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="53"/>
-      <c r="B53" s="19" t="s">
-        <v>62</v>
+      <c r="A53" s="56"/>
+      <c r="B53" s="37" t="s">
+        <v>105</v>
       </c>
       <c r="C53" s="7">
         <v>52</v>
@@ -6068,7 +6023,7 @@
         <v>22</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H53" s="31" t="s">
         <v>73</v>
@@ -6129,9 +6084,9 @@
       </c>
     </row>
     <row r="54" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="53"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C54" s="7">
         <v>53</v>
@@ -6143,10 +6098,10 @@
         <v>29</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H54" s="31" t="s">
         <v>73</v>
@@ -6207,9 +6162,9 @@
       </c>
     </row>
     <row r="55" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="53"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C55" s="7">
         <v>54</v>
@@ -6220,11 +6175,11 @@
       <c r="E55" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="29" t="s">
-        <v>182</v>
+      <c r="F55" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>176</v>
       </c>
       <c r="H55" s="31" t="s">
         <v>73</v>
@@ -6285,9 +6240,9 @@
       </c>
     </row>
     <row r="56" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="53"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="19" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C56" s="7">
         <v>55</v>
@@ -6295,14 +6250,14 @@
       <c r="D56" s="7">
         <v>55</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E56" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>118</v>
+      <c r="F56" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H56" s="31" t="s">
         <v>73</v>
@@ -6310,7 +6265,7 @@
       <c r="I56" s="24">
         <v>0</v>
       </c>
-      <c r="J56" s="30" t="s">
+      <c r="J56" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K56" s="26">
@@ -6363,9 +6318,9 @@
       </c>
     </row>
     <row r="57" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="53"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="19" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="C57" s="7">
         <v>56</v>
@@ -6373,14 +6328,14 @@
       <c r="D57" s="7">
         <v>56</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="20" t="s">
+      <c r="F57" s="42" t="s">
         <v>22</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="H57" s="31" t="s">
         <v>73</v>
@@ -6440,10 +6395,10 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="53"/>
+    <row r="58" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="56"/>
       <c r="B58" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" s="7">
         <v>57</v>
@@ -6454,11 +6409,11 @@
       <c r="E58" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>74</v>
+      <c r="F58" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H58" s="31" t="s">
         <v>73</v>
@@ -6519,9 +6474,9 @@
       </c>
     </row>
     <row r="59" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="53"/>
-      <c r="B59" s="19" t="s">
-        <v>57</v>
+      <c r="A59" s="56"/>
+      <c r="B59" s="37" t="s">
+        <v>65</v>
       </c>
       <c r="C59" s="7">
         <v>58</v>
@@ -6533,10 +6488,10 @@
         <v>29</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="29" t="s">
-        <v>186</v>
+        <v>47</v>
+      </c>
+      <c r="G59" s="31" t="s">
+        <v>179</v>
       </c>
       <c r="H59" s="31" t="s">
         <v>73</v>
@@ -6544,7 +6499,7 @@
       <c r="I59" s="24">
         <v>0</v>
       </c>
-      <c r="J59" s="28" t="s">
+      <c r="J59" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K59" s="26">
@@ -6597,9 +6552,9 @@
       </c>
     </row>
     <row r="60" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="53"/>
-      <c r="B60" s="19" t="s">
-        <v>133</v>
+      <c r="A60" s="56"/>
+      <c r="B60" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="C60" s="7">
         <v>59</v>
@@ -6607,73 +6562,77 @@
       <c r="D60" s="7">
         <v>59</v>
       </c>
-      <c r="E60" s="15"/>
+      <c r="E60" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="F60" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="G60" s="31"/>
+        <v>22</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>180</v>
+      </c>
       <c r="H60" s="31" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="I60" s="24">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J60" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K60" s="26">
         <f>$I60+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L60" s="24">
         <f>$I60+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M60" s="24">
         <f>$I60+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N60" s="24">
         <f>$I60+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O60" s="24">
         <f>$I60+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P60" s="24">
         <f>$I60+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q60" s="24">
         <f>$I60+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R60" s="24">
         <f>$I60+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S60" s="24">
         <f>$I60+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T60" s="24">
         <f>$I60+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U60" s="24">
         <f>$I60+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V60" s="24">
         <f>$I60+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="53"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C61" s="7">
         <v>60</v>
@@ -6682,76 +6641,76 @@
         <v>60</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G61" s="36" t="s">
-        <v>187</v>
+        <v>116</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>181</v>
       </c>
       <c r="H61" s="31" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="I61" s="24">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J61" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K61" s="26">
         <f>$I61+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L61" s="24">
         <f>$I61+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M61" s="24">
         <f>$I61+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N61" s="24">
         <f>$I61+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O61" s="24">
         <f>$I61+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P61" s="24">
         <f>$I61+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q61" s="24">
         <f>$I61+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R61" s="24">
         <f>$I61+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S61" s="24">
         <f>$I61+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T61" s="24">
         <f>$I61+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U61" s="24">
         <f>$I61+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V61" s="24">
         <f>$I61+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="53"/>
-      <c r="B62" s="37" t="s">
-        <v>67</v>
+      <c r="A62" s="56"/>
+      <c r="B62" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="C62" s="7">
         <v>61</v>
@@ -6762,74 +6721,74 @@
       <c r="E62" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F62" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G62" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="H62" s="37" t="s">
-        <v>13</v>
+      <c r="G62" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="H62" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="I62" s="24">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J62" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J62" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K62" s="26">
         <f>$I62+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L62" s="24">
         <f>$I62+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="M62" s="24">
         <f>$I62+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N62" s="24">
         <f>$I62+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="O62" s="24">
         <f>$I62+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="P62" s="24">
         <f>$I62+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q62" s="24">
         <f>$I62+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R62" s="24">
         <f>$I62+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S62" s="24">
         <f>$I62+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T62" s="24">
         <f>$I62+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U62" s="24">
         <f>$I62+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="V62" s="24">
         <f>$I62+Sheet2!B$12/24</f>
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="53"/>
+        <v>-0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="56"/>
       <c r="B63" s="19" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="C63" s="7">
         <v>62</v>
@@ -6837,73 +6796,77 @@
       <c r="D63" s="7">
         <v>62</v>
       </c>
-      <c r="E63" s="15"/>
-      <c r="F63" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="G63" s="31"/>
+      <c r="E63" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" s="31" t="s">
+        <v>183</v>
+      </c>
       <c r="H63" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I63" s="24">
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="J63" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K63" s="26">
         <f>$I63+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L63" s="24">
         <f>$I63+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="M63" s="24">
         <f>$I63+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N63" s="24">
         <f>$I63+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="O63" s="24">
         <f>$I63+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="P63" s="24">
         <f>$I63+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="Q63" s="24">
         <f>$I63+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R63" s="24">
         <f>$I63+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S63" s="24">
         <f>$I63+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T63" s="24">
         <f>$I63+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U63" s="24">
         <f>$I63+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.25</v>
       </c>
       <c r="V63" s="24">
         <f>$I63+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="53"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="19" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C64" s="7">
         <v>63</v>
@@ -6917,71 +6880,71 @@
       <c r="F64" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G64" s="22" t="s">
-        <v>189</v>
+      <c r="G64" s="29" t="s">
+        <v>184</v>
       </c>
       <c r="H64" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I64" s="24">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J64" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" s="28" t="s">
         <v>15</v>
       </c>
       <c r="K64" s="26">
         <f>$I64+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L64" s="24">
         <f>$I64+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="M64" s="24">
         <f>$I64+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N64" s="24">
         <f>$I64+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="O64" s="24">
         <f>$I64+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="P64" s="24">
         <f>$I64+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="Q64" s="24">
         <f>$I64+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R64" s="24">
         <f>$I64+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S64" s="24">
         <f>$I64+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T64" s="24">
         <f>$I64+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U64" s="24">
         <f>$I64+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.25</v>
       </c>
       <c r="V64" s="24">
         <f>$I64+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="53"/>
-      <c r="B65" s="37" t="s">
-        <v>69</v>
+      <c r="A65" s="56"/>
+      <c r="B65" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="C65" s="7">
         <v>64</v>
@@ -6989,77 +6952,73 @@
       <c r="D65" s="7">
         <v>64</v>
       </c>
-      <c r="E65" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>190</v>
-      </c>
+      <c r="E65" s="15"/>
+      <c r="F65" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G65" s="31"/>
       <c r="H65" s="31" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="I65" s="24">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J65" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K65" s="26">
         <f>$I65+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L65" s="24">
         <f>$I65+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M65" s="24">
         <f>$I65+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N65" s="24">
         <f>$I65+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O65" s="24">
         <f>$I65+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P65" s="24">
         <f>$I65+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q65" s="24">
         <f>$I65+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="R65" s="24">
         <f>$I65+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S65" s="24">
         <f>$I65+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T65" s="24">
         <f>$I65+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U65" s="24">
         <f>$I65+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V65" s="24">
         <f>$I65+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="53"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C66" s="7">
         <v>65</v>
@@ -7068,76 +7027,76 @@
         <v>65</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="39" t="s">
-        <v>191</v>
+        <v>96</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G66" s="36" t="s">
+        <v>185</v>
       </c>
       <c r="H66" s="31" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="I66" s="24">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J66" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K66" s="26">
         <f>$I66+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L66" s="24">
         <f>$I66+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M66" s="24">
         <f>$I66+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N66" s="24">
         <f>$I66+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O66" s="24">
         <f>$I66+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P66" s="24">
         <f>$I66+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q66" s="24">
         <f>$I66+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="R66" s="24">
         <f>$I66+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S66" s="24">
         <f>$I66+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T66" s="24">
         <f>$I66+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U66" s="24">
         <f>$I66+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V66" s="24">
         <f>$I66+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="53"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C67" s="7">
         <v>66</v>
@@ -7148,488 +7107,884 @@
       <c r="E67" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F67" s="40" t="s">
+      <c r="F67" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="H67" s="31" t="s">
-        <v>72</v>
+      <c r="G67" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H67" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="I67" s="24">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J67" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K67" s="26">
         <f>$I67+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L67" s="24">
         <f>$I67+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M67" s="24">
         <f>$I67+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N67" s="24">
         <f>$I67+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O67" s="24">
         <f>$I67+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P67" s="24">
         <f>$I67+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q67" s="24">
         <f>$I67+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="R67" s="24">
         <f>$I67+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S67" s="24">
         <f>$I67+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T67" s="24">
         <f>$I67+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U67" s="24">
         <f>$I67+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V67" s="24">
         <f>$I67+Sheet2!B$12/24</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="56"/>
+      <c r="B68" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="7">
+        <v>67</v>
+      </c>
+      <c r="D68" s="7">
+        <v>67</v>
+      </c>
+      <c r="E68" s="15"/>
+      <c r="F68" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I68" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J68" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" s="26">
+        <f>$I68+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L68" s="24">
+        <f>$I68+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M68" s="24">
+        <f>$I68+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N68" s="24">
+        <f>$I68+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O68" s="24">
+        <f>$I68+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P68" s="24">
+        <f>$I68+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q68" s="24">
+        <f>$I68+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R68" s="24">
+        <f>$I68+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S68" s="24">
+        <f>$I68+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T68" s="24">
+        <f>$I68+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U68" s="24">
+        <f>$I68+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V68" s="24">
+        <f>$I68+Sheet2!B$12/24</f>
         <v>-0.20833333333333337</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A68" s="53"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A69" s="53"/>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A70" s="53"/>
+    <row r="69" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="56"/>
+      <c r="B69" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="7">
+        <v>68</v>
+      </c>
+      <c r="D69" s="7">
+        <v>68</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="H69" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I69" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J69" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K69" s="26">
+        <f>$I69+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L69" s="24">
+        <f>$I69+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M69" s="24">
+        <f>$I69+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N69" s="24">
+        <f>$I69+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O69" s="24">
+        <f>$I69+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P69" s="24">
+        <f>$I69+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q69" s="24">
+        <f>$I69+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R69" s="24">
+        <f>$I69+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S69" s="24">
+        <f>$I69+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T69" s="24">
+        <f>$I69+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U69" s="24">
+        <f>$I69+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V69" s="24">
+        <f>$I69+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="56"/>
+      <c r="B70" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="7">
+        <v>69</v>
+      </c>
+      <c r="D70" s="7">
+        <v>69</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H70" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J70" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K70" s="26">
+        <f>$I70+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L70" s="24">
+        <f>$I70+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M70" s="24">
+        <f>$I70+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N70" s="24">
+        <f>$I70+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O70" s="24">
+        <f>$I70+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P70" s="24">
+        <f>$I70+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q70" s="24">
+        <f>$I70+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R70" s="24">
+        <f>$I70+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S70" s="24">
+        <f>$I70+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T70" s="24">
+        <f>$I70+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U70" s="24">
+        <f>$I70+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V70" s="24">
+        <f>$I70+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="56"/>
+      <c r="B71" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="7">
+        <v>70</v>
+      </c>
+      <c r="D71" s="7">
+        <v>70</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="H71" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I71" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J71" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K71" s="26">
+        <f>$I71+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L71" s="24">
+        <f>$I71+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M71" s="24">
+        <f>$I71+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N71" s="24">
+        <f>$I71+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O71" s="24">
+        <f>$I71+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P71" s="24">
+        <f>$I71+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q71" s="24">
+        <f>$I71+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R71" s="24">
+        <f>$I71+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S71" s="24">
+        <f>$I71+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T71" s="24">
+        <f>$I71+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U71" s="24">
+        <f>$I71+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V71" s="24">
+        <f>$I71+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="56"/>
+      <c r="B72" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="7">
+        <v>71</v>
+      </c>
+      <c r="D72" s="7">
+        <v>71</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="H72" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I72" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J72" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K72" s="26">
+        <f>$I72+Sheet2!B$1/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L72" s="24">
+        <f>$I72+Sheet2!B$2/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M72" s="24">
+        <f>$I72+Sheet2!B$3/24</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N72" s="24">
+        <f>$I72+Sheet2!B$4/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="O72" s="24">
+        <f>$I72+Sheet2!B$5/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="P72" s="24">
+        <f>$I72+Sheet2!B$6/24</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="Q72" s="24">
+        <f>$I72+Sheet2!B$7/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R72" s="24">
+        <f>$I72+Sheet2!B$8/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="S72" s="24">
+        <f>$I72+Sheet2!B$9/24</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="T72" s="24">
+        <f>$I72+Sheet2!B$10/24</f>
+        <v>-0.125</v>
+      </c>
+      <c r="U72" s="24">
+        <f>$I72+Sheet2!B$11/24</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V72" s="24">
+        <f>$I72+Sheet2!B$12/24</f>
+        <v>-0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A73" s="56"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A74" s="56"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A75" s="56"/>
     </row>
   </sheetData>
-  <sortState ref="B2:V57">
-    <sortCondition ref="D2:D57"/>
+  <sortState ref="B2:V62">
+    <sortCondition ref="D2:D62"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
-    <mergeCell ref="A10:A31"/>
-    <mergeCell ref="A32:A70"/>
+    <mergeCell ref="A10:A34"/>
+    <mergeCell ref="A36:A75"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L8 K61:V62 K64:V67 K6:V20 K24:V59">
-    <cfRule type="expression" dxfId="78" priority="141">
+  <conditionalFormatting sqref="K2:L8 K66:V67 K69:V72 K25:V32 K34:V64 K6:V21">
+    <cfRule type="expression" dxfId="80" priority="143">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:V8">
-    <cfRule type="expression" dxfId="77" priority="143">
+    <cfRule type="expression" dxfId="79" priority="145">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:V35 G42:V42 G35 B45:B48 K50:V50 G50 G52:V52 B51:B52 K53:V55 G53:G55 B56:B57 K58:V58 G58 G67 K61:V62 E56:V57 E45:V47 E36:V41 E48:G48 B24:B42 H22:V22 H2:V2 B3:V3 G60:G65 K64:V67 E18:V21 G17:V17 B4:B21 E4:V16 C5:D5 E24:V34 C7:D7 C11:D11 C15:D15 C19:D19 C23:D23 C27:D27 C31:D31 C35:D35 C39:D39 C43:D43 C47:D47 C51:V51 C55:D55 B59:V59 C63:D63 C67:D67 C9:D9 C13:D13 C17:D17 C21:D21 C25:D25 C29:D29 C33:D33 C37:D37 C41:D41 C45:D45 C49:D49 C53:D53 C57:D57 C61:D61 C65:D65">
-    <cfRule type="expression" dxfId="76" priority="147">
+  <conditionalFormatting sqref="K39:V39 G46:V46 G39 B49:B52 K54:V54 G54 B55:B57 K58:V60 G58:G60 B61:B62 K63:V63 G63 G72 K66:V67 E61:V62 E49:V51 E40:V45 E52:G52 B25:B32 H23:V23 H2:V2 B3:V3 G65:G70 K69:V72 E19:V22 G18:V18 B4:B22 B64 E25:V32 G56:V57 E34:V38 B34:B46 E4:V17 E64:V64 C5:D5 C7:D7 C9:D9 C11:D11 C13:D13 C15:D15 C17:D17 C19:D19 C21:D21 C23:D23 C25:D25 C27:D27 C29:D29 C31:D31 C33:D33 C35:D35 C37:D37 C39:D39 C41:D41 C43:D43 C45:D45 C47:D47 C49:D49 C51:D51 C53:D53 C55:V55 C57:D57 C59:D59 C61:D61 C63:D63 C65:D65 C67:D67 C69:D69 C71:D71">
+    <cfRule type="expression" dxfId="78" priority="149">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50 J50:V50">
-    <cfRule type="expression" dxfId="75" priority="124">
+  <conditionalFormatting sqref="B54 J54:V54">
+    <cfRule type="expression" dxfId="77" priority="126">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58 J58:V58">
+    <cfRule type="expression" dxfId="76" priority="124">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60 J60:V60">
+    <cfRule type="expression" dxfId="75" priority="122">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63 J63:V63">
+    <cfRule type="expression" dxfId="74" priority="120">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59 J59:V59">
+    <cfRule type="expression" dxfId="73" priority="118">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66 J66:V66">
+    <cfRule type="expression" dxfId="72" priority="116">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67 J67:V67 E67:F67 H67">
+    <cfRule type="expression" dxfId="71" priority="114">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="70" priority="112">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="69" priority="109">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="68" priority="108">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66 H66">
+    <cfRule type="expression" dxfId="67" priority="107">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71 J71:V71">
+    <cfRule type="expression" dxfId="66" priority="105">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70 J70:V70 E70">
+    <cfRule type="expression" dxfId="65" priority="103">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:F71 H71">
+    <cfRule type="expression" dxfId="64" priority="101">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69 J69:V69">
+    <cfRule type="expression" dxfId="63" priority="99">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72 J72:V72 E72">
+    <cfRule type="expression" dxfId="62" priority="97">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="expression" dxfId="61" priority="89">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="expression" dxfId="60" priority="79">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58">
+    <cfRule type="expression" dxfId="59" priority="78">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="expression" dxfId="58" priority="77">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="expression" dxfId="57" priority="76">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59">
+    <cfRule type="expression" dxfId="56" priority="75">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="expression" dxfId="55" priority="74">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67">
+    <cfRule type="expression" dxfId="54" priority="73">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71">
+    <cfRule type="expression" dxfId="53" priority="72">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="expression" dxfId="52" priority="65">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="expression" dxfId="51" priority="64">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="expression" dxfId="50" priority="63">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="expression" dxfId="49" priority="62">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="expression" dxfId="48" priority="61">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="expression" dxfId="47" priority="60">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I70">
+    <cfRule type="expression" dxfId="46" priority="59">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="expression" dxfId="45" priority="58">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69">
+    <cfRule type="expression" dxfId="44" priority="57">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="expression" dxfId="43" priority="56">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72">
+    <cfRule type="expression" dxfId="42" priority="55">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63">
+    <cfRule type="expression" dxfId="41" priority="51">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66">
+    <cfRule type="expression" dxfId="40" priority="50">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70">
+    <cfRule type="expression" dxfId="39" priority="49">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="expression" dxfId="38" priority="45">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:F60">
+    <cfRule type="expression" dxfId="37" priority="44">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:F58">
+    <cfRule type="expression" dxfId="36" priority="43">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:F69">
+    <cfRule type="expression" dxfId="35" priority="42">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:B48 E47:V48">
+    <cfRule type="expression" dxfId="34" priority="41">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53:V53 G53">
+    <cfRule type="expression" dxfId="33" priority="39">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53 J53:V53">
-    <cfRule type="expression" dxfId="74" priority="122">
+    <cfRule type="expression" dxfId="32" priority="37">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55 J55:V55">
-    <cfRule type="expression" dxfId="73" priority="120">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58 J58:V58">
-    <cfRule type="expression" dxfId="72" priority="118">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54 J54:V54">
-    <cfRule type="expression" dxfId="71" priority="116">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61 J61:V61">
-    <cfRule type="expression" dxfId="70" priority="114">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62 J62:V62 E62:F62 H62">
-    <cfRule type="expression" dxfId="69" priority="112">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="68" priority="110">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="67" priority="107">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="66" priority="106">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61 H61">
-    <cfRule type="expression" dxfId="65" priority="105">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66 J66:V66">
-    <cfRule type="expression" dxfId="64" priority="103">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65 J65:V65 E65">
-    <cfRule type="expression" dxfId="63" priority="101">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:F66 H66">
-    <cfRule type="expression" dxfId="62" priority="99">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64 J64:V64">
-    <cfRule type="expression" dxfId="61" priority="97">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67 J67:V67 E67">
-    <cfRule type="expression" dxfId="60" priority="95">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="expression" dxfId="59" priority="87">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="58" priority="77">
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="31" priority="36">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="expression" dxfId="57" priority="76">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
-    <cfRule type="expression" dxfId="56" priority="75">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
-    <cfRule type="expression" dxfId="55" priority="74">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54">
-    <cfRule type="expression" dxfId="54" priority="73">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
-    <cfRule type="expression" dxfId="53" priority="72">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
-    <cfRule type="expression" dxfId="52" priority="71">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="expression" dxfId="51" priority="70">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="50" priority="63">
+    <cfRule type="expression" dxfId="30" priority="35">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="expression" dxfId="49" priority="62">
+    <cfRule type="expression" dxfId="29" priority="34">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="expression" dxfId="48" priority="61">
+  <conditionalFormatting sqref="F53">
+    <cfRule type="expression" dxfId="28" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="expression" dxfId="47" priority="60">
+  <conditionalFormatting sqref="K22:V23">
+    <cfRule type="expression" dxfId="27" priority="153">
+      <formula>K$1=#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22:V23">
+    <cfRule type="expression" dxfId="26" priority="32">
+      <formula>K$1=$H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:V52">
+    <cfRule type="expression" dxfId="25" priority="30">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="expression" dxfId="46" priority="59">
+  <conditionalFormatting sqref="J52:V52">
+    <cfRule type="expression" dxfId="24" priority="29">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52">
+    <cfRule type="expression" dxfId="23" priority="28">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="expression" dxfId="22" priority="27">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23 G23">
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:V24">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:V24">
+    <cfRule type="expression" dxfId="19" priority="22">
+      <formula>K$1=#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:V24">
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>K$1=$H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24 E24:G24">
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:F23">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:G2 C4:D4 C6:D6 C8:D8 C10:D10 C12:D12 C14:D14 C16:D16 C18:D18 C20:D20 C22:D22 C24:D24 C26:D26 C28:D28 C30:D30 C32:D32 C34:D34 C36:D36 C38:D38 C40:D40 C42:D42 C44:D44 C46:D46 C48:D48 C50:D50 C52:D52 C54:D54 C56:D56 C58:D58 C60:D60 C62:D62 C64:D64 C66:D66 C68:D68 C70:D70 C72:D72">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65 E65:F65">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65:V65">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>K$1=$H65</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65:V65">
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J65:V65">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="expression" dxfId="45" priority="58">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="expression" dxfId="44" priority="57">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="expression" dxfId="43" priority="56">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="expression" dxfId="42" priority="55">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="expression" dxfId="41" priority="54">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67">
-    <cfRule type="expression" dxfId="40" priority="53">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" dxfId="39" priority="49">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="expression" dxfId="38" priority="48">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F65">
-    <cfRule type="expression" dxfId="37" priority="47">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="expression" dxfId="36" priority="43">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55:F55">
-    <cfRule type="expression" dxfId="35" priority="42">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53:F53">
-    <cfRule type="expression" dxfId="34" priority="41">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:F64">
-    <cfRule type="expression" dxfId="33" priority="40">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43:B44 E43:V44">
-    <cfRule type="expression" dxfId="32" priority="39">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49:V49 G49">
-    <cfRule type="expression" dxfId="31" priority="37">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49 J49:V49">
-    <cfRule type="expression" dxfId="30" priority="35">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="29" priority="34">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="28" priority="33">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="expression" dxfId="27" priority="32">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="expression" dxfId="26" priority="31">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:V22">
-    <cfRule type="expression" dxfId="25" priority="151">
-      <formula>K$1=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:V22">
-    <cfRule type="expression" dxfId="24" priority="30">
-      <formula>K$1=$H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K48:V48">
-    <cfRule type="expression" dxfId="23" priority="28">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48:V48">
-    <cfRule type="expression" dxfId="22" priority="27">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
-    <cfRule type="expression" dxfId="21" priority="26">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="expression" dxfId="20" priority="25">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22 G22">
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23:V23">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23:V23">
-    <cfRule type="expression" dxfId="17" priority="20">
-      <formula>K$1=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23:V23">
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>K$1=$H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23 E23:G23">
-    <cfRule type="expression" dxfId="15" priority="17">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:F22">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G2 C4:D4 C6:D6 C10:D10 C14:D14 C18:D18 C22:D22 C26:D26 C30:D30 C34:D34 C38:D38 C42:D42 C46:D46 C50:D50 C54:D54 C58:D58 C62:D62 C66:D66 C8:D8 C12:D12 C16:D16 C20:D20 C24:D24 C28:D28 C32:D32 C36:D36 C40:D40 C44:D44 C48:D48 C52:D52 C56:D56 C60:D60 C64:D64">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60 E60:F60">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60:V60">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>K$1=$H60</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60:V60">
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J60:V60">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
+  <conditionalFormatting sqref="B68 E68:F68">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
-    <cfRule type="expression" dxfId="7" priority="8">
+  <conditionalFormatting sqref="K68:V68">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>K$1=$H68</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68:V68">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63 E63:F63">
-    <cfRule type="expression" dxfId="6" priority="7">
+  <conditionalFormatting sqref="J68:V68">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:V63">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>K$1=$H63</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K63:V63">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <conditionalFormatting sqref="H68">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J63:V63">
+  <conditionalFormatting sqref="I68">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
+  <conditionalFormatting sqref="E18:F18">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>MOD(ROW(),2)=1</formula>
+  <conditionalFormatting sqref="K33:V33">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>K$1=$H33</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:F17">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="B33 E33:V33">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7643,7 +7998,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A610C41-8320-6048-B83D-80FE8AA8568C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94286119-903C-FE45-99F4-88D2AACF153D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16900" yWindow="7800" windowWidth="23920" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="203">
   <si>
     <t>Name</t>
   </si>
@@ -1118,7 +1118,22 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="83">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2012,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4467,21 +4482,63 @@
         <v>195</v>
       </c>
       <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
+      <c r="H32" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="26">
+        <f>$I32+Sheet2!B$1/24</f>
+        <v>1.25</v>
+      </c>
+      <c r="L32" s="24">
+        <f>$I32+Sheet2!B$2/24</f>
+        <v>1.2083333333333335</v>
+      </c>
+      <c r="M32" s="24">
+        <f>$I32+Sheet2!B$3/24</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="N32" s="24">
+        <f>$I32+Sheet2!B$4/24</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="O32" s="24">
+        <f>$I32+Sheet2!B$5/24</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="P32" s="24">
+        <f>$I32+Sheet2!B$6/24</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="Q32" s="24">
+        <f>$I32+Sheet2!B$7/24</f>
+        <v>0.91666666666666674</v>
+      </c>
+      <c r="R32" s="24">
+        <f>$I32+Sheet2!B$8/24</f>
+        <v>0.875</v>
+      </c>
+      <c r="S32" s="24">
+        <f>$I32+Sheet2!B$9/24</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="T32" s="24">
+        <f>$I32+Sheet2!B$10/24</f>
+        <v>0.625</v>
+      </c>
+      <c r="U32" s="24">
+        <f>$I32+Sheet2!B$11/24</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="V32" s="24">
+        <f>$I32+Sheet2!B$12/24</f>
+        <v>0.54166666666666674</v>
+      </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="53"/>
@@ -4655,21 +4712,63 @@
         <v>191</v>
       </c>
       <c r="G35" s="36"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
+      <c r="H35" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="26">
+        <f>$I35+Sheet2!B$1/24</f>
+        <v>1.2916666666666667</v>
+      </c>
+      <c r="L35" s="24">
+        <f>$I35+Sheet2!B$2/24</f>
+        <v>1.25</v>
+      </c>
+      <c r="M35" s="24">
+        <f>$I35+Sheet2!B$3/24</f>
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="N35" s="24">
+        <f>$I35+Sheet2!B$4/24</f>
+        <v>1</v>
+      </c>
+      <c r="O35" s="24">
+        <f>$I35+Sheet2!B$5/24</f>
+        <v>1</v>
+      </c>
+      <c r="P35" s="24">
+        <f>$I35+Sheet2!B$6/24</f>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="24">
+        <f>$I35+Sheet2!B$7/24</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="R35" s="24">
+        <f>$I35+Sheet2!B$8/24</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="S35" s="24">
+        <f>$I35+Sheet2!B$9/24</f>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="T35" s="24">
+        <f>$I35+Sheet2!B$10/24</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U35" s="24">
+        <f>$I35+Sheet2!B$11/24</f>
+        <v>0.625</v>
+      </c>
+      <c r="V35" s="24">
+        <f>$I35+Sheet2!B$12/24</f>
+        <v>0.58333333333333326</v>
+      </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="55" t="s">
@@ -7583,407 +7682,417 @@
     <mergeCell ref="A10:A34"/>
     <mergeCell ref="A36:A75"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L8 K66:V67 K69:V72 K25:V32 K34:V64 K6:V21">
-    <cfRule type="expression" dxfId="80" priority="143">
+  <conditionalFormatting sqref="K2:L8 K66:V67 K69:V72 K25:V31 K6:V21 K34:V64">
+    <cfRule type="expression" dxfId="82" priority="145">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:V8">
-    <cfRule type="expression" dxfId="79" priority="145">
+    <cfRule type="expression" dxfId="81" priority="147">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:V39 G46:V46 G39 B49:B52 K54:V54 G54 B55:B57 K58:V60 G58:G60 B61:B62 K63:V63 G63 G72 K66:V67 E61:V62 E49:V51 E40:V45 E52:G52 B25:B32 H23:V23 H2:V2 B3:V3 G65:G70 K69:V72 E19:V22 G18:V18 B4:B22 B64 E25:V32 G56:V57 E34:V38 B34:B46 E4:V17 E64:V64 C5:D5 C7:D7 C9:D9 C11:D11 C13:D13 C15:D15 C17:D17 C19:D19 C21:D21 C23:D23 C25:D25 C27:D27 C29:D29 C31:D31 C33:D33 C35:D35 C37:D37 C39:D39 C41:D41 C43:D43 C45:D45 C47:D47 C49:D49 C51:D51 C53:D53 C55:V55 C57:D57 C59:D59 C61:D61 C63:D63 C65:D65 C67:D67 C69:D69 C71:D71">
-    <cfRule type="expression" dxfId="78" priority="149">
+  <conditionalFormatting sqref="K39:V39 G46:V46 G39 B49:B52 K54:V54 G54 B55:B57 K58:V60 G58:G60 B61:B62 K63:V63 G63 G72 K66:V67 E61:V62 E49:V51 E40:V45 E52:G52 B25:B32 H23:V23 H2:V2 B3:V3 G65:G70 K69:V72 E19:V22 G18:V18 B4:B22 B64 E25:V31 G56:V57 B34:B46 E4:V17 E64:V64 C5:D5 C7:D7 C9:D9 C11:D11 C13:D13 C15:D15 C17:D17 C19:D19 C21:D21 C23:D23 C25:D25 C27:D27 C29:D29 C31:D31 C33:D33 C35:D35 C37:D37 C39:D39 C41:D41 C43:D43 C45:D45 C47:D47 C49:D49 C51:D51 C53:D53 C55:V55 C57:D57 C59:D59 C61:D61 C63:D63 C65:D65 C67:D67 C69:D69 C71:D71 E34:V38 E32:G32">
+    <cfRule type="expression" dxfId="80" priority="151">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54 J54:V54">
-    <cfRule type="expression" dxfId="77" priority="126">
+    <cfRule type="expression" dxfId="79" priority="128">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58 J58:V58">
-    <cfRule type="expression" dxfId="76" priority="124">
+    <cfRule type="expression" dxfId="78" priority="126">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60 J60:V60">
-    <cfRule type="expression" dxfId="75" priority="122">
+    <cfRule type="expression" dxfId="77" priority="124">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63 J63:V63">
-    <cfRule type="expression" dxfId="74" priority="120">
+    <cfRule type="expression" dxfId="76" priority="122">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59 J59:V59">
-    <cfRule type="expression" dxfId="73" priority="118">
+    <cfRule type="expression" dxfId="75" priority="120">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66 J66:V66">
-    <cfRule type="expression" dxfId="72" priority="116">
+    <cfRule type="expression" dxfId="74" priority="118">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67 J67:V67 E67:F67 H67">
-    <cfRule type="expression" dxfId="71" priority="114">
+    <cfRule type="expression" dxfId="73" priority="116">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="70" priority="112">
+    <cfRule type="expression" dxfId="72" priority="114">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="71" priority="111">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="70" priority="110">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66 H66">
     <cfRule type="expression" dxfId="69" priority="109">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="68" priority="108">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66 H66">
-    <cfRule type="expression" dxfId="67" priority="107">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B71 J71:V71">
-    <cfRule type="expression" dxfId="66" priority="105">
+    <cfRule type="expression" dxfId="68" priority="107">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70 J70:V70 E70">
-    <cfRule type="expression" dxfId="65" priority="103">
+    <cfRule type="expression" dxfId="67" priority="105">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71:F71 H71">
-    <cfRule type="expression" dxfId="64" priority="101">
+    <cfRule type="expression" dxfId="66" priority="103">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69 J69:V69">
-    <cfRule type="expression" dxfId="63" priority="99">
+    <cfRule type="expression" dxfId="65" priority="101">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72 J72:V72 E72">
-    <cfRule type="expression" dxfId="62" priority="97">
+    <cfRule type="expression" dxfId="64" priority="99">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="expression" dxfId="61" priority="89">
+    <cfRule type="expression" dxfId="63" priority="91">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
+    <cfRule type="expression" dxfId="62" priority="81">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58">
+    <cfRule type="expression" dxfId="61" priority="80">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
     <cfRule type="expression" dxfId="60" priority="79">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
+  <conditionalFormatting sqref="I63">
     <cfRule type="expression" dxfId="59" priority="78">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
+  <conditionalFormatting sqref="I59">
     <cfRule type="expression" dxfId="58" priority="77">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
+  <conditionalFormatting sqref="I66">
     <cfRule type="expression" dxfId="57" priority="76">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
+  <conditionalFormatting sqref="I67">
     <cfRule type="expression" dxfId="56" priority="75">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
+  <conditionalFormatting sqref="I71">
     <cfRule type="expression" dxfId="55" priority="74">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67">
-    <cfRule type="expression" dxfId="54" priority="73">
+  <conditionalFormatting sqref="H54">
+    <cfRule type="expression" dxfId="54" priority="67">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="expression" dxfId="53" priority="72">
+  <conditionalFormatting sqref="H58">
+    <cfRule type="expression" dxfId="53" priority="66">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
+  <conditionalFormatting sqref="H60">
     <cfRule type="expression" dxfId="52" priority="65">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
+  <conditionalFormatting sqref="H63">
     <cfRule type="expression" dxfId="51" priority="64">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
+  <conditionalFormatting sqref="H59">
     <cfRule type="expression" dxfId="50" priority="63">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
+  <conditionalFormatting sqref="H70">
     <cfRule type="expression" dxfId="49" priority="62">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="I70">
     <cfRule type="expression" dxfId="48" priority="61">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
+  <conditionalFormatting sqref="H69">
     <cfRule type="expression" dxfId="47" priority="60">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
+  <conditionalFormatting sqref="I69">
     <cfRule type="expression" dxfId="46" priority="59">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
+  <conditionalFormatting sqref="H72">
     <cfRule type="expression" dxfId="45" priority="58">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
+  <conditionalFormatting sqref="I72">
     <cfRule type="expression" dxfId="44" priority="57">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="expression" dxfId="43" priority="56">
+  <conditionalFormatting sqref="F63">
+    <cfRule type="expression" dxfId="43" priority="53">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
-    <cfRule type="expression" dxfId="42" priority="55">
+  <conditionalFormatting sqref="F66">
+    <cfRule type="expression" dxfId="42" priority="52">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
+  <conditionalFormatting sqref="F70">
     <cfRule type="expression" dxfId="41" priority="51">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="expression" dxfId="40" priority="50">
+  <conditionalFormatting sqref="F54">
+    <cfRule type="expression" dxfId="40" priority="47">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="expression" dxfId="39" priority="49">
+  <conditionalFormatting sqref="E60:F60">
+    <cfRule type="expression" dxfId="39" priority="46">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
+  <conditionalFormatting sqref="E58:F58">
     <cfRule type="expression" dxfId="38" priority="45">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60:F60">
+  <conditionalFormatting sqref="E69:F69">
     <cfRule type="expression" dxfId="37" priority="44">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58:F58">
+  <conditionalFormatting sqref="B47:B48 E47:V48">
     <cfRule type="expression" dxfId="36" priority="43">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69:F69">
-    <cfRule type="expression" dxfId="35" priority="42">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47:B48 E47:V48">
-    <cfRule type="expression" dxfId="34" priority="41">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K53:V53 G53">
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="35" priority="41">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53 J53:V53">
+    <cfRule type="expression" dxfId="34" priority="39">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="33" priority="38">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
     <cfRule type="expression" dxfId="32" priority="37">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="H53">
     <cfRule type="expression" dxfId="31" priority="36">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
+  <conditionalFormatting sqref="F53">
     <cfRule type="expression" dxfId="30" priority="35">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="expression" dxfId="29" priority="34">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="expression" dxfId="28" priority="33">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K22:V23">
-    <cfRule type="expression" dxfId="27" priority="153">
+    <cfRule type="expression" dxfId="29" priority="155">
       <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:V23">
-    <cfRule type="expression" dxfId="26" priority="32">
+    <cfRule type="expression" dxfId="28" priority="34">
       <formula>K$1=$H22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52:V52">
+    <cfRule type="expression" dxfId="27" priority="32">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:V52">
+    <cfRule type="expression" dxfId="26" priority="31">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52">
     <cfRule type="expression" dxfId="25" priority="30">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52:V52">
+  <conditionalFormatting sqref="H52">
     <cfRule type="expression" dxfId="24" priority="29">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
-    <cfRule type="expression" dxfId="23" priority="28">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="expression" dxfId="22" priority="27">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B23 G23">
-    <cfRule type="expression" dxfId="21" priority="23">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:V24">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:V24">
-    <cfRule type="expression" dxfId="19" priority="22">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:V24">
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>K$1=$H24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24 E24:G24">
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:F23">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:G2 C4:D4 C6:D6 C8:D8 C10:D10 C12:D12 C14:D14 C16:D16 C18:D18 C20:D20 C22:D22 C24:D24 C26:D26 C28:D28 C30:D30 C32:D32 C34:D34 C36:D36 C38:D38 C40:D40 C42:D42 C44:D44 C46:D46 C48:D48 C50:D50 C52:D52 C54:D54 C56:D56 C58:D58 C60:D60 C62:D62 C64:D64 C66:D66 C68:D68 C70:D70 C72:D72">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65 E65:F65">
     <cfRule type="expression" dxfId="16" priority="17">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G2 C4:D4 C6:D6 C8:D8 C10:D10 C12:D12 C14:D14 C16:D16 C18:D18 C20:D20 C22:D22 C24:D24 C26:D26 C28:D28 C30:D30 C32:D32 C34:D34 C36:D36 C38:D38 C40:D40 C42:D42 C44:D44 C46:D46 C48:D48 C50:D50 C52:D52 C54:D54 C56:D56 C58:D58 C60:D60 C62:D62 C64:D64 C66:D66 C68:D68 C70:D70 C72:D72">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65 E65:F65">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K65:V65">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>K$1=$H65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K65:V65">
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J65:V65">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65">
     <cfRule type="expression" dxfId="11" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
+  <conditionalFormatting sqref="B68 E68:F68">
     <cfRule type="expression" dxfId="10" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68 E68:F68">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K68:V68">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>K$1=$H68</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68:V68">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:V68">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68">
     <cfRule type="expression" dxfId="5" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="E18:F18">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:F18">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K33:V33">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>K$1=$H33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33 E33:V33">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:V32">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>K$1=$H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:V32">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02738E77-B2F2-E642-B4CE-43727CE56E45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800F73B9-6512-AB4E-AE3B-ED118C47F080}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="460" windowWidth="25720" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20200" yWindow="1560" windowWidth="25720" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -1177,7 +1177,36 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="257">
+  <dxfs count="261">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3309,8 +3338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3388,7 +3417,7 @@
         <v>CET</v>
       </c>
       <c r="R1" s="3" t="str">
-        <f>H37</f>
+        <f>H36</f>
         <v>GMT</v>
       </c>
       <c r="S1" s="3" t="str">
@@ -5714,100 +5743,100 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="50"/>
       <c r="B32" s="18" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="C32" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D32" s="7">
-        <v>30</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>71</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E32" s="20"/>
       <c r="F32" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>124</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G32" s="29"/>
       <c r="H32" s="29" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I32" s="23">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J32" s="30" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="J32" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="25">
         <f>$I32+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L32" s="23">
         <f>$I32+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.125</v>
       </c>
       <c r="M32" s="23">
         <f>$I32+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N32" s="23">
         <f>$I32+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="O32" s="23">
         <f>$I32+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="P32" s="23">
         <f>$I32+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="Q32" s="23">
         <f>$I32+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R32" s="23">
         <f>$I32+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S32" s="23">
         <f>$I32+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T32" s="23">
         <f>$I32+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U32" s="23">
         <f>$I32+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="V32" s="23">
         <f>$I32+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="50"/>
       <c r="B33" s="18" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="C33" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" s="7">
-        <v>31</v>
-      </c>
-      <c r="E33" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="F33" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G33" s="29"/>
+        <v>116</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>131</v>
+      </c>
       <c r="H33" s="29" t="s">
         <v>217</v>
       </c>
@@ -5869,22 +5898,22 @@
     <row r="34" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="50"/>
       <c r="B34" s="18" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D34" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="H34" s="29" t="s">
         <v>217</v>
@@ -5946,23 +5975,23 @@
     </row>
     <row r="35" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="50"/>
-      <c r="B35" s="18" t="s">
-        <v>53</v>
+      <c r="B35" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="C35" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" s="7">
-        <v>33</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>146</v>
+        <v>34</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="H35" s="29" t="s">
         <v>217</v>
@@ -5970,77 +5999,77 @@
       <c r="I35" s="23">
         <v>0.75</v>
       </c>
-      <c r="J35" s="26" t="s">
+      <c r="J35" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="K35" s="25">
+      <c r="K35" s="31">
         <f>$I35+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L35" s="23">
+      <c r="L35" s="16">
         <f>$I35+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="M35" s="23">
+      <c r="M35" s="16">
         <f>$I35+Sheet2!B$3/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="N35" s="23">
+      <c r="N35" s="16">
         <f>$I35+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="O35" s="23">
+      <c r="O35" s="16">
         <f>$I35+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="P35" s="23">
+      <c r="P35" s="16">
         <f>$I35+Sheet2!B$6/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q35" s="23">
+      <c r="Q35" s="16">
         <f>$I35+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R35" s="23">
+      <c r="R35" s="16">
         <f>$I35+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="S35" s="23">
+      <c r="S35" s="16">
         <f>$I35+Sheet2!B$9/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="T35" s="23">
+      <c r="T35" s="16">
         <f>$I35+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U35" s="23">
+      <c r="U35" s="16">
         <f>$I35+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="V35" s="23">
+      <c r="V35" s="16">
         <f>$I35+Sheet2!B$12/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="50"/>
-      <c r="B36" s="12" t="s">
-        <v>51</v>
+      <c r="B36" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="C36" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" s="7">
-        <v>34</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>147</v>
+        <v>35</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>148</v>
       </c>
       <c r="H36" s="29" t="s">
         <v>217</v>
@@ -6048,77 +6077,77 @@
       <c r="I36" s="23">
         <v>0.75</v>
       </c>
-      <c r="J36" s="28" t="s">
+      <c r="J36" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K36" s="31">
+      <c r="K36" s="25">
         <f>$I36+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L36" s="23">
         <f>$I36+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="M36" s="16">
+      <c r="M36" s="23">
         <f>$I36+Sheet2!B$3/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="N36" s="16">
+      <c r="N36" s="23">
         <f>$I36+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="O36" s="16">
+      <c r="O36" s="23">
         <f>$I36+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="P36" s="16">
+      <c r="P36" s="23">
         <f>$I36+Sheet2!B$6/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q36" s="16">
+      <c r="Q36" s="23">
         <f>$I36+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R36" s="16">
+      <c r="R36" s="23">
         <f>$I36+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="S36" s="16">
+      <c r="S36" s="23">
         <f>$I36+Sheet2!B$9/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="T36" s="16">
+      <c r="T36" s="23">
         <f>$I36+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U36" s="16">
+      <c r="U36" s="23">
         <f>$I36+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="V36" s="16">
+      <c r="V36" s="23">
         <f>$I36+Sheet2!B$12/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="50"/>
-      <c r="B37" s="32" t="s">
-        <v>82</v>
+      <c r="B37" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="C37" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>148</v>
+        <v>89</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>149</v>
       </c>
       <c r="H37" s="29" t="s">
         <v>217</v>
@@ -6181,171 +6210,171 @@
     <row r="38" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="50"/>
       <c r="B38" s="18" t="s">
-        <v>52</v>
+        <v>218</v>
       </c>
       <c r="C38" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D38" s="7">
-        <v>36</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>28</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E38" s="20"/>
       <c r="F38" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>149</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G38" s="29"/>
       <c r="H38" s="29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I38" s="23">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="J38" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K38" s="25">
         <f>$I38+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="L38" s="23">
         <f>$I38+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="M38" s="23">
         <f>$I38+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.125</v>
       </c>
       <c r="N38" s="23">
         <f>$I38+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O38" s="23">
         <f>$I38+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="P38" s="23">
         <f>$I38+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="Q38" s="23">
         <f>$I38+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="R38" s="23">
         <f>$I38+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="S38" s="23">
         <f>$I38+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="T38" s="23">
         <f>$I38+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="U38" s="23">
         <f>$I38+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="V38" s="23">
         <f>$I38+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="50"/>
       <c r="B39" s="18" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C39" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D39" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="7" t="s">
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="G39" s="29"/>
       <c r="H39" s="29" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I39" s="23">
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J39" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K39" s="25">
         <f>$I39+Sheet2!B$1/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="L39" s="23">
         <f>$I39+Sheet2!B$2/24</f>
-        <v>1.1666666666666665</v>
+        <v>1.2083333333333335</v>
       </c>
       <c r="M39" s="23">
         <f>$I39+Sheet2!B$3/24</f>
-        <v>1.125</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="N39" s="23">
         <f>$I39+Sheet2!B$4/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="O39" s="23">
         <f>$I39+Sheet2!B$5/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="P39" s="23">
         <f>$I39+Sheet2!B$6/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="Q39" s="23">
         <f>$I39+Sheet2!B$7/24</f>
-        <v>0.875</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="R39" s="23">
         <f>$I39+Sheet2!B$8/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.875</v>
       </c>
       <c r="S39" s="23">
         <f>$I39+Sheet2!B$9/24</f>
-        <v>0.625</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="T39" s="23">
         <f>$I39+Sheet2!B$10/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.625</v>
       </c>
       <c r="U39" s="23">
         <f>$I39+Sheet2!B$11/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="V39" s="23">
         <f>$I39+Sheet2!B$12/24</f>
-        <v>0.49999999999999994</v>
+        <v>0.54166666666666674</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="50"/>
       <c r="B40" s="18" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="C40" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D40" s="7">
-        <v>38</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G40" s="29"/>
+        <v>39</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>189</v>
+      </c>
       <c r="H40" s="29" t="s">
         <v>222</v>
       </c>
@@ -6407,22 +6436,22 @@
     <row r="41" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="50"/>
       <c r="B41" s="18" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="C41" s="7">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D41" s="7">
-        <v>39</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>74</v>
+        <v>30</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G41" s="34" t="s">
-        <v>189</v>
+        <v>72</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="H41" s="29" t="s">
         <v>222</v>
@@ -9879,11 +9908,11 @@
     <sortCondition ref="D2:D70"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
+      <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
-      <selection sqref="A1:XFD1048576"/>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -9891,1287 +9920,1297 @@
     <mergeCell ref="A24:A47"/>
     <mergeCell ref="A48:A84"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L3 L10:V10 K11:L14 K5:L8 L9 K13:V16 L17:V17 K18:V85">
-    <cfRule type="expression" dxfId="256" priority="579">
+  <conditionalFormatting sqref="K2:L3 L10:V10 K11:L14 K5:L8 L9 K13:V16 L17:V17 K18:V40 K42:V85 L41:V41">
+    <cfRule type="expression" dxfId="260" priority="583">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:V3 K5:V8 K11:V15 L9:V10 K16 K22:V22 K18:V19 K20:K21 K23:K32">
-    <cfRule type="expression" dxfId="255" priority="581">
+  <conditionalFormatting sqref="K2:V3 K5:V8 K11:V15 L9:V10 K16 K22:V22 K18:V19 K20:K21 K23:K31">
+    <cfRule type="expression" dxfId="259" priority="585">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:V50 G50 G61 B62:B64 G71 G85 E59:G59 G29 B72 E72:G72 E62:G62 B3 E3:H3 H7 E16:G17 J18:V18 L10:V10 E20:G21 L20:V21 E22:H22 E30:G31 J22:V22 B33:B38 E33:H33 J33:V37 E42:G42 K42:V42 B42:B45 E47:G47 J47:V47 G63:G67 B68:B70 E68:G70 K57:V57 L61:V72 K74:V74 K83:V83 G73:G77 G83 K76:V77 K79:V80 K85:V85 L38:V38 E34:G38 E51:H51 J51:V51 E48:V49 G56:V56 H2 J2:V3 E43:H45 J43:V45 E58:V58 C57:G57 B80:G80 B11:B14 E11:H14 J11:V14 B20:B31 E24:G28 L23:V32 C23:G23 J80:V80 C6:D6 B5:G5 B16:B18 E18:H18 C19:D19 B9:G10 E53:V55 B47:B59 C52:V52 B17:G17 L16:V17">
-    <cfRule type="expression" dxfId="254" priority="585">
+  <conditionalFormatting sqref="K50:V50 G50 G61 B62:B64 G71 G85 E59:G59 G29 B72 E72:G72 E62:G62 B3 E3:H3 H7 E16:G17 J18:V18 L10:V10 E20:G21 L20:V21 E22:H22 E30:G31 J22:V22 E32:H32 J32:V36 E42:G42 K42:V42 B42:B45 E47:G47 J47:V47 G63:G67 B68:B70 E68:G70 K57:V57 L61:V72 K74:V74 K83:V83 G73:G77 G83 K76:V77 K79:V80 K85:V85 L37:V37 E33:G37 E51:H51 J51:V51 E48:V49 G56:V56 H2 J2:V3 E43:H45 J43:V45 E58:V58 C57:G57 B80:G80 B11:B14 E11:H14 J11:V14 B20:B37 E24:G28 C23:G23 J80:V80 C6:D6 B5:G5 B16:B18 E18:H18 C19:D19 B9:G10 E53:V55 B47:B59 C52:V52 B17:G17 L16:V17 L23:V31 L41:V41">
+    <cfRule type="expression" dxfId="258" priority="589">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61 L61:V61">
-    <cfRule type="expression" dxfId="253" priority="562">
+    <cfRule type="expression" dxfId="257" priority="566">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65 L65:V65">
-    <cfRule type="expression" dxfId="252" priority="560">
+    <cfRule type="expression" dxfId="256" priority="564">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67 L67:V67">
-    <cfRule type="expression" dxfId="251" priority="558">
+    <cfRule type="expression" dxfId="255" priority="562">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71 L71:V71">
-    <cfRule type="expression" dxfId="250" priority="556">
+    <cfRule type="expression" dxfId="254" priority="560">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66 L66:V66">
-    <cfRule type="expression" dxfId="249" priority="554">
+    <cfRule type="expression" dxfId="253" priority="558">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74 K74:V74">
-    <cfRule type="expression" dxfId="248" priority="552">
+    <cfRule type="expression" dxfId="252" priority="556">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83 K83:V83 E83:F83">
-    <cfRule type="expression" dxfId="247" priority="550">
+    <cfRule type="expression" dxfId="251" priority="554">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="246" priority="548">
+    <cfRule type="expression" dxfId="250" priority="552">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="245" priority="545">
+    <cfRule type="expression" dxfId="249" priority="549">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="244" priority="544">
+    <cfRule type="expression" dxfId="248" priority="548">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="243" priority="543">
+    <cfRule type="expression" dxfId="247" priority="547">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:B80 J79:V80">
-    <cfRule type="expression" dxfId="242" priority="541">
+    <cfRule type="expression" dxfId="246" priority="545">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77 J77:V77 E77">
-    <cfRule type="expression" dxfId="241" priority="539">
+    <cfRule type="expression" dxfId="245" priority="543">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:F80">
-    <cfRule type="expression" dxfId="240" priority="537">
+    <cfRule type="expression" dxfId="244" priority="541">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76 J76:V76">
-    <cfRule type="expression" dxfId="239" priority="535">
+    <cfRule type="expression" dxfId="243" priority="539">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85 J85:V85 E85">
-    <cfRule type="expression" dxfId="238" priority="533">
+    <cfRule type="expression" dxfId="242" priority="537">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="expression" dxfId="237" priority="525">
+    <cfRule type="expression" dxfId="241" priority="529">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:V59">
-    <cfRule type="expression" dxfId="236" priority="465">
+    <cfRule type="expression" dxfId="240" priority="469">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="expression" dxfId="235" priority="486">
+    <cfRule type="expression" dxfId="239" priority="490">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="expression" dxfId="234" priority="487">
+    <cfRule type="expression" dxfId="238" priority="491">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73 E73:F73">
-    <cfRule type="expression" dxfId="233" priority="451">
+    <cfRule type="expression" dxfId="237" priority="455">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="232" priority="472">
+    <cfRule type="expression" dxfId="236" priority="476">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65:F65">
-    <cfRule type="expression" dxfId="231" priority="479">
+    <cfRule type="expression" dxfId="235" priority="483">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60 L60:V60">
-    <cfRule type="expression" dxfId="230" priority="473">
+    <cfRule type="expression" dxfId="234" priority="477">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="expression" dxfId="229" priority="485">
+    <cfRule type="expression" dxfId="233" priority="489">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="expression" dxfId="228" priority="481">
+    <cfRule type="expression" dxfId="232" priority="485">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67:F67">
-    <cfRule type="expression" dxfId="227" priority="480">
+    <cfRule type="expression" dxfId="231" priority="484">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76:F76">
-    <cfRule type="expression" dxfId="226" priority="478">
+    <cfRule type="expression" dxfId="230" priority="482">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L60:V60 G60">
-    <cfRule type="expression" dxfId="225" priority="475">
+    <cfRule type="expression" dxfId="229" priority="479">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:V7">
-    <cfRule type="expression" dxfId="224" priority="420">
+    <cfRule type="expression" dxfId="228" priority="424">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="expression" dxfId="223" priority="469">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45:V45 L32:V32">
-    <cfRule type="expression" dxfId="222" priority="589">
+    <cfRule type="expression" dxfId="227" priority="473">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:V45 L41:V41">
+    <cfRule type="expression" dxfId="226" priority="593">
       <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:V59">
-    <cfRule type="expression" dxfId="221" priority="466">
+    <cfRule type="expression" dxfId="225" priority="470">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:V10">
-    <cfRule type="expression" dxfId="220" priority="411">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32 G32">
-    <cfRule type="expression" dxfId="219" priority="459">
+    <cfRule type="expression" dxfId="224" priority="415">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41 G41">
+    <cfRule type="expression" dxfId="223" priority="463">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H14 J13:V14">
-    <cfRule type="expression" dxfId="218" priority="457">
+    <cfRule type="expression" dxfId="222" priority="461">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:V14">
-    <cfRule type="expression" dxfId="217" priority="458">
+    <cfRule type="expression" dxfId="221" priority="462">
       <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B14 E13:G14">
-    <cfRule type="expression" dxfId="216" priority="455">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32:F32">
-    <cfRule type="expression" dxfId="215" priority="453">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G3 B7 E7:G7 C8:D13 C15:D17 C21:D22 C24:D25 C27:D28 C30:D31 C33:D35 C37:D38 C66:D67 C40:D41 C69:D70 C43:D44 C72:D73 C46:D47 C75:D76 C49:D50 C78:D80 C82:D83 C54:D55 C85:D85 C59:D60 C62:D64">
-    <cfRule type="expression" dxfId="214" priority="452">
+    <cfRule type="expression" dxfId="220" priority="459">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41:F41">
+    <cfRule type="expression" dxfId="219" priority="457">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:G3 B7 E7:G7 C8:D13 C15:D17 C21:D22 C24:D25 C27:D28 C30:D34 C36:D37 C66:D67 C39:D41 C69:D70 C43:D44 C72:D73 C46:D47 C75:D76 C49:D50 C78:D80 C82:D83 C54:D55 C85:D85 C59:D60 C62:D64">
+    <cfRule type="expression" dxfId="218" priority="456">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K73:V73">
-    <cfRule type="expression" dxfId="213" priority="450">
+    <cfRule type="expression" dxfId="217" priority="454">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73:V73">
+    <cfRule type="expression" dxfId="216" priority="452">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="expression" dxfId="215" priority="451">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75:V75">
+    <cfRule type="expression" dxfId="214" priority="446">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75 E75:F75">
+    <cfRule type="expression" dxfId="213" priority="449">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K75:V75">
     <cfRule type="expression" dxfId="212" priority="448">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="expression" dxfId="211" priority="447">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J75:V75">
-    <cfRule type="expression" dxfId="210" priority="442">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75 E75:F75">
-    <cfRule type="expression" dxfId="209" priority="445">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K75:V75">
-    <cfRule type="expression" dxfId="208" priority="444">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="expression" dxfId="207" priority="441">
+    <cfRule type="expression" dxfId="211" priority="445">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="206" priority="434">
+    <cfRule type="expression" dxfId="210" priority="438">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="expression" dxfId="205" priority="439">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41 E41:G41 L41:V41">
-    <cfRule type="expression" dxfId="204" priority="438">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:G4 C7:D7 C14:D14 C18:D18 C20:D20 C26:D26 C29:D29 C32:D32 C36:D36 C65:D65 C39:D39 C68:D68 C42:D42 C71:D71 C45:D45 C74:D74 C48:D48 C77:D77 C51:D51 C81:D81 C53:D53 C84:D84 C56:D56 C58:D58 C61:D61">
-    <cfRule type="expression" dxfId="203" priority="433">
+    <cfRule type="expression" dxfId="209" priority="443">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:B41 E40:E41 L40:V41 G40:G41">
+    <cfRule type="expression" dxfId="208" priority="442">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:G4 C7:D7 C14:D14 C18:D18 C20:D20 C26:D26 C29:D29 C35:D35 C65:D65 C38:D38 C68:D68 C41:D42 C71:D71 C45:D45 C74:D74 C48:D48 C77:D77 C51:D51 C81:D81 C53:D53 C84:D84 C56:D56 C58:D58 C61:D61">
+    <cfRule type="expression" dxfId="207" priority="437">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="202" priority="432">
+    <cfRule type="expression" dxfId="206" priority="436">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 E6:H6 J6:V6">
-    <cfRule type="expression" dxfId="201" priority="430">
+    <cfRule type="expression" dxfId="205" priority="434">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:V5">
-    <cfRule type="expression" dxfId="200" priority="427">
+    <cfRule type="expression" dxfId="204" priority="431">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="expression" dxfId="199" priority="422">
+    <cfRule type="expression" dxfId="203" priority="426">
       <formula>K$1=$H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:V4">
-    <cfRule type="expression" dxfId="198" priority="423">
+    <cfRule type="expression" dxfId="202" priority="427">
       <formula>K$1=$I4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:V4">
-    <cfRule type="expression" dxfId="197" priority="424">
+    <cfRule type="expression" dxfId="201" priority="428">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="196" priority="417">
+    <cfRule type="expression" dxfId="200" priority="421">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 E8:G10">
-    <cfRule type="expression" dxfId="195" priority="416">
+    <cfRule type="expression" dxfId="199" priority="420">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:K8">
-    <cfRule type="expression" dxfId="194" priority="414">
+    <cfRule type="expression" dxfId="198" priority="418">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15 E15:H15 J15:V15">
-    <cfRule type="expression" dxfId="193" priority="406">
+    <cfRule type="expression" dxfId="197" priority="410">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15 J15:V15">
+    <cfRule type="expression" dxfId="196" priority="407">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:V15">
+    <cfRule type="expression" dxfId="195" priority="408">
+      <formula>K$1=#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 E15:G15">
+    <cfRule type="expression" dxfId="194" priority="406">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65">
+    <cfRule type="expression" dxfId="193" priority="264">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16 J16:K16">
     <cfRule type="expression" dxfId="192" priority="403">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:V15">
-    <cfRule type="expression" dxfId="191" priority="404">
+  <conditionalFormatting sqref="H16 J16:K16">
+    <cfRule type="expression" dxfId="191" priority="400">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="expression" dxfId="190" priority="401">
       <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15 E15:G15">
-    <cfRule type="expression" dxfId="190" priority="402">
+  <conditionalFormatting sqref="H42 J42">
+    <cfRule type="expression" dxfId="189" priority="301">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19 E19:H19 J19:V19">
+    <cfRule type="expression" dxfId="188" priority="396">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68">
+    <cfRule type="expression" dxfId="187" priority="252">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26 J26:K26">
+    <cfRule type="expression" dxfId="186" priority="358">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57 J57">
+    <cfRule type="expression" dxfId="185" priority="291">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59:J59">
+    <cfRule type="expression" dxfId="184" priority="290">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20 J20:K20">
+    <cfRule type="expression" dxfId="183" priority="385">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21 J21:K21">
+    <cfRule type="expression" dxfId="182" priority="380">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60">
+    <cfRule type="expression" dxfId="181" priority="285">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60">
+    <cfRule type="expression" dxfId="180" priority="284">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23 J23:K23">
+    <cfRule type="expression" dxfId="179" priority="373">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61">
+    <cfRule type="expression" dxfId="178" priority="281">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24 J24:K24">
+    <cfRule type="expression" dxfId="177" priority="368">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61 J61">
+    <cfRule type="expression" dxfId="176" priority="279">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25 J25:K25">
+    <cfRule type="expression" dxfId="175" priority="363">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62">
+    <cfRule type="expression" dxfId="174" priority="276">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62 J62">
+    <cfRule type="expression" dxfId="173" priority="275">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63">
+    <cfRule type="expression" dxfId="172" priority="273">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63">
+    <cfRule type="expression" dxfId="171" priority="272">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27 J27:K27">
+    <cfRule type="expression" dxfId="170" priority="353">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64">
+    <cfRule type="expression" dxfId="169" priority="269">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28 J28:K28">
+    <cfRule type="expression" dxfId="168" priority="348">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64 J64">
+    <cfRule type="expression" dxfId="167" priority="267">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29 J29:K29">
+    <cfRule type="expression" dxfId="166" priority="343">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65 J65">
+    <cfRule type="expression" dxfId="165" priority="263">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30 J30:K30">
+    <cfRule type="expression" dxfId="164" priority="338">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66">
+    <cfRule type="expression" dxfId="163" priority="261">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66">
+    <cfRule type="expression" dxfId="162" priority="260">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31 J31:K31">
+    <cfRule type="expression" dxfId="161" priority="333">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67">
+    <cfRule type="expression" dxfId="160" priority="257">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67 J67">
+    <cfRule type="expression" dxfId="158" priority="255">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="expression" dxfId="157" priority="321">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68">
+    <cfRule type="expression" dxfId="156" priority="253">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="expression" dxfId="155" priority="318">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="expression" dxfId="154" priority="315">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68 J68">
+    <cfRule type="expression" dxfId="153" priority="251">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="expression" dxfId="152" priority="312">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38 J38:V38 E38:H38">
+    <cfRule type="expression" dxfId="151" priority="309">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39:V39 L40:V41 B39:B41 E40:E41 E39:H39 G40:G41">
+    <cfRule type="expression" dxfId="150" priority="305">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70">
+    <cfRule type="expression" dxfId="149" priority="249">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70">
+    <cfRule type="expression" dxfId="148" priority="248">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:G46 B46">
+    <cfRule type="expression" dxfId="147" priority="298">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I78">
+    <cfRule type="expression" dxfId="146" priority="155">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46 J46:V46">
+    <cfRule type="expression" dxfId="145" priority="295">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="expression" dxfId="144" priority="294">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50 J50">
+    <cfRule type="expression" dxfId="143" priority="293">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K72">
+    <cfRule type="expression" dxfId="142" priority="241">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K71">
+    <cfRule type="expression" dxfId="141" priority="244">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70 J70">
+    <cfRule type="expression" dxfId="140" priority="247">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60 J60">
+    <cfRule type="expression" dxfId="139" priority="283">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61">
+    <cfRule type="expression" dxfId="138" priority="280">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62">
+    <cfRule type="expression" dxfId="137" priority="277">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63 J63">
+    <cfRule type="expression" dxfId="136" priority="271">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64">
+    <cfRule type="expression" dxfId="135" priority="268">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K65">
-    <cfRule type="expression" dxfId="189" priority="260">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16 J16:K16">
-    <cfRule type="expression" dxfId="188" priority="399">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16 J16:K16">
-    <cfRule type="expression" dxfId="187" priority="396">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="186" priority="397">
+    <cfRule type="expression" dxfId="134" priority="265">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66 J66">
+    <cfRule type="expression" dxfId="133" priority="259">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67">
+    <cfRule type="expression" dxfId="132" priority="256">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K71">
+    <cfRule type="expression" dxfId="131" priority="245">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71 J71">
+    <cfRule type="expression" dxfId="130" priority="243">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K72">
+    <cfRule type="expression" dxfId="129" priority="240">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72 J72">
+    <cfRule type="expression" dxfId="128" priority="239">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69">
+    <cfRule type="expression" dxfId="127" priority="237">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69">
+    <cfRule type="expression" dxfId="126" priority="236">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69 J69">
+    <cfRule type="expression" dxfId="125" priority="235">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74">
+    <cfRule type="expression" dxfId="124" priority="233">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="expression" dxfId="123" priority="232">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
+    <cfRule type="expression" dxfId="122" priority="230">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J78:V78">
+    <cfRule type="expression" dxfId="121" priority="225">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78 E78:F78">
+    <cfRule type="expression" dxfId="120" priority="227">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K78:V78">
+    <cfRule type="expression" dxfId="119" priority="226">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="expression" dxfId="118" priority="224">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="expression" dxfId="117" priority="221">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="expression" dxfId="116" priority="219">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G81">
+    <cfRule type="expression" dxfId="115" priority="216">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="114" priority="73">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J81:V81">
+    <cfRule type="expression" dxfId="113" priority="211">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81 E81:F81">
+    <cfRule type="expression" dxfId="112" priority="213">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K81:V81">
+    <cfRule type="expression" dxfId="111" priority="212">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="expression" dxfId="110" priority="210">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="expression" dxfId="109" priority="208">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="expression" dxfId="108" priority="206">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="107" priority="63">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J82:V82">
+    <cfRule type="expression" dxfId="106" priority="201">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82 E82:F82">
+    <cfRule type="expression" dxfId="105" priority="203">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K82:V82">
+    <cfRule type="expression" dxfId="104" priority="202">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="expression" dxfId="103" priority="200">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83">
+    <cfRule type="expression" dxfId="102" priority="198">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="expression" dxfId="101" priority="197">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G84">
+    <cfRule type="expression" dxfId="100" priority="195">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="expression" dxfId="99" priority="52">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84:V84">
+    <cfRule type="expression" dxfId="98" priority="190">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84 E84:F84">
+    <cfRule type="expression" dxfId="97" priority="192">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K84:V84">
+    <cfRule type="expression" dxfId="96" priority="191">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="expression" dxfId="95" priority="189">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40">
+    <cfRule type="expression" dxfId="94" priority="187">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40 J40">
+    <cfRule type="expression" dxfId="93" priority="185">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:K37">
+    <cfRule type="expression" dxfId="92" priority="182">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="expression" dxfId="91" priority="180">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="expression" dxfId="90" priority="38">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="expression" dxfId="89" priority="176">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51">
+    <cfRule type="expression" dxfId="88" priority="175">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57">
+    <cfRule type="expression" dxfId="87" priority="174">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="expression" dxfId="86" priority="173">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
+    <cfRule type="expression" dxfId="85" priority="172">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="expression" dxfId="84" priority="171">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="expression" dxfId="83" priority="170">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
+    <cfRule type="expression" dxfId="82" priority="169">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65">
+    <cfRule type="expression" dxfId="81" priority="168">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="expression" dxfId="80" priority="167">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67">
+    <cfRule type="expression" dxfId="79" priority="166">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68">
+    <cfRule type="expression" dxfId="78" priority="165">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69">
+    <cfRule type="expression" dxfId="77" priority="164">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I70">
+    <cfRule type="expression" dxfId="76" priority="163">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71">
+    <cfRule type="expression" dxfId="75" priority="162">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72">
+    <cfRule type="expression" dxfId="74" priority="161">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73">
+    <cfRule type="expression" dxfId="73" priority="160">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I74">
+    <cfRule type="expression" dxfId="72" priority="159">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I75">
+    <cfRule type="expression" dxfId="71" priority="158">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I76">
+    <cfRule type="expression" dxfId="70" priority="157">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I77">
+    <cfRule type="expression" dxfId="69" priority="156">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I79">
+    <cfRule type="expression" dxfId="68" priority="154">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I81">
+    <cfRule type="expression" dxfId="67" priority="153">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I82">
+    <cfRule type="expression" dxfId="66" priority="152">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I83">
+    <cfRule type="expression" dxfId="65" priority="151">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84">
+    <cfRule type="expression" dxfId="64" priority="150">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I85">
+    <cfRule type="expression" dxfId="63" priority="149">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="expression" dxfId="62" priority="148">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="expression" dxfId="61" priority="147">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="expression" dxfId="60" priority="146">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="59" priority="145">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="expression" dxfId="58" priority="144">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="expression" dxfId="57" priority="143">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="56" priority="142">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="55" priority="141">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="54" priority="140">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="53" priority="72">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="52" priority="71">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="51" priority="70">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="50" priority="69">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="expression" dxfId="49" priority="68">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="48" priority="62">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="47" priority="66">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="46" priority="65">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="45" priority="64">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="44" priority="61">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="expression" dxfId="43" priority="60">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="expression" dxfId="42" priority="59">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="expression" dxfId="41" priority="58">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="expression" dxfId="40" priority="57">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="39" priority="56">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="expression" dxfId="38" priority="55">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="37" priority="54">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="expression" dxfId="35" priority="51">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="expression" dxfId="34" priority="37">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="expression" dxfId="33" priority="49">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="expression" dxfId="32" priority="48">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="expression" dxfId="31" priority="47">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="expression" dxfId="30" priority="46">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="expression" dxfId="29" priority="45">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="expression" dxfId="28" priority="44">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="expression" dxfId="27" priority="43">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="expression" dxfId="26" priority="42">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" dxfId="25" priority="41">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="expression" dxfId="24" priority="40">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="expression" dxfId="23" priority="39">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:V10">
+    <cfRule type="expression" dxfId="22" priority="29">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="21" priority="18">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="expression" dxfId="20" priority="27">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I80">
+    <cfRule type="expression" dxfId="19" priority="26">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:K9">
+    <cfRule type="expression" dxfId="18" priority="17">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="17" priority="16">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="16" priority="19">
+      <formula>K$1=$H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="15" priority="20">
+      <formula>K$1=$I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>K$1=$H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>K$1=$I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:K10">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>K$1=$H17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>K$1=$I17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17 J17:K17">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17 J17:K17">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42 J42">
-    <cfRule type="expression" dxfId="185" priority="297">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19 E19:H19 J19:V19">
-    <cfRule type="expression" dxfId="184" priority="392">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K68">
-    <cfRule type="expression" dxfId="183" priority="248">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26 J26:K26">
-    <cfRule type="expression" dxfId="182" priority="354">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57 J57">
-    <cfRule type="expression" dxfId="181" priority="287">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59:J59">
-    <cfRule type="expression" dxfId="180" priority="286">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20 J20:K20">
-    <cfRule type="expression" dxfId="179" priority="381">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21 J21:K21">
-    <cfRule type="expression" dxfId="178" priority="376">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
-    <cfRule type="expression" dxfId="177" priority="281">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
-    <cfRule type="expression" dxfId="176" priority="280">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23 J23:K23">
-    <cfRule type="expression" dxfId="175" priority="369">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61">
-    <cfRule type="expression" dxfId="174" priority="277">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24 J24:K24">
-    <cfRule type="expression" dxfId="173" priority="364">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61 J61">
-    <cfRule type="expression" dxfId="172" priority="275">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25 J25:K25">
-    <cfRule type="expression" dxfId="171" priority="359">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62">
-    <cfRule type="expression" dxfId="170" priority="272">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62 J62">
-    <cfRule type="expression" dxfId="169" priority="271">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K63">
-    <cfRule type="expression" dxfId="168" priority="269">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K63">
-    <cfRule type="expression" dxfId="167" priority="268">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27 J27:K27">
-    <cfRule type="expression" dxfId="166" priority="349">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K64">
-    <cfRule type="expression" dxfId="165" priority="265">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28 J28:K28">
-    <cfRule type="expression" dxfId="164" priority="344">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64 J64">
-    <cfRule type="expression" dxfId="163" priority="263">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29 J29:K29">
-    <cfRule type="expression" dxfId="162" priority="339">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65 J65">
-    <cfRule type="expression" dxfId="161" priority="259">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30 J30:K30">
-    <cfRule type="expression" dxfId="160" priority="334">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K66">
-    <cfRule type="expression" dxfId="159" priority="257">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K66">
-    <cfRule type="expression" dxfId="158" priority="256">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31 J31:K31">
-    <cfRule type="expression" dxfId="157" priority="329">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67">
-    <cfRule type="expression" dxfId="156" priority="253">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32 J32:K32">
-    <cfRule type="expression" dxfId="155" priority="324">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67 J67">
-    <cfRule type="expression" dxfId="154" priority="251">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="153" priority="317">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K68">
-    <cfRule type="expression" dxfId="152" priority="249">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="151" priority="314">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="150" priority="311">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68 J68">
-    <cfRule type="expression" dxfId="149" priority="247">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="148" priority="308">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39 J39:V39 E39:H39">
-    <cfRule type="expression" dxfId="147" priority="305">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40:V40 L41:V41 B40:B41 E41:G41 E40:H40">
-    <cfRule type="expression" dxfId="146" priority="301">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K70">
-    <cfRule type="expression" dxfId="145" priority="245">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K70">
-    <cfRule type="expression" dxfId="144" priority="244">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:G46 B46">
-    <cfRule type="expression" dxfId="143" priority="294">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I78">
-    <cfRule type="expression" dxfId="142" priority="151">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46 J46:V46">
-    <cfRule type="expression" dxfId="141" priority="291">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="140" priority="290">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50 J50">
-    <cfRule type="expression" dxfId="139" priority="289">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K72">
-    <cfRule type="expression" dxfId="138" priority="237">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K71">
-    <cfRule type="expression" dxfId="137" priority="240">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70 J70">
-    <cfRule type="expression" dxfId="136" priority="243">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60 J60">
-    <cfRule type="expression" dxfId="135" priority="279">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61">
-    <cfRule type="expression" dxfId="134" priority="276">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62">
-    <cfRule type="expression" dxfId="133" priority="273">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63 J63">
-    <cfRule type="expression" dxfId="132" priority="267">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K64">
-    <cfRule type="expression" dxfId="131" priority="264">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K65">
-    <cfRule type="expression" dxfId="130" priority="261">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66 J66">
-    <cfRule type="expression" dxfId="129" priority="255">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67">
-    <cfRule type="expression" dxfId="128" priority="252">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K71">
-    <cfRule type="expression" dxfId="127" priority="241">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71 J71">
-    <cfRule type="expression" dxfId="126" priority="239">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K72">
-    <cfRule type="expression" dxfId="125" priority="236">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72 J72">
-    <cfRule type="expression" dxfId="124" priority="235">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K69">
-    <cfRule type="expression" dxfId="123" priority="233">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K69">
-    <cfRule type="expression" dxfId="122" priority="232">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69 J69">
-    <cfRule type="expression" dxfId="121" priority="231">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J74">
-    <cfRule type="expression" dxfId="120" priority="229">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="expression" dxfId="119" priority="228">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
-    <cfRule type="expression" dxfId="118" priority="226">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J78:V78">
-    <cfRule type="expression" dxfId="117" priority="221">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78 E78:F78">
-    <cfRule type="expression" dxfId="116" priority="223">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K78:V78">
-    <cfRule type="expression" dxfId="115" priority="222">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="expression" dxfId="114" priority="220">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="expression" dxfId="113" priority="217">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="expression" dxfId="112" priority="215">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G81">
-    <cfRule type="expression" dxfId="111" priority="212">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="110" priority="69">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J81:V81">
-    <cfRule type="expression" dxfId="109" priority="207">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81 E81:F81">
-    <cfRule type="expression" dxfId="108" priority="209">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K81:V81">
-    <cfRule type="expression" dxfId="107" priority="208">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="expression" dxfId="106" priority="206">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="expression" dxfId="105" priority="204">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="expression" dxfId="104" priority="202">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="103" priority="59">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J82:V82">
-    <cfRule type="expression" dxfId="102" priority="197">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82 E82:F82">
-    <cfRule type="expression" dxfId="101" priority="199">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K82:V82">
-    <cfRule type="expression" dxfId="100" priority="198">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="expression" dxfId="99" priority="196">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J83">
-    <cfRule type="expression" dxfId="98" priority="194">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="expression" dxfId="97" priority="193">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
-    <cfRule type="expression" dxfId="96" priority="191">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="95" priority="48">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J84:V84">
-    <cfRule type="expression" dxfId="94" priority="186">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84 E84:F84">
-    <cfRule type="expression" dxfId="93" priority="188">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K84:V84">
-    <cfRule type="expression" dxfId="92" priority="187">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="expression" dxfId="91" priority="185">
+  <conditionalFormatting sqref="I17">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40:F41">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="expression" dxfId="90" priority="183">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41 J41">
-    <cfRule type="expression" dxfId="89" priority="181">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
-    <cfRule type="expression" dxfId="88" priority="178">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="87" priority="176">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="expression" dxfId="86" priority="34">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="85" priority="172">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="84" priority="171">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
-    <cfRule type="expression" dxfId="83" priority="170">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
-    <cfRule type="expression" dxfId="82" priority="169">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
-    <cfRule type="expression" dxfId="81" priority="168">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
-    <cfRule type="expression" dxfId="80" priority="167">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="79" priority="166">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="expression" dxfId="78" priority="165">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
-    <cfRule type="expression" dxfId="77" priority="164">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="expression" dxfId="76" priority="163">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67">
-    <cfRule type="expression" dxfId="75" priority="162">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I68">
-    <cfRule type="expression" dxfId="74" priority="161">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
-    <cfRule type="expression" dxfId="73" priority="160">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
-    <cfRule type="expression" dxfId="72" priority="159">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="expression" dxfId="71" priority="158">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
-    <cfRule type="expression" dxfId="70" priority="157">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I73">
-    <cfRule type="expression" dxfId="69" priority="156">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I74">
-    <cfRule type="expression" dxfId="68" priority="155">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
-    <cfRule type="expression" dxfId="67" priority="154">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I76">
-    <cfRule type="expression" dxfId="66" priority="153">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I77">
-    <cfRule type="expression" dxfId="65" priority="152">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I79">
-    <cfRule type="expression" dxfId="64" priority="150">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I81">
-    <cfRule type="expression" dxfId="63" priority="149">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I82">
-    <cfRule type="expression" dxfId="62" priority="148">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I83">
-    <cfRule type="expression" dxfId="61" priority="147">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I84">
-    <cfRule type="expression" dxfId="60" priority="146">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I85">
-    <cfRule type="expression" dxfId="59" priority="145">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="expression" dxfId="58" priority="144">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="57" priority="143">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="56" priority="142">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="55" priority="141">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="54" priority="140">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="53" priority="139">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="52" priority="138">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="51" priority="137">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="50" priority="136">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="49" priority="68">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="48" priority="67">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="47" priority="66">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="46" priority="65">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="45" priority="64">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="44" priority="58">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="43" priority="62">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="42" priority="61">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="41" priority="60">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="40" priority="57">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="39" priority="56">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="38" priority="55">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="37" priority="54">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="36" priority="53">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="35" priority="52">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="34" priority="51">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="33" priority="50">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="32" priority="49">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="31" priority="47">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
-    <cfRule type="expression" dxfId="30" priority="33">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="29" priority="45">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="expression" dxfId="28" priority="44">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="27" priority="43">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="26" priority="42">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="25" priority="41">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="24" priority="40">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>K$1=$H41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41:K41 H41">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="expression" dxfId="23" priority="39">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="22" priority="38">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="21" priority="37">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="expression" dxfId="20" priority="36">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="19" priority="35">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9:V10">
-    <cfRule type="expression" dxfId="18" priority="25">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="17" priority="14">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="expression" dxfId="16" priority="23">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I80">
-    <cfRule type="expression" dxfId="15" priority="22">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:K9">
-    <cfRule type="expression" dxfId="14" priority="13">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="13" priority="12">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="12" priority="15">
-      <formula>K$1=$H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="11" priority="16">
-      <formula>K$1=$I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>K$1=$H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="9" priority="11">
-      <formula>K$1=$I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:K10">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>K$1=$H17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>K$1=$I17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17 J17:K17">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17 J17:K17">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>K$1=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800F73B9-6512-AB4E-AE3B-ED118C47F080}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0853CFD5-61D2-A947-B2A1-9FC2C2693185}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20200" yWindow="1560" windowWidth="25720" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -1177,7 +1177,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="261">
+  <dxfs count="259">
     <dxf>
       <fill>
         <patternFill>
@@ -1216,6 +1216,20 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -1238,6 +1252,27 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -1254,27 +1289,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -1286,36 +1300,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3338,8 +3322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3401,7 +3385,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="3" t="str">
-        <f>H28</f>
+        <f>H27</f>
         <v>CET</v>
       </c>
       <c r="O1" s="3" t="str">
@@ -3409,15 +3393,15 @@
         <v>CXT</v>
       </c>
       <c r="P1" s="3" t="str">
-        <f>H20</f>
+        <f>H19</f>
         <v>EET</v>
       </c>
       <c r="Q1" s="3" t="str">
-        <f>H30</f>
+        <f>H29</f>
         <v>CET</v>
       </c>
       <c r="R1" s="3" t="str">
-        <f>H36</f>
+        <f>H35</f>
         <v>GMT</v>
       </c>
       <c r="S1" s="3" t="str">
@@ -4582,174 +4566,174 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="18" t="s">
-        <v>31</v>
+      <c r="A17" s="43"/>
+      <c r="B17" s="36" t="s">
+        <v>207</v>
       </c>
       <c r="C17" s="7">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>51</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>206</v>
+        <v>15</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="27" t="s">
+        <v>209</v>
       </c>
       <c r="I17" s="23">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="J17" s="24" t="s">
+        <v>0.625</v>
+      </c>
+      <c r="J17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="25">
         <f>$I17+Sheet2!B$1/24</f>
-        <v>1</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="L17" s="23">
         <f>$I17+Sheet2!B$2/24</f>
-        <v>0.95833333333333337</v>
+        <v>1</v>
       </c>
       <c r="M17" s="23">
         <f>$I17+Sheet2!B$3/24</f>
-        <v>0.91666666666666674</v>
+        <v>0.95833333333333326</v>
       </c>
       <c r="N17" s="23">
         <f>$I17+Sheet2!B$4/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="O17" s="23">
         <f>$I17+Sheet2!B$5/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="P17" s="23">
         <f>$I17+Sheet2!B$6/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="Q17" s="23">
         <f>$I17+Sheet2!B$7/24</f>
-        <v>0.66666666666666674</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="R17" s="23">
         <f>$I17+Sheet2!B$8/24</f>
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S17" s="23">
         <f>$I17+Sheet2!B$9/24</f>
-        <v>0.41666666666666674</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="T17" s="23">
         <f>$I17+Sheet2!B$10/24</f>
-        <v>0.375</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="U17" s="23">
         <f>$I17+Sheet2!B$11/24</f>
-        <v>0.33333333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="V17" s="23">
         <f>$I17+Sheet2!B$12/24</f>
-        <v>0.29166666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="43"/>
-      <c r="B18" s="36" t="s">
-        <v>207</v>
+      <c r="A18" s="47"/>
+      <c r="B18" s="18" t="s">
+        <v>210</v>
       </c>
       <c r="C18" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>15</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="E18" s="20"/>
       <c r="F18" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="27" t="s">
-        <v>209</v>
+        <v>211</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>212</v>
       </c>
       <c r="I18" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="J18" s="26" t="s">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J18" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="11">
         <f>$I18+Sheet2!B$1/24</f>
-        <v>1.0416666666666667</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="L18" s="23">
         <f>$I18+Sheet2!B$2/24</f>
-        <v>1</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="M18" s="23">
         <f>$I18+Sheet2!B$3/24</f>
-        <v>0.95833333333333326</v>
+        <v>1</v>
       </c>
       <c r="N18" s="23">
         <f>$I18+Sheet2!B$4/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O18" s="23">
         <f>$I18+Sheet2!B$5/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P18" s="23">
         <f>$I18+Sheet2!B$6/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q18" s="23">
         <f>$I18+Sheet2!B$7/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="R18" s="23">
         <f>$I18+Sheet2!B$8/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="S18" s="23">
         <f>$I18+Sheet2!B$9/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="T18" s="23">
         <f>$I18+Sheet2!B$10/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="U18" s="23">
         <f>$I18+Sheet2!B$11/24</f>
-        <v>0.375</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="V18" s="23">
         <f>$I18+Sheet2!B$12/24</f>
-        <v>0.33333333333333331</v>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="18" t="s">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="C19" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>17</v>
-      </c>
-      <c r="E19" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="F19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>104</v>
+        <v>81</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="H19" s="29" t="s">
         <v>212</v>
@@ -4812,22 +4796,22 @@
     <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>137</v>
+        <v>72</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>145</v>
       </c>
       <c r="H20" s="29" t="s">
         <v>212</v>
@@ -4888,100 +4872,100 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="18" t="s">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="C21" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="7">
-        <v>19</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>71</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E21" s="20"/>
       <c r="F21" s="7" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I21" s="23">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J21" s="30" t="s">
         <v>14</v>
       </c>
       <c r="K21" s="11">
         <f>$I21+Sheet2!B$1/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.125</v>
       </c>
       <c r="L21" s="23">
         <f>$I21+Sheet2!B$2/24</f>
-        <v>1.0416666666666665</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M21" s="23">
         <f>$I21+Sheet2!B$3/24</f>
-        <v>1</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N21" s="23">
         <f>$I21+Sheet2!B$4/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O21" s="23">
         <f>$I21+Sheet2!B$5/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P21" s="23">
         <f>$I21+Sheet2!B$6/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q21" s="23">
         <f>$I21+Sheet2!B$7/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R21" s="23">
         <f>$I21+Sheet2!B$8/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.75</v>
       </c>
       <c r="S21" s="23">
         <f>$I21+Sheet2!B$9/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T21" s="23">
         <f>$I21+Sheet2!B$10/24</f>
-        <v>0.45833333333333326</v>
+        <v>0.5</v>
       </c>
       <c r="U21" s="23">
         <f>$I21+Sheet2!B$11/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V21" s="23">
         <f>$I21+Sheet2!B$12/24</f>
-        <v>0.37499999999999994</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="18" t="s">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="7">
-        <v>20</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="7" t="s">
-        <v>213</v>
+        <v>21</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H22" s="29" t="s">
         <v>214</v>
@@ -5041,25 +5025,25 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
+    <row r="23" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="50" t="s">
+        <v>26</v>
+      </c>
       <c r="B23" s="18" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="C23" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="7">
-        <v>21</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E23" s="20"/>
       <c r="F23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="29" t="s">
-        <v>134</v>
+      <c r="G23" s="48" t="s">
+        <v>191</v>
       </c>
       <c r="H23" s="29" t="s">
         <v>214</v>
@@ -5074,70 +5058,70 @@
         <f>$I23+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="16">
         <f>$I23+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="16">
         <f>$I23+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="16">
         <f>$I23+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O23" s="23">
+      <c r="O23" s="16">
         <f>$I23+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P23" s="23">
+      <c r="P23" s="16">
         <f>$I23+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q23" s="23">
+      <c r="Q23" s="16">
         <f>$I23+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R23" s="23">
+      <c r="R23" s="16">
         <f>$I23+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S23" s="23">
+      <c r="S23" s="16">
         <f>$I23+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T23" s="23">
+      <c r="T23" s="16">
         <f>$I23+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U23" s="23">
+      <c r="U23" s="16">
         <f>$I23+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V23" s="23">
+      <c r="V23" s="16">
         <f>$I23+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="50" t="s">
-        <v>26</v>
-      </c>
+      <c r="A24" s="50"/>
       <c r="B24" s="18" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="C24" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>22</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>191</v>
+        <v>23</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="H24" s="29" t="s">
         <v>214</v>
@@ -5200,22 +5184,22 @@
     <row r="25" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="50"/>
       <c r="B25" s="18" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="C25" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>117</v>
+        <v>15</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>138</v>
       </c>
       <c r="H25" s="29" t="s">
         <v>214</v>
@@ -5230,47 +5214,47 @@
         <f>$I25+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L25" s="23">
         <f>$I25+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M25" s="23">
         <f>$I25+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N25" s="23">
         <f>$I25+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O25" s="16">
+      <c r="O25" s="23">
         <f>$I25+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P25" s="23">
         <f>$I25+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q25" s="16">
+      <c r="Q25" s="23">
         <f>$I25+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R25" s="16">
+      <c r="R25" s="23">
         <f>$I25+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S25" s="16">
+      <c r="S25" s="23">
         <f>$I25+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T25" s="16">
+      <c r="T25" s="23">
         <f>$I25+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U25" s="16">
+      <c r="U25" s="23">
         <f>$I25+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V25" s="16">
+      <c r="V25" s="23">
         <f>$I25+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
@@ -5278,22 +5262,22 @@
     <row r="26" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="50"/>
       <c r="B26" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="44" t="s">
-        <v>138</v>
+      <c r="G26" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="H26" s="29" t="s">
         <v>214</v>
@@ -5356,22 +5340,22 @@
     <row r="27" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="50"/>
       <c r="B27" s="18" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>139</v>
+        <v>76</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="H27" s="29" t="s">
         <v>214</v>
@@ -5434,22 +5418,22 @@
     <row r="28" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
       <c r="B28" s="18" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="C28" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>140</v>
+        <v>72</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="H28" s="29" t="s">
         <v>214</v>
@@ -5511,23 +5495,23 @@
     </row>
     <row r="29" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="50"/>
-      <c r="B29" s="18" t="s">
-        <v>125</v>
+      <c r="B29" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="C29" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="7">
-        <v>27</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>71</v>
+        <v>28</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>126</v>
+        <v>70</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>141</v>
       </c>
       <c r="H29" s="29" t="s">
         <v>214</v>
@@ -5542,70 +5526,70 @@
         <f>$I29+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L29" s="23">
+      <c r="L29" s="16">
         <f>$I29+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="16">
         <f>$I29+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N29" s="23">
+      <c r="N29" s="16">
         <f>$I29+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O29" s="23">
+      <c r="O29" s="16">
         <f>$I29+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P29" s="23">
+      <c r="P29" s="16">
         <f>$I29+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q29" s="23">
+      <c r="Q29" s="16">
         <f>$I29+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R29" s="23">
+      <c r="R29" s="16">
         <f>$I29+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S29" s="23">
+      <c r="S29" s="16">
         <f>$I29+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T29" s="23">
+      <c r="T29" s="16">
         <f>$I29+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U29" s="23">
+      <c r="U29" s="16">
         <f>$I29+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V29" s="23">
+      <c r="V29" s="16">
         <f>$I29+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="50"/>
-      <c r="B30" s="12" t="s">
-        <v>42</v>
+      <c r="B30" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="C30" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>141</v>
+      <c r="F30" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>143</v>
       </c>
       <c r="H30" s="29" t="s">
         <v>214</v>
@@ -5620,145 +5604,145 @@
         <f>$I30+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L30" s="23">
         <f>$I30+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M30" s="16">
+      <c r="M30" s="23">
         <f>$I30+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N30" s="16">
+      <c r="N30" s="23">
         <f>$I30+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O30" s="16">
+      <c r="O30" s="23">
         <f>$I30+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P30" s="16">
+      <c r="P30" s="23">
         <f>$I30+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q30" s="16">
+      <c r="Q30" s="23">
         <f>$I30+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R30" s="16">
+      <c r="R30" s="23">
         <f>$I30+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S30" s="16">
+      <c r="S30" s="23">
         <f>$I30+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T30" s="16">
+      <c r="T30" s="23">
         <f>$I30+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U30" s="16">
+      <c r="U30" s="23">
         <f>$I30+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V30" s="16">
+      <c r="V30" s="23">
         <f>$I30+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="50"/>
       <c r="B31" s="18" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="C31" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D31" s="7">
-        <v>29</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>143</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" s="29"/>
       <c r="H31" s="29" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I31" s="23">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J31" s="30" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="J31" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="25">
         <f>$I31+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L31" s="23">
         <f>$I31+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.125</v>
       </c>
       <c r="M31" s="23">
         <f>$I31+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N31" s="23">
         <f>$I31+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="O31" s="23">
         <f>$I31+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="P31" s="23">
         <f>$I31+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="Q31" s="23">
         <f>$I31+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R31" s="23">
         <f>$I31+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S31" s="23">
         <f>$I31+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T31" s="23">
         <f>$I31+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U31" s="23">
         <f>$I31+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="V31" s="23">
         <f>$I31+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="50"/>
       <c r="B32" s="18" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="C32" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32" s="7">
-        <v>31</v>
-      </c>
-      <c r="E32" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="F32" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G32" s="29"/>
+        <v>116</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>131</v>
+      </c>
       <c r="H32" s="29" t="s">
         <v>217</v>
       </c>
@@ -5820,22 +5804,22 @@
     <row r="33" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="50"/>
       <c r="B33" s="18" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="H33" s="29" t="s">
         <v>217</v>
@@ -5897,23 +5881,23 @@
     </row>
     <row r="34" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="50"/>
-      <c r="B34" s="18" t="s">
-        <v>53</v>
+      <c r="B34" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="C34" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" s="7">
-        <v>33</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>146</v>
+        <v>34</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="H34" s="29" t="s">
         <v>217</v>
@@ -5921,77 +5905,77 @@
       <c r="I34" s="23">
         <v>0.75</v>
       </c>
-      <c r="J34" s="26" t="s">
+      <c r="J34" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K34" s="31">
         <f>$I34+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L34" s="23">
+      <c r="L34" s="16">
         <f>$I34+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="M34" s="23">
+      <c r="M34" s="16">
         <f>$I34+Sheet2!B$3/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="N34" s="23">
+      <c r="N34" s="16">
         <f>$I34+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="O34" s="23">
+      <c r="O34" s="16">
         <f>$I34+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="P34" s="23">
+      <c r="P34" s="16">
         <f>$I34+Sheet2!B$6/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q34" s="23">
+      <c r="Q34" s="16">
         <f>$I34+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R34" s="23">
+      <c r="R34" s="16">
         <f>$I34+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="S34" s="23">
+      <c r="S34" s="16">
         <f>$I34+Sheet2!B$9/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="T34" s="23">
+      <c r="T34" s="16">
         <f>$I34+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U34" s="23">
+      <c r="U34" s="16">
         <f>$I34+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="V34" s="23">
+      <c r="V34" s="16">
         <f>$I34+Sheet2!B$12/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="50"/>
-      <c r="B35" s="12" t="s">
-        <v>51</v>
+      <c r="B35" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="C35" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35" s="7">
-        <v>34</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>147</v>
+        <v>35</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>148</v>
       </c>
       <c r="H35" s="29" t="s">
         <v>217</v>
@@ -5999,77 +5983,77 @@
       <c r="I35" s="23">
         <v>0.75</v>
       </c>
-      <c r="J35" s="28" t="s">
+      <c r="J35" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K35" s="31">
+      <c r="K35" s="25">
         <f>$I35+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L35" s="23">
         <f>$I35+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M35" s="23">
         <f>$I35+Sheet2!B$3/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="N35" s="16">
+      <c r="N35" s="23">
         <f>$I35+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="O35" s="16">
+      <c r="O35" s="23">
         <f>$I35+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="P35" s="16">
+      <c r="P35" s="23">
         <f>$I35+Sheet2!B$6/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q35" s="16">
+      <c r="Q35" s="23">
         <f>$I35+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R35" s="16">
+      <c r="R35" s="23">
         <f>$I35+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="S35" s="16">
+      <c r="S35" s="23">
         <f>$I35+Sheet2!B$9/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="T35" s="16">
+      <c r="T35" s="23">
         <f>$I35+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U35" s="16">
+      <c r="U35" s="23">
         <f>$I35+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="V35" s="16">
+      <c r="V35" s="23">
         <f>$I35+Sheet2!B$12/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="50"/>
-      <c r="B36" s="32" t="s">
-        <v>82</v>
+      <c r="B36" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="C36" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D36" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" s="34" t="s">
-        <v>148</v>
+        <v>89</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>149</v>
       </c>
       <c r="H36" s="29" t="s">
         <v>217</v>
@@ -6132,171 +6116,171 @@
     <row r="37" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="50"/>
       <c r="B37" s="18" t="s">
-        <v>52</v>
+        <v>218</v>
       </c>
       <c r="C37" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D37" s="7">
-        <v>36</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>28</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E37" s="20"/>
       <c r="F37" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37" s="29" t="s">
-        <v>149</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G37" s="29"/>
       <c r="H37" s="29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I37" s="23">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="J37" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K37" s="25">
         <f>$I37+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="L37" s="23">
         <f>$I37+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="M37" s="23">
         <f>$I37+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.125</v>
       </c>
       <c r="N37" s="23">
         <f>$I37+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O37" s="23">
         <f>$I37+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="P37" s="23">
         <f>$I37+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="Q37" s="23">
         <f>$I37+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="R37" s="23">
         <f>$I37+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="S37" s="23">
         <f>$I37+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="T37" s="23">
         <f>$I37+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="U37" s="23">
         <f>$I37+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="V37" s="23">
         <f>$I37+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="50"/>
       <c r="B38" s="18" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C38" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D38" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="7" t="s">
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="29" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I38" s="23">
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J38" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K38" s="25">
         <f>$I38+Sheet2!B$1/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="L38" s="23">
         <f>$I38+Sheet2!B$2/24</f>
-        <v>1.1666666666666665</v>
+        <v>1.2083333333333335</v>
       </c>
       <c r="M38" s="23">
         <f>$I38+Sheet2!B$3/24</f>
-        <v>1.125</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="N38" s="23">
         <f>$I38+Sheet2!B$4/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="O38" s="23">
         <f>$I38+Sheet2!B$5/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="P38" s="23">
         <f>$I38+Sheet2!B$6/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="Q38" s="23">
         <f>$I38+Sheet2!B$7/24</f>
-        <v>0.875</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="R38" s="23">
         <f>$I38+Sheet2!B$8/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.875</v>
       </c>
       <c r="S38" s="23">
         <f>$I38+Sheet2!B$9/24</f>
-        <v>0.625</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="T38" s="23">
         <f>$I38+Sheet2!B$10/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.625</v>
       </c>
       <c r="U38" s="23">
         <f>$I38+Sheet2!B$11/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="V38" s="23">
         <f>$I38+Sheet2!B$12/24</f>
-        <v>0.49999999999999994</v>
+        <v>0.54166666666666674</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="50"/>
       <c r="B39" s="18" t="s">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="C39" s="7">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D39" s="7">
-        <v>38</v>
-      </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G39" s="29"/>
+        <v>51</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>156</v>
+      </c>
       <c r="H39" s="29" t="s">
         <v>222</v>
       </c>
@@ -9908,1309 +9892,1289 @@
     <sortCondition ref="D2:D70"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
-    <mergeCell ref="A24:A47"/>
+    <mergeCell ref="A23:A47"/>
     <mergeCell ref="A48:A84"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L3 L10:V10 K11:L14 K5:L8 L9 K13:V16 L17:V17 K18:V40 K42:V85 L41:V41">
-    <cfRule type="expression" dxfId="260" priority="583">
+  <conditionalFormatting sqref="K2:L3 L10:V10 K11:L14 K5:L8 L9 K13:V38 K40:V85 L39:V39">
+    <cfRule type="expression" dxfId="258" priority="586">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:V3 K5:V8 K11:V15 L9:V10 K16 K22:V22 K18:V19 K20:K21 K23:K31">
-    <cfRule type="expression" dxfId="259" priority="585">
+  <conditionalFormatting sqref="K2:V3 K5:V8 K11:V15 L9:V10 K16 K21:V21 K17:V18 K19:K20 K22:K30">
+    <cfRule type="expression" dxfId="257" priority="588">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:V50 G50 G61 B62:B64 G71 G85 E59:G59 G29 B72 E72:G72 E62:G62 B3 E3:H3 H7 E16:G17 J18:V18 L10:V10 E20:G21 L20:V21 E22:H22 E30:G31 J22:V22 E32:H32 J32:V36 E42:G42 K42:V42 B42:B45 E47:G47 J47:V47 G63:G67 B68:B70 E68:G70 K57:V57 L61:V72 K74:V74 K83:V83 G73:G77 G83 K76:V77 K79:V80 K85:V85 L37:V37 E33:G37 E51:H51 J51:V51 E48:V49 G56:V56 H2 J2:V3 E43:H45 J43:V45 E58:V58 C57:G57 B80:G80 B11:B14 E11:H14 J11:V14 B20:B37 E24:G28 C23:G23 J80:V80 C6:D6 B5:G5 B16:B18 E18:H18 C19:D19 B9:G10 E53:V55 B47:B59 C52:V52 B17:G17 L16:V17 L23:V31 L41:V41">
-    <cfRule type="expression" dxfId="258" priority="589">
+  <conditionalFormatting sqref="K50:V50 G50 G61 B62:B64 G71 G85 E59:G59 G28 B72 E72:G72 E62:G62 B3 E3:H3 H7 J17:V17 L10:V10 E19:G20 L19:V20 E21:H21 E29:G30 J21:V21 E31:H31 J31:V35 E42:G42 K42:V42 B42:B45 E47:G47 J47:V47 G63:G67 B68:B70 E68:G70 K57:V57 L61:V72 K74:V74 K83:V83 G73:G77 G83 K76:V77 K79:V80 K85:V85 L36:V36 E32:G36 E51:H51 J51:V51 E48:V49 G56:V56 H2 J2:V3 E43:H45 J43:V45 E58:V58 C57:G57 B80:G80 B11:B14 E11:H14 J11:V14 B19:B36 E23:G27 C22:G22 J80:V80 C6:D6 B5:G5 E17:H17 C18:D18 B9:G10 E53:V55 B47:B59 C52:V52 L22:V30 L41:V41 E16:G16 B16:B17 L16:V16 L39:V39 C15:D16 B39:G39">
+    <cfRule type="expression" dxfId="256" priority="592">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61 L61:V61">
-    <cfRule type="expression" dxfId="257" priority="566">
+    <cfRule type="expression" dxfId="255" priority="569">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65 L65:V65">
-    <cfRule type="expression" dxfId="256" priority="564">
+    <cfRule type="expression" dxfId="254" priority="567">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67 L67:V67">
-    <cfRule type="expression" dxfId="255" priority="562">
+    <cfRule type="expression" dxfId="253" priority="565">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71 L71:V71">
-    <cfRule type="expression" dxfId="254" priority="560">
+    <cfRule type="expression" dxfId="252" priority="563">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66 L66:V66">
-    <cfRule type="expression" dxfId="253" priority="558">
+    <cfRule type="expression" dxfId="251" priority="561">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74 K74:V74">
-    <cfRule type="expression" dxfId="252" priority="556">
+    <cfRule type="expression" dxfId="250" priority="559">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83 K83:V83 E83:F83">
-    <cfRule type="expression" dxfId="251" priority="554">
+    <cfRule type="expression" dxfId="249" priority="557">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="250" priority="552">
+    <cfRule type="expression" dxfId="248" priority="555">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="249" priority="549">
+    <cfRule type="expression" dxfId="247" priority="552">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="248" priority="548">
+    <cfRule type="expression" dxfId="246" priority="551">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="247" priority="547">
+    <cfRule type="expression" dxfId="245" priority="550">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:B80 J79:V80">
-    <cfRule type="expression" dxfId="246" priority="545">
+    <cfRule type="expression" dxfId="244" priority="548">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77 J77:V77 E77">
-    <cfRule type="expression" dxfId="245" priority="543">
+    <cfRule type="expression" dxfId="243" priority="546">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:F80">
-    <cfRule type="expression" dxfId="244" priority="541">
+    <cfRule type="expression" dxfId="242" priority="544">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76 J76:V76">
-    <cfRule type="expression" dxfId="243" priority="539">
+    <cfRule type="expression" dxfId="241" priority="542">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85 J85:V85 E85">
-    <cfRule type="expression" dxfId="242" priority="537">
+    <cfRule type="expression" dxfId="240" priority="540">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="expression" dxfId="241" priority="529">
+    <cfRule type="expression" dxfId="239" priority="532">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:V59">
-    <cfRule type="expression" dxfId="240" priority="469">
+    <cfRule type="expression" dxfId="238" priority="472">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="expression" dxfId="239" priority="490">
+    <cfRule type="expression" dxfId="237" priority="493">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="expression" dxfId="238" priority="491">
+    <cfRule type="expression" dxfId="236" priority="494">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73 E73:F73">
-    <cfRule type="expression" dxfId="237" priority="455">
+    <cfRule type="expression" dxfId="235" priority="458">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="236" priority="476">
+    <cfRule type="expression" dxfId="234" priority="479">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65:F65">
-    <cfRule type="expression" dxfId="235" priority="483">
+    <cfRule type="expression" dxfId="233" priority="486">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60 L60:V60">
-    <cfRule type="expression" dxfId="234" priority="477">
+    <cfRule type="expression" dxfId="232" priority="480">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="expression" dxfId="233" priority="489">
+    <cfRule type="expression" dxfId="231" priority="492">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="expression" dxfId="232" priority="485">
+    <cfRule type="expression" dxfId="230" priority="488">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67:F67">
-    <cfRule type="expression" dxfId="231" priority="484">
+    <cfRule type="expression" dxfId="229" priority="487">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76:F76">
-    <cfRule type="expression" dxfId="230" priority="482">
+    <cfRule type="expression" dxfId="228" priority="485">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L60:V60 G60">
-    <cfRule type="expression" dxfId="229" priority="479">
+    <cfRule type="expression" dxfId="227" priority="482">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:V7">
-    <cfRule type="expression" dxfId="228" priority="424">
+    <cfRule type="expression" dxfId="226" priority="427">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="expression" dxfId="227" priority="473">
+    <cfRule type="expression" dxfId="225" priority="476">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:V45 L41:V41">
-    <cfRule type="expression" dxfId="226" priority="593">
+    <cfRule type="expression" dxfId="224" priority="596">
       <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:V59">
-    <cfRule type="expression" dxfId="225" priority="470">
+    <cfRule type="expression" dxfId="223" priority="473">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:V10">
-    <cfRule type="expression" dxfId="224" priority="415">
+    <cfRule type="expression" dxfId="222" priority="418">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41 G41">
-    <cfRule type="expression" dxfId="223" priority="463">
+    <cfRule type="expression" dxfId="221" priority="466">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H14 J13:V14">
-    <cfRule type="expression" dxfId="222" priority="461">
+    <cfRule type="expression" dxfId="220" priority="464">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:V14">
-    <cfRule type="expression" dxfId="221" priority="462">
+    <cfRule type="expression" dxfId="219" priority="465">
       <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B14 E13:G14">
-    <cfRule type="expression" dxfId="220" priority="459">
+    <cfRule type="expression" dxfId="218" priority="462">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:F41">
-    <cfRule type="expression" dxfId="219" priority="457">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G3 B7 E7:G7 C8:D13 C15:D17 C21:D22 C24:D25 C27:D28 C30:D34 C36:D37 C66:D67 C39:D41 C69:D70 C43:D44 C72:D73 C46:D47 C75:D76 C49:D50 C78:D80 C82:D83 C54:D55 C85:D85 C59:D60 C62:D64">
-    <cfRule type="expression" dxfId="218" priority="456">
+    <cfRule type="expression" dxfId="217" priority="460">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:G3 B7 E7:G7 C8:D13 C20:D21 C23:D24 C26:D27 C29:D33 C35:D36 C66:D67 C38:D41 C69:D70 C43:D44 C72:D73 C46:D47 C75:D76 C49:D50 C78:D80 C82:D83 C54:D55 C85:D85 C59:D60 C62:D64">
+    <cfRule type="expression" dxfId="216" priority="459">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K73:V73">
-    <cfRule type="expression" dxfId="217" priority="454">
+    <cfRule type="expression" dxfId="215" priority="457">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73:V73">
-    <cfRule type="expression" dxfId="216" priority="452">
+    <cfRule type="expression" dxfId="214" priority="455">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="expression" dxfId="215" priority="451">
+    <cfRule type="expression" dxfId="213" priority="454">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75:V75">
-    <cfRule type="expression" dxfId="214" priority="446">
+    <cfRule type="expression" dxfId="212" priority="449">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75 E75:F75">
-    <cfRule type="expression" dxfId="213" priority="449">
+    <cfRule type="expression" dxfId="211" priority="452">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:V75">
-    <cfRule type="expression" dxfId="212" priority="448">
+    <cfRule type="expression" dxfId="210" priority="451">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="expression" dxfId="211" priority="445">
+    <cfRule type="expression" dxfId="209" priority="448">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="210" priority="438">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:F29">
-    <cfRule type="expression" dxfId="209" priority="443">
+    <cfRule type="expression" dxfId="208" priority="441">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F28">
+    <cfRule type="expression" dxfId="207" priority="446">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:B41 E40:E41 L40:V41 G40:G41">
-    <cfRule type="expression" dxfId="208" priority="442">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:G4 C7:D7 C14:D14 C18:D18 C20:D20 C26:D26 C29:D29 C35:D35 C65:D65 C38:D38 C68:D68 C41:D42 C71:D71 C45:D45 C74:D74 C48:D48 C77:D77 C51:D51 C81:D81 C53:D53 C84:D84 C56:D56 C58:D58 C61:D61">
-    <cfRule type="expression" dxfId="207" priority="437">
+    <cfRule type="expression" dxfId="206" priority="445">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:G4 C7:D7 C14:D14 C17:D17 C19:D19 C25:D25 C28:D28 C34:D34 C65:D65 C37:D37 C68:D68 C41:D42 C71:D71 C45:D45 C74:D74 C48:D48 C77:D77 C51:D51 C81:D81 C53:D53 C84:D84 C56:D56 C58:D58 C61:D61">
+    <cfRule type="expression" dxfId="205" priority="440">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="206" priority="436">
+    <cfRule type="expression" dxfId="204" priority="439">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 E6:H6 J6:V6">
-    <cfRule type="expression" dxfId="205" priority="434">
+    <cfRule type="expression" dxfId="203" priority="437">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:V5">
-    <cfRule type="expression" dxfId="204" priority="431">
+    <cfRule type="expression" dxfId="202" priority="434">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="expression" dxfId="203" priority="426">
+    <cfRule type="expression" dxfId="201" priority="429">
       <formula>K$1=$H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:V4">
-    <cfRule type="expression" dxfId="202" priority="427">
+    <cfRule type="expression" dxfId="200" priority="430">
       <formula>K$1=$I4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:V4">
-    <cfRule type="expression" dxfId="201" priority="428">
+    <cfRule type="expression" dxfId="199" priority="431">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="200" priority="421">
+    <cfRule type="expression" dxfId="198" priority="424">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 E8:G10">
-    <cfRule type="expression" dxfId="199" priority="420">
+    <cfRule type="expression" dxfId="197" priority="423">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:K8">
-    <cfRule type="expression" dxfId="198" priority="418">
+    <cfRule type="expression" dxfId="196" priority="421">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15 E15:H15 J15:V15">
-    <cfRule type="expression" dxfId="197" priority="410">
+    <cfRule type="expression" dxfId="195" priority="413">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15 J15:V15">
-    <cfRule type="expression" dxfId="196" priority="407">
+    <cfRule type="expression" dxfId="194" priority="410">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:V15">
-    <cfRule type="expression" dxfId="195" priority="408">
+    <cfRule type="expression" dxfId="193" priority="411">
       <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15 E15:G15">
-    <cfRule type="expression" dxfId="194" priority="406">
+    <cfRule type="expression" dxfId="192" priority="409">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K65">
-    <cfRule type="expression" dxfId="193" priority="264">
+    <cfRule type="expression" dxfId="191" priority="267">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16 J16:K16">
-    <cfRule type="expression" dxfId="192" priority="403">
+    <cfRule type="expression" dxfId="190" priority="406">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16 J16:K16">
-    <cfRule type="expression" dxfId="191" priority="400">
+    <cfRule type="expression" dxfId="189" priority="403">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="190" priority="401">
+    <cfRule type="expression" dxfId="188" priority="404">
       <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42 J42">
-    <cfRule type="expression" dxfId="189" priority="301">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19 E19:H19 J19:V19">
-    <cfRule type="expression" dxfId="188" priority="396">
+    <cfRule type="expression" dxfId="187" priority="304">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18 E18:H18 J18:V18">
+    <cfRule type="expression" dxfId="186" priority="399">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68">
-    <cfRule type="expression" dxfId="187" priority="252">
+    <cfRule type="expression" dxfId="185" priority="255">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25 J25:K25">
+    <cfRule type="expression" dxfId="184" priority="361">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57 J57">
+    <cfRule type="expression" dxfId="183" priority="294">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59:J59">
+    <cfRule type="expression" dxfId="182" priority="293">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19 J19:K19">
+    <cfRule type="expression" dxfId="181" priority="388">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20 J20:K20">
+    <cfRule type="expression" dxfId="180" priority="383">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60">
+    <cfRule type="expression" dxfId="179" priority="288">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60">
+    <cfRule type="expression" dxfId="178" priority="287">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22 J22:K22">
+    <cfRule type="expression" dxfId="177" priority="376">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61">
+    <cfRule type="expression" dxfId="176" priority="284">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23 J23:K23">
+    <cfRule type="expression" dxfId="175" priority="371">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61 J61">
+    <cfRule type="expression" dxfId="174" priority="282">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24 J24:K24">
+    <cfRule type="expression" dxfId="173" priority="366">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62">
+    <cfRule type="expression" dxfId="172" priority="279">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62 J62">
+    <cfRule type="expression" dxfId="171" priority="278">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63">
+    <cfRule type="expression" dxfId="170" priority="276">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63">
+    <cfRule type="expression" dxfId="169" priority="275">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26 J26:K26">
-    <cfRule type="expression" dxfId="186" priority="358">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57 J57">
-    <cfRule type="expression" dxfId="185" priority="291">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59:J59">
-    <cfRule type="expression" dxfId="184" priority="290">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20 J20:K20">
-    <cfRule type="expression" dxfId="183" priority="385">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21 J21:K21">
-    <cfRule type="expression" dxfId="182" priority="380">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
-    <cfRule type="expression" dxfId="181" priority="285">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
-    <cfRule type="expression" dxfId="180" priority="284">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23 J23:K23">
-    <cfRule type="expression" dxfId="179" priority="373">
+    <cfRule type="expression" dxfId="168" priority="356">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64">
+    <cfRule type="expression" dxfId="167" priority="272">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27 J27:K27">
+    <cfRule type="expression" dxfId="166" priority="351">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64 J64">
+    <cfRule type="expression" dxfId="165" priority="270">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28 J28:K28">
+    <cfRule type="expression" dxfId="164" priority="346">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65 J65">
+    <cfRule type="expression" dxfId="163" priority="266">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29 J29:K29">
+    <cfRule type="expression" dxfId="162" priority="341">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66">
+    <cfRule type="expression" dxfId="161" priority="264">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66">
+    <cfRule type="expression" dxfId="160" priority="263">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30 J30:K30">
+    <cfRule type="expression" dxfId="159" priority="336">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67">
+    <cfRule type="expression" dxfId="158" priority="260">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67 J67">
+    <cfRule type="expression" dxfId="157" priority="258">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="expression" dxfId="156" priority="324">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68">
+    <cfRule type="expression" dxfId="155" priority="256">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="expression" dxfId="154" priority="321">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="expression" dxfId="153" priority="318">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68 J68">
+    <cfRule type="expression" dxfId="152" priority="254">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="expression" dxfId="151" priority="315">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37 J37:V37 E37:H37">
+    <cfRule type="expression" dxfId="150" priority="312">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:V38 B38:B41 E40:E41 E38:H38 G40:G41 E39:G39 L39:V41">
+    <cfRule type="expression" dxfId="149" priority="308">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70">
+    <cfRule type="expression" dxfId="148" priority="252">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70">
+    <cfRule type="expression" dxfId="147" priority="251">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:G46 B46">
+    <cfRule type="expression" dxfId="146" priority="301">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I78">
+    <cfRule type="expression" dxfId="145" priority="158">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46 J46:V46">
+    <cfRule type="expression" dxfId="144" priority="298">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="expression" dxfId="143" priority="297">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50 J50">
+    <cfRule type="expression" dxfId="142" priority="296">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K72">
+    <cfRule type="expression" dxfId="141" priority="244">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K71">
+    <cfRule type="expression" dxfId="140" priority="247">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70 J70">
+    <cfRule type="expression" dxfId="139" priority="250">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60 J60">
+    <cfRule type="expression" dxfId="138" priority="286">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61">
-    <cfRule type="expression" dxfId="178" priority="281">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24 J24:K24">
-    <cfRule type="expression" dxfId="177" priority="368">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61 J61">
-    <cfRule type="expression" dxfId="176" priority="279">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25 J25:K25">
-    <cfRule type="expression" dxfId="175" priority="363">
+    <cfRule type="expression" dxfId="137" priority="283">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62">
-    <cfRule type="expression" dxfId="174" priority="276">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62 J62">
-    <cfRule type="expression" dxfId="173" priority="275">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K63">
-    <cfRule type="expression" dxfId="172" priority="273">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K63">
-    <cfRule type="expression" dxfId="171" priority="272">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27 J27:K27">
-    <cfRule type="expression" dxfId="170" priority="353">
+    <cfRule type="expression" dxfId="136" priority="280">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63 J63">
+    <cfRule type="expression" dxfId="135" priority="274">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K64">
-    <cfRule type="expression" dxfId="169" priority="269">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28 J28:K28">
-    <cfRule type="expression" dxfId="168" priority="348">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64 J64">
-    <cfRule type="expression" dxfId="167" priority="267">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29 J29:K29">
-    <cfRule type="expression" dxfId="166" priority="343">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65 J65">
-    <cfRule type="expression" dxfId="165" priority="263">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30 J30:K30">
-    <cfRule type="expression" dxfId="164" priority="338">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K66">
-    <cfRule type="expression" dxfId="163" priority="261">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K66">
-    <cfRule type="expression" dxfId="162" priority="260">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31 J31:K31">
-    <cfRule type="expression" dxfId="161" priority="333">
+    <cfRule type="expression" dxfId="134" priority="271">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65">
+    <cfRule type="expression" dxfId="133" priority="268">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66 J66">
+    <cfRule type="expression" dxfId="132" priority="262">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K67">
-    <cfRule type="expression" dxfId="160" priority="257">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67 J67">
-    <cfRule type="expression" dxfId="158" priority="255">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="157" priority="321">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K68">
-    <cfRule type="expression" dxfId="156" priority="253">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="155" priority="318">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="154" priority="315">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68 J68">
-    <cfRule type="expression" dxfId="153" priority="251">
+    <cfRule type="expression" dxfId="131" priority="259">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K71">
+    <cfRule type="expression" dxfId="130" priority="248">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71 J71">
+    <cfRule type="expression" dxfId="129" priority="246">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K72">
+    <cfRule type="expression" dxfId="128" priority="243">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72 J72">
+    <cfRule type="expression" dxfId="127" priority="242">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69">
+    <cfRule type="expression" dxfId="126" priority="240">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69">
+    <cfRule type="expression" dxfId="125" priority="239">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69 J69">
+    <cfRule type="expression" dxfId="124" priority="238">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74">
+    <cfRule type="expression" dxfId="123" priority="236">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="expression" dxfId="122" priority="235">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
+    <cfRule type="expression" dxfId="121" priority="233">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J78:V78">
+    <cfRule type="expression" dxfId="120" priority="228">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78 E78:F78">
+    <cfRule type="expression" dxfId="119" priority="230">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K78:V78">
+    <cfRule type="expression" dxfId="118" priority="229">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="expression" dxfId="117" priority="227">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="expression" dxfId="116" priority="224">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="expression" dxfId="115" priority="222">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G81">
+    <cfRule type="expression" dxfId="114" priority="219">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="113" priority="76">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J81:V81">
+    <cfRule type="expression" dxfId="112" priority="214">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81 E81:F81">
+    <cfRule type="expression" dxfId="111" priority="216">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K81:V81">
+    <cfRule type="expression" dxfId="110" priority="215">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="expression" dxfId="109" priority="213">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="expression" dxfId="108" priority="211">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="expression" dxfId="107" priority="209">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="106" priority="66">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J82:V82">
+    <cfRule type="expression" dxfId="105" priority="204">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82 E82:F82">
+    <cfRule type="expression" dxfId="104" priority="206">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K82:V82">
+    <cfRule type="expression" dxfId="103" priority="205">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="expression" dxfId="102" priority="203">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83">
+    <cfRule type="expression" dxfId="101" priority="201">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="expression" dxfId="100" priority="200">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G84">
+    <cfRule type="expression" dxfId="99" priority="198">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="98" priority="55">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84:V84">
+    <cfRule type="expression" dxfId="97" priority="193">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84 E84:F84">
+    <cfRule type="expression" dxfId="96" priority="195">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K84:V84">
+    <cfRule type="expression" dxfId="95" priority="194">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="expression" dxfId="94" priority="192">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40">
+    <cfRule type="expression" dxfId="93" priority="190">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40 J40">
+    <cfRule type="expression" dxfId="92" priority="188">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:K36">
+    <cfRule type="expression" dxfId="91" priority="185">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="152" priority="312">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38 J38:V38 E38:H38">
-    <cfRule type="expression" dxfId="151" priority="309">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39:V39 L40:V41 B39:B41 E40:E41 E39:H39 G40:G41">
-    <cfRule type="expression" dxfId="150" priority="305">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K70">
-    <cfRule type="expression" dxfId="149" priority="249">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K70">
-    <cfRule type="expression" dxfId="148" priority="248">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:G46 B46">
-    <cfRule type="expression" dxfId="147" priority="298">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I78">
-    <cfRule type="expression" dxfId="146" priority="155">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46 J46:V46">
-    <cfRule type="expression" dxfId="145" priority="295">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="144" priority="294">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50 J50">
-    <cfRule type="expression" dxfId="143" priority="293">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K72">
-    <cfRule type="expression" dxfId="142" priority="241">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K71">
-    <cfRule type="expression" dxfId="141" priority="244">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70 J70">
-    <cfRule type="expression" dxfId="140" priority="247">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60 J60">
-    <cfRule type="expression" dxfId="139" priority="283">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61">
-    <cfRule type="expression" dxfId="138" priority="280">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62">
-    <cfRule type="expression" dxfId="137" priority="277">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63 J63">
-    <cfRule type="expression" dxfId="136" priority="271">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K64">
-    <cfRule type="expression" dxfId="135" priority="268">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K65">
-    <cfRule type="expression" dxfId="134" priority="265">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66 J66">
-    <cfRule type="expression" dxfId="133" priority="259">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67">
-    <cfRule type="expression" dxfId="132" priority="256">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K71">
-    <cfRule type="expression" dxfId="131" priority="245">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71 J71">
-    <cfRule type="expression" dxfId="130" priority="243">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K72">
-    <cfRule type="expression" dxfId="129" priority="240">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72 J72">
-    <cfRule type="expression" dxfId="128" priority="239">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K69">
-    <cfRule type="expression" dxfId="127" priority="237">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K69">
-    <cfRule type="expression" dxfId="126" priority="236">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69 J69">
-    <cfRule type="expression" dxfId="125" priority="235">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J74">
-    <cfRule type="expression" dxfId="124" priority="233">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="expression" dxfId="123" priority="232">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
-    <cfRule type="expression" dxfId="122" priority="230">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J78:V78">
-    <cfRule type="expression" dxfId="121" priority="225">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78 E78:F78">
-    <cfRule type="expression" dxfId="120" priority="227">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K78:V78">
-    <cfRule type="expression" dxfId="119" priority="226">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="expression" dxfId="118" priority="224">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="expression" dxfId="117" priority="221">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="expression" dxfId="116" priority="219">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G81">
-    <cfRule type="expression" dxfId="115" priority="216">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="114" priority="73">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J81:V81">
-    <cfRule type="expression" dxfId="113" priority="211">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81 E81:F81">
-    <cfRule type="expression" dxfId="112" priority="213">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K81:V81">
-    <cfRule type="expression" dxfId="111" priority="212">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="expression" dxfId="110" priority="210">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="expression" dxfId="109" priority="208">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="expression" dxfId="108" priority="206">
+    <cfRule type="expression" dxfId="90" priority="183">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="expression" dxfId="89" priority="41">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="expression" dxfId="88" priority="179">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51">
+    <cfRule type="expression" dxfId="87" priority="178">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57">
+    <cfRule type="expression" dxfId="86" priority="177">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="expression" dxfId="85" priority="176">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
+    <cfRule type="expression" dxfId="84" priority="175">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="expression" dxfId="83" priority="174">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="expression" dxfId="82" priority="173">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
+    <cfRule type="expression" dxfId="81" priority="172">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65">
+    <cfRule type="expression" dxfId="80" priority="171">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="expression" dxfId="79" priority="170">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67">
+    <cfRule type="expression" dxfId="78" priority="169">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68">
+    <cfRule type="expression" dxfId="77" priority="168">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69">
+    <cfRule type="expression" dxfId="76" priority="167">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I70">
+    <cfRule type="expression" dxfId="75" priority="166">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71">
+    <cfRule type="expression" dxfId="74" priority="165">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72">
+    <cfRule type="expression" dxfId="73" priority="164">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73">
+    <cfRule type="expression" dxfId="72" priority="163">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I74">
+    <cfRule type="expression" dxfId="71" priority="162">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I75">
+    <cfRule type="expression" dxfId="70" priority="161">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I76">
+    <cfRule type="expression" dxfId="69" priority="160">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I77">
+    <cfRule type="expression" dxfId="68" priority="159">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I79">
+    <cfRule type="expression" dxfId="67" priority="157">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I81">
+    <cfRule type="expression" dxfId="66" priority="156">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I82">
+    <cfRule type="expression" dxfId="65" priority="155">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I83">
+    <cfRule type="expression" dxfId="64" priority="154">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84">
+    <cfRule type="expression" dxfId="63" priority="153">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I85">
+    <cfRule type="expression" dxfId="62" priority="152">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="expression" dxfId="61" priority="151">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="expression" dxfId="60" priority="150">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="expression" dxfId="59" priority="149">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="58" priority="148">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="expression" dxfId="57" priority="147">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="expression" dxfId="56" priority="146">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="55" priority="145">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="54" priority="144">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="53" priority="143">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="52" priority="75">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="51" priority="74">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="50" priority="73">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="49" priority="72">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="expression" dxfId="48" priority="71">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="107" priority="63">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J82:V82">
-    <cfRule type="expression" dxfId="106" priority="201">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82 E82:F82">
-    <cfRule type="expression" dxfId="105" priority="203">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K82:V82">
-    <cfRule type="expression" dxfId="104" priority="202">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="expression" dxfId="103" priority="200">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J83">
-    <cfRule type="expression" dxfId="102" priority="198">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="expression" dxfId="101" priority="197">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
-    <cfRule type="expression" dxfId="100" priority="195">
+    <cfRule type="expression" dxfId="47" priority="65">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="expression" dxfId="46" priority="69">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="45" priority="68">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="44" priority="67">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="43" priority="64">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="42" priority="63">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="expression" dxfId="41" priority="62">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="expression" dxfId="40" priority="61">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="expression" dxfId="39" priority="60">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="expression" dxfId="38" priority="59">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="37" priority="58">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="expression" dxfId="36" priority="57">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="99" priority="52">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J84:V84">
-    <cfRule type="expression" dxfId="98" priority="190">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84 E84:F84">
-    <cfRule type="expression" dxfId="97" priority="192">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K84:V84">
-    <cfRule type="expression" dxfId="96" priority="191">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="expression" dxfId="95" priority="189">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
-    <cfRule type="expression" dxfId="94" priority="187">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40 J40">
-    <cfRule type="expression" dxfId="93" priority="185">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37:K37">
-    <cfRule type="expression" dxfId="92" priority="182">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="91" priority="180">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="expression" dxfId="90" priority="38">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="89" priority="176">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="88" priority="175">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
-    <cfRule type="expression" dxfId="87" priority="174">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
-    <cfRule type="expression" dxfId="86" priority="173">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
-    <cfRule type="expression" dxfId="85" priority="172">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
-    <cfRule type="expression" dxfId="84" priority="171">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="83" priority="170">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="expression" dxfId="82" priority="169">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
-    <cfRule type="expression" dxfId="81" priority="168">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="expression" dxfId="80" priority="167">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67">
-    <cfRule type="expression" dxfId="79" priority="166">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I68">
-    <cfRule type="expression" dxfId="78" priority="165">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
-    <cfRule type="expression" dxfId="77" priority="164">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
-    <cfRule type="expression" dxfId="76" priority="163">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="expression" dxfId="75" priority="162">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
-    <cfRule type="expression" dxfId="74" priority="161">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I73">
-    <cfRule type="expression" dxfId="73" priority="160">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I74">
-    <cfRule type="expression" dxfId="72" priority="159">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
-    <cfRule type="expression" dxfId="71" priority="158">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I76">
-    <cfRule type="expression" dxfId="70" priority="157">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I77">
-    <cfRule type="expression" dxfId="69" priority="156">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I79">
-    <cfRule type="expression" dxfId="68" priority="154">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I81">
-    <cfRule type="expression" dxfId="67" priority="153">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I82">
-    <cfRule type="expression" dxfId="66" priority="152">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I83">
-    <cfRule type="expression" dxfId="65" priority="151">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I84">
-    <cfRule type="expression" dxfId="64" priority="150">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I85">
-    <cfRule type="expression" dxfId="63" priority="149">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="expression" dxfId="62" priority="148">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="61" priority="147">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="60" priority="146">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="59" priority="145">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="58" priority="144">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="57" priority="143">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="56" priority="142">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="55" priority="141">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="54" priority="140">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="53" priority="72">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="52" priority="71">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="51" priority="70">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="50" priority="69">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="49" priority="68">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="48" priority="62">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="47" priority="66">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="46" priority="65">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="45" priority="64">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="44" priority="61">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="43" priority="60">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="42" priority="59">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="41" priority="58">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="40" priority="57">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="39" priority="56">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="38" priority="55">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="37" priority="54">
+    <cfRule type="expression" dxfId="35" priority="54">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="expression" dxfId="34" priority="40">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="35" priority="51">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
-    <cfRule type="expression" dxfId="34" priority="37">
+    <cfRule type="expression" dxfId="33" priority="52">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="33" priority="49">
+    <cfRule type="expression" dxfId="32" priority="51">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="32" priority="48">
+    <cfRule type="expression" dxfId="31" priority="50">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="expression" dxfId="31" priority="47">
+    <cfRule type="expression" dxfId="30" priority="49">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="30" priority="46">
+    <cfRule type="expression" dxfId="29" priority="48">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="29" priority="45">
+    <cfRule type="expression" dxfId="28" priority="47">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="expression" dxfId="27" priority="46">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="expression" dxfId="26" priority="45">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" dxfId="25" priority="44">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="expression" dxfId="24" priority="43">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="expression" dxfId="23" priority="42">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:V10">
+    <cfRule type="expression" dxfId="22" priority="32">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="expression" dxfId="20" priority="30">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I80">
+    <cfRule type="expression" dxfId="19" priority="29">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:K9">
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="16" priority="22">
+      <formula>K$1=$H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="15" priority="23">
+      <formula>K$1=$I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="expression" dxfId="14" priority="17">
+      <formula>K$1=$H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="expression" dxfId="13" priority="18">
+      <formula>K$1=$I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="expression" dxfId="12" priority="16">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:K10">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40:F41">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41:K41 H41">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>K$1=$H39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39:K39 H39">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="28" priority="44">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="27" priority="43">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="26" priority="42">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="25" priority="41">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="expression" dxfId="24" priority="40">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="23" priority="39">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9:V10">
-    <cfRule type="expression" dxfId="22" priority="29">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="21" priority="18">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="expression" dxfId="20" priority="27">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I80">
-    <cfRule type="expression" dxfId="19" priority="26">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:K9">
-    <cfRule type="expression" dxfId="18" priority="17">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="17" priority="16">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="16" priority="19">
-      <formula>K$1=$H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="15" priority="20">
-      <formula>K$1=$I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>K$1=$H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>K$1=$I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:K10">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>K$1=$H17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>K$1=$I17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17 J17:K17">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17 J17:K17">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>K$1=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40:F41">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>K$1=$H41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41:K41 H41">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0853CFD5-61D2-A947-B2A1-9FC2C2693185}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42E94BD-BA4A-6749-A523-3F719183D22D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20200" yWindow="1560" windowWidth="25720" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18980" yWindow="7660" windowWidth="25720" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,25 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="239">
   <si>
     <t>Name</t>
   </si>
@@ -661,9 +666,6 @@
   </si>
   <si>
     <t xml:space="preserve">:clock10: </t>
-  </si>
-  <si>
-    <t>MKT</t>
   </si>
   <si>
     <t>TZ EET</t>
@@ -1087,7 +1089,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1169,6 +1171,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1177,7 +1182,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="259">
+  <dxfs count="262">
     <dxf>
       <fill>
         <patternFill>
@@ -1230,6 +1235,20 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -1238,41 +1257,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -1281,6 +1265,62 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -1305,1203 +1345,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -2538,6 +1381,1161 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -2574,20 +2572,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -2596,6 +2580,48 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -2604,8 +2630,9 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3320,10 +3347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3385,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="3" t="str">
-        <f>H27</f>
+        <f>H28</f>
         <v>CET</v>
       </c>
       <c r="O1" s="3" t="str">
@@ -3393,19 +3420,19 @@
         <v>CXT</v>
       </c>
       <c r="P1" s="3" t="str">
-        <f>H19</f>
+        <f>H20</f>
         <v>EET</v>
       </c>
       <c r="Q1" s="3" t="str">
-        <f>H29</f>
+        <f>H30</f>
         <v>CET</v>
       </c>
       <c r="R1" s="3" t="str">
-        <f>H35</f>
+        <f>H36</f>
         <v>GMT</v>
       </c>
       <c r="S1" s="3" t="str">
-        <f>H80</f>
+        <f>H81</f>
         <v>AKST</v>
       </c>
       <c r="T1" s="3" t="str">
@@ -3961,10 +3988,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>80</v>
@@ -4039,10 +4066,10 @@
         <v>85</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>97</v>
@@ -4117,10 +4144,10 @@
         <v>201</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
@@ -4191,10 +4218,10 @@
         <v>87</v>
       </c>
       <c r="C12" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>90</v>
@@ -4267,10 +4294,10 @@
         <v>110</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>27</v>
@@ -4345,10 +4372,10 @@
         <v>203</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="19" t="s">
@@ -4419,10 +4446,10 @@
         <v>205</v>
       </c>
       <c r="C15" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="19" t="s">
@@ -4493,10 +4520,10 @@
         <v>39</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>17</v>
@@ -4571,10 +4598,10 @@
         <v>207</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="7" t="s">
@@ -4582,7 +4609,7 @@
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="27" t="s">
-        <v>209</v>
+        <v>10</v>
       </c>
       <c r="I17" s="23">
         <v>0.625</v>
@@ -4640,9 +4667,9 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
-      <c r="B18" s="18" t="s">
-        <v>210</v>
+      <c r="A18" s="50"/>
+      <c r="B18" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="C18" s="7">
         <v>17</v>
@@ -4650,75 +4677,77 @@
       <c r="D18" s="7">
         <v>17</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>212</v>
+      <c r="E18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="I18" s="23">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J18" s="30" t="s">
+        <v>0.625</v>
+      </c>
+      <c r="J18" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="25">
         <f>$I18+Sheet2!B$1/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="L18" s="23">
         <f>$I18+Sheet2!B$2/24</f>
-        <v>1.0416666666666665</v>
+        <v>1</v>
       </c>
       <c r="M18" s="23">
         <f>$I18+Sheet2!B$3/24</f>
-        <v>1</v>
+        <v>0.95833333333333326</v>
       </c>
       <c r="N18" s="23">
         <f>$I18+Sheet2!B$4/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="O18" s="23">
         <f>$I18+Sheet2!B$5/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="P18" s="23">
         <f>$I18+Sheet2!B$6/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="Q18" s="23">
         <f>$I18+Sheet2!B$7/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="R18" s="23">
         <f>$I18+Sheet2!B$8/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S18" s="23">
         <f>$I18+Sheet2!B$9/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="T18" s="23">
         <f>$I18+Sheet2!B$10/24</f>
-        <v>0.45833333333333326</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="U18" s="23">
         <f>$I18+Sheet2!B$11/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="V18" s="23">
         <f>$I18+Sheet2!B$12/24</f>
-        <v>0.37499999999999994</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="18" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="C19" s="7">
         <v>18</v>
@@ -4726,17 +4755,15 @@
       <c r="D19" s="7">
         <v>18</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>19</v>
-      </c>
+      <c r="E19" s="20"/>
       <c r="F19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>137</v>
+        <v>210</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I19" s="23">
         <v>0.66666666666666663</v>
@@ -4796,7 +4823,7 @@
     <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7">
         <v>19</v>
@@ -4805,16 +4832,16 @@
         <v>19</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>145</v>
+        <v>81</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I20" s="23">
         <v>0.66666666666666663</v>
@@ -4872,9 +4899,9 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="18" t="s">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="C21" s="7">
         <v>20</v>
@@ -4882,75 +4909,77 @@
       <c r="D21" s="7">
         <v>20</v>
       </c>
-      <c r="E21" s="20"/>
+      <c r="E21" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="F21" s="7" t="s">
-        <v>213</v>
+        <v>72</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I21" s="23">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J21" s="30" t="s">
         <v>14</v>
       </c>
       <c r="K21" s="11">
         <f>$I21+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="L21" s="23">
         <f>$I21+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="M21" s="23">
         <f>$I21+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>1</v>
       </c>
       <c r="N21" s="23">
         <f>$I21+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O21" s="23">
         <f>$I21+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P21" s="23">
         <f>$I21+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q21" s="23">
         <f>$I21+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="R21" s="23">
         <f>$I21+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="S21" s="23">
         <f>$I21+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="T21" s="23">
         <f>$I21+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="U21" s="23">
         <f>$I21+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="V21" s="23">
         <f>$I21+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="18" t="s">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="C22" s="7">
         <v>21</v>
@@ -4958,17 +4987,15 @@
       <c r="D22" s="7">
         <v>21</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>45</v>
+      <c r="E22" s="20"/>
+      <c r="F22" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I22" s="23">
         <v>0.70833333333333337</v>
@@ -5025,12 +5052,10 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="50" t="s">
-        <v>26</v>
-      </c>
+    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="41"/>
       <c r="B23" s="18" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="C23" s="7">
         <v>22</v>
@@ -5038,15 +5063,17 @@
       <c r="D23" s="7">
         <v>22</v>
       </c>
-      <c r="E23" s="20"/>
+      <c r="E23" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="F23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="48" t="s">
-        <v>191</v>
+      <c r="G23" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I23" s="23">
         <v>0.70833333333333337</v>
@@ -5058,55 +5085,57 @@
         <f>$I23+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="23">
         <f>$I23+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M23" s="23">
         <f>$I23+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N23" s="23">
         <f>$I23+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O23" s="16">
+      <c r="O23" s="23">
         <f>$I23+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P23" s="16">
+      <c r="P23" s="23">
         <f>$I23+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q23" s="16">
+      <c r="Q23" s="23">
         <f>$I23+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R23" s="16">
+      <c r="R23" s="23">
         <f>$I23+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S23" s="16">
+      <c r="S23" s="23">
         <f>$I23+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T23" s="16">
+      <c r="T23" s="23">
         <f>$I23+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U23" s="16">
+      <c r="U23" s="23">
         <f>$I23+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V23" s="16">
+      <c r="V23" s="23">
         <f>$I23+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51" t="s">
+        <v>26</v>
+      </c>
       <c r="B24" s="18" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="C24" s="7">
         <v>23</v>
@@ -5114,17 +5143,15 @@
       <c r="D24" s="7">
         <v>23</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>117</v>
+      <c r="E24" s="20"/>
+      <c r="F24" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>191</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I24" s="23">
         <v>0.70833333333333337</v>
@@ -5182,9 +5209,9 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="18" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C25" s="7">
         <v>24</v>
@@ -5193,16 +5220,16 @@
         <v>24</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="44" t="s">
-        <v>138</v>
+        <v>115</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I25" s="23">
         <v>0.70833333333333337</v>
@@ -5214,55 +5241,55 @@
         <f>$I25+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="16">
         <f>$I25+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="16">
         <f>$I25+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="16">
         <f>$I25+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O25" s="23">
+      <c r="O25" s="16">
         <f>$I25+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P25" s="23">
+      <c r="P25" s="16">
         <f>$I25+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q25" s="23">
+      <c r="Q25" s="16">
         <f>$I25+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R25" s="23">
+      <c r="R25" s="16">
         <f>$I25+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S25" s="16">
         <f>$I25+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T25" s="23">
+      <c r="T25" s="16">
         <f>$I25+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U25" s="23">
+      <c r="U25" s="16">
         <f>$I25+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V25" s="23">
+      <c r="V25" s="16">
         <f>$I25+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>25</v>
@@ -5271,16 +5298,16 @@
         <v>25</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="29" t="s">
-        <v>139</v>
+      <c r="G26" s="44" t="s">
+        <v>138</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I26" s="23">
         <v>0.70833333333333337</v>
@@ -5338,9 +5365,9 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="18" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C27" s="7">
         <v>26</v>
@@ -5349,16 +5376,16 @@
         <v>26</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>140</v>
+        <v>17</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I27" s="23">
         <v>0.70833333333333337</v>
@@ -5416,9 +5443,9 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="18" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="C28" s="7">
         <v>27</v>
@@ -5427,16 +5454,16 @@
         <v>27</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>126</v>
+        <v>77</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I28" s="23">
         <v>0.70833333333333337</v>
@@ -5494,9 +5521,9 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
-      <c r="B29" s="12" t="s">
-        <v>42</v>
+      <c r="A29" s="51"/>
+      <c r="B29" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="C29" s="7">
         <v>28</v>
@@ -5504,17 +5531,17 @@
       <c r="D29" s="7">
         <v>28</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>15</v>
+      <c r="E29" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>141</v>
+        <v>72</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I29" s="23">
         <v>0.70833333333333337</v>
@@ -5526,55 +5553,55 @@
         <f>$I29+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L29" s="23">
         <f>$I29+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M29" s="23">
         <f>$I29+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N29" s="16">
+      <c r="N29" s="23">
         <f>$I29+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O29" s="16">
+      <c r="O29" s="23">
         <f>$I29+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P29" s="16">
+      <c r="P29" s="23">
         <f>$I29+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q29" s="16">
+      <c r="Q29" s="23">
         <f>$I29+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R29" s="16">
+      <c r="R29" s="23">
         <f>$I29+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S29" s="16">
+      <c r="S29" s="23">
         <f>$I29+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T29" s="16">
+      <c r="T29" s="23">
         <f>$I29+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U29" s="16">
+      <c r="U29" s="23">
         <f>$I29+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V29" s="16">
+      <c r="V29" s="23">
         <f>$I29+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="18" t="s">
-        <v>46</v>
+      <c r="A30" s="51"/>
+      <c r="B30" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="C30" s="7">
         <v>29</v>
@@ -5585,14 +5612,14 @@
       <c r="E30" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>143</v>
+      <c r="F30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>141</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I30" s="23">
         <v>0.70833333333333337</v>
@@ -5604,147 +5631,147 @@
         <f>$I30+Sheet2!B$1/24</f>
         <v>1.125</v>
       </c>
-      <c r="L30" s="23">
+      <c r="L30" s="16">
         <f>$I30+Sheet2!B$2/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="M30" s="23">
+      <c r="M30" s="16">
         <f>$I30+Sheet2!B$3/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N30" s="23">
+      <c r="N30" s="16">
         <f>$I30+Sheet2!B$4/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O30" s="23">
+      <c r="O30" s="16">
         <f>$I30+Sheet2!B$5/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P30" s="23">
+      <c r="P30" s="16">
         <f>$I30+Sheet2!B$6/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q30" s="23">
+      <c r="Q30" s="16">
         <f>$I30+Sheet2!B$7/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="R30" s="23">
+      <c r="R30" s="16">
         <f>$I30+Sheet2!B$8/24</f>
         <v>0.75</v>
       </c>
-      <c r="S30" s="23">
+      <c r="S30" s="16">
         <f>$I30+Sheet2!B$9/24</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="T30" s="23">
+      <c r="T30" s="16">
         <f>$I30+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U30" s="23">
+      <c r="U30" s="16">
         <f>$I30+Sheet2!B$11/24</f>
         <v>0.45833333333333337</v>
       </c>
-      <c r="V30" s="23">
+      <c r="V30" s="16">
         <f>$I30+Sheet2!B$12/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="50"/>
+    <row r="31" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="51"/>
       <c r="B31" s="18" t="s">
-        <v>215</v>
+        <v>46</v>
       </c>
       <c r="C31" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="7">
-        <v>31</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G31" s="29"/>
+        <v>30</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>143</v>
+      </c>
       <c r="H31" s="29" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I31" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="J31" s="26" t="s">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J31" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="25">
+      <c r="K31" s="11">
         <f>$I31+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="L31" s="23">
         <f>$I31+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M31" s="23">
         <f>$I31+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N31" s="23">
         <f>$I31+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O31" s="23">
         <f>$I31+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P31" s="23">
         <f>$I31+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q31" s="23">
         <f>$I31+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R31" s="23">
         <f>$I31+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S31" s="23">
         <f>$I31+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T31" s="23">
         <f>$I31+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="U31" s="23">
         <f>$I31+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V31" s="23">
         <f>$I31+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="18" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="C32" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="7">
-        <v>32</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>115</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E32" s="20"/>
       <c r="F32" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>131</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G32" s="29"/>
       <c r="H32" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I32" s="23">
         <v>0.75</v>
@@ -5802,27 +5829,27 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="50"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="18" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C33" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I33" s="23">
         <v>0.75</v>
@@ -5880,183 +5907,183 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="50"/>
-      <c r="B34" s="12" t="s">
-        <v>51</v>
+      <c r="A34" s="51"/>
+      <c r="B34" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="C34" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="7">
-        <v>34</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>147</v>
+        <v>33</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I34" s="23">
         <v>0.75</v>
       </c>
-      <c r="J34" s="28" t="s">
+      <c r="J34" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K34" s="31">
+      <c r="K34" s="25">
         <f>$I34+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="23">
         <f>$I34+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M34" s="23">
         <f>$I34+Sheet2!B$3/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="N34" s="16">
+      <c r="N34" s="23">
         <f>$I34+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O34" s="23">
         <f>$I34+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="P34" s="16">
+      <c r="P34" s="23">
         <f>$I34+Sheet2!B$6/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q34" s="16">
+      <c r="Q34" s="23">
         <f>$I34+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R34" s="16">
+      <c r="R34" s="23">
         <f>$I34+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="S34" s="16">
+      <c r="S34" s="23">
         <f>$I34+Sheet2!B$9/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="T34" s="16">
+      <c r="T34" s="23">
         <f>$I34+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U34" s="16">
+      <c r="U34" s="23">
         <f>$I34+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="V34" s="16">
+      <c r="V34" s="23">
         <f>$I34+Sheet2!B$12/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
-      <c r="B35" s="32" t="s">
-        <v>82</v>
+      <c r="A35" s="51"/>
+      <c r="B35" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="C35" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="7">
-        <v>35</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="34" t="s">
-        <v>148</v>
+        <v>34</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I35" s="23">
         <v>0.75</v>
       </c>
-      <c r="J35" s="26" t="s">
+      <c r="J35" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="K35" s="25">
+      <c r="K35" s="31">
         <f>$I35+Sheet2!B$1/24</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L35" s="23">
+      <c r="L35" s="16">
         <f>$I35+Sheet2!B$2/24</f>
         <v>1.125</v>
       </c>
-      <c r="M35" s="23">
+      <c r="M35" s="16">
         <f>$I35+Sheet2!B$3/24</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="N35" s="23">
+      <c r="N35" s="16">
         <f>$I35+Sheet2!B$4/24</f>
         <v>0.875</v>
       </c>
-      <c r="O35" s="23">
+      <c r="O35" s="16">
         <f>$I35+Sheet2!B$5/24</f>
         <v>0.875</v>
       </c>
-      <c r="P35" s="23">
+      <c r="P35" s="16">
         <f>$I35+Sheet2!B$6/24</f>
         <v>0.875</v>
       </c>
-      <c r="Q35" s="23">
+      <c r="Q35" s="16">
         <f>$I35+Sheet2!B$7/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="R35" s="23">
+      <c r="R35" s="16">
         <f>$I35+Sheet2!B$8/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="S35" s="23">
+      <c r="S35" s="16">
         <f>$I35+Sheet2!B$9/24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="T35" s="23">
+      <c r="T35" s="16">
         <f>$I35+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U35" s="23">
+      <c r="U35" s="16">
         <f>$I35+Sheet2!B$11/24</f>
         <v>0.5</v>
       </c>
-      <c r="V35" s="23">
+      <c r="V35" s="16">
         <f>$I35+Sheet2!B$12/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
-      <c r="B36" s="18" t="s">
-        <v>52</v>
+      <c r="A36" s="51"/>
+      <c r="B36" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="C36" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>149</v>
+        <v>77</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>148</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I36" s="23">
         <v>0.75</v>
@@ -6114,163 +6141,167 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="18" t="s">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="C37" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="7">
-        <v>37</v>
-      </c>
-      <c r="E37" s="20"/>
+        <v>36</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="F37" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="29"/>
+        <v>89</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>149</v>
+      </c>
       <c r="H37" s="29" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I37" s="23">
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="J37" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K37" s="25">
         <f>$I37+Sheet2!B$1/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L37" s="23">
         <f>$I37+Sheet2!B$2/24</f>
-        <v>1.1666666666666665</v>
+        <v>1.125</v>
       </c>
       <c r="M37" s="23">
         <f>$I37+Sheet2!B$3/24</f>
-        <v>1.125</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N37" s="23">
         <f>$I37+Sheet2!B$4/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="O37" s="23">
         <f>$I37+Sheet2!B$5/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="P37" s="23">
         <f>$I37+Sheet2!B$6/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="Q37" s="23">
         <f>$I37+Sheet2!B$7/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R37" s="23">
         <f>$I37+Sheet2!B$8/24</f>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S37" s="23">
         <f>$I37+Sheet2!B$9/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T37" s="23">
         <f>$I37+Sheet2!B$10/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U37" s="23">
         <f>$I37+Sheet2!B$11/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="V37" s="23">
         <f>$I37+Sheet2!B$12/24</f>
-        <v>0.49999999999999994</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C38" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="7" t="s">
-        <v>221</v>
+        <v>105</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="29" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I38" s="23">
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="J38" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K38" s="25">
         <f>$I38+Sheet2!B$1/24</f>
-        <v>1.25</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="L38" s="23">
         <f>$I38+Sheet2!B$2/24</f>
-        <v>1.2083333333333335</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="M38" s="23">
         <f>$I38+Sheet2!B$3/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="N38" s="23">
         <f>$I38+Sheet2!B$4/24</f>
-        <v>0.95833333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O38" s="23">
         <f>$I38+Sheet2!B$5/24</f>
-        <v>0.95833333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="P38" s="23">
         <f>$I38+Sheet2!B$6/24</f>
-        <v>0.95833333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="Q38" s="23">
         <f>$I38+Sheet2!B$7/24</f>
-        <v>0.91666666666666674</v>
+        <v>0.875</v>
       </c>
       <c r="R38" s="23">
         <f>$I38+Sheet2!B$8/24</f>
-        <v>0.875</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="S38" s="23">
         <f>$I38+Sheet2!B$9/24</f>
-        <v>0.66666666666666674</v>
+        <v>0.625</v>
       </c>
       <c r="T38" s="23">
         <f>$I38+Sheet2!B$10/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="U38" s="23">
         <f>$I38+Sheet2!B$11/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="V38" s="23">
         <f>$I38+Sheet2!B$12/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="18" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="C39" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D39" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>27</v>
@@ -6278,89 +6309,85 @@
       <c r="F39" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="9" t="s">
-        <v>156</v>
+      <c r="G39" s="46" t="s">
+        <v>128</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I39" s="23">
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="J39" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K39" s="25">
         <f>$I39+Sheet2!B$1/24</f>
-        <v>1.25</v>
-      </c>
-      <c r="L39" s="23">
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="L39" s="16">
         <f>$I39+Sheet2!B$2/24</f>
-        <v>1.2083333333333335</v>
-      </c>
-      <c r="M39" s="23">
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="M39" s="16">
         <f>$I39+Sheet2!B$3/24</f>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="N39" s="23">
+        <v>1.125</v>
+      </c>
+      <c r="N39" s="16">
         <f>$I39+Sheet2!B$4/24</f>
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="O39" s="23">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="O39" s="16">
         <f>$I39+Sheet2!B$5/24</f>
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="P39" s="23">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="P39" s="16">
         <f>$I39+Sheet2!B$6/24</f>
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="Q39" s="23">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Q39" s="16">
         <f>$I39+Sheet2!B$7/24</f>
-        <v>0.91666666666666674</v>
-      </c>
-      <c r="R39" s="23">
+        <v>0.875</v>
+      </c>
+      <c r="R39" s="16">
         <f>$I39+Sheet2!B$8/24</f>
-        <v>0.875</v>
-      </c>
-      <c r="S39" s="23">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="S39" s="16">
         <f>$I39+Sheet2!B$9/24</f>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="T39" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="T39" s="16">
         <f>$I39+Sheet2!B$10/24</f>
-        <v>0.625</v>
-      </c>
-      <c r="U39" s="23">
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="U39" s="16">
         <f>$I39+Sheet2!B$11/24</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="V39" s="23">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="V39" s="16">
         <f>$I39+Sheet2!B$12/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="18" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="C40" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="7">
-        <v>39</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="34" t="s">
-        <v>189</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" s="29"/>
       <c r="H40" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I40" s="23">
         <v>0.83333333333333337</v>
@@ -6418,27 +6445,27 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="50"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="18" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="C41" s="7">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D41" s="7">
-        <v>30</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>72</v>
+        <v>39</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I41" s="23">
         <v>0.83333333333333337</v>
@@ -6496,9 +6523,9 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="50"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="18" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="C42" s="7">
         <v>40</v>
@@ -6509,14 +6536,14 @@
       <c r="E42" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>75</v>
+      <c r="F42" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I42" s="23">
         <v>0.83333333333333337</v>
@@ -6574,9 +6601,9 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="50"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="18" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="C43" s="7">
         <v>41</v>
@@ -6584,73 +6611,77 @@
       <c r="D43" s="7">
         <v>41</v>
       </c>
-      <c r="E43" s="33"/>
+      <c r="E43" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="F43" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G43" s="34"/>
+        <v>72</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="H43" s="29" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I43" s="23">
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J43" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K43" s="25">
         <f>$I43+Sheet2!B$1/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="L43" s="23">
         <f>$I43+Sheet2!B$2/24</f>
-        <v>1.25</v>
+        <v>1.2083333333333335</v>
       </c>
       <c r="M43" s="23">
         <f>$I43+Sheet2!B$3/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="N43" s="23">
         <f>$I43+Sheet2!B$4/24</f>
-        <v>1</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="O43" s="23">
         <f>$I43+Sheet2!B$5/24</f>
-        <v>1</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="P43" s="23">
         <f>$I43+Sheet2!B$6/24</f>
-        <v>1</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="Q43" s="23">
         <f>$I43+Sheet2!B$7/24</f>
-        <v>0.95833333333333337</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="R43" s="23">
         <f>$I43+Sheet2!B$8/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="S43" s="23">
         <f>$I43+Sheet2!B$9/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="T43" s="23">
         <f>$I43+Sheet2!B$10/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="U43" s="23">
         <f>$I43+Sheet2!B$11/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="V43" s="23">
         <f>$I43+Sheet2!B$12/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666674</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="50"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="18" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C44" s="7">
         <v>42</v>
@@ -6659,76 +6690,76 @@
         <v>42</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I44" s="23">
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J44" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K44" s="25">
         <f>$I44+Sheet2!B$1/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="L44" s="23">
         <f>$I44+Sheet2!B$2/24</f>
-        <v>1.25</v>
+        <v>1.2083333333333335</v>
       </c>
       <c r="M44" s="23">
         <f>$I44+Sheet2!B$3/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="N44" s="23">
         <f>$I44+Sheet2!B$4/24</f>
-        <v>1</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="O44" s="23">
         <f>$I44+Sheet2!B$5/24</f>
-        <v>1</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="P44" s="23">
         <f>$I44+Sheet2!B$6/24</f>
-        <v>1</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="Q44" s="23">
         <f>$I44+Sheet2!B$7/24</f>
-        <v>0.95833333333333337</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="R44" s="23">
         <f>$I44+Sheet2!B$8/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="S44" s="23">
         <f>$I44+Sheet2!B$9/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="T44" s="23">
         <f>$I44+Sheet2!B$10/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="U44" s="23">
         <f>$I44+Sheet2!B$11/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="V44" s="23">
         <f>$I44+Sheet2!B$12/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666674</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="50"/>
+    <row r="45" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="51"/>
       <c r="B45" s="18" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="C45" s="7">
         <v>43</v>
@@ -6736,17 +6767,13 @@
       <c r="D45" s="7">
         <v>43</v>
       </c>
-      <c r="E45" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="29" t="s">
-        <v>144</v>
-      </c>
+      <c r="E45" s="33"/>
+      <c r="F45" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G45" s="34"/>
       <c r="H45" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I45" s="23">
         <v>0.875</v>
@@ -6754,7 +6781,7 @@
       <c r="J45" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K45" s="25">
         <f>$I45+Sheet2!B$1/24</f>
         <v>1.2916666666666667</v>
       </c>
@@ -6804,9 +6831,9 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="50"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="18" t="s">
-        <v>224</v>
+        <v>102</v>
       </c>
       <c r="C46" s="7">
         <v>44</v>
@@ -6814,73 +6841,77 @@
       <c r="D46" s="7">
         <v>44</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G46" s="29"/>
+      <c r="E46" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>144</v>
+      </c>
       <c r="H46" s="29" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I46" s="23">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="J46" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K46" s="25">
+      <c r="K46" s="11">
         <f>$I46+Sheet2!B$1/24</f>
-        <v>1.3333333333333333</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="L46" s="23">
         <f>$I46+Sheet2!B$2/24</f>
-        <v>1.2916666666666665</v>
+        <v>1.25</v>
       </c>
       <c r="M46" s="23">
         <f>$I46+Sheet2!B$3/24</f>
-        <v>1.25</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="N46" s="23">
         <f>$I46+Sheet2!B$4/24</f>
-        <v>1.0416666666666665</v>
+        <v>1</v>
       </c>
       <c r="O46" s="23">
         <f>$I46+Sheet2!B$5/24</f>
-        <v>1.0416666666666665</v>
+        <v>1</v>
       </c>
       <c r="P46" s="23">
         <f>$I46+Sheet2!B$6/24</f>
-        <v>1.0416666666666665</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="23">
         <f>$I46+Sheet2!B$7/24</f>
-        <v>1</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="R46" s="23">
         <f>$I46+Sheet2!B$8/24</f>
-        <v>0.95833333333333326</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="S46" s="23">
         <f>$I46+Sheet2!B$9/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="T46" s="23">
         <f>$I46+Sheet2!B$10/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U46" s="23">
         <f>$I46+Sheet2!B$11/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="V46" s="23">
         <f>$I46+Sheet2!B$12/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333326</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="50"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="18" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="C47" s="7">
         <v>45</v>
@@ -6888,17 +6919,13 @@
       <c r="D47" s="7">
         <v>45</v>
       </c>
-      <c r="E47" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>162</v>
-      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G47" s="29"/>
       <c r="H47" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I47" s="23">
         <v>0.91666666666666663</v>
@@ -6958,7 +6985,7 @@
     <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="51"/>
       <c r="B48" s="18" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="C48" s="7">
         <v>46</v>
@@ -6966,73 +6993,77 @@
       <c r="D48" s="7">
         <v>46</v>
       </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G48" s="29"/>
+      <c r="E48" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="H48" s="29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I48" s="23">
-        <v>0.95833333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="J48" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K48" s="25">
         <f>$I48+Sheet2!B$1/24</f>
-        <v>1.375</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="L48" s="23">
         <f>$I48+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M48" s="23">
         <f>$I48+Sheet2!B$3/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="N48" s="23">
         <f>$I48+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="O48" s="23">
         <f>$I48+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="P48" s="23">
         <f>$I48+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="Q48" s="23">
         <f>$I48+Sheet2!B$7/24</f>
-        <v>1.0416666666666667</v>
+        <v>1</v>
       </c>
       <c r="R48" s="23">
         <f>$I48+Sheet2!B$8/24</f>
-        <v>1</v>
+        <v>0.95833333333333326</v>
       </c>
       <c r="S48" s="23">
         <f>$I48+Sheet2!B$9/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="T48" s="23">
         <f>$I48+Sheet2!B$10/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="U48" s="23">
         <f>$I48+Sheet2!B$11/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V48" s="23">
         <f>$I48+Sheet2!B$12/24</f>
-        <v>0.66666666666666674</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="51"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="18" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C49" s="7">
         <v>47</v>
@@ -7040,17 +7071,13 @@
       <c r="D49" s="7">
         <v>47</v>
       </c>
-      <c r="E49" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>152</v>
-      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G49" s="29"/>
       <c r="H49" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I49" s="23">
         <v>0.95833333333333337</v>
@@ -7107,10 +7134,10 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="51"/>
+    <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="52"/>
       <c r="B50" s="18" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C50" s="7">
         <v>48</v>
@@ -7118,17 +7145,17 @@
       <c r="D50" s="7">
         <v>48</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="29" t="s">
-        <v>153</v>
+      <c r="F50" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I50" s="23">
         <v>0.95833333333333337</v>
@@ -7185,10 +7212,10 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
-      <c r="B51" s="12" t="s">
-        <v>35</v>
+    <row r="51" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="52"/>
+      <c r="B51" s="18" t="s">
+        <v>94</v>
       </c>
       <c r="C51" s="7">
         <v>49</v>
@@ -7196,18 +7223,17 @@
       <c r="D51" s="7">
         <v>49</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G51" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="H51" s="29" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
+      <c r="G51" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>226</v>
       </c>
       <c r="I51" s="23">
         <v>0.95833333333333337</v>
@@ -7215,7 +7241,7 @@
       <c r="J51" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K51" s="25">
         <f>$I51+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -7265,7 +7291,7 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="51"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="12" t="s">
         <v>33</v>
       </c>
@@ -7285,7 +7311,7 @@
         <v>155</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I52" s="23">
         <v>0.95833333333333337</v>
@@ -7343,15 +7369,15 @@
       </c>
     </row>
     <row r="53" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="51"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>27</v>
@@ -7363,7 +7389,7 @@
         <v>157</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I53" s="23">
         <v>0.95833333333333337</v>
@@ -7421,15 +7447,15 @@
       </c>
     </row>
     <row r="54" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="51"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C54" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>27</v>
@@ -7441,7 +7467,7 @@
         <v>158</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I54" s="23">
         <v>0.95833333333333337</v>
@@ -7499,15 +7525,15 @@
       </c>
     </row>
     <row r="55" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="51"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C55" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D55" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>27</v>
@@ -7519,7 +7545,7 @@
         <v>159</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I55" s="23">
         <v>0.95833333333333337</v>
@@ -7577,15 +7603,15 @@
       </c>
     </row>
     <row r="56" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="51"/>
+      <c r="A56" s="52"/>
       <c r="B56" s="18" t="s">
         <v>98</v>
       </c>
       <c r="C56" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E56" s="39" t="s">
         <v>27</v>
@@ -7597,7 +7623,7 @@
         <v>160</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I56" s="23">
         <v>0.95833333333333337</v>
@@ -7654,94 +7680,19 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="51"/>
-      <c r="B57" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" s="7">
-        <v>56</v>
-      </c>
-      <c r="D57" s="7">
-        <v>56</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="H57" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="I57" s="23">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="J57" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="K57" s="31">
-        <f>$I57+Sheet2!B$1/24</f>
-        <v>1.375</v>
-      </c>
-      <c r="L57" s="16">
-        <f>$I57+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="M57" s="16">
-        <f>$I57+Sheet2!B$3/24</f>
-        <v>1.2916666666666667</v>
-      </c>
-      <c r="N57" s="16">
-        <f>$I57+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="O57" s="16">
-        <f>$I57+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="P57" s="16">
-        <f>$I57+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="Q57" s="16">
-        <f>$I57+Sheet2!B$7/24</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="R57" s="16">
-        <f>$I57+Sheet2!B$8/24</f>
-        <v>1</v>
-      </c>
-      <c r="S57" s="16">
-        <f>$I57+Sheet2!B$9/24</f>
-        <v>0.79166666666666674</v>
-      </c>
-      <c r="T57" s="16">
-        <f>$I57+Sheet2!B$10/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="U57" s="16">
-        <f>$I57+Sheet2!B$11/24</f>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="V57" s="16">
-        <f>$I57+Sheet2!B$12/24</f>
-        <v>0.66666666666666674</v>
-      </c>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A57" s="52"/>
     </row>
     <row r="58" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="51"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C58" s="7">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D58" s="7">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>27</v>
@@ -7753,7 +7704,7 @@
         <v>163</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I58" s="23">
         <v>0.95833333333333337</v>
@@ -7811,19 +7762,19 @@
       </c>
     </row>
     <row r="59" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="51"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="18" t="s">
         <v>107</v>
       </c>
       <c r="C59" s="7">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D59" s="7">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="29" t="s">
@@ -7885,15 +7836,15 @@
       </c>
     </row>
     <row r="60" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="51"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="35" t="s">
         <v>99</v>
       </c>
       <c r="C60" s="7">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D60" s="7">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E60" s="14" t="s">
         <v>27</v>
@@ -7963,15 +7914,15 @@
       </c>
     </row>
     <row r="61" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="51"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="35" t="s">
         <v>59</v>
       </c>
       <c r="C61" s="7">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D61" s="7">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E61" s="14" t="s">
         <v>27</v>
@@ -8041,15 +7992,15 @@
       </c>
     </row>
     <row r="62" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="51"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="35" t="s">
         <v>57</v>
       </c>
       <c r="C62" s="7">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D62" s="7">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E62" s="14" t="s">
         <v>27</v>
@@ -8119,15 +8070,15 @@
       </c>
     </row>
     <row r="63" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="51"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="18" t="s">
         <v>91</v>
       </c>
       <c r="C63" s="7">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D63" s="7">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E63" s="39" t="s">
         <v>27</v>
@@ -8197,15 +8148,15 @@
       </c>
     </row>
     <row r="64" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="51"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="18" t="s">
         <v>186</v>
       </c>
       <c r="C64" s="7">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D64" s="7">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E64" s="39" t="s">
         <v>27</v>
@@ -8275,15 +8226,15 @@
       </c>
     </row>
     <row r="65" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="51"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C65" s="7">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D65" s="7">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E65" s="14" t="s">
         <v>27</v>
@@ -8353,15 +8304,15 @@
       </c>
     </row>
     <row r="66" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="51"/>
+      <c r="A66" s="52"/>
       <c r="B66" s="35" t="s">
         <v>63</v>
       </c>
       <c r="C66" s="7">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D66" s="7">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>27</v>
@@ -8431,15 +8382,15 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="51"/>
+      <c r="A67" s="52"/>
       <c r="B67" s="35" t="s">
         <v>61</v>
       </c>
       <c r="C67" s="7">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D67" s="7">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E67" s="14" t="s">
         <v>27</v>
@@ -8509,15 +8460,15 @@
       </c>
     </row>
     <row r="68" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="51"/>
+      <c r="A68" s="52"/>
       <c r="B68" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C68" s="7">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D68" s="7">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E68" s="14" t="s">
         <v>27</v>
@@ -8587,15 +8538,15 @@
       </c>
     </row>
     <row r="69" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="51"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="12" t="s">
         <v>95</v>
       </c>
       <c r="C69" s="7">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D69" s="7">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E69" s="14" t="s">
         <v>27</v>
@@ -8665,15 +8616,15 @@
       </c>
     </row>
     <row r="70" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="51"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C70" s="7">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D70" s="7">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E70" s="14" t="s">
         <v>27</v>
@@ -8743,15 +8694,15 @@
       </c>
     </row>
     <row r="71" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="51"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="7">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D71" s="7">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E71" s="14" t="s">
         <v>27</v>
@@ -8821,15 +8772,15 @@
       </c>
     </row>
     <row r="72" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="51"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C72" s="7">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D72" s="7">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>27</v>
@@ -8899,15 +8850,15 @@
       </c>
     </row>
     <row r="73" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="51"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C73" s="7">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D73" s="7">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="19" t="s">
@@ -8915,7 +8866,7 @@
       </c>
       <c r="G73" s="29"/>
       <c r="H73" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I73" s="23">
         <v>4.1666666666666664E-2</v>
@@ -8973,27 +8924,27 @@
       </c>
     </row>
     <row r="74" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="51"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="18" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C74" s="7">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D74" s="7">
-        <v>74</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>92</v>
+        <v>72</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I74" s="23">
         <v>4.1666666666666664E-2</v>
@@ -9051,101 +9002,101 @@
       </c>
     </row>
     <row r="75" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="51"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="18" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C75" s="7">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D75" s="7">
-        <v>75</v>
-      </c>
-      <c r="E75" s="14"/>
-      <c r="F75" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="G75" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G75" s="34" t="s">
+        <v>175</v>
+      </c>
       <c r="H75" s="29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I75" s="23">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J75" s="28" t="s">
         <v>14</v>
       </c>
       <c r="K75" s="25">
         <f>$I75+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L75" s="23">
         <f>$I75+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M75" s="23">
         <f>$I75+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="N75" s="23">
         <f>$I75+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O75" s="23">
         <f>$I75+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P75" s="23">
         <f>$I75+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q75" s="23">
         <f>$I75+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="R75" s="23">
         <f>$I75+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S75" s="23">
         <f>$I75+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="T75" s="23">
         <f>$I75+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U75" s="23">
         <f>$I75+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V75" s="23">
         <f>$I75+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="76" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="51"/>
+      <c r="A76" s="52"/>
       <c r="B76" s="18" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="C76" s="7">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D76" s="7">
-        <v>76</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>27</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E76" s="14"/>
       <c r="F76" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" s="21" t="s">
-        <v>177</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G76" s="29"/>
       <c r="H76" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I76" s="23">
         <v>8.3333333333333329E-2</v>
@@ -9203,27 +9154,27 @@
       </c>
     </row>
     <row r="77" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="51"/>
-      <c r="B77" s="35" t="s">
-        <v>67</v>
+      <c r="A77" s="52"/>
+      <c r="B77" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="C77" s="7">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D77" s="7">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E77" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F77" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>178</v>
+      <c r="F77" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>177</v>
       </c>
       <c r="H77" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I77" s="23">
         <v>8.3333333333333329E-2</v>
@@ -9281,101 +9232,101 @@
       </c>
     </row>
     <row r="78" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="51"/>
-      <c r="B78" s="18" t="s">
+      <c r="A78" s="52"/>
+      <c r="B78" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="7">
+        <v>76</v>
+      </c>
+      <c r="D78" s="7">
+        <v>76</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H78" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="7">
-        <v>78</v>
-      </c>
-      <c r="D78" s="7">
-        <v>78</v>
-      </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29" t="s">
-        <v>231</v>
-      </c>
       <c r="I78" s="23">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J78" s="28" t="s">
         <v>14</v>
       </c>
       <c r="K78" s="25">
         <f>$I78+Sheet2!B$1/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.5</v>
       </c>
       <c r="L78" s="23">
         <f>$I78+Sheet2!B$2/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="M78" s="23">
         <f>$I78+Sheet2!B$3/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="N78" s="23">
         <f>$I78+Sheet2!B$4/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="O78" s="23">
         <f>$I78+Sheet2!B$5/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="P78" s="23">
         <f>$I78+Sheet2!B$6/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="Q78" s="23">
         <f>$I78+Sheet2!B$7/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R78" s="23">
         <f>$I78+Sheet2!B$8/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="S78" s="23">
         <f>$I78+Sheet2!B$9/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>-8.3333333333333329E-2</v>
       </c>
       <c r="T78" s="23">
         <f>$I78+Sheet2!B$10/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="U78" s="23">
         <f>$I78+Sheet2!B$11/24</f>
-        <v>-0.125</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="V78" s="23">
         <f>$I78+Sheet2!B$12/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.20833333333333337</v>
       </c>
     </row>
     <row r="79" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="51"/>
+      <c r="A79" s="52"/>
       <c r="B79" s="18" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="C79" s="7">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D79" s="7">
-        <v>79</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" s="37" t="s">
-        <v>179</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E79" s="14"/>
+      <c r="F79" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G79" s="29"/>
       <c r="H79" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I79" s="23">
         <v>0.125</v>
@@ -9433,32 +9384,32 @@
       </c>
     </row>
     <row r="80" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="51"/>
+      <c r="A80" s="52"/>
       <c r="B80" s="18" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C80" s="7">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D80" s="7">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E80" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="19" t="s">
+      <c r="F80" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="9" t="s">
-        <v>161</v>
+      <c r="G80" s="37" t="s">
+        <v>179</v>
       </c>
       <c r="H80" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I80" s="23">
         <v>0.125</v>
       </c>
-      <c r="J80" s="26" t="s">
+      <c r="J80" s="28" t="s">
         <v>14</v>
       </c>
       <c r="K80" s="25">
@@ -9511,175 +9462,175 @@
       </c>
     </row>
     <row r="81" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="51"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="18" t="s">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="C81" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D81" s="7">
-        <v>80</v>
-      </c>
-      <c r="E81" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="F81" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="G81" s="29"/>
+        <v>20</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="H81" s="29" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I81" s="23">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J81" s="28" t="s">
+        <v>0.125</v>
+      </c>
+      <c r="J81" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K81" s="25">
         <f>$I81+Sheet2!B$1/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="L81" s="23">
         <f>$I81+Sheet2!B$2/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="M81" s="23">
         <f>$I81+Sheet2!B$3/24</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N81" s="23">
         <f>$I81+Sheet2!B$4/24</f>
-        <v>0.29166666666666663</v>
+        <v>0.25</v>
       </c>
       <c r="O81" s="23">
         <f>$I81+Sheet2!B$5/24</f>
-        <v>0.29166666666666663</v>
+        <v>0.25</v>
       </c>
       <c r="P81" s="23">
         <f>$I81+Sheet2!B$6/24</f>
-        <v>0.29166666666666663</v>
+        <v>0.25</v>
       </c>
       <c r="Q81" s="23">
         <f>$I81+Sheet2!B$7/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="R81" s="23">
         <f>$I81+Sheet2!B$8/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S81" s="23">
         <f>$I81+Sheet2!B$9/24</f>
-        <v>0</v>
+        <v>-4.1666666666666657E-2</v>
       </c>
       <c r="T81" s="23">
         <f>$I81+Sheet2!B$10/24</f>
-        <v>-4.1666666666666685E-2</v>
+        <v>-8.3333333333333343E-2</v>
       </c>
       <c r="U81" s="23">
         <f>$I81+Sheet2!B$11/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="V81" s="23">
         <f>$I81+Sheet2!B$12/24</f>
-        <v>-0.12500000000000003</v>
+        <v>-0.16666666666666669</v>
       </c>
     </row>
     <row r="82" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="51"/>
+      <c r="A82" s="52"/>
       <c r="B82" s="18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C82" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D82" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="19" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G82" s="29"/>
       <c r="H82" s="29" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I82" s="23">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J82" s="28" t="s">
         <v>14</v>
       </c>
       <c r="K82" s="25">
         <f>$I82+Sheet2!B$1/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="L82" s="23">
         <f>$I82+Sheet2!B$2/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M82" s="23">
         <f>$I82+Sheet2!B$3/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="N82" s="23">
         <f>$I82+Sheet2!B$4/24</f>
-        <v>0.33333333333333337</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="O82" s="23">
         <f>$I82+Sheet2!B$5/24</f>
-        <v>0.33333333333333337</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="P82" s="23">
         <f>$I82+Sheet2!B$6/24</f>
-        <v>0.33333333333333337</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="Q82" s="23">
         <f>$I82+Sheet2!B$7/24</f>
-        <v>0.29166666666666669</v>
+        <v>0.25</v>
       </c>
       <c r="R82" s="23">
         <f>$I82+Sheet2!B$8/24</f>
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="S82" s="23">
         <f>$I82+Sheet2!B$9/24</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0</v>
       </c>
       <c r="T82" s="23">
         <f>$I82+Sheet2!B$10/24</f>
-        <v>0</v>
+        <v>-4.1666666666666685E-2</v>
       </c>
       <c r="U82" s="23">
         <f>$I82+Sheet2!B$11/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>-8.3333333333333343E-2</v>
       </c>
       <c r="V82" s="23">
         <f>$I82+Sheet2!B$12/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-0.12500000000000003</v>
       </c>
     </row>
     <row r="83" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="51"/>
-      <c r="B83" s="35" t="s">
-        <v>65</v>
+      <c r="A83" s="52"/>
+      <c r="B83" s="18" t="s">
+        <v>234</v>
       </c>
       <c r="C83" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D83" s="7">
-        <v>82</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" s="34" t="s">
-        <v>176</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E83" s="14"/>
+      <c r="F83" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="G83" s="29"/>
       <c r="H83" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I83" s="23">
         <v>0.20833333333333334</v>
@@ -9737,100 +9688,101 @@
       </c>
     </row>
     <row r="84" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="51"/>
-      <c r="B84" s="18" t="s">
-        <v>238</v>
+      <c r="A84" s="52"/>
+      <c r="B84" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="C84" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D84" s="7">
-        <v>83</v>
-      </c>
-      <c r="E84" s="14"/>
-      <c r="F84" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="G84" s="29"/>
+        <v>82</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="34" t="s">
+        <v>176</v>
+      </c>
       <c r="H84" s="29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I84" s="23">
-        <v>0.25</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="J84" s="28" t="s">
         <v>14</v>
       </c>
       <c r="K84" s="25">
         <f>$I84+Sheet2!B$1/24</f>
-        <v>0.66666666666666674</v>
+        <v>0.625</v>
       </c>
       <c r="L84" s="23">
         <f>$I84+Sheet2!B$2/24</f>
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M84" s="23">
         <f>$I84+Sheet2!B$3/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="N84" s="23">
         <f>$I84+Sheet2!B$4/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="O84" s="23">
         <f>$I84+Sheet2!B$5/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="P84" s="23">
         <f>$I84+Sheet2!B$6/24</f>
-        <v>0.375</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Q84" s="23">
         <f>$I84+Sheet2!B$7/24</f>
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="R84" s="23">
         <f>$I84+Sheet2!B$8/24</f>
-        <v>0.29166666666666669</v>
+        <v>0.25</v>
       </c>
       <c r="S84" s="23">
         <f>$I84+Sheet2!B$9/24</f>
-        <v>8.3333333333333343E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="T84" s="23">
         <f>$I84+Sheet2!B$10/24</f>
-        <v>4.1666666666666657E-2</v>
+        <v>0</v>
       </c>
       <c r="U84" s="23">
         <f>$I84+Sheet2!B$11/24</f>
-        <v>0</v>
+        <v>-4.1666666666666657E-2</v>
       </c>
       <c r="V84" s="23">
         <f>$I84+Sheet2!B$12/24</f>
-        <v>-4.1666666666666685E-2</v>
+        <v>-8.3333333333333343E-2</v>
       </c>
     </row>
     <row r="85" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="B85" s="35" t="s">
-        <v>69</v>
+      <c r="A85" s="52"/>
+      <c r="B85" s="18" t="s">
+        <v>237</v>
       </c>
       <c r="C85" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D85" s="7">
-        <v>84</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F85" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" s="22" t="s">
-        <v>180</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E85" s="14"/>
+      <c r="F85" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G85" s="29"/>
       <c r="H85" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I85" s="23">
         <v>0.25</v>
@@ -9884,6 +9836,83 @@
       </c>
       <c r="V85" s="23">
         <f>$I85+Sheet2!B$12/24</f>
+        <v>-4.1666666666666685E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B86" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" s="7">
+        <v>84</v>
+      </c>
+      <c r="D86" s="7">
+        <v>84</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="I86" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="J86" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" s="25">
+        <f>$I86+Sheet2!B$1/24</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="L86" s="23">
+        <f>$I86+Sheet2!B$2/24</f>
+        <v>0.625</v>
+      </c>
+      <c r="M86" s="23">
+        <f>$I86+Sheet2!B$3/24</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="N86" s="23">
+        <f>$I86+Sheet2!B$4/24</f>
+        <v>0.375</v>
+      </c>
+      <c r="O86" s="23">
+        <f>$I86+Sheet2!B$5/24</f>
+        <v>0.375</v>
+      </c>
+      <c r="P86" s="23">
+        <f>$I86+Sheet2!B$6/24</f>
+        <v>0.375</v>
+      </c>
+      <c r="Q86" s="23">
+        <f>$I86+Sheet2!B$7/24</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R86" s="23">
+        <f>$I86+Sheet2!B$8/24</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="S86" s="23">
+        <f>$I86+Sheet2!B$9/24</f>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="T86" s="23">
+        <f>$I86+Sheet2!B$10/24</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="U86" s="23">
+        <f>$I86+Sheet2!B$11/24</f>
+        <v>0</v>
+      </c>
+      <c r="V86" s="23">
+        <f>$I86+Sheet2!B$12/24</f>
         <v>-4.1666666666666685E-2</v>
       </c>
     </row>
@@ -9892,1274 +9921,1299 @@
     <sortCondition ref="D2:D70"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
-    <mergeCell ref="A23:A47"/>
-    <mergeCell ref="A48:A84"/>
+    <mergeCell ref="A24:A48"/>
+    <mergeCell ref="A49:A85"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L3 L10:V10 K11:L14 K5:L8 L9 K13:V38 K40:V85 L39:V39">
-    <cfRule type="expression" dxfId="258" priority="586">
+  <conditionalFormatting sqref="K2:L3 L10:V10 K5:L8 L9 K11:L14 K13:V17 L18:V18 K58:V86 K19:V38 K40:V56 L39:V39">
+    <cfRule type="expression" dxfId="261" priority="604">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:V3 K5:V8 K11:V15 L9:V10 K16 K21:V21 K17:V18 K19:K20 K22:K30">
-    <cfRule type="expression" dxfId="257" priority="588">
+  <conditionalFormatting sqref="K2:V3 K5:V8 L9:V10 K11:V15 K16 K22:V22 K17:V17 K19:V19 K20:K21 K23:K31">
+    <cfRule type="expression" dxfId="260" priority="606">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:V50 G50 G61 B62:B64 G71 G85 E59:G59 G28 B72 E72:G72 E62:G62 B3 E3:H3 H7 J17:V17 L10:V10 E19:G20 L19:V20 E21:H21 E29:G30 J21:V21 E31:H31 J31:V35 E42:G42 K42:V42 B42:B45 E47:G47 J47:V47 G63:G67 B68:B70 E68:G70 K57:V57 L61:V72 K74:V74 K83:V83 G73:G77 G83 K76:V77 K79:V80 K85:V85 L36:V36 E32:G36 E51:H51 J51:V51 E48:V49 G56:V56 H2 J2:V3 E43:H45 J43:V45 E58:V58 C57:G57 B80:G80 B11:B14 E11:H14 J11:V14 B19:B36 E23:G27 C22:G22 J80:V80 C6:D6 B5:G5 E17:H17 C18:D18 B9:G10 E53:V55 B47:B59 C52:V52 L22:V30 L41:V41 E16:G16 B16:B17 L16:V16 L39:V39 C15:D16 B39:G39">
-    <cfRule type="expression" dxfId="256" priority="592">
+  <conditionalFormatting sqref="K51:V51 G51 G61 B62:B64 G71 G86 E59:G59 G29 B72 E72:G72 B3 E3:H3 H7 L10:V10 E20:G21 L20:V21 E22:H22 E30:G31 J22:V22 E32:H32 J32:V36 E44:G44 K44:V44 E48:G48 J48:V48 G63:G67 B68:B70 E68:G70 L39:V39 L61:V72 K75:V75 K84:V84 G73:G78 G84 K77:V78 K80:V81 K86:V86 L37:V37 E33:G37 E49:V50 G56:V56 H2 J2:V3 E39:G39 B81 J11:V14 B20:B37 E23:G28 J81:V81 B5:G5 E52:V55 L23:V31 L43:V43 L16:V16 L41:V41 B41 J17:V17 E11:H14 E16:G16 L18:V18 B16:B18 B44:B46 J45:V46 L74:V74 E45:H46 B9:B14 E18:G18 E9:G10 C9:D9 C13:D13 C17:H17 C21:D21 E41:G41 E81:G81 C25:D25 C46:D46 C66:D66 C86:D86 C29:D29 C50:D50 C70:D70 C33:D33 C54:D54 B74:G74 C37:D37 C58:V58 C78:D78 C42:D42 C62:G62 C82:D82 B48:B56 B58:B59 B39">
+    <cfRule type="expression" dxfId="259" priority="610">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61 L61:V61">
-    <cfRule type="expression" dxfId="255" priority="569">
+    <cfRule type="expression" dxfId="258" priority="587">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65 L65:V65">
-    <cfRule type="expression" dxfId="254" priority="567">
+    <cfRule type="expression" dxfId="257" priority="585">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67 L67:V67">
-    <cfRule type="expression" dxfId="253" priority="565">
+    <cfRule type="expression" dxfId="256" priority="583">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71 L71:V71">
-    <cfRule type="expression" dxfId="252" priority="563">
+    <cfRule type="expression" dxfId="255" priority="581">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66 L66:V66">
-    <cfRule type="expression" dxfId="251" priority="561">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B74 K74:V74">
-    <cfRule type="expression" dxfId="250" priority="559">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83 K83:V83 E83:F83">
-    <cfRule type="expression" dxfId="249" priority="557">
+    <cfRule type="expression" dxfId="254" priority="579">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75 K75:V75">
+    <cfRule type="expression" dxfId="253" priority="577">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84 K84:V84 E84:F84">
+    <cfRule type="expression" dxfId="252" priority="575">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="248" priority="555">
+    <cfRule type="expression" dxfId="251" priority="573">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="247" priority="552">
+    <cfRule type="expression" dxfId="250" priority="570">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="246" priority="551">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="245" priority="550">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79:B80 J79:V80">
-    <cfRule type="expression" dxfId="244" priority="548">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77 J77:V77 E77">
-    <cfRule type="expression" dxfId="243" priority="546">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:F80">
-    <cfRule type="expression" dxfId="242" priority="544">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B76 J76:V76">
-    <cfRule type="expression" dxfId="241" priority="542">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B85 J85:V85 E85">
-    <cfRule type="expression" dxfId="240" priority="540">
+    <cfRule type="expression" dxfId="249" priority="569">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="248" priority="568">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80:B81 J80:V81">
+    <cfRule type="expression" dxfId="247" priority="566">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78 J78:V78 E78">
+    <cfRule type="expression" dxfId="246" priority="564">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:F81">
+    <cfRule type="expression" dxfId="245" priority="562">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77 J77:V77">
+    <cfRule type="expression" dxfId="244" priority="560">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86 J86:V86 E86">
+    <cfRule type="expression" dxfId="243" priority="558">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="expression" dxfId="239" priority="532">
+    <cfRule type="expression" dxfId="242" priority="550">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:V59">
-    <cfRule type="expression" dxfId="238" priority="472">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
-    <cfRule type="expression" dxfId="237" priority="493">
+    <cfRule type="expression" dxfId="241" priority="490">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75">
+    <cfRule type="expression" dxfId="240" priority="511">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="expression" dxfId="236" priority="494">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73 E73:F73">
-    <cfRule type="expression" dxfId="235" priority="458">
+    <cfRule type="expression" dxfId="239" priority="512">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73:B74 E73:F74">
+    <cfRule type="expression" dxfId="238" priority="476">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="234" priority="479">
+    <cfRule type="expression" dxfId="237" priority="497">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65:F65">
-    <cfRule type="expression" dxfId="233" priority="486">
+    <cfRule type="expression" dxfId="236" priority="504">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60 L60:V60">
-    <cfRule type="expression" dxfId="232" priority="480">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F77">
-    <cfRule type="expression" dxfId="231" priority="492">
+    <cfRule type="expression" dxfId="235" priority="498">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78">
+    <cfRule type="expression" dxfId="234" priority="510">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="expression" dxfId="230" priority="488">
+    <cfRule type="expression" dxfId="233" priority="506">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67:F67">
-    <cfRule type="expression" dxfId="229" priority="487">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76:F76">
-    <cfRule type="expression" dxfId="228" priority="485">
+    <cfRule type="expression" dxfId="232" priority="505">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77:F77">
+    <cfRule type="expression" dxfId="231" priority="503">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L60:V60 G60">
-    <cfRule type="expression" dxfId="227" priority="482">
+    <cfRule type="expression" dxfId="230" priority="500">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:V7">
-    <cfRule type="expression" dxfId="226" priority="427">
+    <cfRule type="expression" dxfId="229" priority="445">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="expression" dxfId="225" priority="476">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45:V45 L41:V41">
-    <cfRule type="expression" dxfId="224" priority="596">
+    <cfRule type="expression" dxfId="228" priority="494">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46:V46 L43:V43">
+    <cfRule type="expression" dxfId="227" priority="614">
       <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:V59">
-    <cfRule type="expression" dxfId="223" priority="473">
+    <cfRule type="expression" dxfId="226" priority="491">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:V10">
-    <cfRule type="expression" dxfId="222" priority="418">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41 G41">
-    <cfRule type="expression" dxfId="221" priority="466">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H14 J13:V14">
-    <cfRule type="expression" dxfId="220" priority="464">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13:V14">
-    <cfRule type="expression" dxfId="219" priority="465">
+    <cfRule type="expression" dxfId="225" priority="436">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43 G43">
+    <cfRule type="expression" dxfId="224" priority="484">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H14 J13:V14 L18:V18">
+    <cfRule type="expression" dxfId="223" priority="482">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:V14 L18:V18">
+    <cfRule type="expression" dxfId="222" priority="483">
       <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B14 E13:G14">
-    <cfRule type="expression" dxfId="218" priority="462">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41:F41">
-    <cfRule type="expression" dxfId="217" priority="460">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G3 B7 E7:G7 C8:D13 C20:D21 C23:D24 C26:D27 C29:D33 C35:D36 C66:D67 C38:D41 C69:D70 C43:D44 C72:D73 C46:D47 C75:D76 C49:D50 C78:D80 C82:D83 C54:D55 C85:D85 C59:D60 C62:D64">
-    <cfRule type="expression" dxfId="216" priority="459">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K73:V73">
-    <cfRule type="expression" dxfId="215" priority="457">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73:V73">
-    <cfRule type="expression" dxfId="214" priority="455">
+  <conditionalFormatting sqref="E43:F43">
+    <cfRule type="expression" dxfId="221" priority="478">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:G3 B7 E7:G7 C6:D7 C10:D11 C14:D15 C18:D19 C22:D23 C43:D44 C63:D64 C83:D84 C26:D27 C47:D48 C67:D68 C30:D31 C51:D52 C71:D72 C34:D35 C55:D56 C75:D76 C38:D40 C59:D60 C79:D80">
+    <cfRule type="expression" dxfId="220" priority="477">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K73:V73 L74:V74">
+    <cfRule type="expression" dxfId="219" priority="475">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J73:V73 L74:V74">
+    <cfRule type="expression" dxfId="218" priority="473">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="expression" dxfId="213" priority="454">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J75:V75">
-    <cfRule type="expression" dxfId="212" priority="449">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75 E75:F75">
-    <cfRule type="expression" dxfId="211" priority="452">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K75:V75">
-    <cfRule type="expression" dxfId="210" priority="451">
+    <cfRule type="expression" dxfId="217" priority="472">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J76:V76">
+    <cfRule type="expression" dxfId="216" priority="467">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76 E76:F76">
+    <cfRule type="expression" dxfId="215" priority="470">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K76:V76">
+    <cfRule type="expression" dxfId="214" priority="469">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="expression" dxfId="213" priority="466">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="expression" dxfId="212" priority="459">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:F29">
+    <cfRule type="expression" dxfId="211" priority="464">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:B43 E42:E43 L42:V43 G42:G43">
+    <cfRule type="expression" dxfId="210" priority="463">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:G4 C8:D8 C12:D12 C16:D16 C20:D20 C24:D24 C45:D45 C65:D65 C85:D85 C28:D28 C49:D49 C69:D69 C32:D32 C53:D53 C73:D73 C36:D36 C39:D39 C77:D77 C41:D41 C61:D61 C81:D81">
+    <cfRule type="expression" dxfId="209" priority="458">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="208" priority="457">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6 E6:H6 J6:V6">
+    <cfRule type="expression" dxfId="207" priority="455">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:V5">
+    <cfRule type="expression" dxfId="206" priority="452">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:L4">
+    <cfRule type="expression" dxfId="205" priority="447">
+      <formula>K$1=$H4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:V4">
+    <cfRule type="expression" dxfId="204" priority="448">
+      <formula>K$1=$I4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:V4">
+    <cfRule type="expression" dxfId="203" priority="449">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="expression" dxfId="202" priority="442">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B10 E8:G10">
+    <cfRule type="expression" dxfId="201" priority="441">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:K8">
+    <cfRule type="expression" dxfId="200" priority="439">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 E15:H15 J15:V15">
+    <cfRule type="expression" dxfId="199" priority="431">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15 J15:V15">
+    <cfRule type="expression" dxfId="198" priority="428">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:V15">
+    <cfRule type="expression" dxfId="197" priority="429">
+      <formula>K$1=#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 E15:G15">
+    <cfRule type="expression" dxfId="196" priority="427">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65">
+    <cfRule type="expression" dxfId="195" priority="285">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16 J16:K16">
+    <cfRule type="expression" dxfId="194" priority="424">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16 J16:K16">
+    <cfRule type="expression" dxfId="193" priority="421">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="expression" dxfId="192" priority="422">
+      <formula>K$1=#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44 J44">
+    <cfRule type="expression" dxfId="191" priority="322">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19 E19:H19 J19:V19">
+    <cfRule type="expression" dxfId="190" priority="417">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68">
+    <cfRule type="expression" dxfId="189" priority="273">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26 J26:K26">
+    <cfRule type="expression" dxfId="188" priority="379">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59:J59">
+    <cfRule type="expression" dxfId="186" priority="311">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20 J20:K20">
+    <cfRule type="expression" dxfId="185" priority="406">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21 J21:K21">
+    <cfRule type="expression" dxfId="184" priority="401">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60">
+    <cfRule type="expression" dxfId="183" priority="306">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60">
+    <cfRule type="expression" dxfId="182" priority="305">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23 J23:K23">
+    <cfRule type="expression" dxfId="181" priority="394">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61">
+    <cfRule type="expression" dxfId="180" priority="302">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24 J24:K24">
+    <cfRule type="expression" dxfId="179" priority="389">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61 J61">
+    <cfRule type="expression" dxfId="178" priority="300">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25 J25:K25">
+    <cfRule type="expression" dxfId="177" priority="384">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62">
+    <cfRule type="expression" dxfId="176" priority="297">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62 J62">
+    <cfRule type="expression" dxfId="175" priority="296">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63">
+    <cfRule type="expression" dxfId="174" priority="294">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63">
+    <cfRule type="expression" dxfId="173" priority="293">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27 J27:K27">
+    <cfRule type="expression" dxfId="172" priority="374">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64">
+    <cfRule type="expression" dxfId="171" priority="290">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28 J28:K28">
+    <cfRule type="expression" dxfId="170" priority="369">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64 J64">
+    <cfRule type="expression" dxfId="169" priority="288">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29 J29:K29">
+    <cfRule type="expression" dxfId="168" priority="364">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65 J65">
+    <cfRule type="expression" dxfId="167" priority="284">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30 J30:K30">
+    <cfRule type="expression" dxfId="166" priority="359">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66">
+    <cfRule type="expression" dxfId="165" priority="282">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66">
+    <cfRule type="expression" dxfId="164" priority="281">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31 J31:K31">
+    <cfRule type="expression" dxfId="163" priority="354">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67">
+    <cfRule type="expression" dxfId="162" priority="278">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67 J67">
+    <cfRule type="expression" dxfId="161" priority="276">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="expression" dxfId="160" priority="342">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68">
+    <cfRule type="expression" dxfId="159" priority="274">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="expression" dxfId="158" priority="339">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="expression" dxfId="157" priority="336">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68 J68">
+    <cfRule type="expression" dxfId="156" priority="272">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="expression" dxfId="155" priority="333">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:B39 J38:V38 E38:H38 E39:G39 L39:V39">
+    <cfRule type="expression" dxfId="154" priority="330">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40:V40 B40:B43 E42:E43 E40:H40 G42:G43 E41:G41 L41:V43">
+    <cfRule type="expression" dxfId="153" priority="326">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70">
+    <cfRule type="expression" dxfId="152" priority="270">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70">
+    <cfRule type="expression" dxfId="151" priority="269">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:G47 B47">
+    <cfRule type="expression" dxfId="150" priority="319">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I79">
+    <cfRule type="expression" dxfId="149" priority="176">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47 J47:V47">
+    <cfRule type="expression" dxfId="148" priority="316">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="expression" dxfId="147" priority="315">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51 J51">
+    <cfRule type="expression" dxfId="146" priority="314">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K72">
+    <cfRule type="expression" dxfId="145" priority="262">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K71">
+    <cfRule type="expression" dxfId="144" priority="265">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70 J70">
+    <cfRule type="expression" dxfId="143" priority="268">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60 J60">
+    <cfRule type="expression" dxfId="142" priority="304">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61">
+    <cfRule type="expression" dxfId="141" priority="301">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62">
+    <cfRule type="expression" dxfId="140" priority="298">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63 J63">
+    <cfRule type="expression" dxfId="139" priority="292">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64">
+    <cfRule type="expression" dxfId="138" priority="289">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65">
+    <cfRule type="expression" dxfId="137" priority="286">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66 J66">
+    <cfRule type="expression" dxfId="136" priority="280">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67">
+    <cfRule type="expression" dxfId="135" priority="277">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K71">
+    <cfRule type="expression" dxfId="134" priority="266">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71 J71">
+    <cfRule type="expression" dxfId="133" priority="264">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K72">
+    <cfRule type="expression" dxfId="132" priority="261">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72 J72">
+    <cfRule type="expression" dxfId="131" priority="260">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69">
+    <cfRule type="expression" dxfId="130" priority="258">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69">
+    <cfRule type="expression" dxfId="129" priority="257">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69 J69">
+    <cfRule type="expression" dxfId="128" priority="256">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75">
+    <cfRule type="expression" dxfId="127" priority="254">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="expression" dxfId="209" priority="448">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="208" priority="441">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="expression" dxfId="207" priority="446">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:B41 E40:E41 L40:V41 G40:G41">
-    <cfRule type="expression" dxfId="206" priority="445">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:G4 C7:D7 C14:D14 C17:D17 C19:D19 C25:D25 C28:D28 C34:D34 C65:D65 C37:D37 C68:D68 C41:D42 C71:D71 C45:D45 C74:D74 C48:D48 C77:D77 C51:D51 C81:D81 C53:D53 C84:D84 C56:D56 C58:D58 C61:D61">
-    <cfRule type="expression" dxfId="205" priority="440">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="204" priority="439">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6 E6:H6 J6:V6">
-    <cfRule type="expression" dxfId="203" priority="437">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:V5">
-    <cfRule type="expression" dxfId="202" priority="434">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:L4">
-    <cfRule type="expression" dxfId="201" priority="429">
-      <formula>K$1=$H4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:V4">
-    <cfRule type="expression" dxfId="200" priority="430">
-      <formula>K$1=$I4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:V4">
-    <cfRule type="expression" dxfId="199" priority="431">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="198" priority="424">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B10 E8:G10">
-    <cfRule type="expression" dxfId="197" priority="423">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:K8">
-    <cfRule type="expression" dxfId="196" priority="421">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15 E15:H15 J15:V15">
-    <cfRule type="expression" dxfId="195" priority="413">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15 J15:V15">
-    <cfRule type="expression" dxfId="194" priority="410">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15:V15">
-    <cfRule type="expression" dxfId="193" priority="411">
-      <formula>K$1=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15 E15:G15">
-    <cfRule type="expression" dxfId="192" priority="409">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K65">
-    <cfRule type="expression" dxfId="191" priority="267">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16 J16:K16">
-    <cfRule type="expression" dxfId="190" priority="406">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16 J16:K16">
-    <cfRule type="expression" dxfId="189" priority="403">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="188" priority="404">
-      <formula>K$1=#REF!</formula>
+    <cfRule type="expression" dxfId="126" priority="253">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79">
+    <cfRule type="expression" dxfId="125" priority="251">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J79:V79">
+    <cfRule type="expression" dxfId="124" priority="246">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79 E79:F79">
+    <cfRule type="expression" dxfId="123" priority="248">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K79:V79">
+    <cfRule type="expression" dxfId="122" priority="247">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="expression" dxfId="121" priority="245">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="expression" dxfId="120" priority="242">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="expression" dxfId="119" priority="240">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="expression" dxfId="118" priority="237">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="117" priority="94">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J82:V82">
+    <cfRule type="expression" dxfId="116" priority="232">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82 E82:F82">
+    <cfRule type="expression" dxfId="115" priority="234">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K82:V82">
+    <cfRule type="expression" dxfId="114" priority="233">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="expression" dxfId="113" priority="231">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="expression" dxfId="112" priority="229">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83">
+    <cfRule type="expression" dxfId="111" priority="227">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="110" priority="84">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83:V83">
+    <cfRule type="expression" dxfId="109" priority="222">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83 E83:F83">
+    <cfRule type="expression" dxfId="108" priority="224">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K83:V83">
+    <cfRule type="expression" dxfId="107" priority="223">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="expression" dxfId="106" priority="221">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84">
+    <cfRule type="expression" dxfId="105" priority="219">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="expression" dxfId="104" priority="218">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G85">
+    <cfRule type="expression" dxfId="103" priority="216">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="expression" dxfId="102" priority="73">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J85:V85">
+    <cfRule type="expression" dxfId="101" priority="211">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85 E85:F85">
+    <cfRule type="expression" dxfId="100" priority="213">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K85:V85">
+    <cfRule type="expression" dxfId="99" priority="212">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="expression" dxfId="98" priority="210">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42">
+    <cfRule type="expression" dxfId="97" priority="208">
+      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42 J42">
-    <cfRule type="expression" dxfId="187" priority="304">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18 E18:H18 J18:V18">
-    <cfRule type="expression" dxfId="186" priority="399">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K68">
-    <cfRule type="expression" dxfId="185" priority="255">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25 J25:K25">
-    <cfRule type="expression" dxfId="184" priority="361">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57 J57">
-    <cfRule type="expression" dxfId="183" priority="294">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59:J59">
-    <cfRule type="expression" dxfId="182" priority="293">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19 J19:K19">
-    <cfRule type="expression" dxfId="181" priority="388">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20 J20:K20">
-    <cfRule type="expression" dxfId="180" priority="383">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
-    <cfRule type="expression" dxfId="179" priority="288">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
-    <cfRule type="expression" dxfId="178" priority="287">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22 J22:K22">
-    <cfRule type="expression" dxfId="177" priority="376">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61">
-    <cfRule type="expression" dxfId="176" priority="284">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23 J23:K23">
-    <cfRule type="expression" dxfId="175" priority="371">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61 J61">
-    <cfRule type="expression" dxfId="174" priority="282">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24 J24:K24">
-    <cfRule type="expression" dxfId="173" priority="366">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62">
-    <cfRule type="expression" dxfId="172" priority="279">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62 J62">
-    <cfRule type="expression" dxfId="171" priority="278">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K63">
-    <cfRule type="expression" dxfId="170" priority="276">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K63">
-    <cfRule type="expression" dxfId="169" priority="275">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26 J26:K26">
-    <cfRule type="expression" dxfId="168" priority="356">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K64">
-    <cfRule type="expression" dxfId="167" priority="272">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27 J27:K27">
-    <cfRule type="expression" dxfId="166" priority="351">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64 J64">
-    <cfRule type="expression" dxfId="165" priority="270">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28 J28:K28">
-    <cfRule type="expression" dxfId="164" priority="346">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65 J65">
-    <cfRule type="expression" dxfId="163" priority="266">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29 J29:K29">
-    <cfRule type="expression" dxfId="162" priority="341">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K66">
-    <cfRule type="expression" dxfId="161" priority="264">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K66">
-    <cfRule type="expression" dxfId="160" priority="263">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30 J30:K30">
-    <cfRule type="expression" dxfId="159" priority="336">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67">
-    <cfRule type="expression" dxfId="158" priority="260">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67 J67">
-    <cfRule type="expression" dxfId="157" priority="258">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="156" priority="324">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K68">
-    <cfRule type="expression" dxfId="155" priority="256">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="154" priority="321">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="153" priority="318">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68 J68">
-    <cfRule type="expression" dxfId="152" priority="254">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="151" priority="315">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37 J37:V37 E37:H37">
-    <cfRule type="expression" dxfId="150" priority="312">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:V38 B38:B41 E40:E41 E38:H38 G40:G41 E39:G39 L39:V41">
-    <cfRule type="expression" dxfId="149" priority="308">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K70">
-    <cfRule type="expression" dxfId="148" priority="252">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K70">
-    <cfRule type="expression" dxfId="147" priority="251">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:G46 B46">
-    <cfRule type="expression" dxfId="146" priority="301">
+    <cfRule type="expression" dxfId="96" priority="206">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:K37">
+    <cfRule type="expression" dxfId="95" priority="203">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="expression" dxfId="94" priority="201">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="expression" dxfId="93" priority="59">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51">
+    <cfRule type="expression" dxfId="92" priority="197">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
+    <cfRule type="expression" dxfId="91" priority="190">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="expression" dxfId="89" priority="194">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
+    <cfRule type="expression" dxfId="88" priority="193">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="expression" dxfId="87" priority="192">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="expression" dxfId="86" priority="191">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65">
+    <cfRule type="expression" dxfId="85" priority="189">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="expression" dxfId="84" priority="188">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67">
+    <cfRule type="expression" dxfId="83" priority="187">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68">
+    <cfRule type="expression" dxfId="82" priority="186">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69">
+    <cfRule type="expression" dxfId="81" priority="185">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I70">
+    <cfRule type="expression" dxfId="80" priority="184">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71">
+    <cfRule type="expression" dxfId="79" priority="183">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72">
+    <cfRule type="expression" dxfId="78" priority="182">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73">
+    <cfRule type="expression" dxfId="77" priority="181">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I75">
+    <cfRule type="expression" dxfId="76" priority="180">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I76">
+    <cfRule type="expression" dxfId="75" priority="179">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I77">
+    <cfRule type="expression" dxfId="74" priority="178">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="expression" dxfId="145" priority="158">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46 J46:V46">
-    <cfRule type="expression" dxfId="144" priority="298">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="143" priority="297">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50 J50">
-    <cfRule type="expression" dxfId="142" priority="296">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K72">
-    <cfRule type="expression" dxfId="141" priority="244">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K71">
-    <cfRule type="expression" dxfId="140" priority="247">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70 J70">
-    <cfRule type="expression" dxfId="139" priority="250">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60 J60">
-    <cfRule type="expression" dxfId="138" priority="286">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61">
-    <cfRule type="expression" dxfId="137" priority="283">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62">
-    <cfRule type="expression" dxfId="136" priority="280">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63 J63">
-    <cfRule type="expression" dxfId="135" priority="274">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K64">
-    <cfRule type="expression" dxfId="134" priority="271">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K65">
-    <cfRule type="expression" dxfId="133" priority="268">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66 J66">
-    <cfRule type="expression" dxfId="132" priority="262">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67">
-    <cfRule type="expression" dxfId="131" priority="259">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K71">
-    <cfRule type="expression" dxfId="130" priority="248">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71 J71">
-    <cfRule type="expression" dxfId="129" priority="246">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K72">
-    <cfRule type="expression" dxfId="128" priority="243">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72 J72">
-    <cfRule type="expression" dxfId="127" priority="242">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K69">
-    <cfRule type="expression" dxfId="126" priority="240">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K69">
-    <cfRule type="expression" dxfId="125" priority="239">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69 J69">
-    <cfRule type="expression" dxfId="124" priority="238">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J74">
-    <cfRule type="expression" dxfId="123" priority="236">
+    <cfRule type="expression" dxfId="73" priority="177">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I80">
+    <cfRule type="expression" dxfId="72" priority="175">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I82">
+    <cfRule type="expression" dxfId="71" priority="174">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I83">
+    <cfRule type="expression" dxfId="70" priority="173">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84">
+    <cfRule type="expression" dxfId="69" priority="172">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I85">
+    <cfRule type="expression" dxfId="68" priority="171">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I86">
+    <cfRule type="expression" dxfId="67" priority="170">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="expression" dxfId="66" priority="169">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="expression" dxfId="65" priority="168">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="expression" dxfId="64" priority="167">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="63" priority="166">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="expression" dxfId="62" priority="165">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="expression" dxfId="61" priority="164">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="60" priority="163">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="59" priority="162">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="58" priority="161">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="57" priority="93">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="56" priority="92">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="55" priority="91">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="54" priority="90">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="expression" dxfId="53" priority="89">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="52" priority="83">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="51" priority="87">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="50" priority="86">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="49" priority="85">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="48" priority="82">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="expression" dxfId="47" priority="81">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="expression" dxfId="46" priority="80">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="expression" dxfId="45" priority="79">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="expression" dxfId="44" priority="78">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="43" priority="77">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="expression" dxfId="42" priority="76">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="41" priority="75">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="expression" dxfId="40" priority="72">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="expression" dxfId="39" priority="58">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="expression" dxfId="38" priority="70">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="expression" dxfId="37" priority="69">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="expression" dxfId="36" priority="68">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="expression" dxfId="35" priority="67">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="expression" dxfId="34" priority="66">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="expression" dxfId="33" priority="65">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="expression" dxfId="32" priority="64">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="expression" dxfId="31" priority="63">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="expression" dxfId="30" priority="62">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="expression" dxfId="29" priority="60">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:V10">
+    <cfRule type="expression" dxfId="28" priority="50">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="27" priority="39">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="expression" dxfId="26" priority="48">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I81">
+    <cfRule type="expression" dxfId="25" priority="47">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:K9">
+    <cfRule type="expression" dxfId="24" priority="38">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="23" priority="37">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="22" priority="40">
+      <formula>K$1=$H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="21" priority="41">
+      <formula>K$1=$I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="expression" dxfId="20" priority="35">
+      <formula>K$1=$H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="expression" dxfId="19" priority="36">
+      <formula>K$1=$I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="expression" dxfId="18" priority="34">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:K10">
+    <cfRule type="expression" dxfId="17" priority="33">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" dxfId="16" priority="32">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42:F43">
+    <cfRule type="expression" dxfId="15" priority="25">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43:K43 H43">
+    <cfRule type="expression" dxfId="14" priority="23">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" dxfId="13" priority="22">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41:K41 H41">
+    <cfRule type="expression" dxfId="12" priority="20">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
+    <cfRule type="expression" dxfId="11" priority="19">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>K$1=$H18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>K$1=$I18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18 J18:K18">
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K74">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74:K74">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="expression" dxfId="122" priority="235">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
-    <cfRule type="expression" dxfId="121" priority="233">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J78:V78">
-    <cfRule type="expression" dxfId="120" priority="228">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78 E78:F78">
-    <cfRule type="expression" dxfId="119" priority="230">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K78:V78">
-    <cfRule type="expression" dxfId="118" priority="229">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="expression" dxfId="117" priority="227">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="expression" dxfId="116" priority="224">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="expression" dxfId="115" priority="222">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G81">
-    <cfRule type="expression" dxfId="114" priority="219">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="113" priority="76">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J81:V81">
-    <cfRule type="expression" dxfId="112" priority="214">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81 E81:F81">
-    <cfRule type="expression" dxfId="111" priority="216">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K81:V81">
-    <cfRule type="expression" dxfId="110" priority="215">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="expression" dxfId="109" priority="213">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="expression" dxfId="108" priority="211">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="expression" dxfId="107" priority="209">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="106" priority="66">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J82:V82">
-    <cfRule type="expression" dxfId="105" priority="204">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82 E82:F82">
-    <cfRule type="expression" dxfId="104" priority="206">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K82:V82">
-    <cfRule type="expression" dxfId="103" priority="205">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="expression" dxfId="102" priority="203">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J83">
-    <cfRule type="expression" dxfId="101" priority="201">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="expression" dxfId="100" priority="200">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
-    <cfRule type="expression" dxfId="99" priority="198">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="98" priority="55">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J84:V84">
-    <cfRule type="expression" dxfId="97" priority="193">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84 E84:F84">
-    <cfRule type="expression" dxfId="96" priority="195">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K84:V84">
-    <cfRule type="expression" dxfId="95" priority="194">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="expression" dxfId="94" priority="192">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
-    <cfRule type="expression" dxfId="93" priority="190">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40 J40">
-    <cfRule type="expression" dxfId="92" priority="188">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36:K36">
-    <cfRule type="expression" dxfId="91" priority="185">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="90" priority="183">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="expression" dxfId="89" priority="41">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="88" priority="179">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="87" priority="178">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
-    <cfRule type="expression" dxfId="86" priority="177">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
-    <cfRule type="expression" dxfId="85" priority="176">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
-    <cfRule type="expression" dxfId="84" priority="175">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
-    <cfRule type="expression" dxfId="83" priority="174">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="82" priority="173">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="expression" dxfId="81" priority="172">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
-    <cfRule type="expression" dxfId="80" priority="171">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="expression" dxfId="79" priority="170">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67">
-    <cfRule type="expression" dxfId="78" priority="169">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I68">
-    <cfRule type="expression" dxfId="77" priority="168">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
-    <cfRule type="expression" dxfId="76" priority="167">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
-    <cfRule type="expression" dxfId="75" priority="166">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="expression" dxfId="74" priority="165">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
-    <cfRule type="expression" dxfId="73" priority="164">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I73">
-    <cfRule type="expression" dxfId="72" priority="163">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="expression" dxfId="71" priority="162">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
-    <cfRule type="expression" dxfId="70" priority="161">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I76">
-    <cfRule type="expression" dxfId="69" priority="160">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I77">
-    <cfRule type="expression" dxfId="68" priority="159">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I79">
-    <cfRule type="expression" dxfId="67" priority="157">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I81">
-    <cfRule type="expression" dxfId="66" priority="156">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I82">
-    <cfRule type="expression" dxfId="65" priority="155">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I83">
-    <cfRule type="expression" dxfId="64" priority="154">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I84">
-    <cfRule type="expression" dxfId="63" priority="153">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I85">
-    <cfRule type="expression" dxfId="62" priority="152">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="expression" dxfId="61" priority="151">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="60" priority="150">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="59" priority="149">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="58" priority="148">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="57" priority="147">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="56" priority="146">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="55" priority="145">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="54" priority="144">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="53" priority="143">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="52" priority="75">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="51" priority="74">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="50" priority="73">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="49" priority="72">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="48" priority="71">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="47" priority="65">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="46" priority="69">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="45" priority="68">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="44" priority="67">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="43" priority="64">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="42" priority="63">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="41" priority="62">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="40" priority="61">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="39" priority="60">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="38" priority="59">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="37" priority="58">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="36" priority="57">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="35" priority="54">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
-    <cfRule type="expression" dxfId="34" priority="40">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="33" priority="52">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="32" priority="51">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="31" priority="50">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="expression" dxfId="30" priority="49">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="29" priority="48">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="28" priority="47">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="27" priority="46">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="26" priority="45">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="25" priority="44">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="expression" dxfId="24" priority="43">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="23" priority="42">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9:V10">
-    <cfRule type="expression" dxfId="22" priority="32">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="expression" dxfId="20" priority="30">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I80">
-    <cfRule type="expression" dxfId="19" priority="29">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:K9">
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="16" priority="22">
-      <formula>K$1=$H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="15" priority="23">
-      <formula>K$1=$I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="14" priority="17">
-      <formula>K$1=$H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="13" priority="18">
-      <formula>K$1=$I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="12" priority="16">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:K10">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40:F41">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41:K41 H41">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42E94BD-BA4A-6749-A523-3F719183D22D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A17887-8157-D14B-8F56-057564941F3F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18980" yWindow="7660" windowWidth="25720" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3350,7 +3350,7 @@
   <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A17887-8157-D14B-8F56-057564941F3F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E727E1F5-8649-7B47-8138-FB0607F88374}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18980" yWindow="7660" windowWidth="25720" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19820" yWindow="2700" windowWidth="25720" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -1182,7 +1182,42 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="262">
+  <dxfs count="263">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1348,34 +1383,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3347,10 +3354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3432,19 +3439,19 @@
         <v>GMT</v>
       </c>
       <c r="S1" s="3" t="str">
-        <f>H81</f>
+        <f>H80</f>
         <v>AKST</v>
       </c>
       <c r="T1" s="3" t="str">
-        <f>H72</f>
+        <f>H70</f>
         <v>CST</v>
       </c>
       <c r="U1" s="3" t="str">
-        <f>H62</f>
+        <f>H60</f>
         <v>CST</v>
       </c>
       <c r="V1" s="3" t="str">
-        <f>H68</f>
+        <f>H66</f>
         <v>CST</v>
       </c>
     </row>
@@ -6681,97 +6688,97 @@
     <row r="44" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="51"/>
       <c r="B44" s="18" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="C44" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D44" s="7">
-        <v>42</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>74</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E44" s="33"/>
       <c r="F44" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G44" s="34" t="s">
-        <v>150</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G44" s="34"/>
       <c r="H44" s="29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I44" s="23">
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="J44" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K44" s="25">
         <f>$I44+Sheet2!B$1/24</f>
-        <v>1.25</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="L44" s="23">
         <f>$I44+Sheet2!B$2/24</f>
-        <v>1.2083333333333335</v>
+        <v>1.25</v>
       </c>
       <c r="M44" s="23">
         <f>$I44+Sheet2!B$3/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="N44" s="23">
         <f>$I44+Sheet2!B$4/24</f>
-        <v>0.95833333333333337</v>
+        <v>1</v>
       </c>
       <c r="O44" s="23">
         <f>$I44+Sheet2!B$5/24</f>
-        <v>0.95833333333333337</v>
+        <v>1</v>
       </c>
       <c r="P44" s="23">
         <f>$I44+Sheet2!B$6/24</f>
-        <v>0.95833333333333337</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="23">
         <f>$I44+Sheet2!B$7/24</f>
-        <v>0.91666666666666674</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="R44" s="23">
         <f>$I44+Sheet2!B$8/24</f>
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="S44" s="23">
         <f>$I44+Sheet2!B$9/24</f>
-        <v>0.66666666666666674</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="T44" s="23">
         <f>$I44+Sheet2!B$10/24</f>
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U44" s="23">
         <f>$I44+Sheet2!B$11/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="V44" s="23">
         <f>$I44+Sheet2!B$12/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="51"/>
       <c r="B45" s="18" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="C45" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D45" s="7">
-        <v>43</v>
-      </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G45" s="34"/>
+        <v>44</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>144</v>
+      </c>
       <c r="H45" s="29" t="s">
         <v>222</v>
       </c>
@@ -6781,7 +6788,7 @@
       <c r="J45" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K45" s="25">
+      <c r="K45" s="11">
         <f>$I45+Sheet2!B$1/24</f>
         <v>1.2916666666666667</v>
       </c>
@@ -6833,97 +6840,97 @@
     <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="51"/>
       <c r="B46" s="18" t="s">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="C46" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D46" s="7">
-        <v>44</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="29" t="s">
-        <v>144</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G46" s="29"/>
       <c r="H46" s="29" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I46" s="23">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="J46" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K46" s="25">
         <f>$I46+Sheet2!B$1/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="L46" s="23">
         <f>$I46+Sheet2!B$2/24</f>
-        <v>1.25</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M46" s="23">
         <f>$I46+Sheet2!B$3/24</f>
-        <v>1.2083333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="N46" s="23">
         <f>$I46+Sheet2!B$4/24</f>
-        <v>1</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="O46" s="23">
         <f>$I46+Sheet2!B$5/24</f>
-        <v>1</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="P46" s="23">
         <f>$I46+Sheet2!B$6/24</f>
-        <v>1</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="Q46" s="23">
         <f>$I46+Sheet2!B$7/24</f>
-        <v>0.95833333333333337</v>
+        <v>1</v>
       </c>
       <c r="R46" s="23">
         <f>$I46+Sheet2!B$8/24</f>
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333326</v>
       </c>
       <c r="S46" s="23">
         <f>$I46+Sheet2!B$9/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="T46" s="23">
         <f>$I46+Sheet2!B$10/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="U46" s="23">
         <f>$I46+Sheet2!B$11/24</f>
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V46" s="23">
         <f>$I46+Sheet2!B$12/24</f>
-        <v>0.58333333333333326</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="51"/>
       <c r="B47" s="18" t="s">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="C47" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D47" s="7">
-        <v>45</v>
-      </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G47" s="29"/>
+        <v>46</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="H47" s="29" t="s">
         <v>224</v>
       </c>
@@ -6983,99 +6990,99 @@
       </c>
     </row>
     <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="51"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="18" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="C48" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D48" s="7">
-        <v>46</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>162</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48" s="29"/>
       <c r="H48" s="29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I48" s="23">
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="J48" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K48" s="25">
         <f>$I48+Sheet2!B$1/24</f>
-        <v>1.3333333333333333</v>
+        <v>1.375</v>
       </c>
       <c r="L48" s="23">
         <f>$I48+Sheet2!B$2/24</f>
-        <v>1.2916666666666665</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="M48" s="23">
         <f>$I48+Sheet2!B$3/24</f>
-        <v>1.25</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="N48" s="23">
         <f>$I48+Sheet2!B$4/24</f>
-        <v>1.0416666666666665</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="O48" s="23">
         <f>$I48+Sheet2!B$5/24</f>
-        <v>1.0416666666666665</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="P48" s="23">
         <f>$I48+Sheet2!B$6/24</f>
-        <v>1.0416666666666665</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="Q48" s="23">
         <f>$I48+Sheet2!B$7/24</f>
-        <v>1</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="R48" s="23">
         <f>$I48+Sheet2!B$8/24</f>
-        <v>0.95833333333333326</v>
+        <v>1</v>
       </c>
       <c r="S48" s="23">
         <f>$I48+Sheet2!B$9/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="T48" s="23">
         <f>$I48+Sheet2!B$10/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.75</v>
       </c>
       <c r="U48" s="23">
         <f>$I48+Sheet2!B$11/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="V48" s="23">
         <f>$I48+Sheet2!B$12/24</f>
-        <v>0.625</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="52"/>
       <c r="B49" s="18" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C49" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D49" s="7">
-        <v>47</v>
-      </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G49" s="29"/>
+        <v>48</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>152</v>
+      </c>
       <c r="H49" s="29" t="s">
         <v>226</v>
       </c>
@@ -7134,25 +7141,25 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="52"/>
       <c r="B50" s="18" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C50" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D50" s="7">
-        <v>48</v>
-      </c>
-      <c r="E50" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>152</v>
+      <c r="F50" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>153</v>
       </c>
       <c r="H50" s="29" t="s">
         <v>226</v>
@@ -7212,25 +7219,25 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="52"/>
-      <c r="B51" s="18" t="s">
-        <v>94</v>
+      <c r="B51" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="C51" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D51" s="7">
-        <v>49</v>
-      </c>
-      <c r="E51" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G51" s="29" t="s">
-        <v>153</v>
+      <c r="G51" s="21" t="s">
+        <v>155</v>
       </c>
       <c r="H51" s="29" t="s">
         <v>226</v>
@@ -7293,13 +7300,13 @@
     <row r="52" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="52"/>
       <c r="B52" s="12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C52" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D52" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>27</v>
@@ -7307,8 +7314,8 @@
       <c r="F52" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G52" s="21" t="s">
-        <v>155</v>
+      <c r="G52" s="22" t="s">
+        <v>157</v>
       </c>
       <c r="H52" s="29" t="s">
         <v>226</v>
@@ -7319,65 +7326,65 @@
       <c r="J52" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K52" s="25">
+      <c r="K52" s="31">
         <f>$I52+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L52" s="23">
+      <c r="L52" s="16">
         <f>$I52+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M52" s="23">
+      <c r="M52" s="16">
         <f>$I52+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N52" s="23">
+      <c r="N52" s="16">
         <f>$I52+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O52" s="23">
+      <c r="O52" s="16">
         <f>$I52+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P52" s="23">
+      <c r="P52" s="16">
         <f>$I52+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q52" s="23">
+      <c r="Q52" s="16">
         <f>$I52+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R52" s="23">
+      <c r="R52" s="16">
         <f>$I52+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S52" s="23">
+      <c r="S52" s="16">
         <f>$I52+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T52" s="23">
+      <c r="T52" s="16">
         <f>$I52+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U52" s="23">
+      <c r="U52" s="16">
         <f>$I52+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V52" s="23">
+      <c r="V52" s="16">
         <f>$I52+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="52"/>
-      <c r="B53" s="12" t="s">
-        <v>36</v>
+      <c r="B53" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="C53" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D53" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>27</v>
@@ -7385,8 +7392,8 @@
       <c r="F53" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="22" t="s">
-        <v>157</v>
+      <c r="G53" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="H53" s="29" t="s">
         <v>226</v>
@@ -7397,51 +7404,51 @@
       <c r="J53" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K53" s="31">
+      <c r="K53" s="25">
         <f>$I53+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
-      <c r="L53" s="16">
+      <c r="L53" s="23">
         <f>$I53+Sheet2!B$2/24</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="M53" s="16">
+      <c r="M53" s="23">
         <f>$I53+Sheet2!B$3/24</f>
         <v>1.2916666666666667</v>
       </c>
-      <c r="N53" s="16">
+      <c r="N53" s="23">
         <f>$I53+Sheet2!B$4/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="O53" s="16">
+      <c r="O53" s="23">
         <f>$I53+Sheet2!B$5/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="P53" s="16">
+      <c r="P53" s="23">
         <f>$I53+Sheet2!B$6/24</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="Q53" s="16">
+      <c r="Q53" s="23">
         <f>$I53+Sheet2!B$7/24</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="R53" s="16">
+      <c r="R53" s="23">
         <f>$I53+Sheet2!B$8/24</f>
         <v>1</v>
       </c>
-      <c r="S53" s="16">
+      <c r="S53" s="23">
         <f>$I53+Sheet2!B$9/24</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="T53" s="16">
+      <c r="T53" s="23">
         <f>$I53+Sheet2!B$10/24</f>
         <v>0.75</v>
       </c>
-      <c r="U53" s="16">
+      <c r="U53" s="23">
         <f>$I53+Sheet2!B$11/24</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="V53" s="16">
+      <c r="V53" s="23">
         <f>$I53+Sheet2!B$12/24</f>
         <v>0.66666666666666674</v>
       </c>
@@ -7449,13 +7456,13 @@
     <row r="54" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="52"/>
       <c r="B54" s="18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C54" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D54" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>27</v>
@@ -7463,8 +7470,8 @@
       <c r="F54" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G54" s="9" t="s">
-        <v>158</v>
+      <c r="G54" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="H54" s="29" t="s">
         <v>226</v>
@@ -7475,7 +7482,7 @@
       <c r="J54" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K54" s="25">
+      <c r="K54" s="11">
         <f>$I54+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -7527,22 +7534,22 @@
     <row r="55" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="52"/>
       <c r="B55" s="18" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C55" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D55" s="7">
-        <v>53</v>
-      </c>
-      <c r="E55" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F55" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G55" s="22" t="s">
-        <v>159</v>
+      <c r="G55" s="29" t="s">
+        <v>160</v>
       </c>
       <c r="H55" s="29" t="s">
         <v>226</v>
@@ -7553,7 +7560,7 @@
       <c r="J55" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K55" s="25">
         <f>$I55+Sheet2!B$1/24</f>
         <v>1.375</v>
       </c>
@@ -7605,22 +7612,22 @@
     <row r="56" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="52"/>
       <c r="B56" s="18" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="C56" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D56" s="7">
-        <v>54</v>
-      </c>
-      <c r="E56" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F56" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" s="29" t="s">
-        <v>160</v>
+      <c r="F56" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>163</v>
       </c>
       <c r="H56" s="29" t="s">
         <v>226</v>
@@ -7680,103 +7687,178 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="52"/>
+      <c r="B57" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="7">
+        <v>57</v>
+      </c>
+      <c r="D57" s="7">
+        <v>57</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G57" s="9"/>
+      <c r="H57" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" s="23">
+        <v>0</v>
+      </c>
+      <c r="J57" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="25">
+        <f>$I57+Sheet2!B$1/24</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L57" s="23">
+        <f>$I57+Sheet2!B$2/24</f>
+        <v>0.375</v>
+      </c>
+      <c r="M57" s="23">
+        <f>$I57+Sheet2!B$3/24</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N57" s="23">
+        <f>$I57+Sheet2!B$4/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="O57" s="23">
+        <f>$I57+Sheet2!B$5/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="P57" s="23">
+        <f>$I57+Sheet2!B$6/24</f>
+        <v>0.125</v>
+      </c>
+      <c r="Q57" s="23">
+        <f>$I57+Sheet2!B$7/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="R57" s="23">
+        <f>$I57+Sheet2!B$8/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="S57" s="23">
+        <f>$I57+Sheet2!B$9/24</f>
+        <v>-0.16666666666666666</v>
+      </c>
+      <c r="T57" s="23">
+        <f>$I57+Sheet2!B$10/24</f>
+        <v>-0.20833333333333334</v>
+      </c>
+      <c r="U57" s="23">
+        <f>$I57+Sheet2!B$11/24</f>
+        <v>-0.25</v>
+      </c>
+      <c r="V57" s="23">
+        <f>$I57+Sheet2!B$12/24</f>
+        <v>-0.29166666666666669</v>
+      </c>
     </row>
     <row r="58" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="52"/>
-      <c r="B58" s="18" t="s">
-        <v>44</v>
+      <c r="B58" s="35" t="s">
+        <v>99</v>
       </c>
       <c r="C58" s="7">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D58" s="7">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G58" s="21" t="s">
-        <v>163</v>
+        <v>20</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>164</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="I58" s="23">
-        <v>0.95833333333333337</v>
+        <v>0</v>
       </c>
       <c r="J58" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K58" s="25">
         <f>$I58+Sheet2!B$1/24</f>
-        <v>1.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L58" s="23">
         <f>$I58+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
+        <v>0.375</v>
       </c>
       <c r="M58" s="23">
         <f>$I58+Sheet2!B$3/24</f>
-        <v>1.2916666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N58" s="23">
         <f>$I58+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.125</v>
       </c>
       <c r="O58" s="23">
         <f>$I58+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.125</v>
       </c>
       <c r="P58" s="23">
         <f>$I58+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
+        <v>0.125</v>
       </c>
       <c r="Q58" s="23">
         <f>$I58+Sheet2!B$7/24</f>
-        <v>1.0416666666666667</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R58" s="23">
         <f>$I58+Sheet2!B$8/24</f>
-        <v>1</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="S58" s="23">
         <f>$I58+Sheet2!B$9/24</f>
-        <v>0.79166666666666674</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T58" s="23">
         <f>$I58+Sheet2!B$10/24</f>
-        <v>0.75</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="U58" s="23">
         <f>$I58+Sheet2!B$11/24</f>
-        <v>0.70833333333333337</v>
+        <v>-0.25</v>
       </c>
       <c r="V58" s="23">
         <f>$I58+Sheet2!B$12/24</f>
-        <v>0.66666666666666674</v>
+        <v>-0.29166666666666669</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="52"/>
-      <c r="B59" s="18" t="s">
-        <v>107</v>
+      <c r="B59" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="C59" s="7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D59" s="7">
-        <v>57</v>
-      </c>
-      <c r="E59" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="F59" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="G59" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="H59" s="29" t="s">
         <v>9</v>
       </c>
@@ -7838,22 +7920,22 @@
     <row r="60" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="52"/>
       <c r="B60" s="35" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="C60" s="7">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D60" s="7">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E60" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F60" s="19" t="s">
-        <v>20</v>
+      <c r="F60" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H60" s="29" t="s">
         <v>9</v>
@@ -7915,23 +7997,23 @@
     </row>
     <row r="61" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="52"/>
-      <c r="B61" s="35" t="s">
-        <v>59</v>
+      <c r="B61" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="C61" s="7">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D61" s="7">
-        <v>59</v>
-      </c>
-      <c r="E61" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="19" t="s">
+      <c r="F61" s="40" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H61" s="29" t="s">
         <v>9</v>
@@ -7993,23 +8075,23 @@
     </row>
     <row r="62" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="52"/>
-      <c r="B62" s="35" t="s">
-        <v>57</v>
+      <c r="B62" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="C62" s="7">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D62" s="7">
-        <v>60</v>
-      </c>
-      <c r="E62" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F62" s="7" t="s">
-        <v>70</v>
+      <c r="F62" s="40" t="s">
+        <v>20</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="H62" s="29" t="s">
         <v>9</v>
@@ -8072,22 +8154,22 @@
     <row r="63" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="52"/>
       <c r="B63" s="18" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C63" s="7">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D63" s="7">
-        <v>61</v>
-      </c>
-      <c r="E63" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F63" s="40" t="s">
+      <c r="F63" s="19" t="s">
         <v>20</v>
       </c>
       <c r="G63" s="29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H63" s="29" t="s">
         <v>9</v>
@@ -8149,23 +8231,23 @@
     </row>
     <row r="64" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="52"/>
-      <c r="B64" s="18" t="s">
-        <v>186</v>
+      <c r="B64" s="35" t="s">
+        <v>63</v>
       </c>
       <c r="C64" s="7">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D64" s="7">
-        <v>62</v>
-      </c>
-      <c r="E64" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F64" s="40" t="s">
-        <v>20</v>
+      <c r="F64" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="G64" s="29" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="H64" s="29" t="s">
         <v>9</v>
@@ -8227,14 +8309,14 @@
     </row>
     <row r="65" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="52"/>
-      <c r="B65" s="18" t="s">
-        <v>60</v>
+      <c r="B65" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="C65" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D65" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E65" s="14" t="s">
         <v>27</v>
@@ -8242,8 +8324,8 @@
       <c r="F65" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G65" s="29" t="s">
-        <v>168</v>
+      <c r="G65" s="27" t="s">
+        <v>170</v>
       </c>
       <c r="H65" s="29" t="s">
         <v>9</v>
@@ -8305,23 +8387,23 @@
     </row>
     <row r="66" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="52"/>
-      <c r="B66" s="35" t="s">
-        <v>63</v>
+      <c r="B66" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="C66" s="7">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D66" s="7">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F66" s="19" t="s">
-        <v>45</v>
+      <c r="F66" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="G66" s="29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H66" s="29" t="s">
         <v>9</v>
@@ -8383,14 +8465,14 @@
     </row>
     <row r="67" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="52"/>
-      <c r="B67" s="35" t="s">
-        <v>61</v>
+      <c r="B67" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="C67" s="7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D67" s="7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E67" s="14" t="s">
         <v>27</v>
@@ -8398,8 +8480,8 @@
       <c r="F67" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G67" s="27" t="s">
-        <v>170</v>
+      <c r="G67" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="H67" s="29" t="s">
         <v>9</v>
@@ -8414,47 +8496,47 @@
         <f>$I67+Sheet2!B$1/24</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="L67" s="23">
+      <c r="L67" s="16">
         <f>$I67+Sheet2!B$2/24</f>
         <v>0.375</v>
       </c>
-      <c r="M67" s="23">
+      <c r="M67" s="16">
         <f>$I67+Sheet2!B$3/24</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N67" s="23">
+      <c r="N67" s="16">
         <f>$I67+Sheet2!B$4/24</f>
         <v>0.125</v>
       </c>
-      <c r="O67" s="23">
+      <c r="O67" s="16">
         <f>$I67+Sheet2!B$5/24</f>
         <v>0.125</v>
       </c>
-      <c r="P67" s="23">
+      <c r="P67" s="16">
         <f>$I67+Sheet2!B$6/24</f>
         <v>0.125</v>
       </c>
-      <c r="Q67" s="23">
+      <c r="Q67" s="16">
         <f>$I67+Sheet2!B$7/24</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="R67" s="23">
+      <c r="R67" s="16">
         <f>$I67+Sheet2!B$8/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="S67" s="23">
+      <c r="S67" s="16">
         <f>$I67+Sheet2!B$9/24</f>
         <v>-0.16666666666666666</v>
       </c>
-      <c r="T67" s="23">
+      <c r="T67" s="16">
         <f>$I67+Sheet2!B$10/24</f>
         <v>-0.20833333333333334</v>
       </c>
-      <c r="U67" s="23">
+      <c r="U67" s="16">
         <f>$I67+Sheet2!B$11/24</f>
         <v>-0.25</v>
       </c>
-      <c r="V67" s="23">
+      <c r="V67" s="16">
         <f>$I67+Sheet2!B$12/24</f>
         <v>-0.29166666666666669</v>
       </c>
@@ -8462,22 +8544,22 @@
     <row r="68" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="52"/>
       <c r="B68" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C68" s="7">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D68" s="7">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E68" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>109</v>
+      <c r="F68" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H68" s="29" t="s">
         <v>9</v>
@@ -8537,25 +8619,25 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="52"/>
-      <c r="B69" s="12" t="s">
-        <v>95</v>
+      <c r="B69" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="C69" s="7">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D69" s="7">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E69" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F69" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" s="22" t="s">
-        <v>129</v>
+      <c r="F69" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" s="29" t="s">
+        <v>173</v>
       </c>
       <c r="H69" s="29" t="s">
         <v>9</v>
@@ -8570,47 +8652,47 @@
         <f>$I69+Sheet2!B$1/24</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="L69" s="16">
+      <c r="L69" s="23">
         <f>$I69+Sheet2!B$2/24</f>
         <v>0.375</v>
       </c>
-      <c r="M69" s="16">
+      <c r="M69" s="23">
         <f>$I69+Sheet2!B$3/24</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N69" s="16">
+      <c r="N69" s="23">
         <f>$I69+Sheet2!B$4/24</f>
         <v>0.125</v>
       </c>
-      <c r="O69" s="16">
+      <c r="O69" s="23">
         <f>$I69+Sheet2!B$5/24</f>
         <v>0.125</v>
       </c>
-      <c r="P69" s="16">
+      <c r="P69" s="23">
         <f>$I69+Sheet2!B$6/24</f>
         <v>0.125</v>
       </c>
-      <c r="Q69" s="16">
+      <c r="Q69" s="23">
         <f>$I69+Sheet2!B$7/24</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="R69" s="16">
+      <c r="R69" s="23">
         <f>$I69+Sheet2!B$8/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="S69" s="16">
+      <c r="S69" s="23">
         <f>$I69+Sheet2!B$9/24</f>
         <v>-0.16666666666666666</v>
       </c>
-      <c r="T69" s="16">
+      <c r="T69" s="23">
         <f>$I69+Sheet2!B$10/24</f>
         <v>-0.20833333333333334</v>
       </c>
-      <c r="U69" s="16">
+      <c r="U69" s="23">
         <f>$I69+Sheet2!B$11/24</f>
         <v>-0.25</v>
       </c>
-      <c r="V69" s="16">
+      <c r="V69" s="23">
         <f>$I69+Sheet2!B$12/24</f>
         <v>-0.29166666666666669</v>
       </c>
@@ -8618,13 +8700,13 @@
     <row r="70" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="52"/>
       <c r="B70" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70" s="7">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D70" s="7">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E70" s="14" t="s">
         <v>27</v>
@@ -8632,8 +8714,8 @@
       <c r="F70" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G70" s="29" t="s">
-        <v>172</v>
+      <c r="G70" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="H70" s="29" t="s">
         <v>9</v>
@@ -8693,178 +8775,178 @@
         <v>-0.29166666666666669</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="52"/>
       <c r="B71" s="18" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C71" s="7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D71" s="7">
-        <v>69</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G71" s="29" t="s">
-        <v>173</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G71" s="29"/>
       <c r="H71" s="29" t="s">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="I71" s="23">
-        <v>0</v>
-      </c>
-      <c r="J71" s="26" t="s">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J71" s="28" t="s">
         <v>14</v>
       </c>
       <c r="K71" s="25">
         <f>$I71+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L71" s="23">
         <f>$I71+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M71" s="23">
         <f>$I71+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="N71" s="23">
         <f>$I71+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O71" s="23">
         <f>$I71+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P71" s="23">
         <f>$I71+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q71" s="23">
         <f>$I71+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="R71" s="23">
         <f>$I71+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S71" s="23">
         <f>$I71+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>-0.125</v>
       </c>
       <c r="T71" s="23">
         <f>$I71+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U71" s="23">
         <f>$I71+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V71" s="23">
         <f>$I71+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="52"/>
       <c r="B72" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C72" s="7">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D72" s="7">
-        <v>70</v>
-      </c>
-      <c r="E72" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F72" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" s="27" t="s">
-        <v>174</v>
+        <v>72</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G72" s="34" t="s">
+        <v>151</v>
       </c>
       <c r="H72" s="29" t="s">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="I72" s="23">
-        <v>0</v>
-      </c>
-      <c r="J72" s="26" t="s">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J72" s="28" t="s">
         <v>14</v>
       </c>
       <c r="K72" s="25">
         <f>$I72+Sheet2!B$1/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="L72" s="23">
         <f>$I72+Sheet2!B$2/24</f>
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M72" s="23">
         <f>$I72+Sheet2!B$3/24</f>
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="N72" s="23">
         <f>$I72+Sheet2!B$4/24</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O72" s="23">
         <f>$I72+Sheet2!B$5/24</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P72" s="23">
         <f>$I72+Sheet2!B$6/24</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q72" s="23">
         <f>$I72+Sheet2!B$7/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="R72" s="23">
         <f>$I72+Sheet2!B$8/24</f>
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S72" s="23">
         <f>$I72+Sheet2!B$9/24</f>
-        <v>-0.16666666666666666</v>
+        <v>-0.125</v>
       </c>
       <c r="T72" s="23">
         <f>$I72+Sheet2!B$10/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="U72" s="23">
         <f>$I72+Sheet2!B$11/24</f>
-        <v>-0.25</v>
+        <v>-0.20833333333333334</v>
       </c>
       <c r="V72" s="23">
         <f>$I72+Sheet2!B$12/24</f>
-        <v>-0.29166666666666669</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="73" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="52"/>
       <c r="B73" s="18" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C73" s="7">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D73" s="7">
-        <v>71</v>
-      </c>
-      <c r="E73" s="14"/>
-      <c r="F73" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G73" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G73" s="34" t="s">
+        <v>175</v>
+      </c>
       <c r="H73" s="29" t="s">
         <v>227</v>
       </c>
@@ -8926,22 +9008,22 @@
     <row r="74" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="52"/>
       <c r="B74" s="18" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C74" s="7">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D74" s="7">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H74" s="29" t="s">
         <v>227</v>
@@ -9004,97 +9086,97 @@
     <row r="75" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="52"/>
       <c r="B75" s="18" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="C75" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D75" s="7">
-        <v>73</v>
-      </c>
-      <c r="E75" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G75" s="34" t="s">
-        <v>175</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E75" s="14"/>
+      <c r="F75" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G75" s="29"/>
       <c r="H75" s="29" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I75" s="23">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J75" s="28" t="s">
         <v>14</v>
       </c>
       <c r="K75" s="25">
         <f>$I75+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="L75" s="23">
         <f>$I75+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="M75" s="23">
         <f>$I75+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="N75" s="23">
         <f>$I75+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="O75" s="23">
         <f>$I75+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="P75" s="23">
         <f>$I75+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="Q75" s="23">
         <f>$I75+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R75" s="23">
         <f>$I75+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="S75" s="23">
         <f>$I75+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-8.3333333333333329E-2</v>
       </c>
       <c r="T75" s="23">
         <f>$I75+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.125</v>
       </c>
       <c r="U75" s="23">
         <f>$I75+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="V75" s="23">
         <f>$I75+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.20833333333333337</v>
       </c>
     </row>
     <row r="76" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="52"/>
       <c r="B76" s="18" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="C76" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D76" s="7">
-        <v>74</v>
-      </c>
-      <c r="E76" s="14"/>
+        <v>75</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="F76" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="G76" s="29"/>
+        <v>20</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>177</v>
+      </c>
       <c r="H76" s="29" t="s">
         <v>229</v>
       </c>
@@ -9155,23 +9237,23 @@
     </row>
     <row r="77" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="52"/>
-      <c r="B77" s="18" t="s">
-        <v>68</v>
+      <c r="B77" s="35" t="s">
+        <v>67</v>
       </c>
       <c r="C77" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D77" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E77" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F77" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" s="21" t="s">
-        <v>177</v>
+      <c r="F77" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="H77" s="29" t="s">
         <v>229</v>
@@ -9233,98 +9315,98 @@
     </row>
     <row r="78" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="52"/>
-      <c r="B78" s="35" t="s">
-        <v>67</v>
+      <c r="B78" s="18" t="s">
+        <v>228</v>
       </c>
       <c r="C78" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D78" s="7">
-        <v>76</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>178</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E78" s="14"/>
+      <c r="F78" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G78" s="29"/>
       <c r="H78" s="29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I78" s="23">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="J78" s="28" t="s">
         <v>14</v>
       </c>
       <c r="K78" s="25">
         <f>$I78+Sheet2!B$1/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="L78" s="23">
         <f>$I78+Sheet2!B$2/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="M78" s="23">
         <f>$I78+Sheet2!B$3/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N78" s="23">
         <f>$I78+Sheet2!B$4/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="O78" s="23">
         <f>$I78+Sheet2!B$5/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P78" s="23">
         <f>$I78+Sheet2!B$6/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="Q78" s="23">
         <f>$I78+Sheet2!B$7/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="R78" s="23">
         <f>$I78+Sheet2!B$8/24</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S78" s="23">
         <f>$I78+Sheet2!B$9/24</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-4.1666666666666657E-2</v>
       </c>
       <c r="T78" s="23">
         <f>$I78+Sheet2!B$10/24</f>
-        <v>-0.125</v>
+        <v>-8.3333333333333343E-2</v>
       </c>
       <c r="U78" s="23">
         <f>$I78+Sheet2!B$11/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.125</v>
       </c>
       <c r="V78" s="23">
         <f>$I78+Sheet2!B$12/24</f>
-        <v>-0.20833333333333337</v>
+        <v>-0.16666666666666669</v>
       </c>
     </row>
     <row r="79" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="52"/>
       <c r="B79" s="18" t="s">
-        <v>228</v>
+        <v>66</v>
       </c>
       <c r="C79" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D79" s="7">
-        <v>77</v>
-      </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="G79" s="29"/>
+        <v>78</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="37" t="s">
+        <v>179</v>
+      </c>
       <c r="H79" s="29" t="s">
         <v>230</v>
       </c>
@@ -9386,22 +9468,22 @@
     <row r="80" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="52"/>
       <c r="B80" s="18" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C80" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D80" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E80" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="13" t="s">
+      <c r="F80" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="37" t="s">
-        <v>179</v>
+      <c r="G80" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="H80" s="29" t="s">
         <v>230</v>
@@ -9409,7 +9491,7 @@
       <c r="I80" s="23">
         <v>0.125</v>
       </c>
-      <c r="J80" s="28" t="s">
+      <c r="J80" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K80" s="25">
@@ -9464,171 +9546,171 @@
     <row r="81" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="52"/>
       <c r="B81" s="18" t="s">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="C81" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D81" s="7">
-        <v>79</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>27</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E81" s="14"/>
       <c r="F81" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>161</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="G81" s="29"/>
       <c r="H81" s="29" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I81" s="23">
-        <v>0.125</v>
-      </c>
-      <c r="J81" s="26" t="s">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J81" s="28" t="s">
         <v>14</v>
       </c>
       <c r="K81" s="25">
         <f>$I81+Sheet2!B$1/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="L81" s="23">
         <f>$I81+Sheet2!B$2/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M81" s="23">
         <f>$I81+Sheet2!B$3/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="N81" s="23">
         <f>$I81+Sheet2!B$4/24</f>
-        <v>0.25</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="O81" s="23">
         <f>$I81+Sheet2!B$5/24</f>
-        <v>0.25</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="P81" s="23">
         <f>$I81+Sheet2!B$6/24</f>
-        <v>0.25</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="Q81" s="23">
         <f>$I81+Sheet2!B$7/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="R81" s="23">
         <f>$I81+Sheet2!B$8/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="S81" s="23">
         <f>$I81+Sheet2!B$9/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>0</v>
       </c>
       <c r="T81" s="23">
         <f>$I81+Sheet2!B$10/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-4.1666666666666685E-2</v>
       </c>
       <c r="U81" s="23">
         <f>$I81+Sheet2!B$11/24</f>
-        <v>-0.125</v>
+        <v>-8.3333333333333343E-2</v>
       </c>
       <c r="V81" s="23">
         <f>$I81+Sheet2!B$12/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.12500000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="52"/>
       <c r="B82" s="18" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C82" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D82" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="19" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G82" s="29"/>
       <c r="H82" s="29" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I82" s="23">
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="J82" s="28" t="s">
         <v>14</v>
       </c>
       <c r="K82" s="25">
         <f>$I82+Sheet2!B$1/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="L82" s="23">
         <f>$I82+Sheet2!B$2/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M82" s="23">
         <f>$I82+Sheet2!B$3/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="N82" s="23">
         <f>$I82+Sheet2!B$4/24</f>
-        <v>0.29166666666666663</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="O82" s="23">
         <f>$I82+Sheet2!B$5/24</f>
-        <v>0.29166666666666663</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="P82" s="23">
         <f>$I82+Sheet2!B$6/24</f>
-        <v>0.29166666666666663</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Q82" s="23">
         <f>$I82+Sheet2!B$7/24</f>
-        <v>0.25</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="R82" s="23">
         <f>$I82+Sheet2!B$8/24</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="S82" s="23">
         <f>$I82+Sheet2!B$9/24</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="T82" s="23">
         <f>$I82+Sheet2!B$10/24</f>
-        <v>-4.1666666666666685E-2</v>
+        <v>0</v>
       </c>
       <c r="U82" s="23">
         <f>$I82+Sheet2!B$11/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-4.1666666666666657E-2</v>
       </c>
       <c r="V82" s="23">
         <f>$I82+Sheet2!B$12/24</f>
-        <v>-0.12500000000000003</v>
+        <v>-8.3333333333333343E-2</v>
       </c>
     </row>
     <row r="83" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="52"/>
-      <c r="B83" s="18" t="s">
-        <v>234</v>
+      <c r="B83" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="C83" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D83" s="7">
-        <v>81</v>
-      </c>
-      <c r="E83" s="14"/>
-      <c r="F83" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="G83" s="29"/>
+        <v>82</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="34" t="s">
+        <v>176</v>
+      </c>
       <c r="H83" s="29" t="s">
         <v>236</v>
       </c>
@@ -9689,98 +9771,97 @@
     </row>
     <row r="84" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="52"/>
-      <c r="B84" s="35" t="s">
-        <v>65</v>
+      <c r="B84" s="18" t="s">
+        <v>237</v>
       </c>
       <c r="C84" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D84" s="7">
-        <v>82</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" s="34" t="s">
-        <v>176</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E84" s="14"/>
+      <c r="F84" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G84" s="29"/>
       <c r="H84" s="29" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I84" s="23">
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="J84" s="28" t="s">
         <v>14</v>
       </c>
       <c r="K84" s="25">
         <f>$I84+Sheet2!B$1/24</f>
-        <v>0.625</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="L84" s="23">
         <f>$I84+Sheet2!B$2/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="M84" s="23">
         <f>$I84+Sheet2!B$3/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="N84" s="23">
         <f>$I84+Sheet2!B$4/24</f>
-        <v>0.33333333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="O84" s="23">
         <f>$I84+Sheet2!B$5/24</f>
-        <v>0.33333333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="P84" s="23">
         <f>$I84+Sheet2!B$6/24</f>
-        <v>0.33333333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="Q84" s="23">
         <f>$I84+Sheet2!B$7/24</f>
-        <v>0.29166666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="R84" s="23">
         <f>$I84+Sheet2!B$8/24</f>
-        <v>0.25</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="S84" s="23">
         <f>$I84+Sheet2!B$9/24</f>
-        <v>4.1666666666666685E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="T84" s="23">
         <f>$I84+Sheet2!B$10/24</f>
-        <v>0</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="U84" s="23">
         <f>$I84+Sheet2!B$11/24</f>
-        <v>-4.1666666666666657E-2</v>
+        <v>0</v>
       </c>
       <c r="V84" s="23">
         <f>$I84+Sheet2!B$12/24</f>
-        <v>-8.3333333333333343E-2</v>
+        <v>-4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="85" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="52"/>
-      <c r="B85" s="18" t="s">
-        <v>237</v>
+      <c r="B85" s="35" t="s">
+        <v>69</v>
       </c>
       <c r="C85" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D85" s="7">
-        <v>83</v>
-      </c>
-      <c r="E85" s="14"/>
-      <c r="F85" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="G85" s="29"/>
+        <v>84</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="H85" s="29" t="s">
         <v>238</v>
       </c>
@@ -9839,1396 +9920,1334 @@
         <v>-4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="B86" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C86" s="7">
-        <v>84</v>
-      </c>
-      <c r="D86" s="7">
-        <v>84</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F86" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="H86" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="I86" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="J86" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="K86" s="25">
-        <f>$I86+Sheet2!B$1/24</f>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="L86" s="23">
-        <f>$I86+Sheet2!B$2/24</f>
-        <v>0.625</v>
-      </c>
-      <c r="M86" s="23">
-        <f>$I86+Sheet2!B$3/24</f>
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="N86" s="23">
-        <f>$I86+Sheet2!B$4/24</f>
-        <v>0.375</v>
-      </c>
-      <c r="O86" s="23">
-        <f>$I86+Sheet2!B$5/24</f>
-        <v>0.375</v>
-      </c>
-      <c r="P86" s="23">
-        <f>$I86+Sheet2!B$6/24</f>
-        <v>0.375</v>
-      </c>
-      <c r="Q86" s="23">
-        <f>$I86+Sheet2!B$7/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="R86" s="23">
-        <f>$I86+Sheet2!B$8/24</f>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="S86" s="23">
-        <f>$I86+Sheet2!B$9/24</f>
-        <v>8.3333333333333343E-2</v>
-      </c>
-      <c r="T86" s="23">
-        <f>$I86+Sheet2!B$10/24</f>
-        <v>4.1666666666666657E-2</v>
-      </c>
-      <c r="U86" s="23">
-        <f>$I86+Sheet2!B$11/24</f>
-        <v>0</v>
-      </c>
-      <c r="V86" s="23">
-        <f>$I86+Sheet2!B$12/24</f>
-        <v>-4.1666666666666685E-2</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="B2:V70">
-    <sortCondition ref="D2:D70"/>
+  <sortState ref="B2:V68">
+    <sortCondition ref="D2:D68"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
-    <mergeCell ref="A24:A48"/>
-    <mergeCell ref="A49:A85"/>
+    <mergeCell ref="A24:A47"/>
+    <mergeCell ref="A48:A84"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L3 L10:V10 K5:L8 L9 K11:L14 K13:V17 L18:V18 K58:V86 K19:V38 K40:V56 L39:V39">
-    <cfRule type="expression" dxfId="261" priority="604">
+  <conditionalFormatting sqref="K2:L3 L10:V10 K5:L8 L9 K11:L14 K13:V17 L18:V18 K19:V38 L39:V39 K40:V85">
+    <cfRule type="expression" dxfId="262" priority="610">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:V3 K5:V8 L9:V10 K11:V15 K16 K22:V22 K17:V17 K19:V19 K20:K21 K23:K31">
-    <cfRule type="expression" dxfId="260" priority="606">
+    <cfRule type="expression" dxfId="261" priority="612">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:V51 G51 G61 B62:B64 G71 G86 E59:G59 G29 B72 E72:G72 B3 E3:H3 H7 L10:V10 E20:G21 L20:V21 E22:H22 E30:G31 J22:V22 E32:H32 J32:V36 E44:G44 K44:V44 E48:G48 J48:V48 G63:G67 B68:B70 E68:G70 L39:V39 L61:V72 K75:V75 K84:V84 G73:G78 G84 K77:V78 K80:V81 K86:V86 L37:V37 E33:G37 E49:V50 G56:V56 H2 J2:V3 E39:G39 B81 J11:V14 B20:B37 E23:G28 J81:V81 B5:G5 E52:V55 L23:V31 L43:V43 L16:V16 L41:V41 B41 J17:V17 E11:H14 E16:G16 L18:V18 B16:B18 B44:B46 J45:V46 L74:V74 E45:H46 B9:B14 E18:G18 E9:G10 C9:D9 C13:D13 C17:H17 C21:D21 E41:G41 E81:G81 C25:D25 C46:D46 C66:D66 C86:D86 C29:D29 C50:D50 C70:D70 C33:D33 C54:D54 B74:G74 C37:D37 C58:V58 C78:D78 C42:D42 C62:G62 C82:D82 B48:B56 B58:B59 B39">
-    <cfRule type="expression" dxfId="259" priority="610">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61 L61:V61">
-    <cfRule type="expression" dxfId="258" priority="587">
+  <conditionalFormatting sqref="K50:V50 G50 G59 B60:B62 G69 G85 E57:G57 G29 B70 E70:G70 B3 E3:H3 H7 L10:V10 E20:G21 L20:V21 E22:H22 E30:G31 J22:V22 E32:H32 J32:V36 E47:G47 J47:V47 G61:G65 B66:B68 E66:G68 L39:V39 L59:V70 K73:V73 K83:V83 G71:G77 G83 K76:V77 K79:V80 K85:V85 L37:V37 E33:G37 E48:V49 G55:V55 H2 J2:V3 E39:G39 B80 J11:V14 B20:B37 E23:G28 J80:V80 B5:G5 E51:V54 L23:V31 L43:V43 L16:V16 L41:V41 B41 J17:V17 E11:H14 E16:G16 L18:V18 B16:B18 J44:V45 L72:V72 E44:H45 B9:B14 E18:G18 E9:G10 C9:D9 C13:D13 C17:H17 C21:D21 E41:G41 E80:G80 C25:D25 C45:D45 C64:D64 C85:D85 C29:D29 C49:D49 C68:D68 C33:D33 C53:D53 B72:G72 C37:D37 C56:V56 C77:D77 C60:G60 C81:D81 B47:B57 B39 B44:B45 C42:D43 B74:G74 L74:V74">
+    <cfRule type="expression" dxfId="260" priority="616">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59 L59:V59">
+    <cfRule type="expression" dxfId="259" priority="593">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63 L63:V63">
+    <cfRule type="expression" dxfId="258" priority="591">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65 L65:V65">
-    <cfRule type="expression" dxfId="257" priority="585">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67 L67:V67">
-    <cfRule type="expression" dxfId="256" priority="583">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71 L71:V71">
-    <cfRule type="expression" dxfId="255" priority="581">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66 L66:V66">
-    <cfRule type="expression" dxfId="254" priority="579">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75 K75:V75">
-    <cfRule type="expression" dxfId="253" priority="577">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84 K84:V84 E84:F84">
-    <cfRule type="expression" dxfId="252" priority="575">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="251" priority="573">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="250" priority="570">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="249" priority="569">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="248" priority="568">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80:B81 J80:V81">
-    <cfRule type="expression" dxfId="247" priority="566">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78 J78:V78 E78">
-    <cfRule type="expression" dxfId="246" priority="564">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80:F81">
-    <cfRule type="expression" dxfId="245" priority="562">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77 J77:V77">
-    <cfRule type="expression" dxfId="244" priority="560">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B86 J86:V86 E86">
-    <cfRule type="expression" dxfId="243" priority="558">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="expression" dxfId="242" priority="550">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K59:V59">
-    <cfRule type="expression" dxfId="241" priority="490">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
-    <cfRule type="expression" dxfId="240" priority="511">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
-    <cfRule type="expression" dxfId="239" priority="512">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73:B74 E73:F74">
-    <cfRule type="expression" dxfId="238" priority="476">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="237" priority="497">
+    <cfRule type="expression" dxfId="257" priority="589">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69 L69:V69">
+    <cfRule type="expression" dxfId="256" priority="587">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64 L64:V64">
+    <cfRule type="expression" dxfId="255" priority="585">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73:B74 K73:V73 L74:V74">
+    <cfRule type="expression" dxfId="254" priority="583">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83 K83:V83 E83:F83">
+    <cfRule type="expression" dxfId="253" priority="581">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="252" priority="579">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="251" priority="576">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="250" priority="575">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73:E74">
+    <cfRule type="expression" dxfId="249" priority="574">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79:B80 J79:V80">
+    <cfRule type="expression" dxfId="248" priority="572">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77 J77:V77 E77">
+    <cfRule type="expression" dxfId="247" priority="570">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79:F80">
+    <cfRule type="expression" dxfId="246" priority="568">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76 J76:V76">
+    <cfRule type="expression" dxfId="245" priority="566">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85 J85:V85 E85">
+    <cfRule type="expression" dxfId="244" priority="564">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64">
+    <cfRule type="expression" dxfId="243" priority="556">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:V57">
+    <cfRule type="expression" dxfId="242" priority="496">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F73:F74">
+    <cfRule type="expression" dxfId="241" priority="517">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69">
+    <cfRule type="expression" dxfId="240" priority="518">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B72 E71:F72">
+    <cfRule type="expression" dxfId="239" priority="482">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="238" priority="503">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63:F63">
+    <cfRule type="expression" dxfId="237" priority="510">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58 L58:V58">
+    <cfRule type="expression" dxfId="236" priority="504">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F77">
+    <cfRule type="expression" dxfId="235" priority="516">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="expression" dxfId="234" priority="512">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65:F65">
-    <cfRule type="expression" dxfId="236" priority="504">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60 L60:V60">
-    <cfRule type="expression" dxfId="235" priority="498">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
-    <cfRule type="expression" dxfId="234" priority="510">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="expression" dxfId="233" priority="506">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:F67">
-    <cfRule type="expression" dxfId="232" priority="505">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77:F77">
-    <cfRule type="expression" dxfId="231" priority="503">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L60:V60 G60">
-    <cfRule type="expression" dxfId="230" priority="500">
+    <cfRule type="expression" dxfId="233" priority="511">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76:F76">
+    <cfRule type="expression" dxfId="232" priority="509">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58:V58 G58">
+    <cfRule type="expression" dxfId="231" priority="506">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:V7">
-    <cfRule type="expression" dxfId="229" priority="445">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="expression" dxfId="228" priority="494">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46:V46 L43:V43">
-    <cfRule type="expression" dxfId="227" priority="614">
+    <cfRule type="expression" dxfId="230" priority="451">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" dxfId="229" priority="500">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:V45 L43:V43">
+    <cfRule type="expression" dxfId="228" priority="620">
       <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:V59">
-    <cfRule type="expression" dxfId="226" priority="491">
+  <conditionalFormatting sqref="K57:V57">
+    <cfRule type="expression" dxfId="227" priority="497">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:V10">
-    <cfRule type="expression" dxfId="225" priority="436">
+    <cfRule type="expression" dxfId="226" priority="442">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43 G43">
-    <cfRule type="expression" dxfId="224" priority="484">
+    <cfRule type="expression" dxfId="225" priority="490">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H14 J13:V14 L18:V18">
-    <cfRule type="expression" dxfId="223" priority="482">
+    <cfRule type="expression" dxfId="224" priority="488">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:V14 L18:V18">
-    <cfRule type="expression" dxfId="222" priority="483">
+    <cfRule type="expression" dxfId="223" priority="489">
       <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:F43">
-    <cfRule type="expression" dxfId="221" priority="478">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G3 B7 E7:G7 C6:D7 C10:D11 C14:D15 C18:D19 C22:D23 C43:D44 C63:D64 C83:D84 C26:D27 C47:D48 C67:D68 C30:D31 C51:D52 C71:D72 C34:D35 C55:D56 C75:D76 C38:D40 C59:D60 C79:D80">
-    <cfRule type="expression" dxfId="220" priority="477">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K73:V73 L74:V74">
-    <cfRule type="expression" dxfId="219" priority="475">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73:V73 L74:V74">
-    <cfRule type="expression" dxfId="218" priority="473">
+    <cfRule type="expression" dxfId="222" priority="484">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:G3 B7 E7:G7 C6:D7 C10:D11 C14:D15 C18:D19 C22:D23 C61:D62 C82:D83 C26:D27 C46:D47 C65:D66 C30:D31 C50:D51 C69:D70 C34:D35 C54:D55 C73:D75 C38:D40 C57:D58 C78:D79">
+    <cfRule type="expression" dxfId="221" priority="483">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K71:V71 L72:V72">
+    <cfRule type="expression" dxfId="220" priority="481">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71:V71 L72:V72">
+    <cfRule type="expression" dxfId="219" priority="479">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="expression" dxfId="218" priority="478">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75:V75">
+    <cfRule type="expression" dxfId="217" priority="473">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75 E75:F75">
+    <cfRule type="expression" dxfId="216" priority="476">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K75:V75">
+    <cfRule type="expression" dxfId="215" priority="475">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="expression" dxfId="214" priority="472">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="expression" dxfId="213" priority="465">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:F29">
+    <cfRule type="expression" dxfId="212" priority="470">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:B43 E42:E43 L42:V43 G42:G43">
+    <cfRule type="expression" dxfId="211" priority="469">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:G4 C8:D8 C12:D12 C16:D16 C20:D20 C24:D24 C44:D44 C63:D63 C84:D84 C28:D28 C48:D48 C67:D67 C32:D32 C52:D52 C71:D71 C36:D36 C39:D39 C76:D76 C41:D41 C59:D59 C80:D80">
+    <cfRule type="expression" dxfId="210" priority="464">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="209" priority="463">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6 E6:H6 J6:V6">
+    <cfRule type="expression" dxfId="208" priority="461">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:V5">
+    <cfRule type="expression" dxfId="207" priority="458">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:L4">
+    <cfRule type="expression" dxfId="206" priority="453">
+      <formula>K$1=$H4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:V4">
+    <cfRule type="expression" dxfId="205" priority="454">
+      <formula>K$1=$I4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:V4">
+    <cfRule type="expression" dxfId="204" priority="455">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="expression" dxfId="203" priority="448">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B10 E8:G10">
+    <cfRule type="expression" dxfId="202" priority="447">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:K8">
+    <cfRule type="expression" dxfId="201" priority="445">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 E15:H15 J15:V15">
+    <cfRule type="expression" dxfId="200" priority="437">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15 J15:V15">
+    <cfRule type="expression" dxfId="199" priority="434">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:V15">
+    <cfRule type="expression" dxfId="198" priority="435">
+      <formula>K$1=#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 E15:G15">
+    <cfRule type="expression" dxfId="197" priority="433">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63">
+    <cfRule type="expression" dxfId="196" priority="291">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16 J16:K16">
+    <cfRule type="expression" dxfId="195" priority="430">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16 J16:K16">
+    <cfRule type="expression" dxfId="194" priority="427">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="expression" dxfId="193" priority="428">
+      <formula>K$1=#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46 J46:V46">
+    <cfRule type="expression" dxfId="192" priority="322">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19 E19:H19 J19:V19">
+    <cfRule type="expression" dxfId="191" priority="423">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66">
+    <cfRule type="expression" dxfId="190" priority="279">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26 J26:K26">
+    <cfRule type="expression" dxfId="189" priority="385">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57:J57">
+    <cfRule type="expression" dxfId="188" priority="317">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20 J20:K20">
+    <cfRule type="expression" dxfId="187" priority="412">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21 J21:K21">
+    <cfRule type="expression" dxfId="186" priority="407">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" dxfId="185" priority="312">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" dxfId="184" priority="311">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23 J23:K23">
+    <cfRule type="expression" dxfId="183" priority="400">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59">
+    <cfRule type="expression" dxfId="182" priority="308">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24 J24:K24">
+    <cfRule type="expression" dxfId="181" priority="395">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59 J59">
+    <cfRule type="expression" dxfId="180" priority="306">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25 J25:K25">
+    <cfRule type="expression" dxfId="179" priority="390">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60">
+    <cfRule type="expression" dxfId="178" priority="303">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60 J60">
+    <cfRule type="expression" dxfId="177" priority="302">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61">
+    <cfRule type="expression" dxfId="176" priority="300">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61">
+    <cfRule type="expression" dxfId="175" priority="299">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27 J27:K27">
+    <cfRule type="expression" dxfId="174" priority="380">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62">
+    <cfRule type="expression" dxfId="173" priority="296">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28 J28:K28">
+    <cfRule type="expression" dxfId="172" priority="375">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62 J62">
+    <cfRule type="expression" dxfId="171" priority="294">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29 J29:K29">
+    <cfRule type="expression" dxfId="170" priority="370">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63 J63">
+    <cfRule type="expression" dxfId="169" priority="290">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30 J30:K30">
+    <cfRule type="expression" dxfId="168" priority="365">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64">
+    <cfRule type="expression" dxfId="167" priority="288">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64">
+    <cfRule type="expression" dxfId="166" priority="287">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31 J31:K31">
+    <cfRule type="expression" dxfId="165" priority="360">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65">
+    <cfRule type="expression" dxfId="164" priority="284">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65 J65">
+    <cfRule type="expression" dxfId="163" priority="282">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="expression" dxfId="162" priority="348">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66">
+    <cfRule type="expression" dxfId="161" priority="280">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="expression" dxfId="160" priority="345">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="expression" dxfId="159" priority="342">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66 J66">
+    <cfRule type="expression" dxfId="158" priority="278">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="expression" dxfId="157" priority="339">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:B39 J38:V38 E38:H38 E39:G39 L39:V39">
+    <cfRule type="expression" dxfId="156" priority="336">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40:V40 B40:B43 E42:E43 E40:H40 G42:G43 E41:G41 L41:V43">
+    <cfRule type="expression" dxfId="155" priority="332">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68">
+    <cfRule type="expression" dxfId="154" priority="276">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68">
+    <cfRule type="expression" dxfId="153" priority="275">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:G46 B46">
+    <cfRule type="expression" dxfId="152" priority="325">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I78">
+    <cfRule type="expression" dxfId="151" priority="182">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="expression" dxfId="150" priority="321">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50 J50">
+    <cfRule type="expression" dxfId="149" priority="320">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70">
+    <cfRule type="expression" dxfId="148" priority="268">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69">
+    <cfRule type="expression" dxfId="147" priority="271">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68 J68">
+    <cfRule type="expression" dxfId="146" priority="274">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58 J58">
+    <cfRule type="expression" dxfId="145" priority="310">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59">
+    <cfRule type="expression" dxfId="144" priority="307">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60">
+    <cfRule type="expression" dxfId="143" priority="304">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61 J61">
+    <cfRule type="expression" dxfId="142" priority="298">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62">
+    <cfRule type="expression" dxfId="141" priority="295">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63">
+    <cfRule type="expression" dxfId="140" priority="292">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64 J64">
+    <cfRule type="expression" dxfId="139" priority="286">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65">
+    <cfRule type="expression" dxfId="138" priority="283">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69">
+    <cfRule type="expression" dxfId="137" priority="272">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69 J69">
+    <cfRule type="expression" dxfId="136" priority="270">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70">
+    <cfRule type="expression" dxfId="135" priority="267">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70 J70">
+    <cfRule type="expression" dxfId="134" priority="266">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67">
+    <cfRule type="expression" dxfId="133" priority="264">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67">
+    <cfRule type="expression" dxfId="132" priority="263">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67 J67">
+    <cfRule type="expression" dxfId="131" priority="262">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J73">
+    <cfRule type="expression" dxfId="130" priority="260">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="expression" dxfId="217" priority="472">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J76:V76">
-    <cfRule type="expression" dxfId="216" priority="467">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B76 E76:F76">
-    <cfRule type="expression" dxfId="215" priority="470">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K76:V76">
-    <cfRule type="expression" dxfId="214" priority="469">
+    <cfRule type="expression" dxfId="129" priority="259">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
+    <cfRule type="expression" dxfId="128" priority="257">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J78:V78">
+    <cfRule type="expression" dxfId="127" priority="252">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78 E78:F78">
+    <cfRule type="expression" dxfId="126" priority="254">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K78:V78">
+    <cfRule type="expression" dxfId="125" priority="253">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="expression" dxfId="124" priority="251">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="expression" dxfId="213" priority="466">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="212" priority="459">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:F29">
-    <cfRule type="expression" dxfId="211" priority="464">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42:B43 E42:E43 L42:V43 G42:G43">
-    <cfRule type="expression" dxfId="210" priority="463">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:G4 C8:D8 C12:D12 C16:D16 C20:D20 C24:D24 C45:D45 C65:D65 C85:D85 C28:D28 C49:D49 C69:D69 C32:D32 C53:D53 C73:D73 C36:D36 C39:D39 C77:D77 C41:D41 C61:D61 C81:D81">
-    <cfRule type="expression" dxfId="209" priority="458">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="208" priority="457">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6 E6:H6 J6:V6">
-    <cfRule type="expression" dxfId="207" priority="455">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:V5">
-    <cfRule type="expression" dxfId="206" priority="452">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:L4">
-    <cfRule type="expression" dxfId="205" priority="447">
-      <formula>K$1=$H4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:V4">
-    <cfRule type="expression" dxfId="204" priority="448">
-      <formula>K$1=$I4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:V4">
-    <cfRule type="expression" dxfId="203" priority="449">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="202" priority="442">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B10 E8:G10">
-    <cfRule type="expression" dxfId="201" priority="441">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:K8">
-    <cfRule type="expression" dxfId="200" priority="439">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15 E15:H15 J15:V15">
-    <cfRule type="expression" dxfId="199" priority="431">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15 J15:V15">
-    <cfRule type="expression" dxfId="198" priority="428">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15:V15">
-    <cfRule type="expression" dxfId="197" priority="429">
-      <formula>K$1=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15 E15:G15">
-    <cfRule type="expression" dxfId="196" priority="427">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K65">
-    <cfRule type="expression" dxfId="195" priority="285">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16 J16:K16">
-    <cfRule type="expression" dxfId="194" priority="424">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16 J16:K16">
-    <cfRule type="expression" dxfId="193" priority="421">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="192" priority="422">
-      <formula>K$1=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44 J44">
-    <cfRule type="expression" dxfId="191" priority="322">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19 E19:H19 J19:V19">
-    <cfRule type="expression" dxfId="190" priority="417">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K68">
-    <cfRule type="expression" dxfId="189" priority="273">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26 J26:K26">
-    <cfRule type="expression" dxfId="188" priority="379">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59:J59">
-    <cfRule type="expression" dxfId="186" priority="311">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20 J20:K20">
-    <cfRule type="expression" dxfId="185" priority="406">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21 J21:K21">
-    <cfRule type="expression" dxfId="184" priority="401">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
-    <cfRule type="expression" dxfId="183" priority="306">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
-    <cfRule type="expression" dxfId="182" priority="305">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23 J23:K23">
-    <cfRule type="expression" dxfId="181" priority="394">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61">
-    <cfRule type="expression" dxfId="180" priority="302">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24 J24:K24">
-    <cfRule type="expression" dxfId="179" priority="389">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61 J61">
-    <cfRule type="expression" dxfId="178" priority="300">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25 J25:K25">
-    <cfRule type="expression" dxfId="177" priority="384">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62">
-    <cfRule type="expression" dxfId="176" priority="297">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62 J62">
-    <cfRule type="expression" dxfId="175" priority="296">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K63">
-    <cfRule type="expression" dxfId="174" priority="294">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K63">
-    <cfRule type="expression" dxfId="173" priority="293">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27 J27:K27">
-    <cfRule type="expression" dxfId="172" priority="374">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K64">
-    <cfRule type="expression" dxfId="171" priority="290">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28 J28:K28">
-    <cfRule type="expression" dxfId="170" priority="369">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64 J64">
-    <cfRule type="expression" dxfId="169" priority="288">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29 J29:K29">
-    <cfRule type="expression" dxfId="168" priority="364">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65 J65">
-    <cfRule type="expression" dxfId="167" priority="284">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30 J30:K30">
-    <cfRule type="expression" dxfId="166" priority="359">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K66">
-    <cfRule type="expression" dxfId="165" priority="282">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K66">
-    <cfRule type="expression" dxfId="164" priority="281">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31 J31:K31">
-    <cfRule type="expression" dxfId="163" priority="354">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67">
-    <cfRule type="expression" dxfId="162" priority="278">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67 J67">
-    <cfRule type="expression" dxfId="161" priority="276">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="160" priority="342">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K68">
-    <cfRule type="expression" dxfId="159" priority="274">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="158" priority="339">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="157" priority="336">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68 J68">
-    <cfRule type="expression" dxfId="156" priority="272">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="155" priority="333">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B39 J38:V38 E38:H38 E39:G39 L39:V39">
-    <cfRule type="expression" dxfId="154" priority="330">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40:V40 B40:B43 E42:E43 E40:H40 G42:G43 E41:G41 L41:V43">
-    <cfRule type="expression" dxfId="153" priority="326">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K70">
-    <cfRule type="expression" dxfId="152" priority="270">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K70">
-    <cfRule type="expression" dxfId="151" priority="269">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:G47 B47">
-    <cfRule type="expression" dxfId="150" priority="319">
+    <cfRule type="expression" dxfId="123" priority="248">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="expression" dxfId="122" priority="246">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G81">
+    <cfRule type="expression" dxfId="121" priority="243">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="120" priority="100">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J81:V81">
+    <cfRule type="expression" dxfId="119" priority="238">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81 E81:F81">
+    <cfRule type="expression" dxfId="118" priority="240">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K81:V81">
+    <cfRule type="expression" dxfId="117" priority="239">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="expression" dxfId="116" priority="237">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="expression" dxfId="115" priority="235">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="expression" dxfId="114" priority="233">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="113" priority="90">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J82:V82">
+    <cfRule type="expression" dxfId="112" priority="228">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82 E82:F82">
+    <cfRule type="expression" dxfId="111" priority="230">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K82:V82">
+    <cfRule type="expression" dxfId="110" priority="229">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="expression" dxfId="109" priority="227">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83">
+    <cfRule type="expression" dxfId="108" priority="225">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="expression" dxfId="107" priority="224">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G84">
+    <cfRule type="expression" dxfId="106" priority="222">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="expression" dxfId="105" priority="79">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84:V84">
+    <cfRule type="expression" dxfId="104" priority="217">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84 E84:F84">
+    <cfRule type="expression" dxfId="103" priority="219">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K84:V84">
+    <cfRule type="expression" dxfId="102" priority="218">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="expression" dxfId="101" priority="216">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42">
+    <cfRule type="expression" dxfId="100" priority="214">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42 J42">
+    <cfRule type="expression" dxfId="99" priority="212">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:K37">
+    <cfRule type="expression" dxfId="98" priority="209">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="expression" dxfId="97" priority="207">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="expression" dxfId="96" priority="65">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="expression" dxfId="95" priority="203">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="expression" dxfId="94" priority="196">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58">
+    <cfRule type="expression" dxfId="93" priority="200">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59">
+    <cfRule type="expression" dxfId="92" priority="199">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="expression" dxfId="91" priority="198">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
+    <cfRule type="expression" dxfId="90" priority="197">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="expression" dxfId="89" priority="195">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
+    <cfRule type="expression" dxfId="88" priority="194">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65">
+    <cfRule type="expression" dxfId="87" priority="193">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="expression" dxfId="86" priority="192">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67">
+    <cfRule type="expression" dxfId="85" priority="191">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68">
+    <cfRule type="expression" dxfId="84" priority="190">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69">
+    <cfRule type="expression" dxfId="83" priority="189">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I70">
+    <cfRule type="expression" dxfId="82" priority="188">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71">
+    <cfRule type="expression" dxfId="81" priority="187">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73">
+    <cfRule type="expression" dxfId="80" priority="186">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I75">
+    <cfRule type="expression" dxfId="79" priority="185">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I76">
+    <cfRule type="expression" dxfId="78" priority="184">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I77">
+    <cfRule type="expression" dxfId="77" priority="183">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="expression" dxfId="149" priority="176">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47 J47:V47">
-    <cfRule type="expression" dxfId="148" priority="316">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="expression" dxfId="147" priority="315">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51 J51">
-    <cfRule type="expression" dxfId="146" priority="314">
+    <cfRule type="expression" dxfId="76" priority="181">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I81">
+    <cfRule type="expression" dxfId="75" priority="180">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I82">
+    <cfRule type="expression" dxfId="74" priority="179">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I83">
+    <cfRule type="expression" dxfId="73" priority="178">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84">
+    <cfRule type="expression" dxfId="72" priority="177">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I85">
+    <cfRule type="expression" dxfId="71" priority="176">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="expression" dxfId="70" priority="175">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="expression" dxfId="69" priority="174">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="expression" dxfId="68" priority="173">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="67" priority="172">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="expression" dxfId="66" priority="171">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="expression" dxfId="65" priority="170">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="64" priority="169">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="63" priority="168">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="62" priority="167">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="61" priority="99">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="60" priority="98">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="59" priority="97">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="58" priority="96">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="expression" dxfId="57" priority="95">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="56" priority="89">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="55" priority="93">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="54" priority="92">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="53" priority="91">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="52" priority="88">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="expression" dxfId="51" priority="87">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="expression" dxfId="50" priority="86">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="expression" dxfId="49" priority="85">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="expression" dxfId="48" priority="84">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="47" priority="83">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="expression" dxfId="46" priority="82">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="45" priority="81">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="expression" dxfId="44" priority="78">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="expression" dxfId="43" priority="64">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="expression" dxfId="42" priority="76">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="expression" dxfId="41" priority="75">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="expression" dxfId="40" priority="74">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="expression" dxfId="39" priority="73">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="expression" dxfId="38" priority="72">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="expression" dxfId="37" priority="71">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="expression" dxfId="36" priority="70">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="expression" dxfId="35" priority="68">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="expression" dxfId="34" priority="66">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:V10">
+    <cfRule type="expression" dxfId="33" priority="56">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="32" priority="45">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="expression" dxfId="31" priority="54">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I80">
+    <cfRule type="expression" dxfId="30" priority="53">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:K9">
+    <cfRule type="expression" dxfId="29" priority="44">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="28" priority="43">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="27" priority="46">
+      <formula>K$1=$H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="26" priority="47">
+      <formula>K$1=$I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="expression" dxfId="25" priority="41">
+      <formula>K$1=$H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="expression" dxfId="24" priority="42">
+      <formula>K$1=$I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="expression" dxfId="23" priority="40">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:K10">
+    <cfRule type="expression" dxfId="22" priority="39">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" dxfId="21" priority="38">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42:F43">
+    <cfRule type="expression" dxfId="20" priority="31">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43:K43 H43">
+    <cfRule type="expression" dxfId="19" priority="29">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" dxfId="18" priority="28">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41:K41 H41">
+    <cfRule type="expression" dxfId="17" priority="26">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
+    <cfRule type="expression" dxfId="16" priority="25">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>K$1=$H18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="expression" dxfId="14" priority="17">
+      <formula>K$1=$I18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18 J18:K18">
+    <cfRule type="expression" dxfId="13" priority="18">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K72">
-    <cfRule type="expression" dxfId="145" priority="262">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K71">
-    <cfRule type="expression" dxfId="144" priority="265">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70 J70">
-    <cfRule type="expression" dxfId="143" priority="268">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60 J60">
-    <cfRule type="expression" dxfId="142" priority="304">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61">
-    <cfRule type="expression" dxfId="141" priority="301">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62">
-    <cfRule type="expression" dxfId="140" priority="298">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63 J63">
-    <cfRule type="expression" dxfId="139" priority="292">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K64">
-    <cfRule type="expression" dxfId="138" priority="289">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K65">
-    <cfRule type="expression" dxfId="137" priority="286">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66 J66">
-    <cfRule type="expression" dxfId="136" priority="280">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67">
-    <cfRule type="expression" dxfId="135" priority="277">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K71">
-    <cfRule type="expression" dxfId="134" priority="266">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71 J71">
-    <cfRule type="expression" dxfId="133" priority="264">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K72">
-    <cfRule type="expression" dxfId="132" priority="261">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72 J72">
-    <cfRule type="expression" dxfId="131" priority="260">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K69">
-    <cfRule type="expression" dxfId="130" priority="258">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K69">
-    <cfRule type="expression" dxfId="129" priority="257">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69 J69">
-    <cfRule type="expression" dxfId="128" priority="256">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J75">
-    <cfRule type="expression" dxfId="127" priority="254">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="expression" dxfId="126" priority="253">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79">
-    <cfRule type="expression" dxfId="125" priority="251">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J79:V79">
-    <cfRule type="expression" dxfId="124" priority="246">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79 E79:F79">
-    <cfRule type="expression" dxfId="123" priority="248">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K79:V79">
-    <cfRule type="expression" dxfId="122" priority="247">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="expression" dxfId="121" priority="245">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="expression" dxfId="120" priority="242">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="expression" dxfId="119" priority="240">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="expression" dxfId="118" priority="237">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="117" priority="94">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J82:V82">
-    <cfRule type="expression" dxfId="116" priority="232">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82 E82:F82">
-    <cfRule type="expression" dxfId="115" priority="234">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K82:V82">
-    <cfRule type="expression" dxfId="114" priority="233">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="expression" dxfId="113" priority="231">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="expression" dxfId="112" priority="229">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G83">
-    <cfRule type="expression" dxfId="111" priority="227">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="110" priority="84">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J83:V83">
-    <cfRule type="expression" dxfId="109" priority="222">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83 E83:F83">
-    <cfRule type="expression" dxfId="108" priority="224">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K83:V83">
-    <cfRule type="expression" dxfId="107" priority="223">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="expression" dxfId="106" priority="221">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J84">
-    <cfRule type="expression" dxfId="105" priority="219">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="expression" dxfId="104" priority="218">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G85">
-    <cfRule type="expression" dxfId="103" priority="216">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="102" priority="73">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J85:V85">
-    <cfRule type="expression" dxfId="101" priority="211">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B85 E85:F85">
-    <cfRule type="expression" dxfId="100" priority="213">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K85:V85">
-    <cfRule type="expression" dxfId="99" priority="212">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="expression" dxfId="98" priority="210">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="expression" dxfId="97" priority="208">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42 J42">
-    <cfRule type="expression" dxfId="96" priority="206">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37:K37">
-    <cfRule type="expression" dxfId="95" priority="203">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="94" priority="201">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
-    <cfRule type="expression" dxfId="93" priority="59">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="92" priority="197">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="expression" dxfId="91" priority="190">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
-    <cfRule type="expression" dxfId="89" priority="194">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
-    <cfRule type="expression" dxfId="88" priority="193">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
-    <cfRule type="expression" dxfId="87" priority="192">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="86" priority="191">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
-    <cfRule type="expression" dxfId="85" priority="189">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="expression" dxfId="84" priority="188">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67">
-    <cfRule type="expression" dxfId="83" priority="187">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I68">
-    <cfRule type="expression" dxfId="82" priority="186">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
-    <cfRule type="expression" dxfId="81" priority="185">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
-    <cfRule type="expression" dxfId="80" priority="184">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="expression" dxfId="79" priority="183">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72:K72">
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72">
-    <cfRule type="expression" dxfId="78" priority="182">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I73">
-    <cfRule type="expression" dxfId="77" priority="181">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
-    <cfRule type="expression" dxfId="76" priority="180">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I76">
-    <cfRule type="expression" dxfId="75" priority="179">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I77">
-    <cfRule type="expression" dxfId="74" priority="178">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I78">
-    <cfRule type="expression" dxfId="73" priority="177">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I80">
-    <cfRule type="expression" dxfId="72" priority="175">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I82">
-    <cfRule type="expression" dxfId="71" priority="174">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I83">
-    <cfRule type="expression" dxfId="70" priority="173">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I84">
-    <cfRule type="expression" dxfId="69" priority="172">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I85">
-    <cfRule type="expression" dxfId="68" priority="171">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I86">
-    <cfRule type="expression" dxfId="67" priority="170">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="expression" dxfId="66" priority="169">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="65" priority="168">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="64" priority="167">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="63" priority="166">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="62" priority="165">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="61" priority="164">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="60" priority="163">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="59" priority="162">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="58" priority="161">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="57" priority="93">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="56" priority="92">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="55" priority="91">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="54" priority="90">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="53" priority="89">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="52" priority="83">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="51" priority="87">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="50" priority="86">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="49" priority="85">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="48" priority="82">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="47" priority="81">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="46" priority="80">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="45" priority="79">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="44" priority="78">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="43" priority="77">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="42" priority="76">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="41" priority="75">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="40" priority="72">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
-    <cfRule type="expression" dxfId="39" priority="58">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="38" priority="70">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="37" priority="69">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="expression" dxfId="36" priority="68">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="35" priority="67">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="34" priority="66">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="33" priority="65">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="32" priority="64">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="expression" dxfId="31" priority="63">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="30" priority="62">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="expression" dxfId="29" priority="60">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9:V10">
-    <cfRule type="expression" dxfId="28" priority="50">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="27" priority="39">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="expression" dxfId="26" priority="48">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I81">
-    <cfRule type="expression" dxfId="25" priority="47">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:K9">
-    <cfRule type="expression" dxfId="24" priority="38">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="23" priority="37">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="22" priority="40">
-      <formula>K$1=$H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="21" priority="41">
-      <formula>K$1=$I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="20" priority="35">
-      <formula>K$1=$H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="19" priority="36">
-      <formula>K$1=$I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="18" priority="34">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:K10">
-    <cfRule type="expression" dxfId="17" priority="33">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="16" priority="32">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F43">
-    <cfRule type="expression" dxfId="15" priority="25">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43:K43 H43">
-    <cfRule type="expression" dxfId="14" priority="23">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="13" priority="22">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41:K41 H41">
-    <cfRule type="expression" dxfId="12" priority="20">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
-    <cfRule type="expression" dxfId="11" priority="19">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>K$1=$H18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="9" priority="11">
-      <formula>K$1=$I18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18 J18:K18">
-    <cfRule type="expression" dxfId="8" priority="12">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39">
     <cfRule type="expression" dxfId="7" priority="9">
+      <formula>K$1=$H39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39:K39 H39">
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J74:K74">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K74">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K39">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>K$1=$H39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39:K39 H39">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E727E1F5-8649-7B47-8138-FB0607F88374}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E70EA02-6B32-2A4D-A4B3-CEC978EEA3DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19820" yWindow="2700" windowWidth="25720" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -1182,42 +1182,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="263">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="270">
     <dxf>
       <fill>
         <patternFill>
@@ -1270,20 +1235,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -1349,13 +1300,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -1364,6 +1308,48 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -1380,6 +1366,62 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -1388,1161 +1430,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -2551,34 +1438,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -2587,48 +1446,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -2637,6 +1454,1161 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -2673,90 +2645,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -2793,6 +2681,20 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
@@ -2801,15 +2703,165 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3356,8 +3408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9008,97 +9060,97 @@
     <row r="74" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="52"/>
       <c r="B74" s="18" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="C74" s="7">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D74" s="7">
-        <v>42</v>
-      </c>
-      <c r="E74" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F74" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G74" s="34" t="s">
-        <v>150</v>
-      </c>
+      <c r="E74" s="14"/>
+      <c r="F74" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G74" s="29"/>
       <c r="H74" s="29" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I74" s="23">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J74" s="28" t="s">
         <v>14</v>
       </c>
       <c r="K74" s="25">
         <f>$I74+Sheet2!B$1/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="L74" s="23">
         <f>$I74+Sheet2!B$2/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="M74" s="23">
         <f>$I74+Sheet2!B$3/24</f>
-        <v>0.375</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="N74" s="23">
         <f>$I74+Sheet2!B$4/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="O74" s="23">
         <f>$I74+Sheet2!B$5/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="P74" s="23">
         <f>$I74+Sheet2!B$6/24</f>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="Q74" s="23">
         <f>$I74+Sheet2!B$7/24</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R74" s="23">
         <f>$I74+Sheet2!B$8/24</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="S74" s="23">
         <f>$I74+Sheet2!B$9/24</f>
-        <v>-0.125</v>
+        <v>-8.3333333333333329E-2</v>
       </c>
       <c r="T74" s="23">
         <f>$I74+Sheet2!B$10/24</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.125</v>
       </c>
       <c r="U74" s="23">
         <f>$I74+Sheet2!B$11/24</f>
-        <v>-0.20833333333333334</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="V74" s="23">
         <f>$I74+Sheet2!B$12/24</f>
-        <v>-0.25</v>
+        <v>-0.20833333333333337</v>
       </c>
     </row>
     <row r="75" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="52"/>
       <c r="B75" s="18" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="C75" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D75" s="7">
-        <v>74</v>
-      </c>
-      <c r="E75" s="14"/>
+        <v>75</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="F75" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="G75" s="29"/>
+        <v>20</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>177</v>
+      </c>
       <c r="H75" s="29" t="s">
         <v>229</v>
       </c>
@@ -9159,23 +9211,23 @@
     </row>
     <row r="76" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="52"/>
-      <c r="B76" s="18" t="s">
-        <v>68</v>
+      <c r="B76" s="35" t="s">
+        <v>67</v>
       </c>
       <c r="C76" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D76" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E76" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F76" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" s="21" t="s">
-        <v>177</v>
+      <c r="F76" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="H76" s="29" t="s">
         <v>229</v>
@@ -9237,23 +9289,23 @@
     </row>
     <row r="77" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="52"/>
-      <c r="B77" s="35" t="s">
-        <v>67</v>
+      <c r="B77" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="C77" s="7">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D77" s="7">
-        <v>76</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>74</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>178</v>
+        <v>75</v>
+      </c>
+      <c r="G77" s="34" t="s">
+        <v>150</v>
       </c>
       <c r="H77" s="29" t="s">
         <v>229</v>
@@ -9925,11 +9977,11 @@
     <sortCondition ref="D2:D68"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
+      <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
-      <selection sqref="A1:XFD1048576"/>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -9937,1317 +9989,1312 @@
     <mergeCell ref="A24:A47"/>
     <mergeCell ref="A48:A84"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L3 L10:V10 K5:L8 L9 K11:L14 K13:V17 L18:V18 K19:V38 L39:V39 K40:V85">
-    <cfRule type="expression" dxfId="262" priority="610">
+  <conditionalFormatting sqref="K2:L3 L10:V10 K5:L8 L9 K11:L14 K13:V17 L18:V18 K19:V38 L39:V39 K40:V76 K78:V85">
+    <cfRule type="expression" dxfId="269" priority="618">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:V3 K5:V8 L9:V10 K11:V15 K16 K22:V22 K17:V17 K19:V19 K20:K21 K23:K31">
-    <cfRule type="expression" dxfId="261" priority="612">
+    <cfRule type="expression" dxfId="268" priority="620">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:V50 G50 G59 B60:B62 G69 G85 E57:G57 G29 B70 E70:G70 B3 E3:H3 H7 L10:V10 E20:G21 L20:V21 E22:H22 E30:G31 J22:V22 E32:H32 J32:V36 E47:G47 J47:V47 G61:G65 B66:B68 E66:G68 L39:V39 L59:V70 K73:V73 K83:V83 G71:G77 G83 K76:V77 K79:V80 K85:V85 L37:V37 E33:G37 E48:V49 G55:V55 H2 J2:V3 E39:G39 B80 J11:V14 B20:B37 E23:G28 J80:V80 B5:G5 E51:V54 L23:V31 L43:V43 L16:V16 L41:V41 B41 J17:V17 E11:H14 E16:G16 L18:V18 B16:B18 J44:V45 L72:V72 E44:H45 B9:B14 E18:G18 E9:G10 C9:D9 C13:D13 C17:H17 C21:D21 E41:G41 E80:G80 C25:D25 C45:D45 C64:D64 C85:D85 C29:D29 C49:D49 C68:D68 C33:D33 C53:D53 B72:G72 C37:D37 C56:V56 C77:D77 C60:G60 C81:D81 B47:B57 B39 B44:B45 C42:D43 B74:G74 L74:V74">
-    <cfRule type="expression" dxfId="260" priority="616">
+  <conditionalFormatting sqref="K50:V50 G50 G59 B60:B62 G69 G85 E57:G57 G29 B70 E70:G70 B3 E3:H3 H7 L10:V10 E20:G21 L20:V21 E22:H22 E30:G31 J22:V22 E32:H32 J32:V36 E47:G47 J47:V47 G61:G65 B66:B68 E66:G68 L39:V39 L59:V70 K73:V73 K83:V83 G83 K75:V76 K79:V80 K85:V85 L37:V37 E33:G37 E48:V49 G55:V55 H2 J2:V3 E39:G39 B80 J11:V14 B20:B37 E23:G28 J80:V80 B5:G5 E51:V54 L23:V31 L43:V43 L16:V16 L41:V41 B41 J17:V17 E11:H14 E16:G16 L18:V18 B16:B18 J44:V45 L72:V72 E44:H45 B9:B14 E18:G18 E9:G10 C9:D9 C13:D13 C17:H17 C21:D21 E41:G41 E80:G80 C25:D25 C45:D45 C64:D64 C85:D85 C29:D29 C49:D49 C68:D68 C33:D33 C53:D53 B72:G72 C37:D37 C56:V56 C76:D77 C60:G60 C81:D81 B47:B57 B39 B44:B45 C42:D43 G71:G76 B73:F73 C74:D74 B77:G77">
+    <cfRule type="expression" dxfId="267" priority="624">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59 L59:V59">
-    <cfRule type="expression" dxfId="259" priority="593">
+    <cfRule type="expression" dxfId="266" priority="601">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63 L63:V63">
-    <cfRule type="expression" dxfId="258" priority="591">
+    <cfRule type="expression" dxfId="265" priority="599">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65 L65:V65">
-    <cfRule type="expression" dxfId="257" priority="589">
+    <cfRule type="expression" dxfId="264" priority="597">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69 L69:V69">
-    <cfRule type="expression" dxfId="256" priority="587">
+    <cfRule type="expression" dxfId="263" priority="595">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64 L64:V64">
-    <cfRule type="expression" dxfId="255" priority="585">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73:B74 K73:V73 L74:V74">
-    <cfRule type="expression" dxfId="254" priority="583">
+    <cfRule type="expression" dxfId="262" priority="593">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K73:V73">
+    <cfRule type="expression" dxfId="261" priority="591">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83 K83:V83 E83:F83">
-    <cfRule type="expression" dxfId="253" priority="581">
+    <cfRule type="expression" dxfId="260" priority="589">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="252" priority="579">
+    <cfRule type="expression" dxfId="259" priority="587">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="251" priority="576">
+    <cfRule type="expression" dxfId="258" priority="584">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="250" priority="575">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73:E74">
-    <cfRule type="expression" dxfId="249" priority="574">
+    <cfRule type="expression" dxfId="257" priority="583">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:B80 J79:V80">
-    <cfRule type="expression" dxfId="248" priority="572">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77 J77:V77 E77">
-    <cfRule type="expression" dxfId="247" priority="570">
+    <cfRule type="expression" dxfId="256" priority="580">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76:B77 J76:V76 E76:E77">
+    <cfRule type="expression" dxfId="255" priority="578">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:F80">
-    <cfRule type="expression" dxfId="246" priority="568">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B76 J76:V76">
-    <cfRule type="expression" dxfId="245" priority="566">
+    <cfRule type="expression" dxfId="254" priority="576">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75 J75:V75">
+    <cfRule type="expression" dxfId="253" priority="574">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85 J85:V85 E85">
-    <cfRule type="expression" dxfId="244" priority="564">
+    <cfRule type="expression" dxfId="252" priority="572">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="expression" dxfId="243" priority="556">
+    <cfRule type="expression" dxfId="251" priority="564">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57:V57">
-    <cfRule type="expression" dxfId="242" priority="496">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F73:F74">
+    <cfRule type="expression" dxfId="250" priority="504">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69">
+    <cfRule type="expression" dxfId="249" priority="526">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B72 E71:F72">
+    <cfRule type="expression" dxfId="248" priority="490">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="247" priority="511">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63:F63">
+    <cfRule type="expression" dxfId="246" priority="518">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58 L58:V58">
+    <cfRule type="expression" dxfId="245" priority="512">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76:F77">
+    <cfRule type="expression" dxfId="244" priority="524">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="expression" dxfId="243" priority="520">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:F65">
+    <cfRule type="expression" dxfId="242" priority="519">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75:F75">
     <cfRule type="expression" dxfId="241" priority="517">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
-    <cfRule type="expression" dxfId="240" priority="518">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B72 E71:F72">
-    <cfRule type="expression" dxfId="239" priority="482">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="238" priority="503">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63:F63">
-    <cfRule type="expression" dxfId="237" priority="510">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58 L58:V58">
-    <cfRule type="expression" dxfId="236" priority="504">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F77">
-    <cfRule type="expression" dxfId="235" priority="516">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
-    <cfRule type="expression" dxfId="234" priority="512">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65:F65">
-    <cfRule type="expression" dxfId="233" priority="511">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76:F76">
-    <cfRule type="expression" dxfId="232" priority="509">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L58:V58 G58">
-    <cfRule type="expression" dxfId="231" priority="506">
+    <cfRule type="expression" dxfId="240" priority="514">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:V7">
-    <cfRule type="expression" dxfId="230" priority="451">
+    <cfRule type="expression" dxfId="239" priority="459">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="expression" dxfId="229" priority="500">
+    <cfRule type="expression" dxfId="238" priority="508">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:V45 L43:V43">
-    <cfRule type="expression" dxfId="228" priority="620">
+    <cfRule type="expression" dxfId="237" priority="628">
       <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57:V57">
-    <cfRule type="expression" dxfId="227" priority="497">
+    <cfRule type="expression" dxfId="236" priority="505">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:V10">
-    <cfRule type="expression" dxfId="226" priority="442">
+    <cfRule type="expression" dxfId="235" priority="450">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43 G43">
-    <cfRule type="expression" dxfId="225" priority="490">
+    <cfRule type="expression" dxfId="234" priority="498">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H14 J13:V14 L18:V18">
-    <cfRule type="expression" dxfId="224" priority="488">
+    <cfRule type="expression" dxfId="233" priority="496">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:V14 L18:V18">
-    <cfRule type="expression" dxfId="223" priority="489">
+    <cfRule type="expression" dxfId="232" priority="497">
       <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:F43">
-    <cfRule type="expression" dxfId="222" priority="484">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G3 B7 E7:G7 C6:D7 C10:D11 C14:D15 C18:D19 C22:D23 C61:D62 C82:D83 C26:D27 C46:D47 C65:D66 C30:D31 C50:D51 C69:D70 C34:D35 C54:D55 C73:D75 C38:D40 C57:D58 C78:D79">
-    <cfRule type="expression" dxfId="221" priority="483">
+    <cfRule type="expression" dxfId="231" priority="492">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:G3 B7 E7:G7 C6:D7 C10:D11 C14:D15 C18:D19 C22:D23 C61:D62 C82:D83 C26:D27 C46:D47 C65:D66 C30:D31 C50:D51 C69:D70 C34:D35 C54:D55 C38:D40 C57:D58 C78:D79">
+    <cfRule type="expression" dxfId="230" priority="491">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K71:V71 L72:V72">
-    <cfRule type="expression" dxfId="220" priority="481">
+    <cfRule type="expression" dxfId="229" priority="489">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J71:V71 L72:V72">
-    <cfRule type="expression" dxfId="219" priority="479">
+    <cfRule type="expression" dxfId="228" priority="487">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="expression" dxfId="218" priority="478">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J75:V75">
-    <cfRule type="expression" dxfId="217" priority="473">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75 E75:F75">
-    <cfRule type="expression" dxfId="216" priority="476">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K75:V75">
-    <cfRule type="expression" dxfId="215" priority="475">
+    <cfRule type="expression" dxfId="227" priority="486">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74:V74">
+    <cfRule type="expression" dxfId="226" priority="481">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74 E74:F74">
+    <cfRule type="expression" dxfId="225" priority="484">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K74:V74">
+    <cfRule type="expression" dxfId="224" priority="483">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="expression" dxfId="223" priority="480">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="expression" dxfId="222" priority="473">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:F29">
+    <cfRule type="expression" dxfId="221" priority="478">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:B43 E42:E43 L42:V43 G42:G43">
+    <cfRule type="expression" dxfId="220" priority="477">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:G4 C8:D8 C12:D12 C16:D16 C20:D20 C24:D24 C44:D44 C63:D63 C84:D84 C28:D28 C48:D48 C67:D67 C32:D32 C52:D52 C71:D71 C36:D36 C39:D39 C75:D75 C41:D41 C59:D59 C80:D80">
+    <cfRule type="expression" dxfId="219" priority="472">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="218" priority="471">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6 E6:H6 J6:V6">
+    <cfRule type="expression" dxfId="217" priority="469">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:V5">
+    <cfRule type="expression" dxfId="216" priority="466">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:L4">
+    <cfRule type="expression" dxfId="215" priority="461">
+      <formula>K$1=$H4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:V4">
+    <cfRule type="expression" dxfId="214" priority="462">
+      <formula>K$1=$I4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:V4">
+    <cfRule type="expression" dxfId="213" priority="463">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="expression" dxfId="212" priority="456">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B10 E8:G10">
+    <cfRule type="expression" dxfId="211" priority="455">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:K8">
+    <cfRule type="expression" dxfId="210" priority="453">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 E15:H15 J15:V15">
+    <cfRule type="expression" dxfId="209" priority="445">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15 J15:V15">
+    <cfRule type="expression" dxfId="208" priority="442">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:V15">
+    <cfRule type="expression" dxfId="207" priority="443">
+      <formula>K$1=#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 E15:G15">
+    <cfRule type="expression" dxfId="206" priority="441">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63">
+    <cfRule type="expression" dxfId="205" priority="299">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16 J16:K16">
+    <cfRule type="expression" dxfId="204" priority="438">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16 J16:K16">
+    <cfRule type="expression" dxfId="203" priority="435">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="expression" dxfId="202" priority="436">
+      <formula>K$1=#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46 J46:V46">
+    <cfRule type="expression" dxfId="201" priority="330">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19 E19:H19 J19:V19">
+    <cfRule type="expression" dxfId="200" priority="431">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66">
+    <cfRule type="expression" dxfId="199" priority="287">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26 J26:K26">
+    <cfRule type="expression" dxfId="198" priority="393">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57:J57">
+    <cfRule type="expression" dxfId="197" priority="325">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20 J20:K20">
+    <cfRule type="expression" dxfId="196" priority="420">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21 J21:K21">
+    <cfRule type="expression" dxfId="195" priority="415">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" dxfId="194" priority="320">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" dxfId="193" priority="319">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23 J23:K23">
+    <cfRule type="expression" dxfId="192" priority="408">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59">
+    <cfRule type="expression" dxfId="191" priority="316">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24 J24:K24">
+    <cfRule type="expression" dxfId="190" priority="403">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59 J59">
+    <cfRule type="expression" dxfId="189" priority="314">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25 J25:K25">
+    <cfRule type="expression" dxfId="188" priority="398">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60">
+    <cfRule type="expression" dxfId="187" priority="311">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60 J60">
+    <cfRule type="expression" dxfId="186" priority="310">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61">
+    <cfRule type="expression" dxfId="185" priority="308">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61">
+    <cfRule type="expression" dxfId="184" priority="307">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27 J27:K27">
+    <cfRule type="expression" dxfId="183" priority="388">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62">
+    <cfRule type="expression" dxfId="182" priority="304">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28 J28:K28">
+    <cfRule type="expression" dxfId="181" priority="383">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62 J62">
+    <cfRule type="expression" dxfId="180" priority="302">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29 J29:K29">
+    <cfRule type="expression" dxfId="179" priority="378">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63 J63">
+    <cfRule type="expression" dxfId="178" priority="298">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30 J30:K30">
+    <cfRule type="expression" dxfId="177" priority="373">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64">
+    <cfRule type="expression" dxfId="176" priority="296">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64">
+    <cfRule type="expression" dxfId="175" priority="295">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31 J31:K31">
+    <cfRule type="expression" dxfId="174" priority="368">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65">
+    <cfRule type="expression" dxfId="173" priority="292">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65 J65">
+    <cfRule type="expression" dxfId="172" priority="290">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="expression" dxfId="171" priority="356">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66">
+    <cfRule type="expression" dxfId="170" priority="288">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="expression" dxfId="169" priority="353">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="expression" dxfId="168" priority="350">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66 J66">
+    <cfRule type="expression" dxfId="167" priority="286">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="expression" dxfId="166" priority="347">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:B39 J38:V38 E38:H38 E39:G39 L39:V39">
+    <cfRule type="expression" dxfId="165" priority="344">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40:V40 B40:B43 E42:E43 E40:H40 G42:G43 E41:G41 L41:V43">
+    <cfRule type="expression" dxfId="164" priority="340">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68">
+    <cfRule type="expression" dxfId="163" priority="284">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68">
+    <cfRule type="expression" dxfId="162" priority="283">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:G46 B46">
+    <cfRule type="expression" dxfId="161" priority="333">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I78">
+    <cfRule type="expression" dxfId="160" priority="190">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="expression" dxfId="159" priority="329">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50 J50">
+    <cfRule type="expression" dxfId="158" priority="328">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70">
+    <cfRule type="expression" dxfId="157" priority="276">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69">
+    <cfRule type="expression" dxfId="156" priority="279">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68 J68">
+    <cfRule type="expression" dxfId="155" priority="282">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58 J58">
+    <cfRule type="expression" dxfId="154" priority="318">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59">
+    <cfRule type="expression" dxfId="153" priority="315">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60">
+    <cfRule type="expression" dxfId="152" priority="312">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61 J61">
+    <cfRule type="expression" dxfId="151" priority="306">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62">
+    <cfRule type="expression" dxfId="150" priority="303">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63">
+    <cfRule type="expression" dxfId="149" priority="300">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64 J64">
+    <cfRule type="expression" dxfId="148" priority="294">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65">
+    <cfRule type="expression" dxfId="147" priority="291">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69">
+    <cfRule type="expression" dxfId="146" priority="280">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69 J69">
+    <cfRule type="expression" dxfId="145" priority="278">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70">
+    <cfRule type="expression" dxfId="144" priority="275">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70 J70">
+    <cfRule type="expression" dxfId="143" priority="274">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67">
+    <cfRule type="expression" dxfId="142" priority="272">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67">
+    <cfRule type="expression" dxfId="141" priority="271">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67 J67">
+    <cfRule type="expression" dxfId="140" priority="270">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J73">
+    <cfRule type="expression" dxfId="139" priority="268">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="expression" dxfId="138" priority="267">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
+    <cfRule type="expression" dxfId="137" priority="265">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J78:V78">
+    <cfRule type="expression" dxfId="136" priority="260">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78 E78:F78">
+    <cfRule type="expression" dxfId="135" priority="262">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K78:V78">
+    <cfRule type="expression" dxfId="134" priority="261">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="expression" dxfId="133" priority="259">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="expression" dxfId="214" priority="472">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="213" priority="465">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:F29">
-    <cfRule type="expression" dxfId="212" priority="470">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42:B43 E42:E43 L42:V43 G42:G43">
-    <cfRule type="expression" dxfId="211" priority="469">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:G4 C8:D8 C12:D12 C16:D16 C20:D20 C24:D24 C44:D44 C63:D63 C84:D84 C28:D28 C48:D48 C67:D67 C32:D32 C52:D52 C71:D71 C36:D36 C39:D39 C76:D76 C41:D41 C59:D59 C80:D80">
-    <cfRule type="expression" dxfId="210" priority="464">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="209" priority="463">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6 E6:H6 J6:V6">
-    <cfRule type="expression" dxfId="208" priority="461">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:V5">
-    <cfRule type="expression" dxfId="207" priority="458">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:L4">
-    <cfRule type="expression" dxfId="206" priority="453">
-      <formula>K$1=$H4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:V4">
-    <cfRule type="expression" dxfId="205" priority="454">
-      <formula>K$1=$I4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:V4">
-    <cfRule type="expression" dxfId="204" priority="455">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="203" priority="448">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B10 E8:G10">
-    <cfRule type="expression" dxfId="202" priority="447">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:K8">
-    <cfRule type="expression" dxfId="201" priority="445">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15 E15:H15 J15:V15">
-    <cfRule type="expression" dxfId="200" priority="437">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15 J15:V15">
-    <cfRule type="expression" dxfId="199" priority="434">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15:V15">
-    <cfRule type="expression" dxfId="198" priority="435">
-      <formula>K$1=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15 E15:G15">
-    <cfRule type="expression" dxfId="197" priority="433">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K63">
-    <cfRule type="expression" dxfId="196" priority="291">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16 J16:K16">
-    <cfRule type="expression" dxfId="195" priority="430">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16 J16:K16">
-    <cfRule type="expression" dxfId="194" priority="427">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="193" priority="428">
-      <formula>K$1=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46 J46:V46">
-    <cfRule type="expression" dxfId="192" priority="322">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19 E19:H19 J19:V19">
-    <cfRule type="expression" dxfId="191" priority="423">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K66">
-    <cfRule type="expression" dxfId="190" priority="279">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26 J26:K26">
-    <cfRule type="expression" dxfId="189" priority="385">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57:J57">
-    <cfRule type="expression" dxfId="188" priority="317">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20 J20:K20">
-    <cfRule type="expression" dxfId="187" priority="412">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21 J21:K21">
-    <cfRule type="expression" dxfId="186" priority="407">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" dxfId="185" priority="312">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" dxfId="184" priority="311">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23 J23:K23">
-    <cfRule type="expression" dxfId="183" priority="400">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K59">
-    <cfRule type="expression" dxfId="182" priority="308">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24 J24:K24">
-    <cfRule type="expression" dxfId="181" priority="395">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59 J59">
-    <cfRule type="expression" dxfId="180" priority="306">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25 J25:K25">
-    <cfRule type="expression" dxfId="179" priority="390">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
-    <cfRule type="expression" dxfId="178" priority="303">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60 J60">
-    <cfRule type="expression" dxfId="177" priority="302">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61">
-    <cfRule type="expression" dxfId="176" priority="300">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61">
-    <cfRule type="expression" dxfId="175" priority="299">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27 J27:K27">
-    <cfRule type="expression" dxfId="174" priority="380">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62">
-    <cfRule type="expression" dxfId="173" priority="296">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28 J28:K28">
-    <cfRule type="expression" dxfId="172" priority="375">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62 J62">
-    <cfRule type="expression" dxfId="171" priority="294">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29 J29:K29">
-    <cfRule type="expression" dxfId="170" priority="370">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63 J63">
-    <cfRule type="expression" dxfId="169" priority="290">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30 J30:K30">
-    <cfRule type="expression" dxfId="168" priority="365">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K64">
-    <cfRule type="expression" dxfId="167" priority="288">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K64">
-    <cfRule type="expression" dxfId="166" priority="287">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31 J31:K31">
-    <cfRule type="expression" dxfId="165" priority="360">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K65">
-    <cfRule type="expression" dxfId="164" priority="284">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65 J65">
-    <cfRule type="expression" dxfId="163" priority="282">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="162" priority="348">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K66">
-    <cfRule type="expression" dxfId="161" priority="280">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="160" priority="345">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="159" priority="342">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66 J66">
-    <cfRule type="expression" dxfId="158" priority="278">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="157" priority="339">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B39 J38:V38 E38:H38 E39:G39 L39:V39">
-    <cfRule type="expression" dxfId="156" priority="336">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40:V40 B40:B43 E42:E43 E40:H40 G42:G43 E41:G41 L41:V43">
-    <cfRule type="expression" dxfId="155" priority="332">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K68">
-    <cfRule type="expression" dxfId="154" priority="276">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K68">
-    <cfRule type="expression" dxfId="153" priority="275">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:G46 B46">
-    <cfRule type="expression" dxfId="152" priority="325">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I78">
-    <cfRule type="expression" dxfId="151" priority="182">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="150" priority="321">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50 J50">
-    <cfRule type="expression" dxfId="149" priority="320">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K70">
-    <cfRule type="expression" dxfId="148" priority="268">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K69">
-    <cfRule type="expression" dxfId="147" priority="271">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68 J68">
-    <cfRule type="expression" dxfId="146" priority="274">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58 J58">
-    <cfRule type="expression" dxfId="145" priority="310">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K59">
-    <cfRule type="expression" dxfId="144" priority="307">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
-    <cfRule type="expression" dxfId="143" priority="304">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61 J61">
-    <cfRule type="expression" dxfId="142" priority="298">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62">
-    <cfRule type="expression" dxfId="141" priority="295">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K63">
-    <cfRule type="expression" dxfId="140" priority="292">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64 J64">
-    <cfRule type="expression" dxfId="139" priority="286">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K65">
-    <cfRule type="expression" dxfId="138" priority="283">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K69">
-    <cfRule type="expression" dxfId="137" priority="272">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69 J69">
-    <cfRule type="expression" dxfId="136" priority="270">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K70">
-    <cfRule type="expression" dxfId="135" priority="267">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70 J70">
-    <cfRule type="expression" dxfId="134" priority="266">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67">
-    <cfRule type="expression" dxfId="133" priority="264">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67">
-    <cfRule type="expression" dxfId="132" priority="263">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67 J67">
-    <cfRule type="expression" dxfId="131" priority="262">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="expression" dxfId="130" priority="260">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="expression" dxfId="129" priority="259">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
-    <cfRule type="expression" dxfId="128" priority="257">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J78:V78">
-    <cfRule type="expression" dxfId="127" priority="252">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78 E78:F78">
-    <cfRule type="expression" dxfId="126" priority="254">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K78:V78">
-    <cfRule type="expression" dxfId="125" priority="253">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="expression" dxfId="124" priority="251">
+    <cfRule type="expression" dxfId="132" priority="256">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="expression" dxfId="123" priority="248">
+    <cfRule type="expression" dxfId="131" priority="254">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G81">
+    <cfRule type="expression" dxfId="130" priority="251">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="129" priority="108">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J81:V81">
+    <cfRule type="expression" dxfId="128" priority="246">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81 E81:F81">
+    <cfRule type="expression" dxfId="127" priority="248">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K81:V81">
+    <cfRule type="expression" dxfId="126" priority="247">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="expression" dxfId="125" priority="245">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="expression" dxfId="124" priority="243">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="expression" dxfId="123" priority="241">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="122" priority="98">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J82:V82">
+    <cfRule type="expression" dxfId="121" priority="236">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82 E82:F82">
+    <cfRule type="expression" dxfId="120" priority="238">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K82:V82">
+    <cfRule type="expression" dxfId="119" priority="237">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="expression" dxfId="118" priority="235">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83">
+    <cfRule type="expression" dxfId="117" priority="233">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="expression" dxfId="116" priority="232">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G84">
+    <cfRule type="expression" dxfId="115" priority="230">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="expression" dxfId="114" priority="87">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84:V84">
+    <cfRule type="expression" dxfId="113" priority="225">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84 E84:F84">
+    <cfRule type="expression" dxfId="112" priority="227">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K84:V84">
+    <cfRule type="expression" dxfId="111" priority="226">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="expression" dxfId="110" priority="224">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42">
+    <cfRule type="expression" dxfId="109" priority="222">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42 J42">
+    <cfRule type="expression" dxfId="108" priority="220">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:K37">
+    <cfRule type="expression" dxfId="107" priority="217">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="expression" dxfId="106" priority="215">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="expression" dxfId="105" priority="73">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="expression" dxfId="104" priority="211">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="expression" dxfId="103" priority="204">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58">
+    <cfRule type="expression" dxfId="102" priority="208">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59">
+    <cfRule type="expression" dxfId="101" priority="207">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="expression" dxfId="100" priority="206">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
+    <cfRule type="expression" dxfId="99" priority="205">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="expression" dxfId="98" priority="203">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
+    <cfRule type="expression" dxfId="97" priority="202">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65">
+    <cfRule type="expression" dxfId="96" priority="201">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="expression" dxfId="95" priority="200">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67">
+    <cfRule type="expression" dxfId="94" priority="199">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68">
+    <cfRule type="expression" dxfId="93" priority="198">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69">
+    <cfRule type="expression" dxfId="92" priority="197">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I70">
+    <cfRule type="expression" dxfId="91" priority="196">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71">
+    <cfRule type="expression" dxfId="90" priority="195">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73">
+    <cfRule type="expression" dxfId="89" priority="194">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I74">
+    <cfRule type="expression" dxfId="88" priority="193">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I75">
+    <cfRule type="expression" dxfId="87" priority="192">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I76">
+    <cfRule type="expression" dxfId="86" priority="191">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I79">
+    <cfRule type="expression" dxfId="85" priority="189">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I81">
+    <cfRule type="expression" dxfId="84" priority="188">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I82">
+    <cfRule type="expression" dxfId="83" priority="187">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I83">
+    <cfRule type="expression" dxfId="82" priority="186">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84">
+    <cfRule type="expression" dxfId="81" priority="185">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I85">
+    <cfRule type="expression" dxfId="80" priority="184">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="expression" dxfId="79" priority="183">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="expression" dxfId="78" priority="182">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="expression" dxfId="77" priority="181">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="76" priority="180">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="expression" dxfId="75" priority="179">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="expression" dxfId="74" priority="178">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="73" priority="177">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="72" priority="176">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="71" priority="175">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="70" priority="107">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="69" priority="106">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="68" priority="105">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="67" priority="104">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="expression" dxfId="66" priority="103">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="65" priority="97">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="64" priority="101">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="63" priority="100">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="62" priority="99">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="61" priority="96">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="expression" dxfId="60" priority="95">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="expression" dxfId="59" priority="94">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="expression" dxfId="58" priority="93">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="expression" dxfId="57" priority="92">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="56" priority="91">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="expression" dxfId="55" priority="90">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="54" priority="89">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="expression" dxfId="53" priority="86">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="expression" dxfId="52" priority="72">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="expression" dxfId="51" priority="84">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="expression" dxfId="50" priority="83">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="expression" dxfId="49" priority="82">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="expression" dxfId="48" priority="81">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="expression" dxfId="47" priority="80">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="expression" dxfId="46" priority="79">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="expression" dxfId="45" priority="78">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="expression" dxfId="44" priority="76">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="expression" dxfId="43" priority="74">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:V10">
+    <cfRule type="expression" dxfId="42" priority="64">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="41" priority="53">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="expression" dxfId="40" priority="62">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I80">
+    <cfRule type="expression" dxfId="39" priority="61">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:K9">
+    <cfRule type="expression" dxfId="38" priority="52">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="37" priority="51">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="36" priority="54">
+      <formula>K$1=$H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="35" priority="55">
+      <formula>K$1=$I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="expression" dxfId="34" priority="49">
+      <formula>K$1=$H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="expression" dxfId="33" priority="50">
+      <formula>K$1=$I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="expression" dxfId="32" priority="48">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:K10">
+    <cfRule type="expression" dxfId="31" priority="47">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" dxfId="30" priority="46">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42:F43">
+    <cfRule type="expression" dxfId="29" priority="39">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43:K43 H43">
+    <cfRule type="expression" dxfId="28" priority="37">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" dxfId="27" priority="36">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41:K41 H41">
+    <cfRule type="expression" dxfId="26" priority="34">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
+    <cfRule type="expression" dxfId="25" priority="33">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>K$1=$H18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="expression" dxfId="23" priority="25">
+      <formula>K$1=$I18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18 J18:K18">
+    <cfRule type="expression" dxfId="22" priority="26">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K72">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72:K72">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>K$1=$H39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39:K39 H39">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J77">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="expression" dxfId="122" priority="246">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G81">
-    <cfRule type="expression" dxfId="121" priority="243">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="120" priority="100">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J81:V81">
-    <cfRule type="expression" dxfId="119" priority="238">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81 E81:F81">
-    <cfRule type="expression" dxfId="118" priority="240">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K81:V81">
-    <cfRule type="expression" dxfId="117" priority="239">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="expression" dxfId="116" priority="237">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="expression" dxfId="115" priority="235">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="expression" dxfId="114" priority="233">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="113" priority="90">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J82:V82">
-    <cfRule type="expression" dxfId="112" priority="228">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82 E82:F82">
-    <cfRule type="expression" dxfId="111" priority="230">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K82:V82">
-    <cfRule type="expression" dxfId="110" priority="229">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="expression" dxfId="109" priority="227">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J83">
-    <cfRule type="expression" dxfId="108" priority="225">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="expression" dxfId="107" priority="224">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
-    <cfRule type="expression" dxfId="106" priority="222">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="105" priority="79">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J84:V84">
-    <cfRule type="expression" dxfId="104" priority="217">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84 E84:F84">
-    <cfRule type="expression" dxfId="103" priority="219">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K84:V84">
-    <cfRule type="expression" dxfId="102" priority="218">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="expression" dxfId="101" priority="216">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="expression" dxfId="100" priority="214">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42 J42">
-    <cfRule type="expression" dxfId="99" priority="212">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37:K37">
-    <cfRule type="expression" dxfId="98" priority="209">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="97" priority="207">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="expression" dxfId="96" priority="65">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="95" priority="203">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
-    <cfRule type="expression" dxfId="94" priority="196">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
-    <cfRule type="expression" dxfId="93" priority="200">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
-    <cfRule type="expression" dxfId="92" priority="199">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
-    <cfRule type="expression" dxfId="91" priority="198">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
-    <cfRule type="expression" dxfId="90" priority="197">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="89" priority="195">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="expression" dxfId="88" priority="194">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
-    <cfRule type="expression" dxfId="87" priority="193">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="expression" dxfId="86" priority="192">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67">
-    <cfRule type="expression" dxfId="85" priority="191">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I68">
-    <cfRule type="expression" dxfId="84" priority="190">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
-    <cfRule type="expression" dxfId="83" priority="189">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
-    <cfRule type="expression" dxfId="82" priority="188">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="expression" dxfId="81" priority="187">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I73">
-    <cfRule type="expression" dxfId="80" priority="186">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
-    <cfRule type="expression" dxfId="79" priority="185">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I76">
-    <cfRule type="expression" dxfId="78" priority="184">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="expression" dxfId="77" priority="183">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I79">
-    <cfRule type="expression" dxfId="76" priority="181">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I81">
-    <cfRule type="expression" dxfId="75" priority="180">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I82">
-    <cfRule type="expression" dxfId="74" priority="179">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I83">
-    <cfRule type="expression" dxfId="73" priority="178">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I84">
-    <cfRule type="expression" dxfId="72" priority="177">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I85">
-    <cfRule type="expression" dxfId="71" priority="176">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="expression" dxfId="70" priority="175">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="69" priority="174">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="68" priority="173">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="67" priority="172">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="66" priority="171">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="65" priority="170">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="64" priority="169">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="63" priority="168">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="62" priority="167">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="61" priority="99">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="60" priority="98">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="59" priority="97">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="58" priority="96">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="57" priority="95">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="56" priority="89">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="55" priority="93">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="54" priority="92">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="53" priority="91">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="52" priority="88">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="51" priority="87">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="50" priority="86">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="49" priority="85">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="48" priority="84">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="47" priority="83">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="46" priority="82">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="45" priority="81">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="44" priority="78">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
-    <cfRule type="expression" dxfId="43" priority="64">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="42" priority="76">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="41" priority="75">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="expression" dxfId="40" priority="74">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="39" priority="73">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="38" priority="72">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="37" priority="71">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="36" priority="70">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="expression" dxfId="35" priority="68">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="34" priority="66">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9:V10">
-    <cfRule type="expression" dxfId="33" priority="56">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="32" priority="45">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="expression" dxfId="31" priority="54">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I80">
-    <cfRule type="expression" dxfId="30" priority="53">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:K9">
-    <cfRule type="expression" dxfId="29" priority="44">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="28" priority="43">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="27" priority="46">
-      <formula>K$1=$H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="26" priority="47">
-      <formula>K$1=$I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="25" priority="41">
-      <formula>K$1=$H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="24" priority="42">
-      <formula>K$1=$I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="23" priority="40">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:K10">
-    <cfRule type="expression" dxfId="22" priority="39">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="21" priority="38">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F43">
-    <cfRule type="expression" dxfId="20" priority="31">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43:K43 H43">
-    <cfRule type="expression" dxfId="19" priority="29">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="18" priority="28">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41:K41 H41">
-    <cfRule type="expression" dxfId="17" priority="26">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
-    <cfRule type="expression" dxfId="16" priority="25">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>K$1=$H18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="14" priority="17">
-      <formula>K$1=$I18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18 J18:K18">
-    <cfRule type="expression" dxfId="13" priority="18">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="12" priority="15">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K72">
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72:K72">
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="expression" dxfId="9" priority="11">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K39">
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>K$1=$H39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39:K39 H39">
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K74">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K74">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J74">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I74">
+  <conditionalFormatting sqref="K77:V77">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>K$1=$H77</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K77:V77">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K77:V77">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troymurray/Documents/Code/swgoh-squad-arena-payout-bot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tm/Documents/Code/swgoh-squad-arena-payout-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E70EA02-6B32-2A4D-A4B3-CEC978EEA3DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93DC16E-309E-F343-B99B-8EE4A71A07D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19820" yWindow="2700" windowWidth="25720" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -32,6 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -260,9 +261,6 @@
     <t>:flag_it:</t>
   </si>
   <si>
-    <t>TchacaBR</t>
-  </si>
-  <si>
     <t>Brazil</t>
   </si>
   <si>
@@ -756,6 +754,9 @@
   </si>
   <si>
     <t>AOE</t>
+  </si>
+  <si>
+    <t>Richard01</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1183,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="270">
+  <dxfs count="262">
     <dxf>
       <fill>
         <patternFill>
@@ -1202,64 +1203,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3408,7 +3351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
@@ -3512,7 +3455,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -3522,10 +3465,10 @@
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>12</v>
@@ -3603,7 +3546,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>12</v>
@@ -3666,7 +3609,7 @@
     <row r="4" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -3676,13 +3619,13 @@
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="I4" s="23">
         <v>0.33333333333333331</v>
@@ -3742,7 +3685,7 @@
     <row r="5" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
@@ -3752,10 +3695,10 @@
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>25</v>
@@ -3827,13 +3770,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>25</v>
@@ -3896,7 +3839,7 @@
     <row r="7" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
@@ -3906,11 +3849,11 @@
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I7" s="23">
         <v>0.41666666666666669</v>
@@ -3970,7 +3913,7 @@
     <row r="8" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
       <c r="B8" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -3980,11 +3923,11 @@
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I8" s="23">
         <v>0.45833333333333331</v>
@@ -4053,16 +3996,16 @@
         <v>8</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I9" s="23">
         <v>0.45833333333333331</v>
@@ -4122,7 +4065,7 @@
     <row r="10" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49"/>
       <c r="B10" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="7">
         <v>9</v>
@@ -4131,16 +4074,16 @@
         <v>9</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I10" s="23">
         <v>0.45833333333333331</v>
@@ -4200,7 +4143,7 @@
     <row r="11" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" s="7">
         <v>10</v>
@@ -4210,11 +4153,11 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I11" s="23">
         <v>0.5</v>
@@ -4274,7 +4217,7 @@
     <row r="12" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="7">
         <v>11</v>
@@ -4283,14 +4226,14 @@
         <v>11</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I12" s="23">
         <v>0.5</v>
@@ -4350,7 +4293,7 @@
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="7">
         <v>12</v>
@@ -4362,13 +4305,13 @@
         <v>27</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I13" s="23">
         <v>0.5</v>
@@ -4428,7 +4371,7 @@
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" s="7">
         <v>13</v>
@@ -4438,11 +4381,11 @@
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I14" s="23">
         <v>0.54166666666666663</v>
@@ -4502,7 +4445,7 @@
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="47"/>
       <c r="B15" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C15" s="7">
         <v>14</v>
@@ -4512,11 +4455,11 @@
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I15" s="23">
         <v>0.58333333333333337</v>
@@ -4591,10 +4534,10 @@
         <v>18</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I16" s="23">
         <v>0.58333333333333337</v>
@@ -4654,7 +4597,7 @@
     <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="43"/>
       <c r="B17" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C17" s="7">
         <v>16</v>
@@ -4664,7 +4607,7 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="27" t="s">
@@ -4743,7 +4686,7 @@
         <v>20</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H18" s="27" t="s">
         <v>10</v>
@@ -4806,7 +4749,7 @@
     <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C19" s="7">
         <v>18</v>
@@ -4816,13 +4759,13 @@
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="29" t="s">
         <v>210</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>211</v>
       </c>
       <c r="I19" s="23">
         <v>0.66666666666666663</v>
@@ -4894,13 +4837,13 @@
         <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I20" s="23">
         <v>0.66666666666666663</v>
@@ -4975,10 +4918,10 @@
         <v>72</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I21" s="23">
         <v>0.66666666666666663</v>
@@ -5038,7 +4981,7 @@
     <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="42"/>
       <c r="B22" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" s="7">
         <v>21</v>
@@ -5048,13 +4991,13 @@
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="29" t="s">
         <v>212</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>213</v>
       </c>
       <c r="I22" s="23">
         <v>0.70833333333333337</v>
@@ -5129,10 +5072,10 @@
         <v>45</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I23" s="23">
         <v>0.70833333333333337</v>
@@ -5194,7 +5137,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C24" s="7">
         <v>23</v>
@@ -5207,10 +5150,10 @@
         <v>45</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I24" s="23">
         <v>0.70833333333333337</v>
@@ -5270,7 +5213,7 @@
     <row r="25" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="51"/>
       <c r="B25" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" s="7">
         <v>24</v>
@@ -5279,16 +5222,16 @@
         <v>24</v>
       </c>
       <c r="E25" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>117</v>
-      </c>
       <c r="H25" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I25" s="23">
         <v>0.70833333333333337</v>
@@ -5363,10 +5306,10 @@
         <v>45</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I26" s="23">
         <v>0.70833333333333337</v>
@@ -5441,10 +5384,10 @@
         <v>45</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I27" s="23">
         <v>0.70833333333333337</v>
@@ -5513,16 +5456,16 @@
         <v>27</v>
       </c>
       <c r="E28" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="G28" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I28" s="23">
         <v>0.70833333333333337</v>
@@ -5582,7 +5525,7 @@
     <row r="29" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="51"/>
       <c r="B29" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" s="7">
         <v>28</v>
@@ -5597,10 +5540,10 @@
         <v>72</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I29" s="23">
         <v>0.70833333333333337</v>
@@ -5675,10 +5618,10 @@
         <v>70</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I30" s="23">
         <v>0.70833333333333337</v>
@@ -5750,13 +5693,13 @@
         <v>15</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I31" s="23">
         <v>0.70833333333333337</v>
@@ -5816,7 +5759,7 @@
     <row r="32" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="51"/>
       <c r="B32" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C32" s="7">
         <v>31</v>
@@ -5826,11 +5769,11 @@
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G32" s="29"/>
       <c r="H32" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I32" s="23">
         <v>0.75</v>
@@ -5890,7 +5833,7 @@
     <row r="33" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="51"/>
       <c r="B33" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" s="7">
         <v>32</v>
@@ -5899,16 +5842,16 @@
         <v>32</v>
       </c>
       <c r="E33" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="G33" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I33" s="23">
         <v>0.75</v>
@@ -5983,10 +5926,10 @@
         <v>70</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I34" s="23">
         <v>0.75</v>
@@ -6061,10 +6004,10 @@
         <v>20</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I35" s="23">
         <v>0.75</v>
@@ -6124,7 +6067,7 @@
     <row r="36" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="51"/>
       <c r="B36" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="7">
         <v>35</v>
@@ -6133,16 +6076,16 @@
         <v>35</v>
       </c>
       <c r="E36" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="G36" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I36" s="23">
         <v>0.75</v>
@@ -6214,13 +6157,13 @@
         <v>28</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I37" s="23">
         <v>0.75</v>
@@ -6280,7 +6223,7 @@
     <row r="38" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="51"/>
       <c r="B38" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C38" s="7">
         <v>37</v>
@@ -6290,11 +6233,11 @@
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I38" s="23">
         <v>0.79166666666666663</v>
@@ -6354,7 +6297,7 @@
     <row r="39" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="51"/>
       <c r="B39" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="7">
         <v>55</v>
@@ -6369,10 +6312,10 @@
         <v>20</v>
       </c>
       <c r="G39" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I39" s="23">
         <v>0.79166666666666663</v>
@@ -6432,7 +6375,7 @@
     <row r="40" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="51"/>
       <c r="B40" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C40" s="7">
         <v>38</v>
@@ -6442,11 +6385,11 @@
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I40" s="23">
         <v>0.83333333333333337</v>
@@ -6521,10 +6464,10 @@
         <v>20</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I41" s="23">
         <v>0.83333333333333337</v>
@@ -6584,7 +6527,7 @@
     <row r="42" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="51"/>
       <c r="B42" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C42" s="7">
         <v>40</v>
@@ -6593,16 +6536,16 @@
         <v>40</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>45</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I42" s="23">
         <v>0.83333333333333337</v>
@@ -6662,7 +6605,7 @@
     <row r="43" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="51"/>
       <c r="B43" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" s="7">
         <v>41</v>
@@ -6677,10 +6620,10 @@
         <v>72</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I43" s="23">
         <v>0.83333333333333337</v>
@@ -6740,7 +6683,7 @@
     <row r="44" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="51"/>
       <c r="B44" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C44" s="7">
         <v>43</v>
@@ -6750,11 +6693,11 @@
       </c>
       <c r="E44" s="33"/>
       <c r="F44" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G44" s="34"/>
       <c r="H44" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I44" s="23">
         <v>0.875</v>
@@ -6814,7 +6757,7 @@
     <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="51"/>
       <c r="B45" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" s="7">
         <v>44</v>
@@ -6829,10 +6772,10 @@
         <v>18</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I45" s="23">
         <v>0.875</v>
@@ -6892,7 +6835,7 @@
     <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="51"/>
       <c r="B46" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C46" s="7">
         <v>45</v>
@@ -6902,11 +6845,11 @@
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G46" s="29"/>
       <c r="H46" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I46" s="23">
         <v>0.91666666666666663</v>
@@ -6981,10 +6924,10 @@
         <v>20</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I47" s="23">
         <v>0.91666666666666663</v>
@@ -7044,7 +6987,7 @@
     <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="52"/>
       <c r="B48" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" s="7">
         <v>47</v>
@@ -7054,11 +6997,11 @@
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G48" s="29"/>
       <c r="H48" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I48" s="23">
         <v>0.95833333333333337</v>
@@ -7118,7 +7061,7 @@
     <row r="49" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="52"/>
       <c r="B49" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="7">
         <v>48</v>
@@ -7133,10 +7076,10 @@
         <v>45</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I49" s="23">
         <v>0.95833333333333337</v>
@@ -7196,7 +7139,7 @@
     <row r="50" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="52"/>
       <c r="B50" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" s="7">
         <v>49</v>
@@ -7211,10 +7154,10 @@
         <v>20</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I50" s="23">
         <v>0.95833333333333337</v>
@@ -7289,10 +7232,10 @@
         <v>20</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I51" s="23">
         <v>0.95833333333333337</v>
@@ -7367,10 +7310,10 @@
         <v>20</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I52" s="23">
         <v>0.95833333333333337</v>
@@ -7445,10 +7388,10 @@
         <v>20</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I53" s="23">
         <v>0.95833333333333337</v>
@@ -7523,10 +7466,10 @@
         <v>20</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I54" s="23">
         <v>0.95833333333333337</v>
@@ -7586,7 +7529,7 @@
     <row r="55" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="52"/>
       <c r="B55" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" s="7">
         <v>54</v>
@@ -7601,10 +7544,10 @@
         <v>20</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I55" s="23">
         <v>0.95833333333333337</v>
@@ -7679,10 +7622,10 @@
         <v>45</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I56" s="23">
         <v>0.95833333333333337</v>
@@ -7742,7 +7685,7 @@
     <row r="57" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="52"/>
       <c r="B57" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C57" s="7">
         <v>57</v>
@@ -7752,7 +7695,7 @@
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="29" t="s">
@@ -7816,7 +7759,7 @@
     <row r="58" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="52"/>
       <c r="B58" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" s="7">
         <v>58</v>
@@ -7831,7 +7774,7 @@
         <v>20</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H58" s="29" t="s">
         <v>9</v>
@@ -7909,7 +7852,7 @@
         <v>20</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H59" s="29" t="s">
         <v>9</v>
@@ -7987,7 +7930,7 @@
         <v>70</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H60" s="29" t="s">
         <v>9</v>
@@ -8050,7 +7993,7 @@
     <row r="61" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="52"/>
       <c r="B61" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="7">
         <v>61</v>
@@ -8065,7 +8008,7 @@
         <v>20</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H61" s="29" t="s">
         <v>9</v>
@@ -8128,7 +8071,7 @@
     <row r="62" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="52"/>
       <c r="B62" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C62" s="7">
         <v>62</v>
@@ -8143,7 +8086,7 @@
         <v>20</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H62" s="29" t="s">
         <v>9</v>
@@ -8221,7 +8164,7 @@
         <v>20</v>
       </c>
       <c r="G63" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H63" s="29" t="s">
         <v>9</v>
@@ -8299,7 +8242,7 @@
         <v>45</v>
       </c>
       <c r="G64" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H64" s="29" t="s">
         <v>9</v>
@@ -8377,7 +8320,7 @@
         <v>20</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H65" s="29" t="s">
         <v>9</v>
@@ -8452,10 +8395,10 @@
         <v>27</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G66" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H66" s="29" t="s">
         <v>9</v>
@@ -8518,7 +8461,7 @@
     <row r="67" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="52"/>
       <c r="B67" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" s="7">
         <v>67</v>
@@ -8533,7 +8476,7 @@
         <v>20</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H67" s="29" t="s">
         <v>9</v>
@@ -8611,7 +8554,7 @@
         <v>20</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H68" s="29" t="s">
         <v>9</v>
@@ -8689,7 +8632,7 @@
         <v>70</v>
       </c>
       <c r="G69" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H69" s="29" t="s">
         <v>9</v>
@@ -8767,7 +8710,7 @@
         <v>20</v>
       </c>
       <c r="G70" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H70" s="29" t="s">
         <v>9</v>
@@ -8830,7 +8773,7 @@
     <row r="71" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="52"/>
       <c r="B71" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C71" s="7">
         <v>71</v>
@@ -8840,11 +8783,11 @@
       </c>
       <c r="E71" s="14"/>
       <c r="F71" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G71" s="29"/>
       <c r="H71" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I71" s="23">
         <v>4.1666666666666664E-2</v>
@@ -8913,16 +8856,16 @@
         <v>72</v>
       </c>
       <c r="E72" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="G72" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H72" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I72" s="23">
         <v>4.1666666666666664E-2</v>
@@ -8991,16 +8934,16 @@
         <v>73</v>
       </c>
       <c r="E73" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F73" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="G73" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I73" s="23">
         <v>4.1666666666666664E-2</v>
@@ -9060,7 +9003,7 @@
     <row r="74" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="52"/>
       <c r="B74" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="7">
         <v>74</v>
@@ -9070,11 +9013,11 @@
       </c>
       <c r="E74" s="14"/>
       <c r="F74" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G74" s="29"/>
       <c r="H74" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I74" s="23">
         <v>8.3333333333333329E-2</v>
@@ -9149,10 +9092,10 @@
         <v>20</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I75" s="23">
         <v>8.3333333333333329E-2</v>
@@ -9227,10 +9170,10 @@
         <v>70</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H76" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I76" s="23">
         <v>8.3333333333333329E-2</v>
@@ -9290,7 +9233,7 @@
     <row r="77" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="52"/>
       <c r="B77" s="18" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="C77" s="7">
         <v>42</v>
@@ -9299,16 +9242,16 @@
         <v>42</v>
       </c>
       <c r="E77" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F77" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F77" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="G77" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H77" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I77" s="23">
         <v>8.3333333333333329E-2</v>
@@ -9368,7 +9311,7 @@
     <row r="78" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="52"/>
       <c r="B78" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C78" s="7">
         <v>77</v>
@@ -9378,11 +9321,11 @@
       </c>
       <c r="E78" s="14"/>
       <c r="F78" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G78" s="29"/>
       <c r="H78" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I78" s="23">
         <v>0.125</v>
@@ -9457,10 +9400,10 @@
         <v>20</v>
       </c>
       <c r="G79" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H79" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I79" s="23">
         <v>0.125</v>
@@ -9535,10 +9478,10 @@
         <v>20</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H80" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I80" s="23">
         <v>0.125</v>
@@ -9598,7 +9541,7 @@
     <row r="81" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="52"/>
       <c r="B81" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C81" s="7">
         <v>80</v>
@@ -9608,11 +9551,11 @@
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G81" s="29"/>
       <c r="H81" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I81" s="23">
         <v>0.16666666666666666</v>
@@ -9672,7 +9615,7 @@
     <row r="82" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="52"/>
       <c r="B82" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C82" s="7">
         <v>81</v>
@@ -9682,11 +9625,11 @@
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G82" s="29"/>
       <c r="H82" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I82" s="23">
         <v>0.20833333333333334</v>
@@ -9761,10 +9704,10 @@
         <v>20</v>
       </c>
       <c r="G83" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I83" s="23">
         <v>0.20833333333333334</v>
@@ -9824,7 +9767,7 @@
     <row r="84" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="52"/>
       <c r="B84" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C84" s="7">
         <v>83</v>
@@ -9834,11 +9777,11 @@
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G84" s="29"/>
       <c r="H84" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I84" s="23">
         <v>0.25</v>
@@ -9912,10 +9855,10 @@
         <v>20</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I85" s="23">
         <v>0.25</v>
@@ -9973,15 +9916,15 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:V68">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:V68">
     <sortCondition ref="D2:D68"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -9990,1282 +9933,1282 @@
     <mergeCell ref="A48:A84"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:L3 L10:V10 K5:L8 L9 K11:L14 K13:V17 L18:V18 K19:V38 L39:V39 K40:V76 K78:V85">
-    <cfRule type="expression" dxfId="269" priority="618">
+    <cfRule type="expression" dxfId="261" priority="618">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:V3 K5:V8 L9:V10 K11:V15 K16 K22:V22 K17:V17 K19:V19 K20:K21 K23:K31">
-    <cfRule type="expression" dxfId="268" priority="620">
+    <cfRule type="expression" dxfId="260" priority="620">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50:V50 G50 G59 B60:B62 G69 G85 E57:G57 G29 B70 E70:G70 B3 E3:H3 H7 L10:V10 E20:G21 L20:V21 E22:H22 E30:G31 J22:V22 E32:H32 J32:V36 E47:G47 J47:V47 G61:G65 B66:B68 E66:G68 L39:V39 L59:V70 K73:V73 K83:V83 G83 K75:V76 K79:V80 K85:V85 L37:V37 E33:G37 E48:V49 G55:V55 H2 J2:V3 E39:G39 B80 J11:V14 B20:B37 E23:G28 J80:V80 B5:G5 E51:V54 L23:V31 L43:V43 L16:V16 L41:V41 B41 J17:V17 E11:H14 E16:G16 L18:V18 B16:B18 J44:V45 L72:V72 E44:H45 B9:B14 E18:G18 E9:G10 C9:D9 C13:D13 C17:H17 C21:D21 E41:G41 E80:G80 C25:D25 C45:D45 C64:D64 C85:D85 C29:D29 C49:D49 C68:D68 C33:D33 C53:D53 B72:G72 C37:D37 C56:V56 C76:D77 C60:G60 C81:D81 B47:B57 B39 B44:B45 C42:D43 G71:G76 B73:F73 C74:D74 B77:G77">
-    <cfRule type="expression" dxfId="267" priority="624">
+    <cfRule type="expression" dxfId="259" priority="624">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59 L59:V59">
-    <cfRule type="expression" dxfId="266" priority="601">
+    <cfRule type="expression" dxfId="258" priority="601">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63 L63:V63">
-    <cfRule type="expression" dxfId="265" priority="599">
+    <cfRule type="expression" dxfId="257" priority="599">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65 L65:V65">
-    <cfRule type="expression" dxfId="264" priority="597">
+    <cfRule type="expression" dxfId="256" priority="597">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69 L69:V69">
-    <cfRule type="expression" dxfId="263" priority="595">
+    <cfRule type="expression" dxfId="255" priority="595">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64 L64:V64">
-    <cfRule type="expression" dxfId="262" priority="593">
+    <cfRule type="expression" dxfId="254" priority="593">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K73:V73">
-    <cfRule type="expression" dxfId="261" priority="591">
+    <cfRule type="expression" dxfId="253" priority="591">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83 K83:V83 E83:F83">
-    <cfRule type="expression" dxfId="260" priority="589">
+    <cfRule type="expression" dxfId="252" priority="589">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="259" priority="587">
+    <cfRule type="expression" dxfId="251" priority="587">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="258" priority="584">
+    <cfRule type="expression" dxfId="250" priority="584">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="257" priority="583">
+    <cfRule type="expression" dxfId="249" priority="583">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:B80 J79:V80">
-    <cfRule type="expression" dxfId="256" priority="580">
+    <cfRule type="expression" dxfId="248" priority="580">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B77 J76:V76 E76:E77">
-    <cfRule type="expression" dxfId="255" priority="578">
+    <cfRule type="expression" dxfId="247" priority="578">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:F80">
-    <cfRule type="expression" dxfId="254" priority="576">
+    <cfRule type="expression" dxfId="246" priority="576">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75 J75:V75">
-    <cfRule type="expression" dxfId="253" priority="574">
+    <cfRule type="expression" dxfId="245" priority="574">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85 J85:V85 E85">
-    <cfRule type="expression" dxfId="252" priority="572">
+    <cfRule type="expression" dxfId="244" priority="572">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="expression" dxfId="251" priority="564">
+    <cfRule type="expression" dxfId="243" priority="564">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57:V57">
-    <cfRule type="expression" dxfId="250" priority="504">
+    <cfRule type="expression" dxfId="242" priority="504">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="expression" dxfId="249" priority="526">
+    <cfRule type="expression" dxfId="241" priority="526">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:B72 E71:F72">
-    <cfRule type="expression" dxfId="248" priority="490">
+    <cfRule type="expression" dxfId="240" priority="490">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="247" priority="511">
+    <cfRule type="expression" dxfId="239" priority="511">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:F63">
-    <cfRule type="expression" dxfId="246" priority="518">
+    <cfRule type="expression" dxfId="238" priority="518">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58 L58:V58">
-    <cfRule type="expression" dxfId="245" priority="512">
+    <cfRule type="expression" dxfId="237" priority="512">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:F77">
-    <cfRule type="expression" dxfId="244" priority="524">
+    <cfRule type="expression" dxfId="236" priority="524">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="expression" dxfId="243" priority="520">
+    <cfRule type="expression" dxfId="235" priority="520">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65:F65">
-    <cfRule type="expression" dxfId="242" priority="519">
+    <cfRule type="expression" dxfId="234" priority="519">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75:F75">
-    <cfRule type="expression" dxfId="241" priority="517">
+    <cfRule type="expression" dxfId="233" priority="517">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58:V58 G58">
-    <cfRule type="expression" dxfId="240" priority="514">
+    <cfRule type="expression" dxfId="232" priority="514">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:V7">
-    <cfRule type="expression" dxfId="239" priority="459">
+    <cfRule type="expression" dxfId="231" priority="459">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="expression" dxfId="238" priority="508">
+    <cfRule type="expression" dxfId="230" priority="508">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:V45 L43:V43">
-    <cfRule type="expression" dxfId="237" priority="628">
+    <cfRule type="expression" dxfId="229" priority="628">
       <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57:V57">
-    <cfRule type="expression" dxfId="236" priority="505">
+    <cfRule type="expression" dxfId="228" priority="505">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:V10">
-    <cfRule type="expression" dxfId="235" priority="450">
+    <cfRule type="expression" dxfId="227" priority="450">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43 G43">
-    <cfRule type="expression" dxfId="234" priority="498">
+    <cfRule type="expression" dxfId="226" priority="498">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H14 J13:V14 L18:V18">
-    <cfRule type="expression" dxfId="233" priority="496">
+    <cfRule type="expression" dxfId="225" priority="496">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:V14 L18:V18">
-    <cfRule type="expression" dxfId="232" priority="497">
+    <cfRule type="expression" dxfId="224" priority="497">
       <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:F43">
-    <cfRule type="expression" dxfId="231" priority="492">
+    <cfRule type="expression" dxfId="223" priority="492">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:G3 B7 E7:G7 C6:D7 C10:D11 C14:D15 C18:D19 C22:D23 C61:D62 C82:D83 C26:D27 C46:D47 C65:D66 C30:D31 C50:D51 C69:D70 C34:D35 C54:D55 C38:D40 C57:D58 C78:D79">
-    <cfRule type="expression" dxfId="230" priority="491">
+    <cfRule type="expression" dxfId="222" priority="491">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K71:V71 L72:V72">
-    <cfRule type="expression" dxfId="229" priority="489">
+    <cfRule type="expression" dxfId="221" priority="489">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J71:V71 L72:V72">
-    <cfRule type="expression" dxfId="228" priority="487">
+    <cfRule type="expression" dxfId="220" priority="487">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="expression" dxfId="227" priority="486">
+    <cfRule type="expression" dxfId="219" priority="486">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74:V74">
-    <cfRule type="expression" dxfId="226" priority="481">
+    <cfRule type="expression" dxfId="218" priority="481">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74 E74:F74">
-    <cfRule type="expression" dxfId="225" priority="484">
+    <cfRule type="expression" dxfId="217" priority="484">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74:V74">
-    <cfRule type="expression" dxfId="224" priority="483">
+    <cfRule type="expression" dxfId="216" priority="483">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="expression" dxfId="223" priority="480">
+    <cfRule type="expression" dxfId="215" priority="480">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="222" priority="473">
+    <cfRule type="expression" dxfId="214" priority="473">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="expression" dxfId="221" priority="478">
+    <cfRule type="expression" dxfId="213" priority="478">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:B43 E42:E43 L42:V43 G42:G43">
-    <cfRule type="expression" dxfId="220" priority="477">
+    <cfRule type="expression" dxfId="212" priority="477">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:G4 C8:D8 C12:D12 C16:D16 C20:D20 C24:D24 C44:D44 C63:D63 C84:D84 C28:D28 C48:D48 C67:D67 C32:D32 C52:D52 C71:D71 C36:D36 C39:D39 C75:D75 C41:D41 C59:D59 C80:D80">
-    <cfRule type="expression" dxfId="219" priority="472">
+    <cfRule type="expression" dxfId="211" priority="472">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="218" priority="471">
+    <cfRule type="expression" dxfId="210" priority="471">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 E6:H6 J6:V6">
-    <cfRule type="expression" dxfId="217" priority="469">
+    <cfRule type="expression" dxfId="209" priority="469">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:V5">
-    <cfRule type="expression" dxfId="216" priority="466">
+    <cfRule type="expression" dxfId="208" priority="466">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="expression" dxfId="215" priority="461">
+    <cfRule type="expression" dxfId="207" priority="461">
       <formula>K$1=$H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:V4">
-    <cfRule type="expression" dxfId="214" priority="462">
+    <cfRule type="expression" dxfId="206" priority="462">
       <formula>K$1=$I4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:V4">
-    <cfRule type="expression" dxfId="213" priority="463">
+    <cfRule type="expression" dxfId="205" priority="463">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="212" priority="456">
+    <cfRule type="expression" dxfId="204" priority="456">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10 E8:G10">
-    <cfRule type="expression" dxfId="211" priority="455">
+    <cfRule type="expression" dxfId="203" priority="455">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:K8">
-    <cfRule type="expression" dxfId="210" priority="453">
+    <cfRule type="expression" dxfId="202" priority="453">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15 E15:H15 J15:V15">
-    <cfRule type="expression" dxfId="209" priority="445">
+    <cfRule type="expression" dxfId="201" priority="445">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15 J15:V15">
-    <cfRule type="expression" dxfId="208" priority="442">
+    <cfRule type="expression" dxfId="200" priority="442">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:V15">
-    <cfRule type="expression" dxfId="207" priority="443">
+    <cfRule type="expression" dxfId="199" priority="443">
       <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15 E15:G15">
-    <cfRule type="expression" dxfId="206" priority="441">
+    <cfRule type="expression" dxfId="198" priority="441">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63">
-    <cfRule type="expression" dxfId="205" priority="299">
+    <cfRule type="expression" dxfId="197" priority="299">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16 J16:K16">
-    <cfRule type="expression" dxfId="204" priority="438">
+    <cfRule type="expression" dxfId="196" priority="438">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16 J16:K16">
-    <cfRule type="expression" dxfId="203" priority="435">
+    <cfRule type="expression" dxfId="195" priority="435">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="202" priority="436">
+    <cfRule type="expression" dxfId="194" priority="436">
       <formula>K$1=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46 J46:V46">
-    <cfRule type="expression" dxfId="201" priority="330">
+    <cfRule type="expression" dxfId="193" priority="330">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19 E19:H19 J19:V19">
-    <cfRule type="expression" dxfId="200" priority="431">
+    <cfRule type="expression" dxfId="192" priority="431">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66">
-    <cfRule type="expression" dxfId="199" priority="287">
+    <cfRule type="expression" dxfId="191" priority="287">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26 J26:K26">
-    <cfRule type="expression" dxfId="198" priority="393">
+    <cfRule type="expression" dxfId="190" priority="393">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57:J57">
-    <cfRule type="expression" dxfId="197" priority="325">
+    <cfRule type="expression" dxfId="189" priority="325">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20 J20:K20">
-    <cfRule type="expression" dxfId="196" priority="420">
+    <cfRule type="expression" dxfId="188" priority="420">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21 J21:K21">
-    <cfRule type="expression" dxfId="195" priority="415">
+    <cfRule type="expression" dxfId="187" priority="415">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="expression" dxfId="194" priority="320">
+    <cfRule type="expression" dxfId="186" priority="320">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="expression" dxfId="193" priority="319">
+    <cfRule type="expression" dxfId="185" priority="319">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23 J23:K23">
-    <cfRule type="expression" dxfId="192" priority="408">
+    <cfRule type="expression" dxfId="184" priority="408">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59">
-    <cfRule type="expression" dxfId="191" priority="316">
+    <cfRule type="expression" dxfId="183" priority="316">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24 J24:K24">
-    <cfRule type="expression" dxfId="190" priority="403">
+    <cfRule type="expression" dxfId="182" priority="403">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59 J59">
-    <cfRule type="expression" dxfId="189" priority="314">
+    <cfRule type="expression" dxfId="181" priority="314">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25 J25:K25">
-    <cfRule type="expression" dxfId="188" priority="398">
+    <cfRule type="expression" dxfId="180" priority="398">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60">
-    <cfRule type="expression" dxfId="187" priority="311">
+    <cfRule type="expression" dxfId="179" priority="311">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60 J60">
-    <cfRule type="expression" dxfId="186" priority="310">
+    <cfRule type="expression" dxfId="178" priority="310">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61">
-    <cfRule type="expression" dxfId="185" priority="308">
+    <cfRule type="expression" dxfId="177" priority="308">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61">
-    <cfRule type="expression" dxfId="184" priority="307">
+    <cfRule type="expression" dxfId="176" priority="307">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27 J27:K27">
-    <cfRule type="expression" dxfId="183" priority="388">
+    <cfRule type="expression" dxfId="175" priority="388">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62">
-    <cfRule type="expression" dxfId="182" priority="304">
+    <cfRule type="expression" dxfId="174" priority="304">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28 J28:K28">
-    <cfRule type="expression" dxfId="181" priority="383">
+    <cfRule type="expression" dxfId="173" priority="383">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62 J62">
-    <cfRule type="expression" dxfId="180" priority="302">
+    <cfRule type="expression" dxfId="172" priority="302">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <con